--- a/lab1var3.xlsx
+++ b/lab1var3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandr\Downloads\Telegram Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Code\Python\Labs\IAD_Lab_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034CA6A8-91A6-483A-9724-4B1A43983382}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72247C4-FFD1-491D-856A-A1EC9EDCBA87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10530" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lab1var3" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="49">
   <si>
     <t>i</t>
   </si>
@@ -219,6 +219,24 @@
   <si>
     <t>Собственные числа</t>
   </si>
+  <si>
+    <t>собственные вектора</t>
+  </si>
+  <si>
+    <t>Xnorm*V</t>
+  </si>
+  <si>
+    <t>лямбда (диагональная матрица)</t>
+  </si>
+  <si>
+    <t>КОРЕНЬ ИЗ ЛЯМБДА</t>
+  </si>
+  <si>
+    <t>КОРЕНЬ ИЗ ЛЯМБДА В СТЕПЕНИ -1</t>
+  </si>
+  <si>
+    <t>X ТИЛЬДА</t>
+  </si>
 </sst>
 </file>
 
@@ -227,7 +245,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000000000000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,6 +397,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="33">
@@ -722,55 +746,56 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -785,10 +810,59 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>428449</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD0DE6F-BCC2-4BFA-9A38-B921B816DFFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14954250" y="7286625"/>
+          <a:ext cx="1409524" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -826,7 +900,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -932,7 +1006,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1082,15 +1156,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y106"/>
+  <dimension ref="A1:BQ106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N22" workbookViewId="0">
-      <selection activeCell="Y28" sqref="Y28"/>
+    <sheetView tabSelected="1" topLeftCell="AG46" workbookViewId="0">
+      <selection activeCell="AS66" sqref="AS66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="47" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -2442,7 +2518,7 @@
         <v>0.97106558000436161</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2527,7 +2603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2612,7 +2688,7 @@
         <v>0.96844181857880107</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2697,7 +2773,7 @@
         <v>0.91534042352057099</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2782,7 +2858,7 @@
         <v>0.81769457835344628</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2867,7 +2943,7 @@
         <v>0.68114301606104111</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2952,7 +3028,7 @@
         <v>0.46158777147999647</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3037,7 +3113,7 @@
         <v>0.4774679452847122</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3122,7 +3198,7 @@
         <v>0.68863651732495512</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3207,7 +3283,7 @@
         <v>0.90310504073590703</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:69" x14ac:dyDescent="0.25">
       <c r="B26">
         <f>AVERAGE(B2:B25)</f>
         <v>9.3680669583333844E-3</v>
@@ -3289,7 +3365,7 @@
         <v>0.52438899724266519</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -3329,8 +3405,47 @@
       <c r="Y27" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>45</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>46</v>
+      </c>
+      <c r="BH27">
+        <v>1</v>
+      </c>
+      <c r="BI27">
+        <v>2</v>
+      </c>
+      <c r="BJ27">
+        <v>3</v>
+      </c>
+      <c r="BK27">
+        <v>4</v>
+      </c>
+      <c r="BL27">
+        <v>5</v>
+      </c>
+      <c r="BM27">
+        <v>6</v>
+      </c>
+      <c r="BN27">
+        <v>7</v>
+      </c>
+      <c r="BO27">
+        <v>8</v>
+      </c>
+      <c r="BP27">
+        <v>9</v>
+      </c>
+      <c r="BQ27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -3417,8 +3532,132 @@
       <c r="Y28" s="3">
         <v>50009050.100000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA28" s="4">
+        <v>7.6421869917367262E-4</v>
+      </c>
+      <c r="AB28" s="4">
+        <v>-2.1625773748320969E-2</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>-2.6463632279632818E-2</v>
+      </c>
+      <c r="AD28" s="4">
+        <v>7.5016069598718538E-2</v>
+      </c>
+      <c r="AE28" s="4">
+        <v>-2.0785348712973463E-3</v>
+      </c>
+      <c r="AF28" s="4">
+        <v>-1.0181122062860846E-2</v>
+      </c>
+      <c r="AG28" s="4">
+        <v>-0.99644182735796827</v>
+      </c>
+      <c r="AH28" s="4">
+        <v>7.9638666408049022E-3</v>
+      </c>
+      <c r="AI28" s="4">
+        <v>9.9236441480231516E-3</v>
+      </c>
+      <c r="AJ28" s="4">
+        <v>-6.1493577623212888E-3</v>
+      </c>
+      <c r="AL28" s="4">
+        <f>AA39</f>
+        <v>50009050.145131566</v>
+      </c>
+      <c r="AM28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="4"/>
+      <c r="AW28">
+        <f>(50009050.1451316)^(1/2)</f>
+        <v>7071.7077248095884</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
+        <v>0</v>
+      </c>
+      <c r="BC28">
+        <v>0</v>
+      </c>
+      <c r="BD28">
+        <v>0</v>
+      </c>
+      <c r="BE28">
+        <v>0</v>
+      </c>
+      <c r="BF28">
+        <v>0</v>
+      </c>
+      <c r="BH28">
+        <f t="array" ref="BH28:BQ37">MMULT(AW28:BF37,AW28:BF37)</f>
+        <v>50009050.145131603</v>
+      </c>
+      <c r="BI28">
+        <v>0</v>
+      </c>
+      <c r="BJ28">
+        <v>0</v>
+      </c>
+      <c r="BK28">
+        <v>0</v>
+      </c>
+      <c r="BL28">
+        <v>0</v>
+      </c>
+      <c r="BM28">
+        <v>0</v>
+      </c>
+      <c r="BN28">
+        <v>0</v>
+      </c>
+      <c r="BO28">
+        <v>0</v>
+      </c>
+      <c r="BP28">
+        <v>0</v>
+      </c>
+      <c r="BQ28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -3505,8 +3744,130 @@
       <c r="Y29" s="3">
         <v>184346.83199999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA29" s="4">
+        <v>-2.6958004755817302E-3</v>
+      </c>
+      <c r="AB29" s="4">
+        <v>0.42359040495826639</v>
+      </c>
+      <c r="AC29" s="4">
+        <v>-8.5263386594895268E-2</v>
+      </c>
+      <c r="AD29" s="4">
+        <v>-0.10549524054765567</v>
+      </c>
+      <c r="AE29" s="4">
+        <v>0.57333944452811147</v>
+      </c>
+      <c r="AF29" s="4">
+        <v>0.6788899243980695</v>
+      </c>
+      <c r="AG29" s="4">
+        <v>-2.2696264960982187E-2</v>
+      </c>
+      <c r="AH29" s="4">
+        <v>2.8552412316939214E-2</v>
+      </c>
+      <c r="AI29" s="4">
+        <v>6.1560380645431956E-2</v>
+      </c>
+      <c r="AJ29" s="4">
+        <v>8.622714976635322E-2</v>
+      </c>
+      <c r="AL29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="4">
+        <f>AB39</f>
+        <v>184346.83233628247</v>
+      </c>
+      <c r="AN29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>0</v>
+      </c>
+      <c r="AX29">
+        <f>(184346.832336282)^(1/2)</f>
+        <v>429.35629998438594</v>
+      </c>
+      <c r="AY29">
+        <v>0</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>0</v>
+      </c>
+      <c r="BC29">
+        <v>0</v>
+      </c>
+      <c r="BD29">
+        <v>0</v>
+      </c>
+      <c r="BE29">
+        <v>0</v>
+      </c>
+      <c r="BF29">
+        <v>0</v>
+      </c>
+      <c r="BH29">
+        <v>0</v>
+      </c>
+      <c r="BI29">
+        <v>184346.83233628201</v>
+      </c>
+      <c r="BJ29">
+        <v>0</v>
+      </c>
+      <c r="BK29">
+        <v>0</v>
+      </c>
+      <c r="BL29">
+        <v>0</v>
+      </c>
+      <c r="BM29">
+        <v>0</v>
+      </c>
+      <c r="BN29">
+        <v>0</v>
+      </c>
+      <c r="BO29">
+        <v>0</v>
+      </c>
+      <c r="BP29">
+        <v>0</v>
+      </c>
+      <c r="BQ29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -3593,8 +3954,130 @@
       <c r="Y30" s="3">
         <v>127355.526</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA30" s="4">
+        <v>-1.3658431549882603E-2</v>
+      </c>
+      <c r="AB30" s="4">
+        <v>0.88328210374430205</v>
+      </c>
+      <c r="AC30" s="4">
+        <v>-0.16191816624682784</v>
+      </c>
+      <c r="AD30" s="4">
+        <v>9.3917730430442284E-2</v>
+      </c>
+      <c r="AE30" s="4">
+        <v>-0.31898905147368389</v>
+      </c>
+      <c r="AF30" s="4">
+        <v>-0.28773004200851776</v>
+      </c>
+      <c r="AG30" s="4">
+        <v>-4.2252695747157943E-3</v>
+      </c>
+      <c r="AH30" s="4">
+        <v>3.3374171026884125E-3</v>
+      </c>
+      <c r="AI30" s="4">
+        <v>-3.5617274821646409E-3</v>
+      </c>
+      <c r="AJ30" s="4">
+        <v>1.9673865592384127E-3</v>
+      </c>
+      <c r="AL30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="4">
+        <f>AC39</f>
+        <v>127355.52637538553</v>
+      </c>
+      <c r="AO30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>0</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <f>(127355.526375386)^(1/2)</f>
+        <v>356.86906054656237</v>
+      </c>
+      <c r="AZ30">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>0</v>
+      </c>
+      <c r="BB30">
+        <v>0</v>
+      </c>
+      <c r="BC30">
+        <v>0</v>
+      </c>
+      <c r="BD30">
+        <v>0</v>
+      </c>
+      <c r="BE30">
+        <v>0</v>
+      </c>
+      <c r="BF30">
+        <v>0</v>
+      </c>
+      <c r="BH30">
+        <v>0</v>
+      </c>
+      <c r="BI30">
+        <v>0</v>
+      </c>
+      <c r="BJ30">
+        <v>127355.52637538599</v>
+      </c>
+      <c r="BK30">
+        <v>0</v>
+      </c>
+      <c r="BL30">
+        <v>0</v>
+      </c>
+      <c r="BM30">
+        <v>0</v>
+      </c>
+      <c r="BN30">
+        <v>0</v>
+      </c>
+      <c r="BO30">
+        <v>0</v>
+      </c>
+      <c r="BP30">
+        <v>0</v>
+      </c>
+      <c r="BQ30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4</v>
       </c>
@@ -3681,8 +4164,130 @@
       <c r="Y31" s="3">
         <v>14112.2788</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA31" s="4">
+        <v>-0.99983015594465108</v>
+      </c>
+      <c r="AB31" s="4">
+        <v>-1.1138627462952487E-2</v>
+      </c>
+      <c r="AC31" s="4">
+        <v>1.3021368271276148E-2</v>
+      </c>
+      <c r="AD31" s="4">
+        <v>-6.0091843706967588E-3</v>
+      </c>
+      <c r="AE31" s="4">
+        <v>1.346843669104665E-3</v>
+      </c>
+      <c r="AF31" s="4">
+        <v>2.5052363261668874E-3</v>
+      </c>
+      <c r="AG31" s="4">
+        <v>-1.3506188085311299E-3</v>
+      </c>
+      <c r="AH31" s="4">
+        <v>5.2383567016353815E-5</v>
+      </c>
+      <c r="AI31" s="4">
+        <v>1.6530173629269199E-5</v>
+      </c>
+      <c r="AJ31" s="4">
+        <v>-8.0796715225430913E-5</v>
+      </c>
+      <c r="AL31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="4">
+        <f>AD39</f>
+        <v>14112.278793894246</v>
+      </c>
+      <c r="AP31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>0</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>0</v>
+      </c>
+      <c r="AZ31">
+        <f>(14112.2787938942)^(1/2)</f>
+        <v>118.79511266838463</v>
+      </c>
+      <c r="BA31">
+        <v>0</v>
+      </c>
+      <c r="BB31">
+        <v>0</v>
+      </c>
+      <c r="BC31">
+        <v>0</v>
+      </c>
+      <c r="BD31">
+        <v>0</v>
+      </c>
+      <c r="BE31">
+        <v>0</v>
+      </c>
+      <c r="BF31">
+        <v>0</v>
+      </c>
+      <c r="BH31">
+        <v>0</v>
+      </c>
+      <c r="BI31">
+        <v>0</v>
+      </c>
+      <c r="BJ31">
+        <v>0</v>
+      </c>
+      <c r="BK31">
+        <v>14112.278793894198</v>
+      </c>
+      <c r="BL31">
+        <v>0</v>
+      </c>
+      <c r="BM31">
+        <v>0</v>
+      </c>
+      <c r="BN31">
+        <v>0</v>
+      </c>
+      <c r="BO31">
+        <v>0</v>
+      </c>
+      <c r="BP31">
+        <v>0</v>
+      </c>
+      <c r="BQ31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5</v>
       </c>
@@ -3769,8 +4374,130 @@
       <c r="Y32" s="3">
         <v>2732.5305400000002</v>
       </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA32" s="4">
+        <v>-2.5905346411702761E-4</v>
+      </c>
+      <c r="AB32" s="4">
+        <v>4.7217575860195253E-2</v>
+      </c>
+      <c r="AC32" s="4">
+        <v>-8.9587248029735882E-3</v>
+      </c>
+      <c r="AD32" s="4">
+        <v>-1.0225584241618232E-2</v>
+      </c>
+      <c r="AE32" s="4">
+        <v>6.0827320720889588E-2</v>
+      </c>
+      <c r="AF32" s="4">
+        <v>7.6332908258541846E-2</v>
+      </c>
+      <c r="AG32" s="4">
+        <v>-4.5704714669643721E-3</v>
+      </c>
+      <c r="AH32" s="4">
+        <v>-0.29091382084554585</v>
+      </c>
+      <c r="AI32" s="4">
+        <v>-0.48471794849141142</v>
+      </c>
+      <c r="AJ32" s="4">
+        <v>-0.8175914054762693</v>
+      </c>
+      <c r="AL32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="4">
+        <f>AE39</f>
+        <v>2732.5305363194816</v>
+      </c>
+      <c r="AQ32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>0</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>0</v>
+      </c>
+      <c r="AZ32">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <f>(2732.53053631948)^(1/2)</f>
+        <v>52.273612237145805</v>
+      </c>
+      <c r="BB32">
+        <v>0</v>
+      </c>
+      <c r="BC32">
+        <v>0</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+      <c r="BE32">
+        <v>0</v>
+      </c>
+      <c r="BF32">
+        <v>0</v>
+      </c>
+      <c r="BH32">
+        <v>0</v>
+      </c>
+      <c r="BI32">
+        <v>0</v>
+      </c>
+      <c r="BJ32">
+        <v>0</v>
+      </c>
+      <c r="BK32">
+        <v>0</v>
+      </c>
+      <c r="BL32">
+        <v>2732.5305363194798</v>
+      </c>
+      <c r="BM32">
+        <v>0</v>
+      </c>
+      <c r="BN32">
+        <v>0</v>
+      </c>
+      <c r="BO32">
+        <v>0</v>
+      </c>
+      <c r="BP32">
+        <v>0</v>
+      </c>
+      <c r="BQ32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6</v>
       </c>
@@ -3857,8 +4584,130 @@
       <c r="Y33" s="3">
         <v>1836.4939300000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA33" s="4">
+        <v>-1.0135584407069345E-2</v>
+      </c>
+      <c r="AB33" s="4">
+        <v>-0.18544678774275397</v>
+      </c>
+      <c r="AC33" s="4">
+        <v>-0.96980700550488508</v>
+      </c>
+      <c r="AD33" s="4">
+        <v>-6.9074557135322623E-2</v>
+      </c>
+      <c r="AE33" s="4">
+        <v>-0.11372693697828794</v>
+      </c>
+      <c r="AF33" s="4">
+        <v>7.9934197125526019E-2</v>
+      </c>
+      <c r="AG33" s="4">
+        <v>2.3850692446161153E-2</v>
+      </c>
+      <c r="AH33" s="4">
+        <v>-1.7120235275107799E-2</v>
+      </c>
+      <c r="AI33" s="4">
+        <v>2.1613790999344346E-3</v>
+      </c>
+      <c r="AJ33" s="4">
+        <v>4.462607377813007E-3</v>
+      </c>
+      <c r="AL33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="4">
+        <f>AF39</f>
+        <v>1836.4939320498202</v>
+      </c>
+      <c r="AR33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>0</v>
+      </c>
+      <c r="AZ33">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>0</v>
+      </c>
+      <c r="BB33">
+        <f>(1836.49393204982)^(1/2)</f>
+        <v>42.854333877098355</v>
+      </c>
+      <c r="BC33">
+        <v>0</v>
+      </c>
+      <c r="BD33">
+        <v>0</v>
+      </c>
+      <c r="BE33">
+        <v>0</v>
+      </c>
+      <c r="BF33">
+        <v>0</v>
+      </c>
+      <c r="BH33">
+        <v>0</v>
+      </c>
+      <c r="BI33">
+        <v>0</v>
+      </c>
+      <c r="BJ33">
+        <v>0</v>
+      </c>
+      <c r="BK33">
+        <v>0</v>
+      </c>
+      <c r="BL33">
+        <v>0</v>
+      </c>
+      <c r="BM33">
+        <v>1836.4939320498197</v>
+      </c>
+      <c r="BN33">
+        <v>0</v>
+      </c>
+      <c r="BO33">
+        <v>0</v>
+      </c>
+      <c r="BP33">
+        <v>0</v>
+      </c>
+      <c r="BQ33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>7</v>
       </c>
@@ -3945,8 +4794,130 @@
       <c r="Y34" s="3">
         <v>169.07098999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA34" s="4">
+        <v>-1.1235617444031736E-5</v>
+      </c>
+      <c r="AB34" s="4">
+        <v>1.768272858468198E-4</v>
+      </c>
+      <c r="AC34" s="4">
+        <v>1.9156151301590022E-5</v>
+      </c>
+      <c r="AD34" s="4">
+        <v>-9.6637370798348127E-4</v>
+      </c>
+      <c r="AE34" s="4">
+        <v>7.6997099676753616E-3</v>
+      </c>
+      <c r="AF34" s="4">
+        <v>5.8254105940884898E-3</v>
+      </c>
+      <c r="AG34" s="4">
+        <v>-1.1976018034260674E-2</v>
+      </c>
+      <c r="AH34" s="4">
+        <v>-1.3874317144879534E-2</v>
+      </c>
+      <c r="AI34" s="4">
+        <v>-0.85729873699402448</v>
+      </c>
+      <c r="AJ34" s="4">
+        <v>0.51440136788654389</v>
+      </c>
+      <c r="AL34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="4">
+        <f>AG39</f>
+        <v>169.07098993109574</v>
+      </c>
+      <c r="AS34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>0</v>
+      </c>
+      <c r="BB34">
+        <v>0</v>
+      </c>
+      <c r="BC34">
+        <f>(169.070989931096)^(1/2)</f>
+        <v>13.002730095295219</v>
+      </c>
+      <c r="BD34">
+        <v>0</v>
+      </c>
+      <c r="BE34">
+        <v>0</v>
+      </c>
+      <c r="BF34">
+        <v>0</v>
+      </c>
+      <c r="BH34">
+        <v>0</v>
+      </c>
+      <c r="BI34">
+        <v>0</v>
+      </c>
+      <c r="BJ34">
+        <v>0</v>
+      </c>
+      <c r="BK34">
+        <v>0</v>
+      </c>
+      <c r="BL34">
+        <v>0</v>
+      </c>
+      <c r="BM34">
+        <v>0</v>
+      </c>
+      <c r="BN34">
+        <v>169.07098993109599</v>
+      </c>
+      <c r="BO34">
+        <v>0</v>
+      </c>
+      <c r="BP34">
+        <v>0</v>
+      </c>
+      <c r="BQ34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>8</v>
       </c>
@@ -4033,8 +5004,130 @@
       <c r="Y35" s="3">
         <v>0.95570596500000005</v>
       </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA35" s="4">
+        <v>-1.1931551589348042E-4</v>
+      </c>
+      <c r="AB35" s="4">
+        <v>-4.3872862090371745E-3</v>
+      </c>
+      <c r="AC35" s="4">
+        <v>-1.8093191139549217E-2</v>
+      </c>
+      <c r="AD35" s="4">
+        <v>-1.9917535181023026E-4</v>
+      </c>
+      <c r="AE35" s="4">
+        <v>6.9183992785330261E-3</v>
+      </c>
+      <c r="AF35" s="4">
+        <v>2.9029388530055276E-4</v>
+      </c>
+      <c r="AG35" s="4">
+        <v>8.0769680107638901E-3</v>
+      </c>
+      <c r="AH35" s="4">
+        <v>0.95599508479840078</v>
+      </c>
+      <c r="AI35" s="4">
+        <v>-0.16180186321673373</v>
+      </c>
+      <c r="AJ35" s="4">
+        <v>-0.24379028532306876</v>
+      </c>
+      <c r="AL35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS35" s="4">
+        <f>AH39</f>
+        <v>0.95570596542795327</v>
+      </c>
+      <c r="AT35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>0</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>0</v>
+      </c>
+      <c r="AZ35">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>0</v>
+      </c>
+      <c r="BB35">
+        <v>0</v>
+      </c>
+      <c r="BC35">
+        <v>0</v>
+      </c>
+      <c r="BD35">
+        <f>(0.955705965427953)^(1/2)</f>
+        <v>0.97760215089163605</v>
+      </c>
+      <c r="BE35">
+        <v>0</v>
+      </c>
+      <c r="BF35">
+        <v>0</v>
+      </c>
+      <c r="BH35">
+        <v>0</v>
+      </c>
+      <c r="BI35">
+        <v>0</v>
+      </c>
+      <c r="BJ35">
+        <v>0</v>
+      </c>
+      <c r="BK35">
+        <v>0</v>
+      </c>
+      <c r="BL35">
+        <v>0</v>
+      </c>
+      <c r="BM35">
+        <v>0</v>
+      </c>
+      <c r="BN35">
+        <v>0</v>
+      </c>
+      <c r="BO35">
+        <v>0.95570596542795316</v>
+      </c>
+      <c r="BP35">
+        <v>0</v>
+      </c>
+      <c r="BQ35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>9</v>
       </c>
@@ -4121,8 +5214,130 @@
       <c r="Y36" s="3">
         <v>1.41340621</v>
       </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA36" s="4">
+        <v>-2.2952595942351368E-3</v>
+      </c>
+      <c r="AB36" s="4">
+        <v>3.0401986722364462E-2</v>
+      </c>
+      <c r="AC36" s="4">
+        <v>-0.13928734963920492</v>
+      </c>
+      <c r="AD36" s="4">
+        <v>-9.0655794991727198E-2</v>
+      </c>
+      <c r="AE36" s="4">
+        <v>0.72771959078911497</v>
+      </c>
+      <c r="AF36" s="4">
+        <v>-0.66468703385151873</v>
+      </c>
+      <c r="AG36" s="4">
+        <v>1.4466374801806233E-3</v>
+      </c>
+      <c r="AH36" s="4">
+        <v>-7.7593158855446829E-3</v>
+      </c>
+      <c r="AI36" s="4">
+        <v>1.3143588244328996E-3</v>
+      </c>
+      <c r="AJ36" s="4">
+        <v>-1.5260998444688641E-3</v>
+      </c>
+      <c r="AL36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT36" s="4">
+        <f>AI39</f>
+        <v>1.4134062103621887</v>
+      </c>
+      <c r="AU36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AW36">
+        <v>0</v>
+      </c>
+      <c r="AX36">
+        <v>0</v>
+      </c>
+      <c r="AY36">
+        <v>0</v>
+      </c>
+      <c r="AZ36">
+        <v>0</v>
+      </c>
+      <c r="BA36">
+        <v>0</v>
+      </c>
+      <c r="BB36">
+        <v>0</v>
+      </c>
+      <c r="BC36">
+        <v>0</v>
+      </c>
+      <c r="BD36">
+        <v>0</v>
+      </c>
+      <c r="BE36">
+        <f>(1.41340621036219)^(1/2)</f>
+        <v>1.1888676168363701</v>
+      </c>
+      <c r="BF36">
+        <v>0</v>
+      </c>
+      <c r="BH36">
+        <v>0</v>
+      </c>
+      <c r="BI36">
+        <v>0</v>
+      </c>
+      <c r="BJ36">
+        <v>0</v>
+      </c>
+      <c r="BK36">
+        <v>0</v>
+      </c>
+      <c r="BL36">
+        <v>0</v>
+      </c>
+      <c r="BM36">
+        <v>0</v>
+      </c>
+      <c r="BN36">
+        <v>0</v>
+      </c>
+      <c r="BO36">
+        <v>0</v>
+      </c>
+      <c r="BP36">
+        <v>1.4134062103621901</v>
+      </c>
+      <c r="BQ36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>10</v>
       </c>
@@ -4209,8 +5424,130 @@
       <c r="Y37" s="3">
         <v>1.856517</v>
       </c>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA37" s="4">
+        <v>6.0971617873317339E-3</v>
+      </c>
+      <c r="AB37" s="4">
+        <v>4.7207838557856187E-2</v>
+      </c>
+      <c r="AC37" s="4">
+        <v>7.2859907370336222E-2</v>
+      </c>
+      <c r="AD37" s="4">
+        <v>-0.98045468503479372</v>
+      </c>
+      <c r="AE37" s="4">
+        <v>-0.15233187569267992</v>
+      </c>
+      <c r="AF37" s="4">
+        <v>-4.6377803077359704E-2</v>
+      </c>
+      <c r="AG37" s="4">
+        <v>-7.59498996338656E-2</v>
+      </c>
+      <c r="AH37" s="4">
+        <v>2.6336380306405862E-3</v>
+      </c>
+      <c r="AI37" s="4">
+        <v>-5.4641128965975095E-4</v>
+      </c>
+      <c r="AJ37" s="4">
+        <v>-1.6632043901641371E-3</v>
+      </c>
+      <c r="AL37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AP37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AR37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AS37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AT37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AU37" s="4">
+        <f>AJ39</f>
+        <v>1.8565170028856206</v>
+      </c>
+      <c r="AW37">
+        <v>0</v>
+      </c>
+      <c r="AX37">
+        <v>0</v>
+      </c>
+      <c r="AY37">
+        <v>0</v>
+      </c>
+      <c r="AZ37">
+        <v>0</v>
+      </c>
+      <c r="BA37">
+        <v>0</v>
+      </c>
+      <c r="BB37">
+        <v>0</v>
+      </c>
+      <c r="BC37">
+        <v>0</v>
+      </c>
+      <c r="BD37">
+        <v>0</v>
+      </c>
+      <c r="BE37">
+        <v>0</v>
+      </c>
+      <c r="BF37">
+        <f>(1.85651700288562)^(1/2)</f>
+        <v>1.3625406426546036</v>
+      </c>
+      <c r="BH37">
+        <v>0</v>
+      </c>
+      <c r="BI37">
+        <v>0</v>
+      </c>
+      <c r="BJ37">
+        <v>0</v>
+      </c>
+      <c r="BK37">
+        <v>0</v>
+      </c>
+      <c r="BL37">
+        <v>0</v>
+      </c>
+      <c r="BM37">
+        <v>0</v>
+      </c>
+      <c r="BN37">
+        <v>0</v>
+      </c>
+      <c r="BO37">
+        <v>0</v>
+      </c>
+      <c r="BP37">
+        <v>0</v>
+      </c>
+      <c r="BQ37">
+        <v>1.8565170028856202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>11</v>
       </c>
@@ -4255,7 +5592,7 @@
         <v>-0.13563276488687243</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>12</v>
       </c>
@@ -4299,8 +5636,38 @@
         <f t="shared" si="24"/>
         <v>-0.16545358520903952</v>
       </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA39" s="4">
+        <v>50009050.145131566</v>
+      </c>
+      <c r="AB39" s="4">
+        <v>184346.83233628247</v>
+      </c>
+      <c r="AC39" s="4">
+        <v>127355.52637538553</v>
+      </c>
+      <c r="AD39" s="4">
+        <v>14112.278793894246</v>
+      </c>
+      <c r="AE39" s="4">
+        <v>2732.5305363194816</v>
+      </c>
+      <c r="AF39" s="4">
+        <v>1836.4939320498202</v>
+      </c>
+      <c r="AG39" s="4">
+        <v>169.07098993109574</v>
+      </c>
+      <c r="AH39" s="4">
+        <v>0.95570596542795327</v>
+      </c>
+      <c r="AI39" s="4">
+        <v>1.4134062103621887</v>
+      </c>
+      <c r="AJ39" s="4">
+        <v>1.8565170028856206</v>
+      </c>
+    </row>
+    <row r="40" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>13</v>
       </c>
@@ -4345,7 +5712,7 @@
         <v>0.25645511662691778</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>14</v>
       </c>
@@ -4390,7 +5757,7 @@
         <v>-0.23611766153831976</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>15</v>
       </c>
@@ -4434,8 +5801,20 @@
         <f t="shared" si="24"/>
         <v>-0.48507384640621981</v>
       </c>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z42" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>16</v>
       </c>
@@ -4479,8 +5858,104 @@
         <f t="shared" si="24"/>
         <v>-0.52438899724266519</v>
       </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z43">
+        <v>1</v>
+      </c>
+      <c r="AA43">
+        <f t="array" ref="AA43:AJ66">MMULT(N2:W25,AA28:AJ37)</f>
+        <v>-0.69778648198621662</v>
+      </c>
+      <c r="AB43">
+        <v>4.5819044748571278E-2</v>
+      </c>
+      <c r="AC43">
+        <v>-0.93132425066739954</v>
+      </c>
+      <c r="AD43">
+        <v>-0.49842722746037638</v>
+      </c>
+      <c r="AE43">
+        <v>0.35808814791623739</v>
+      </c>
+      <c r="AF43">
+        <v>-0.5369903795460671</v>
+      </c>
+      <c r="AG43">
+        <v>-0.75871295850305331</v>
+      </c>
+      <c r="AH43">
+        <v>0.68094139870210335</v>
+      </c>
+      <c r="AI43">
+        <v>-0.93899870967623944</v>
+      </c>
+      <c r="AJ43">
+        <v>0.31445763625118001</v>
+      </c>
+      <c r="AL43">
+        <f t="array" ref="AL43:AU66">MMULT(AA43:AJ66,AW43:BF52)</f>
+        <v>-9.8672981002619856E-5</v>
+      </c>
+      <c r="AM43">
+        <v>1.0671566889838938E-4</v>
+      </c>
+      <c r="AN43">
+        <v>-2.6097085839860454E-3</v>
+      </c>
+      <c r="AO43">
+        <v>-4.19568798972169E-3</v>
+      </c>
+      <c r="AP43">
+        <v>6.8502659868180816E-3</v>
+      </c>
+      <c r="AQ43">
+        <v>-1.253059681399081E-2</v>
+      </c>
+      <c r="AR43">
+        <v>-5.8350281282665291E-2</v>
+      </c>
+      <c r="AS43">
+        <v>0.6965424514267291</v>
+      </c>
+      <c r="AT43">
+        <v>-0.78982613066285468</v>
+      </c>
+      <c r="AU43">
+        <v>0.23078771113831154</v>
+      </c>
+      <c r="AW43">
+        <f t="array" ref="AW43:BF52">MINVERSE(AW28:BF37)</f>
+        <v>1.4140855913653103E-4</v>
+      </c>
+      <c r="AX43">
+        <v>0</v>
+      </c>
+      <c r="AY43">
+        <v>0</v>
+      </c>
+      <c r="AZ43">
+        <v>0</v>
+      </c>
+      <c r="BA43">
+        <v>0</v>
+      </c>
+      <c r="BB43">
+        <v>0</v>
+      </c>
+      <c r="BC43">
+        <v>0</v>
+      </c>
+      <c r="BD43">
+        <v>0</v>
+      </c>
+      <c r="BE43">
+        <v>0</v>
+      </c>
+      <c r="BF43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>17</v>
       </c>
@@ -4524,8 +5999,101 @@
         <f t="shared" si="24"/>
         <v>-0.31596344763741224</v>
       </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z44">
+        <v>2</v>
+      </c>
+      <c r="AA44">
+        <v>-4.9949912408099213E-2</v>
+      </c>
+      <c r="AB44">
+        <v>5.861455499781773E-4</v>
+      </c>
+      <c r="AC44">
+        <v>-0.44054149961494848</v>
+      </c>
+      <c r="AD44">
+        <v>-0.95900113551866395</v>
+      </c>
+      <c r="AE44">
+        <v>0.41348809117809343</v>
+      </c>
+      <c r="AF44">
+        <v>-0.49696943113593245</v>
+      </c>
+      <c r="AG44">
+        <v>-0.98123000799433646</v>
+      </c>
+      <c r="AH44">
+        <v>0.38488101532176144</v>
+      </c>
+      <c r="AI44">
+        <v>-0.31133806588355195</v>
+      </c>
+      <c r="AJ44">
+        <v>-5.0149475175313242E-2</v>
+      </c>
+      <c r="AL44">
+        <v>-7.0633451426252427E-6</v>
+      </c>
+      <c r="AM44">
+        <v>1.3651728180056825E-6</v>
+      </c>
+      <c r="AN44">
+        <v>-1.2344625755458815E-3</v>
+      </c>
+      <c r="AO44">
+        <v>-8.0727322360113086E-3</v>
+      </c>
+      <c r="AP44">
+        <v>7.9100730460763408E-3</v>
+      </c>
+      <c r="AQ44">
+        <v>-1.1596713475028865E-2</v>
+      </c>
+      <c r="AR44">
+        <v>-7.5463383520463528E-2</v>
+      </c>
+      <c r="AS44">
+        <v>0.393699026716262</v>
+      </c>
+      <c r="AT44">
+        <v>-0.2618778251459456</v>
+      </c>
+      <c r="AU44">
+        <v>-3.6805856357875887E-2</v>
+      </c>
+      <c r="AW44">
+        <v>0</v>
+      </c>
+      <c r="AX44">
+        <v>2.3290679559991694E-3</v>
+      </c>
+      <c r="AY44">
+        <v>0</v>
+      </c>
+      <c r="AZ44">
+        <v>0</v>
+      </c>
+      <c r="BA44">
+        <v>0</v>
+      </c>
+      <c r="BB44">
+        <v>0</v>
+      </c>
+      <c r="BC44">
+        <v>0</v>
+      </c>
+      <c r="BD44">
+        <v>0</v>
+      </c>
+      <c r="BE44">
+        <v>0</v>
+      </c>
+      <c r="BF44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>18</v>
       </c>
@@ -4569,8 +6137,101 @@
         <f t="shared" si="24"/>
         <v>-0.22133360217182763</v>
       </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z45">
+        <v>3</v>
+      </c>
+      <c r="AA45">
+        <v>-5.7161912754764652E-3</v>
+      </c>
+      <c r="AB45">
+        <v>-4.1366213236759264E-2</v>
+      </c>
+      <c r="AC45">
+        <v>-0.9428224398874987</v>
+      </c>
+      <c r="AD45">
+        <v>-0.88479658589724641</v>
+      </c>
+      <c r="AE45">
+        <v>0.48753836557579999</v>
+      </c>
+      <c r="AF45">
+        <v>-0.52711767624039851</v>
+      </c>
+      <c r="AG45">
+        <v>-1.0373645170346131</v>
+      </c>
+      <c r="AH45">
+        <v>0.84515471726835711</v>
+      </c>
+      <c r="AI45">
+        <v>-0.50950136800138179</v>
+      </c>
+      <c r="AJ45">
+        <v>-0.13529540945696314</v>
+      </c>
+      <c r="AL45">
+        <v>-8.0831837201393644E-7</v>
+      </c>
+      <c r="AM45">
+        <v>-9.6344721710764675E-5</v>
+      </c>
+      <c r="AN45">
+        <v>-2.6419282143526823E-3</v>
+      </c>
+      <c r="AO45">
+        <v>-7.4480891176655325E-3</v>
+      </c>
+      <c r="AP45">
+        <v>9.3266630085562276E-3</v>
+      </c>
+      <c r="AQ45">
+        <v>-1.2300218637212181E-2</v>
+      </c>
+      <c r="AR45">
+        <v>-7.9780516047930808E-2</v>
+      </c>
+      <c r="AS45">
+        <v>0.86451806238102236</v>
+      </c>
+      <c r="AT45">
+        <v>-0.42856022048711173</v>
+      </c>
+      <c r="AU45">
+        <v>-9.9296421127938253E-2</v>
+      </c>
+      <c r="AW45">
+        <v>0</v>
+      </c>
+      <c r="AX45">
+        <v>0</v>
+      </c>
+      <c r="AY45">
+        <v>2.8021482121998787E-3</v>
+      </c>
+      <c r="AZ45">
+        <v>0</v>
+      </c>
+      <c r="BA45">
+        <v>0</v>
+      </c>
+      <c r="BB45">
+        <v>0</v>
+      </c>
+      <c r="BC45">
+        <v>0</v>
+      </c>
+      <c r="BD45">
+        <v>0</v>
+      </c>
+      <c r="BE45">
+        <v>0</v>
+      </c>
+      <c r="BF45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>19</v>
       </c>
@@ -4614,8 +6275,101 @@
         <f t="shared" si="24"/>
         <v>-4.0851535089822644E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z46">
+        <v>4</v>
+      </c>
+      <c r="AA46">
+        <v>-0.7902874468755331</v>
+      </c>
+      <c r="AB46">
+        <v>0.16770439836048934</v>
+      </c>
+      <c r="AC46">
+        <v>-1.0556904808531853</v>
+      </c>
+      <c r="AD46">
+        <v>-0.55781879650115063</v>
+      </c>
+      <c r="AE46">
+        <v>0.35152740749432865</v>
+      </c>
+      <c r="AF46">
+        <v>-0.45969178398262278</v>
+      </c>
+      <c r="AG46">
+        <v>-0.96784370011396659</v>
+      </c>
+      <c r="AH46">
+        <v>0.86682056582717093</v>
+      </c>
+      <c r="AI46">
+        <v>-0.29363560318871362</v>
+      </c>
+      <c r="AJ46">
+        <v>-0.26760349534194305</v>
+      </c>
+      <c r="AL46">
+        <v>-1.1175340916635695E-4</v>
+      </c>
+      <c r="AM46">
+        <v>3.9059494030153533E-4</v>
+      </c>
+      <c r="AN46">
+        <v>-2.9582011935591836E-3</v>
+      </c>
+      <c r="AO46">
+        <v>-4.695637589555525E-3</v>
+      </c>
+      <c r="AP46">
+        <v>6.724758294865494E-3</v>
+      </c>
+      <c r="AQ46">
+        <v>-1.0726844694423898E-2</v>
+      </c>
+      <c r="AR46">
+        <v>-7.4433883732168041E-2</v>
+      </c>
+      <c r="AS46">
+        <v>0.88668029733422205</v>
+      </c>
+      <c r="AT46">
+        <v>-0.24698763683217406</v>
+      </c>
+      <c r="AU46">
+        <v>-0.19640037659396192</v>
+      </c>
+      <c r="AW46">
+        <v>0</v>
+      </c>
+      <c r="AX46">
+        <v>0</v>
+      </c>
+      <c r="AY46">
+        <v>0</v>
+      </c>
+      <c r="AZ46">
+        <v>8.4178547209386462E-3</v>
+      </c>
+      <c r="BA46">
+        <v>0</v>
+      </c>
+      <c r="BB46">
+        <v>0</v>
+      </c>
+      <c r="BC46">
+        <v>0</v>
+      </c>
+      <c r="BD46">
+        <v>0</v>
+      </c>
+      <c r="BE46">
+        <v>0</v>
+      </c>
+      <c r="BF46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>20</v>
       </c>
@@ -4659,8 +6413,101 @@
         <f t="shared" si="24"/>
         <v>4.1497303541213504E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z47">
+        <v>5</v>
+      </c>
+      <c r="AA47">
+        <v>-0.69612970978136612</v>
+      </c>
+      <c r="AB47">
+        <v>1.4738704305948602E-2</v>
+      </c>
+      <c r="AC47">
+        <v>-0.98523676392423298</v>
+      </c>
+      <c r="AD47">
+        <v>-0.19168879693312804</v>
+      </c>
+      <c r="AE47">
+        <v>0.45888163223868134</v>
+      </c>
+      <c r="AF47">
+        <v>-0.30535386896237038</v>
+      </c>
+      <c r="AG47">
+        <v>-0.79394898705453243</v>
+      </c>
+      <c r="AH47">
+        <v>0.73903269556474671</v>
+      </c>
+      <c r="AI47">
+        <v>-0.92666680459606299</v>
+      </c>
+      <c r="AJ47">
+        <v>9.3301572087269871E-2</v>
+      </c>
+      <c r="AL47">
+        <v>-9.84386992323145E-5</v>
+      </c>
+      <c r="AM47">
+        <v>3.4327443911931863E-5</v>
+      </c>
+      <c r="AN47">
+        <v>-2.7607794366238834E-3</v>
+      </c>
+      <c r="AO47">
+        <v>-1.6136084442145815E-3</v>
+      </c>
+      <c r="AP47">
+        <v>8.7784565213688912E-3</v>
+      </c>
+      <c r="AQ47">
+        <v>-7.1253906276572306E-3</v>
+      </c>
+      <c r="AR47">
+        <v>-6.1060175919656075E-2</v>
+      </c>
+      <c r="AS47">
+        <v>0.75596467836195058</v>
+      </c>
+      <c r="AT47">
+        <v>-0.77945331462721212</v>
+      </c>
+      <c r="AU47">
+        <v>6.8476175437594849E-2</v>
+      </c>
+      <c r="AW47">
+        <v>0</v>
+      </c>
+      <c r="AX47">
+        <v>0</v>
+      </c>
+      <c r="AY47">
+        <v>0</v>
+      </c>
+      <c r="AZ47">
+        <v>0</v>
+      </c>
+      <c r="BA47">
+        <v>1.9130110914535127E-2</v>
+      </c>
+      <c r="BB47">
+        <v>0</v>
+      </c>
+      <c r="BC47">
+        <v>0</v>
+      </c>
+      <c r="BD47">
+        <v>0</v>
+      </c>
+      <c r="BE47">
+        <v>0</v>
+      </c>
+      <c r="BF47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>21</v>
       </c>
@@ -4704,8 +6551,101 @@
         <f t="shared" si="24"/>
         <v>0.19397168823677435</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Z48">
+        <v>6</v>
+      </c>
+      <c r="AA48">
+        <v>-8.6036743687364955E-2</v>
+      </c>
+      <c r="AB48">
+        <v>0.39757352471162849</v>
+      </c>
+      <c r="AC48">
+        <v>-4.8235900261829195E-2</v>
+      </c>
+      <c r="AD48">
+        <v>-0.4715408248340851</v>
+      </c>
+      <c r="AE48">
+        <v>-5.779008806364061E-2</v>
+      </c>
+      <c r="AF48">
+        <v>2.9202829614266762E-2</v>
+      </c>
+      <c r="AG48">
+        <v>-0.61686005938616117</v>
+      </c>
+      <c r="AH48">
+        <v>-6.0562562626480021E-2</v>
+      </c>
+      <c r="AI48">
+        <v>-0.11333891131165788</v>
+      </c>
+      <c r="AJ48">
+        <v>-0.18745662579018318</v>
+      </c>
+      <c r="AL48">
+        <v>-1.216633195762931E-5</v>
+      </c>
+      <c r="AM48">
+        <v>9.2597575655949777E-4</v>
+      </c>
+      <c r="AN48">
+        <v>-1.3516414168253634E-4</v>
+      </c>
+      <c r="AO48">
+        <v>-3.9693621584449062E-3</v>
+      </c>
+      <c r="AP48">
+        <v>-1.1055307944181974E-3</v>
+      </c>
+      <c r="AQ48">
+        <v>6.8144402146157147E-4</v>
+      </c>
+      <c r="AR48">
+        <v>-4.7440810880890298E-2</v>
+      </c>
+      <c r="AS48">
+        <v>-6.1950111884720244E-2</v>
+      </c>
+      <c r="AT48">
+        <v>-9.5333500304481164E-2</v>
+      </c>
+      <c r="AU48">
+        <v>-0.13757874071555484</v>
+      </c>
+      <c r="AW48">
+        <v>0</v>
+      </c>
+      <c r="AX48">
+        <v>0</v>
+      </c>
+      <c r="AY48">
+        <v>0</v>
+      </c>
+      <c r="AZ48">
+        <v>0</v>
+      </c>
+      <c r="BA48">
+        <v>0</v>
+      </c>
+      <c r="BB48">
+        <v>2.3334862767156597E-2</v>
+      </c>
+      <c r="BC48">
+        <v>0</v>
+      </c>
+      <c r="BD48">
+        <v>0</v>
+      </c>
+      <c r="BE48">
+        <v>0</v>
+      </c>
+      <c r="BF48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>22</v>
       </c>
@@ -4749,8 +6689,101 @@
         <f t="shared" si="24"/>
         <v>0.38255945860273544</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Z49">
+        <v>7</v>
+      </c>
+      <c r="AA49">
+        <v>-0.48427894387873216</v>
+      </c>
+      <c r="AB49">
+        <v>0.38404073123324028</v>
+      </c>
+      <c r="AC49">
+        <v>-0.55501891990985297</v>
+      </c>
+      <c r="AD49">
+        <v>-0.66646247288609128</v>
+      </c>
+      <c r="AE49">
+        <v>0.49804528569632606</v>
+      </c>
+      <c r="AF49">
+        <v>-0.41959556115520918</v>
+      </c>
+      <c r="AG49">
+        <v>-0.36951901440727397</v>
+      </c>
+      <c r="AH49">
+        <v>0.29032875789369667</v>
+      </c>
+      <c r="AI49">
+        <v>-0.54929383781767016</v>
+      </c>
+      <c r="AJ49">
+        <v>-0.11268143080343074</v>
+      </c>
+      <c r="AL49">
+        <v>-6.8481187674052484E-5</v>
+      </c>
+      <c r="AM49">
+        <v>8.9445696091382926E-4</v>
+      </c>
+      <c r="AN49">
+        <v>-1.5552452741625022E-3</v>
+      </c>
+      <c r="AO49">
+        <v>-5.6101842737126279E-3</v>
+      </c>
+      <c r="AP49">
+        <v>9.527661555832052E-3</v>
+      </c>
+      <c r="AQ49">
+        <v>-9.7912048372648698E-3</v>
+      </c>
+      <c r="AR49">
+        <v>-2.841857146146386E-2</v>
+      </c>
+      <c r="AS49">
+        <v>0.29698048191577542</v>
+      </c>
+      <c r="AT49">
+        <v>-0.46203112107583993</v>
+      </c>
+      <c r="AU49">
+        <v>-8.269950067977154E-2</v>
+      </c>
+      <c r="AW49">
+        <v>0</v>
+      </c>
+      <c r="AX49">
+        <v>0</v>
+      </c>
+      <c r="AY49">
+        <v>0</v>
+      </c>
+      <c r="AZ49">
+        <v>0</v>
+      </c>
+      <c r="BA49">
+        <v>0</v>
+      </c>
+      <c r="BB49">
+        <v>0</v>
+      </c>
+      <c r="BC49">
+        <v>7.6906925904878257E-2</v>
+      </c>
+      <c r="BD49">
+        <v>0</v>
+      </c>
+      <c r="BE49">
+        <v>0</v>
+      </c>
+      <c r="BF49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>23</v>
       </c>
@@ -4794,8 +6827,101 @@
         <f t="shared" si="24"/>
         <v>0.47561100275733481</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Z50">
+        <v>8</v>
+      </c>
+      <c r="AA50">
+        <v>-0.54373759005152322</v>
+      </c>
+      <c r="AB50">
+        <v>0.50635289243332327</v>
+      </c>
+      <c r="AC50">
+        <v>-0.14718135807085339</v>
+      </c>
+      <c r="AD50">
+        <v>-0.42475397769312007</v>
+      </c>
+      <c r="AE50">
+        <v>0.456350936741236</v>
+      </c>
+      <c r="AF50">
+        <v>-0.3315643217694037</v>
+      </c>
+      <c r="AG50">
+        <v>-0.16084402789272995</v>
+      </c>
+      <c r="AH50">
+        <v>4.7727228429764621E-3</v>
+      </c>
+      <c r="AI50">
+        <v>-0.27423571114814543</v>
+      </c>
+      <c r="AJ50">
+        <v>-0.1733033746402925</v>
+      </c>
+      <c r="AL50">
+        <v>-7.6889149157555693E-5</v>
+      </c>
+      <c r="AM50">
+        <v>1.1793302961939475E-3</v>
+      </c>
+      <c r="AN50">
+        <v>-4.1242397938739202E-4</v>
+      </c>
+      <c r="AO50">
+        <v>-3.5755172763614991E-3</v>
+      </c>
+      <c r="AP50">
+        <v>8.7300440358118476E-3</v>
+      </c>
+      <c r="AQ50">
+        <v>-7.7370079469743875E-3</v>
+      </c>
+      <c r="AR50">
+        <v>-1.2370019735388354E-2</v>
+      </c>
+      <c r="AS50">
+        <v>4.8820707264437086E-3</v>
+      </c>
+      <c r="AT50">
+        <v>-0.23066967866270843</v>
+      </c>
+      <c r="AU50">
+        <v>-0.1271913433001528</v>
+      </c>
+      <c r="AW50">
+        <v>0</v>
+      </c>
+      <c r="AX50">
+        <v>0</v>
+      </c>
+      <c r="AY50">
+        <v>0</v>
+      </c>
+      <c r="AZ50">
+        <v>0</v>
+      </c>
+      <c r="BA50">
+        <v>0</v>
+      </c>
+      <c r="BB50">
+        <v>0</v>
+      </c>
+      <c r="BC50">
+        <v>0</v>
+      </c>
+      <c r="BD50">
+        <v>1.0229110063720048</v>
+      </c>
+      <c r="BE50">
+        <v>0</v>
+      </c>
+      <c r="BF50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>24</v>
       </c>
@@ -4839,8 +6965,456 @@
         <f t="shared" si="24"/>
         <v>0.45163118687595938</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Z51">
+        <v>9</v>
+      </c>
+      <c r="AA51">
+        <v>-0.50430174986002818</v>
+      </c>
+      <c r="AB51">
+        <v>0.40057599778836767</v>
+      </c>
+      <c r="AC51">
+        <v>-0.54818624633453705</v>
+      </c>
+      <c r="AD51">
+        <v>-0.67748342644116688</v>
+      </c>
+      <c r="AE51">
+        <v>0.49781801956423866</v>
+      </c>
+      <c r="AF51">
+        <v>-0.28632235904865466</v>
+      </c>
+      <c r="AG51">
+        <v>-5.5967622779887996E-2</v>
+      </c>
+      <c r="AH51">
+        <v>0.29021770630222449</v>
+      </c>
+      <c r="AI51">
+        <v>-0.46497739309047104</v>
+      </c>
+      <c r="AJ51">
+        <v>-0.205171706846667</v>
+      </c>
+      <c r="AL51">
+        <v>-7.1312583817737871E-5</v>
+      </c>
+      <c r="AM51">
+        <v>9.329687203912813E-4</v>
+      </c>
+      <c r="AN51">
+        <v>-1.5360991101188853E-3</v>
+      </c>
+      <c r="AO51">
+        <v>-5.7029570596254667E-3</v>
+      </c>
+      <c r="AP51">
+        <v>9.5233139295181034E-3</v>
+      </c>
+      <c r="AQ51">
+        <v>-6.6812929555688941E-3</v>
+      </c>
+      <c r="AR51">
+        <v>-4.3042978182050223E-3</v>
+      </c>
+      <c r="AS51">
+        <v>0.29686688602058336</v>
+      </c>
+      <c r="AT51">
+        <v>-0.39110947804920171</v>
+      </c>
+      <c r="AU51">
+        <v>-0.15058024724087213</v>
+      </c>
+      <c r="AW51">
+        <v>0</v>
+      </c>
+      <c r="AX51">
+        <v>0</v>
+      </c>
+      <c r="AY51">
+        <v>0</v>
+      </c>
+      <c r="AZ51">
+        <v>0</v>
+      </c>
+      <c r="BA51">
+        <v>0</v>
+      </c>
+      <c r="BB51">
+        <v>0</v>
+      </c>
+      <c r="BC51">
+        <v>0</v>
+      </c>
+      <c r="BD51">
+        <v>0</v>
+      </c>
+      <c r="BE51">
+        <v>0.84113654526232684</v>
+      </c>
+      <c r="BF51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="Z52">
+        <v>10</v>
+      </c>
+      <c r="AA52">
+        <v>-0.86589527718718839</v>
+      </c>
+      <c r="AB52">
+        <v>0.62624692672162763</v>
+      </c>
+      <c r="AC52">
+        <v>-0.82127487005537059</v>
+      </c>
+      <c r="AD52">
+        <v>-0.70986899706249573</v>
+      </c>
+      <c r="AE52">
+        <v>0.51229164947880723</v>
+      </c>
+      <c r="AF52">
+        <v>-0.42742350678760749</v>
+      </c>
+      <c r="AG52">
+        <v>-6.3273230630248922E-2</v>
+      </c>
+      <c r="AH52">
+        <v>0.40209959157387709</v>
+      </c>
+      <c r="AI52">
+        <v>-0.49504433186538588</v>
+      </c>
+      <c r="AJ52">
+        <v>-0.26941645274409232</v>
+      </c>
+      <c r="AL52">
+        <v>-1.2244500351016747E-4</v>
+      </c>
+      <c r="AM52">
+        <v>1.4585716495703028E-3</v>
+      </c>
+      <c r="AN52">
+        <v>-2.3013339088503444E-3</v>
+      </c>
+      <c r="AO52">
+        <v>-5.9755740881705117E-3</v>
+      </c>
+      <c r="AP52">
+        <v>9.800196075119734E-3</v>
+      </c>
+      <c r="AQ52">
+        <v>-9.9738688743456465E-3</v>
+      </c>
+      <c r="AR52">
+        <v>-4.8661496598428272E-3</v>
+      </c>
+      <c r="AS52">
+        <v>0.41131209787860673</v>
+      </c>
+      <c r="AT52">
+        <v>-0.41639987905694748</v>
+      </c>
+      <c r="AU52">
+        <v>-0.19773094784108239</v>
+      </c>
+      <c r="AW52">
+        <v>0</v>
+      </c>
+      <c r="AX52">
+        <v>0</v>
+      </c>
+      <c r="AY52">
+        <v>0</v>
+      </c>
+      <c r="AZ52">
+        <v>0</v>
+      </c>
+      <c r="BA52">
+        <v>0</v>
+      </c>
+      <c r="BB52">
+        <v>0</v>
+      </c>
+      <c r="BC52">
+        <v>0</v>
+      </c>
+      <c r="BD52">
+        <v>0</v>
+      </c>
+      <c r="BE52">
+        <v>0</v>
+      </c>
+      <c r="BF52">
+        <v>0.73392306159156118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="Z53">
+        <v>11</v>
+      </c>
+      <c r="AA53">
+        <v>-0.46802689559551325</v>
+      </c>
+      <c r="AB53">
+        <v>0.69004195453091344</v>
+      </c>
+      <c r="AC53">
+        <v>-0.63212230204719333</v>
+      </c>
+      <c r="AD53">
+        <v>-0.47279329060352371</v>
+      </c>
+      <c r="AE53">
+        <v>0.60055869457007416</v>
+      </c>
+      <c r="AF53">
+        <v>-0.38512991597993429</v>
+      </c>
+      <c r="AG53">
+        <v>-0.17733041803941413</v>
+      </c>
+      <c r="AH53">
+        <v>0.31591228774236935</v>
+      </c>
+      <c r="AI53">
+        <v>-0.30491753572011127</v>
+      </c>
+      <c r="AJ53">
+        <v>-0.41748986333850963</v>
+      </c>
+      <c r="AL53">
+        <v>-6.6183008943305175E-5</v>
+      </c>
+      <c r="AM53">
+        <v>1.6071546045929863E-3</v>
+      </c>
+      <c r="AN53">
+        <v>-1.7713003785732146E-3</v>
+      </c>
+      <c r="AO53">
+        <v>-3.9799052333349891E-3</v>
+      </c>
+      <c r="AP53">
+        <v>1.1488754437813943E-2</v>
+      </c>
+      <c r="AQ53">
+        <v>-8.9869537369183169E-3</v>
+      </c>
+      <c r="AR53">
+        <v>-1.3637937320838308E-2</v>
+      </c>
+      <c r="AS53">
+        <v>0.3231501561798294</v>
+      </c>
+      <c r="AT53">
+        <v>-0.25647728258551655</v>
+      </c>
+      <c r="AU53">
+        <v>-0.30640543868484144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="Z54">
+        <v>12</v>
+      </c>
+      <c r="AA54">
+        <v>-1.0127669209924806</v>
+      </c>
+      <c r="AB54">
+        <v>0.59877921144308544</v>
+      </c>
+      <c r="AC54">
+        <v>-0.69660571526845849</v>
+      </c>
+      <c r="AD54">
+        <v>-0.44068422501550752</v>
+      </c>
+      <c r="AE54">
+        <v>0.6042701544980168</v>
+      </c>
+      <c r="AF54">
+        <v>-0.34812711426972776</v>
+      </c>
+      <c r="AG54">
+        <v>-0.3904885371921013</v>
+      </c>
+      <c r="AH54">
+        <v>0.37684261916953954</v>
+      </c>
+      <c r="AI54">
+        <v>-0.68566003345016879</v>
+      </c>
+      <c r="AJ54">
+        <v>-0.24447324401783929</v>
+      </c>
+      <c r="AL54">
+        <v>-1.4321391103868763E-4</v>
+      </c>
+      <c r="AM54">
+        <v>1.3945974740905414E-3</v>
+      </c>
+      <c r="AN54">
+        <v>-1.9519924596477288E-3</v>
+      </c>
+      <c r="AO54">
+        <v>-3.7096157839899787E-3</v>
+      </c>
+      <c r="AP54">
+        <v>1.1559755077890338E-2</v>
+      </c>
+      <c r="AQ54">
+        <v>-8.1234984370103409E-3</v>
+      </c>
+      <c r="AR54">
+        <v>-3.0031272996537232E-2</v>
+      </c>
+      <c r="AS54">
+        <v>0.38547646281857584</v>
+      </c>
+      <c r="AT54">
+        <v>-0.57673371176072641</v>
+      </c>
+      <c r="AU54">
+        <v>-0.17942455172679342</v>
+      </c>
+    </row>
+    <row r="55" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="Z55">
+        <v>13</v>
+      </c>
+      <c r="AA55">
+        <v>-0.33030840752425505</v>
+      </c>
+      <c r="AB55">
+        <v>0.71296773087032173</v>
+      </c>
+      <c r="AC55">
+        <v>-0.29736961580096538</v>
+      </c>
+      <c r="AD55">
+        <v>-0.79906729539636778</v>
+      </c>
+      <c r="AE55">
+        <v>0.52029396924010729</v>
+      </c>
+      <c r="AF55">
+        <v>-0.31122780151331098</v>
+      </c>
+      <c r="AG55">
+        <v>-0.68225376906037227</v>
+      </c>
+      <c r="AH55">
+        <v>-4.0629353811509596E-2</v>
+      </c>
+      <c r="AI55">
+        <v>-0.62688285350706363</v>
+      </c>
+      <c r="AJ55">
+        <v>-0.11309360464763654</v>
+      </c>
+      <c r="AL55">
+        <v>-4.6708435978687011E-5</v>
+      </c>
+      <c r="AM55">
+        <v>1.660550295631506E-3</v>
+      </c>
+      <c r="AN55">
+        <v>-8.3327373727923998E-4</v>
+      </c>
+      <c r="AO55">
+        <v>-6.7264324048999903E-3</v>
+      </c>
+      <c r="AP55">
+        <v>9.9532813397269805E-3</v>
+      </c>
+      <c r="AQ55">
+        <v>-7.2624580376369641E-3</v>
+      </c>
+      <c r="AR55">
+        <v>-5.2470040065449974E-2</v>
+      </c>
+      <c r="AS55">
+        <v>-4.1560213195575534E-2</v>
+      </c>
+      <c r="AT55">
+        <v>-0.52729407768312087</v>
+      </c>
+      <c r="AU55">
+        <v>-8.300200456941903E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:58" x14ac:dyDescent="0.25">
+      <c r="Z56">
+        <v>14</v>
+      </c>
+      <c r="AA56">
+        <v>-0.8360390123187319</v>
+      </c>
+      <c r="AB56">
+        <v>0.65608282758655756</v>
+      </c>
+      <c r="AC56">
+        <v>-1.2478539753770983</v>
+      </c>
+      <c r="AD56">
+        <v>-0.38418159537277163</v>
+      </c>
+      <c r="AE56">
+        <v>0.70567107487794056</v>
+      </c>
+      <c r="AF56">
+        <v>-0.38046360948607671</v>
+      </c>
+      <c r="AG56">
+        <v>-0.83496691953441871</v>
+      </c>
+      <c r="AH56">
+        <v>0.70147624012128373</v>
+      </c>
+      <c r="AI56">
+        <v>-0.36695860974622274</v>
+      </c>
+      <c r="AJ56">
+        <v>-0.61926370953379561</v>
+      </c>
+      <c r="AL56">
+        <v>-1.182230721139204E-4</v>
+      </c>
+      <c r="AM56">
+        <v>1.5280614902131791E-3</v>
+      </c>
+      <c r="AN56">
+        <v>-3.4966717861894476E-3</v>
+      </c>
+      <c r="AO56">
+        <v>-3.2339848563064265E-3</v>
+      </c>
+      <c r="AP56">
+        <v>1.3499565931594225E-2</v>
+      </c>
+      <c r="AQ56">
+        <v>-8.8780661152546587E-3</v>
+      </c>
+      <c r="AR56">
+        <v>-6.4214739013657984E-2</v>
+      </c>
+      <c r="AS56">
+        <v>0.7175477667285125</v>
+      </c>
+      <c r="AT56">
+        <v>-0.3086622972562042</v>
+      </c>
+      <c r="AU56">
+        <v>-0.45449191763359054</v>
+      </c>
+    </row>
+    <row r="57" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>33</v>
       </c>
@@ -4853,8 +7427,71 @@
       <c r="N57" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Z57">
+        <v>15</v>
+      </c>
+      <c r="AA57">
+        <v>-0.44773202239036436</v>
+      </c>
+      <c r="AB57">
+        <v>0.74768322030867718</v>
+      </c>
+      <c r="AC57">
+        <v>-1.3194632159627027</v>
+      </c>
+      <c r="AD57">
+        <v>-0.12092896428311428</v>
+      </c>
+      <c r="AE57">
+        <v>0.72297433648441378</v>
+      </c>
+      <c r="AF57">
+        <v>-0.39539284898543131</v>
+      </c>
+      <c r="AG57">
+        <v>-0.95853879780906204</v>
+      </c>
+      <c r="AH57">
+        <v>0.77962984390135426</v>
+      </c>
+      <c r="AI57">
+        <v>-0.63935896739142228</v>
+      </c>
+      <c r="AJ57">
+        <v>-0.54724397150547721</v>
+      </c>
+      <c r="AL57">
+        <v>-6.3313140165506475E-5</v>
+      </c>
+      <c r="AM57">
+        <v>1.7414050296592073E-3</v>
+      </c>
+      <c r="AN57">
+        <v>-3.6973314916733898E-3</v>
+      </c>
+      <c r="AO57">
+        <v>-1.0179624528888346E-3</v>
+      </c>
+      <c r="AP57">
+        <v>1.3830579245309275E-2</v>
+      </c>
+      <c r="AQ57">
+        <v>-9.2264378701901115E-3</v>
+      </c>
+      <c r="AR57">
+        <v>-7.3718272300052609E-2</v>
+      </c>
+      <c r="AS57">
+        <v>0.79749194822278335</v>
+      </c>
+      <c r="AT57">
+        <v>-0.53778819301410963</v>
+      </c>
+      <c r="AU57">
+        <v>-0.40163497100482493</v>
+      </c>
+    </row>
+    <row r="58" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B58">
         <f>N28-M58</f>
         <v>3.1474876619675931</v>
@@ -4905,8 +7542,71 @@
       <c r="N58">
         <v>2.2519622999999999E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Z58">
+        <v>16</v>
+      </c>
+      <c r="AA58">
+        <v>-0.5521948237540929</v>
+      </c>
+      <c r="AB58">
+        <v>0.88503135371092589</v>
+      </c>
+      <c r="AC58">
+        <v>-0.5281280212951166</v>
+      </c>
+      <c r="AD58">
+        <v>-2.1986891412085749E-2</v>
+      </c>
+      <c r="AE58">
+        <v>0.7115269119587283</v>
+      </c>
+      <c r="AF58">
+        <v>-0.1913946930037545</v>
+      </c>
+      <c r="AG58">
+        <v>-1.0154053319859586</v>
+      </c>
+      <c r="AH58">
+        <v>5.5930007479121628E-2</v>
+      </c>
+      <c r="AI58">
+        <v>-1.0323989837749163</v>
+      </c>
+      <c r="AJ58">
+        <v>-0.11365334731631332</v>
+      </c>
+      <c r="AL58">
+        <v>-7.8085074389716984E-5</v>
+      </c>
+      <c r="AM58">
+        <v>2.0612981659826842E-3</v>
+      </c>
+      <c r="AN58">
+        <v>-1.4798929906847706E-3</v>
+      </c>
+      <c r="AO58">
+        <v>-1.8508245767199141E-4</v>
+      </c>
+      <c r="AP58">
+        <v>1.3611588744447142E-2</v>
+      </c>
+      <c r="AQ58">
+        <v>-4.4661688956046776E-3</v>
+      </c>
+      <c r="AR58">
+        <v>-7.8091702630462431E-2</v>
+      </c>
+      <c r="AS58">
+        <v>5.7211420236862064E-2</v>
+      </c>
+      <c r="AT58">
+        <v>-0.86838851454477017</v>
+      </c>
+      <c r="AU58">
+        <v>-8.3412812622517721E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B59">
         <f t="shared" ref="B59:C67" si="35">N29</f>
         <v>-0.98754294842985768</v>
@@ -4950,8 +7650,71 @@
       <c r="N59">
         <v>8.1717010000000007E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Z59">
+        <v>17</v>
+      </c>
+      <c r="AA59">
+        <v>-0.27137583641448626</v>
+      </c>
+      <c r="AB59">
+        <v>0.79447723558765948</v>
+      </c>
+      <c r="AC59">
+        <v>-0.98069219964280963</v>
+      </c>
+      <c r="AD59">
+        <v>-0.27560370496224362</v>
+      </c>
+      <c r="AE59">
+        <v>0.72838398999388443</v>
+      </c>
+      <c r="AF59">
+        <v>-0.27658296078403166</v>
+      </c>
+      <c r="AG59">
+        <v>-0.91682242804121927</v>
+      </c>
+      <c r="AH59">
+        <v>0.46063856335417641</v>
+      </c>
+      <c r="AI59">
+        <v>-0.84508826793081626</v>
+      </c>
+      <c r="AJ59">
+        <v>-0.38005847289864403</v>
+      </c>
+      <c r="AL59">
+        <v>-3.837486601184345E-5</v>
+      </c>
+      <c r="AM59">
+        <v>1.8503914711780207E-3</v>
+      </c>
+      <c r="AN59">
+        <v>-2.7480448939474654E-3</v>
+      </c>
+      <c r="AO59">
+        <v>-2.3199919489246042E-3</v>
+      </c>
+      <c r="AP59">
+        <v>1.3934066516954653E-2</v>
+      </c>
+      <c r="AQ59">
+        <v>-6.4540254336292336E-3</v>
+      </c>
+      <c r="AR59">
+        <v>-7.0509994541296625E-2</v>
+      </c>
+      <c r="AS59">
+        <v>0.47119225641437512</v>
+      </c>
+      <c r="AT59">
+        <v>-0.71083462612905046</v>
+      </c>
+      <c r="AU59">
+        <v>-0.27893367801358621</v>
+      </c>
+    </row>
+    <row r="60" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B60">
         <f t="shared" si="35"/>
         <v>-0.96379248919723182</v>
@@ -4995,8 +7758,71 @@
       <c r="N60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Z60">
+        <v>18</v>
+      </c>
+      <c r="AA60">
+        <v>-0.61150257912767259</v>
+      </c>
+      <c r="AB60">
+        <v>0.80820354136070416</v>
+      </c>
+      <c r="AC60">
+        <v>-1.0899549098290393</v>
+      </c>
+      <c r="AD60">
+        <v>-0.40376350061946886</v>
+      </c>
+      <c r="AE60">
+        <v>0.76841843198098092</v>
+      </c>
+      <c r="AF60">
+        <v>-0.24804035713237774</v>
+      </c>
+      <c r="AG60">
+        <v>-0.7243458560121514</v>
+      </c>
+      <c r="AH60">
+        <v>0.49825535511349878</v>
+      </c>
+      <c r="AI60">
+        <v>-0.46030145251295046</v>
+      </c>
+      <c r="AJ60">
+        <v>-0.68891223977610327</v>
+      </c>
+      <c r="AL60">
+        <v>-8.6471698622716731E-5</v>
+      </c>
+      <c r="AM60">
+        <v>1.8823609701082654E-3</v>
+      </c>
+      <c r="AN60">
+        <v>-3.0542152019559224E-3</v>
+      </c>
+      <c r="AO60">
+        <v>-3.3988224898323098E-3</v>
+      </c>
+      <c r="AP60">
+        <v>1.4699929832569332E-2</v>
+      </c>
+      <c r="AQ60">
+        <v>-5.7879876944005463E-3</v>
+      </c>
+      <c r="AR60">
+        <v>-5.5707213077832142E-2</v>
+      </c>
+      <c r="AS60">
+        <v>0.50967088672938965</v>
+      </c>
+      <c r="AT60">
+        <v>-0.38717637354597412</v>
+      </c>
+      <c r="AU60">
+        <v>-0.50560858018437738</v>
+      </c>
+    </row>
+    <row r="61" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B61">
         <f t="shared" si="35"/>
         <v>-0.57672012845796017</v>
@@ -5037,8 +7863,71 @@
         <f t="shared" si="34"/>
         <v>-0.59282520341101386</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Z61">
+        <v>19</v>
+      </c>
+      <c r="AA61">
+        <v>-0.2875726226423686</v>
+      </c>
+      <c r="AB61">
+        <v>0.8675949049588928</v>
+      </c>
+      <c r="AC61">
+        <v>-1.1041602080592665</v>
+      </c>
+      <c r="AD61">
+        <v>-0.60439252430935031</v>
+      </c>
+      <c r="AE61">
+        <v>0.7905083295754689</v>
+      </c>
+      <c r="AF61">
+        <v>-0.2537024858835466</v>
+      </c>
+      <c r="AG61">
+        <v>-0.49973105773339227</v>
+      </c>
+      <c r="AH61">
+        <v>0.61393331354579417</v>
+      </c>
+      <c r="AI61">
+        <v>-0.87330512732306731</v>
+      </c>
+      <c r="AJ61">
+        <v>-0.48578169980167796</v>
+      </c>
+      <c r="AL61">
+        <v>-4.0665230214970701E-5</v>
+      </c>
+      <c r="AM61">
+        <v>2.0206874919279022E-3</v>
+      </c>
+      <c r="AN61">
+        <v>-3.0940205529955199E-3</v>
+      </c>
+      <c r="AO61">
+        <v>-5.0876884640574903E-3</v>
+      </c>
+      <c r="AP61">
+        <v>1.512251202364261E-2</v>
+      </c>
+      <c r="AQ61">
+        <v>-5.9201126917790437E-3</v>
+      </c>
+      <c r="AR61">
+        <v>-3.843277942946844E-2</v>
+      </c>
+      <c r="AS61">
+        <v>0.62799914360442788</v>
+      </c>
+      <c r="AT61">
+        <v>-0.73456885775640135</v>
+      </c>
+      <c r="AU61">
+        <v>-0.35652639238360018</v>
+      </c>
+    </row>
+    <row r="62" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B62">
         <f t="shared" si="35"/>
         <v>-0.96931637728991993</v>
@@ -5079,8 +7968,71 @@
         <f t="shared" si="34"/>
         <v>0.2491861384882178</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Z62">
+        <v>20</v>
+      </c>
+      <c r="AA62">
+        <v>-0.90692719231398944</v>
+      </c>
+      <c r="AB62">
+        <v>1.1029488425609155</v>
+      </c>
+      <c r="AC62">
+        <v>-0.84278912468507194</v>
+      </c>
+      <c r="AD62">
+        <v>-0.66731497963227704</v>
+      </c>
+      <c r="AE62">
+        <v>0.69124397512486557</v>
+      </c>
+      <c r="AF62">
+        <v>-0.1808495678462253</v>
+      </c>
+      <c r="AG62">
+        <v>-0.28272320988268318</v>
+      </c>
+      <c r="AH62">
+        <v>0.23542651887175639</v>
+      </c>
+      <c r="AI62">
+        <v>-0.6890272578046106</v>
+      </c>
+      <c r="AJ62">
+        <v>-0.55516737627319679</v>
+      </c>
+      <c r="AL62">
+        <v>-1.2824726750686083E-4</v>
+      </c>
+      <c r="AM62">
+        <v>2.5688428063150013E-3</v>
+      </c>
+      <c r="AN62">
+        <v>-2.3616200389977751E-3</v>
+      </c>
+      <c r="AO62">
+        <v>-5.6173605516506402E-3</v>
+      </c>
+      <c r="AP62">
+        <v>1.3223573913142838E-2</v>
+      </c>
+      <c r="AQ62">
+        <v>-4.220099847191244E-3</v>
+      </c>
+      <c r="AR62">
+        <v>-2.174337295403686E-2</v>
+      </c>
+      <c r="AS62">
+        <v>0.24082037734576611</v>
+      </c>
+      <c r="AT62">
+        <v>-0.57956600722134477</v>
+      </c>
+      <c r="AU62">
+        <v>-0.4074501404901788</v>
+      </c>
+    </row>
+    <row r="63" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B63">
         <f t="shared" si="35"/>
         <v>1.1967515768429082</v>
@@ -5121,8 +8073,71 @@
         <f t="shared" si="34"/>
         <v>-0.55337180240406214</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Z63">
+        <v>21</v>
+      </c>
+      <c r="AA63">
+        <v>-0.61804638813157065</v>
+      </c>
+      <c r="AB63">
+        <v>1.050808661331577</v>
+      </c>
+      <c r="AC63">
+        <v>-0.44226112258775163</v>
+      </c>
+      <c r="AD63">
+        <v>-0.79887801344925391</v>
+      </c>
+      <c r="AE63">
+        <v>0.64216433069331136</v>
+      </c>
+      <c r="AF63">
+        <v>-0.16923237464079199</v>
+      </c>
+      <c r="AG63">
+        <v>-0.13891477733914825</v>
+      </c>
+      <c r="AH63">
+        <v>-2.9065856153155503E-2</v>
+      </c>
+      <c r="AI63">
+        <v>-0.88424940059868296</v>
+      </c>
+      <c r="AJ63">
+        <v>-0.29961138599102899</v>
+      </c>
+      <c r="AL63">
+        <v>-8.7397049225222616E-5</v>
+      </c>
+      <c r="AM63">
+        <v>2.4474047809937595E-3</v>
+      </c>
+      <c r="AN63">
+        <v>-1.2392812139847796E-3</v>
+      </c>
+      <c r="AO63">
+        <v>-6.7248390569678894E-3</v>
+      </c>
+      <c r="AP63">
+        <v>1.228467487152126E-2</v>
+      </c>
+      <c r="AQ63">
+        <v>-3.9490142380029132E-3</v>
+      </c>
+      <c r="AR63">
+        <v>-1.0683508487914536E-2</v>
+      </c>
+      <c r="AS63">
+        <v>-2.9731784168688224E-2</v>
+      </c>
+      <c r="AT63">
+        <v>-0.74377448596985951</v>
+      </c>
+      <c r="AU63">
+        <v>-0.21989170569422697</v>
+      </c>
+    </row>
+    <row r="64" spans="1:58" x14ac:dyDescent="0.25">
       <c r="B64">
         <f t="shared" si="35"/>
         <v>-3.2752227517802754E-2</v>
@@ -5163,8 +8178,71 @@
         <f t="shared" si="34"/>
         <v>9.1340142314243339E-2</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Z64">
+        <v>22</v>
+      </c>
+      <c r="AA64">
+        <v>-0.6099715784053702</v>
+      </c>
+      <c r="AB64">
+        <v>1.1870788085095618</v>
+      </c>
+      <c r="AC64">
+        <v>-0.51134225554912671</v>
+      </c>
+      <c r="AD64">
+        <v>-0.98566262220250578</v>
+      </c>
+      <c r="AE64">
+        <v>0.59111749634840738</v>
+      </c>
+      <c r="AF64">
+        <v>-0.16092225970247706</v>
+      </c>
+      <c r="AG64">
+        <v>-9.3299418288304209E-2</v>
+      </c>
+      <c r="AH64">
+        <v>-4.1618153732610193E-2</v>
+      </c>
+      <c r="AI64">
+        <v>-0.88260089752848692</v>
+      </c>
+      <c r="AJ64">
+        <v>-0.36737443546658594</v>
+      </c>
+      <c r="AL64">
+        <v>-8.6255202016538961E-5</v>
+      </c>
+      <c r="AM64">
+        <v>2.7647872141452947E-3</v>
+      </c>
+      <c r="AN64">
+        <v>-1.4328567872092389E-3</v>
+      </c>
+      <c r="AO64">
+        <v>-8.2971647575601284E-3</v>
+      </c>
+      <c r="AP64">
+        <v>1.1308143268667347E-2</v>
+      </c>
+      <c r="AQ64">
+        <v>-3.7550988463380362E-3</v>
+      </c>
+      <c r="AR64">
+        <v>-7.1753714492668553E-3</v>
+      </c>
+      <c r="AS64">
+        <v>-4.2571667517969099E-2</v>
+      </c>
+      <c r="AT64">
+        <v>-0.74238786979254046</v>
+      </c>
+      <c r="AU64">
+        <v>-0.26962457042810817</v>
+      </c>
+    </row>
+    <row r="65" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B65">
         <f t="shared" si="35"/>
         <v>1.2546468398800441</v>
@@ -5205,8 +8283,71 @@
         <f t="shared" si="34"/>
         <v>-0.54288950022057192</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Z65">
+        <v>23</v>
+      </c>
+      <c r="AA65">
+        <v>-0.41325311799463321</v>
+      </c>
+      <c r="AB65">
+        <v>1.1071803168424184</v>
+      </c>
+      <c r="AC65">
+        <v>-0.75479115395404583</v>
+      </c>
+      <c r="AD65">
+        <v>-1.1217321382037655</v>
+      </c>
+      <c r="AE65">
+        <v>0.74712022354455931</v>
+      </c>
+      <c r="AF65">
+        <v>-0.10876869527590602</v>
+      </c>
+      <c r="AG65">
+        <v>-0.1610582564961551</v>
+      </c>
+      <c r="AH65">
+        <v>0.27684115951484844</v>
+      </c>
+      <c r="AI65">
+        <v>-1.3445698996993116</v>
+      </c>
+      <c r="AJ65">
+        <v>-0.30554913785533577</v>
+      </c>
+      <c r="AL65">
+        <v>-5.843752797429993E-5</v>
+      </c>
+      <c r="AM65">
+        <v>2.5786981974706838E-3</v>
+      </c>
+      <c r="AN65">
+        <v>-2.1150366826366129E-3</v>
+      </c>
+      <c r="AO65">
+        <v>-9.44257817520717E-3</v>
+      </c>
+      <c r="AP65">
+        <v>1.4292492742899699E-2</v>
+      </c>
+      <c r="AQ65">
+        <v>-2.538102577625941E-3</v>
+      </c>
+      <c r="AR65">
+        <v>-1.2386495398718677E-2</v>
+      </c>
+      <c r="AS65">
+        <v>0.28318386908452636</v>
+      </c>
+      <c r="AT65">
+        <v>-1.1309668802967923</v>
+      </c>
+      <c r="AU65">
+        <v>-0.22424955872145003</v>
+      </c>
+    </row>
+    <row r="66" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B66">
         <f t="shared" si="35"/>
         <v>0.184524801578037</v>
@@ -5247,8 +8388,71 @@
         <f t="shared" si="34"/>
         <v>-9.9185480714504864E-2</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Z66">
+        <v>24</v>
+      </c>
+      <c r="AA66">
+        <v>-0.31166609560660613</v>
+      </c>
+      <c r="AB66">
+        <v>1.288072150308547</v>
+      </c>
+      <c r="AC66">
+        <v>-0.98871368324356279</v>
+      </c>
+      <c r="AD66">
+        <v>-1.0904825323746952</v>
+      </c>
+      <c r="AE66">
+        <v>0.73161697535534653</v>
+      </c>
+      <c r="AF66">
+        <v>-0.10406040876146921</v>
+      </c>
+      <c r="AG66">
+        <v>-0.31836398403463356</v>
+      </c>
+      <c r="AH66">
+        <v>0.30414944250623427</v>
+      </c>
+      <c r="AI66">
+        <v>-0.79234740673732507</v>
+      </c>
+      <c r="AJ66">
+        <v>-0.71611969658180696</v>
+      </c>
+      <c r="AL66">
+        <v>-4.40722535114385E-5</v>
+      </c>
+      <c r="AM66">
+        <v>3.0000075702985825E-3</v>
+      </c>
+      <c r="AN66">
+        <v>-2.7705222798785067E-3</v>
+      </c>
+      <c r="AO66">
+        <v>-9.1795235332514571E-3</v>
+      </c>
+      <c r="AP66">
+        <v>1.3995913885504491E-2</v>
+      </c>
+      <c r="AQ66">
+        <v>-2.4282353579431039E-3</v>
+      </c>
+      <c r="AR66">
+        <v>-2.4484395330933408E-2</v>
+      </c>
+      <c r="AS66">
+        <v>0.31111781232153629</v>
+      </c>
+      <c r="AT66">
+        <v>-0.66647236035059731</v>
+      </c>
+      <c r="AU66">
+        <v>-0.52557676018133959</v>
+      </c>
+    </row>
+    <row r="67" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B67">
         <f t="shared" si="35"/>
         <v>-1.0985976711821541</v>
@@ -5289,8 +8493,48 @@
         <f>W37-M58</f>
         <v>1.9180457355569385</v>
       </c>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="AL67" s="1">
+        <f>_xlfn.VAR.S(AL43:AL66)</f>
+        <v>1.4475533287379416E-9</v>
+      </c>
+      <c r="AM67" s="1">
+        <f t="shared" ref="AM67:AU67" si="36">_xlfn.VAR.S(AM43:AM66)</f>
+        <v>8.3501058043282335E-7</v>
+      </c>
+      <c r="AN67" s="1">
+        <f t="shared" si="36"/>
+        <v>8.9051006679716841E-7</v>
+      </c>
+      <c r="AO67" s="1">
+        <f t="shared" si="36"/>
+        <v>6.1556971429827761E-6</v>
+      </c>
+      <c r="AP67" s="1">
+        <f t="shared" si="36"/>
+        <v>1.2943321875288004E-5</v>
+      </c>
+      <c r="AQ67" s="1">
+        <f t="shared" si="36"/>
+        <v>1.1363440421383717E-5</v>
+      </c>
+      <c r="AR67" s="1">
+        <f t="shared" si="36"/>
+        <v>7.2953208193313125E-4</v>
+      </c>
+      <c r="AS67" s="1">
+        <f t="shared" si="36"/>
+        <v>9.2345919566155218E-2</v>
+      </c>
+      <c r="AT67" s="1">
+        <f t="shared" si="36"/>
+        <v>6.1519311932282675E-2</v>
+      </c>
+      <c r="AU67" s="1">
+        <f t="shared" si="36"/>
+        <v>3.222514655871013E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>33</v>
       </c>
@@ -5307,45 +8551,45 @@
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B69">
         <f>N28</f>
         <v>3.1474876619675931</v>
       </c>
       <c r="C69">
-        <f t="shared" ref="C69:K69" si="36">O28</f>
+        <f t="shared" ref="C69:K69" si="37">O28</f>
         <v>-0.98754294842985768</v>
       </c>
       <c r="D69">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>-0.96379248919723182</v>
       </c>
       <c r="E69">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>-0.57672012845796017</v>
       </c>
       <c r="F69">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>-0.96931637728991993</v>
       </c>
       <c r="G69">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1.1967515768429082</v>
       </c>
       <c r="H69">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>-3.2752227517802754E-2</v>
       </c>
       <c r="I69">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>1.2546468398800441</v>
       </c>
       <c r="J69">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0.184524801578037</v>
       </c>
       <c r="K69">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>-1.0985976711821541</v>
       </c>
       <c r="L69" s="1">
@@ -5368,45 +8612,45 @@
         <v>2.0016107434982973E-8</v>
       </c>
     </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B70">
-        <f t="shared" ref="B70:B78" si="37">N29</f>
+        <f t="shared" ref="B70:B78" si="38">N29</f>
         <v>-0.98754294842985768</v>
       </c>
       <c r="C70">
-        <f t="shared" ref="C70:C78" si="38">O29</f>
+        <f t="shared" ref="C70:C78" si="39">O29</f>
         <v>1.9164815645961251</v>
       </c>
       <c r="D70">
-        <f t="shared" ref="D70:D78" si="39">P29</f>
+        <f t="shared" ref="D70:D78" si="40">P29</f>
         <v>1.7726792940499032</v>
       </c>
       <c r="E70">
-        <f t="shared" ref="E70:E78" si="40">Q29</f>
+        <f t="shared" ref="E70:E78" si="41">Q29</f>
         <v>0.17590184279771043</v>
       </c>
       <c r="F70">
-        <f t="shared" ref="F70:F78" si="41">R29</f>
+        <f t="shared" ref="F70:F78" si="42">R29</f>
         <v>1.8906452103309772</v>
       </c>
       <c r="G70">
-        <f t="shared" ref="G70:G78" si="42">S29</f>
+        <f t="shared" ref="G70:G78" si="43">S29</f>
         <v>-7.5331856056183449E-2</v>
       </c>
       <c r="H70">
-        <f t="shared" ref="H70:H78" si="43">T29</f>
+        <f t="shared" ref="H70:H78" si="44">T29</f>
         <v>0.2733988404107357</v>
       </c>
       <c r="I70">
-        <f t="shared" ref="I70:I78" si="44">U29</f>
+        <f t="shared" ref="I70:I78" si="45">U29</f>
         <v>-0.17929838350179178</v>
       </c>
       <c r="J70">
-        <f t="shared" ref="J70:J78" si="45">V29</f>
+        <f t="shared" ref="J70:J78" si="46">V29</f>
         <v>0.43239450983700556</v>
       </c>
       <c r="K70">
-        <f t="shared" ref="K70:K78" si="46">W29</f>
+        <f t="shared" ref="K70:K78" si="47">W29</f>
         <v>0.25305913808826286</v>
       </c>
       <c r="L70" s="1"/>
@@ -5417,167 +8661,167 @@
         <v>-1.303846482844531E-7</v>
       </c>
       <c r="O70" s="1">
-        <f t="shared" ref="O70:O78" si="47">M70*$B$80</f>
+        <f t="shared" ref="O70:O78" si="48">M70*$B$80</f>
         <v>0</v>
       </c>
       <c r="P70" s="1">
-        <f t="shared" ref="P70:P78" si="48">N70-O70</f>
+        <f t="shared" ref="P70:P78" si="49">N70-O70</f>
         <v>-1.303846482844531E-7</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B71">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>-0.96379248919723182</v>
       </c>
       <c r="C71">
+        <f t="shared" si="39"/>
+        <v>1.7726792940499032</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="40"/>
+        <v>1.8230398762096311</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="41"/>
+        <v>0.41953468165256802</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="42"/>
+        <v>1.7488472233593564</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="43"/>
+        <v>-4.5652263544578242E-2</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="44"/>
+        <v>8.9212644411919062E-2</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="45"/>
+        <v>-0.18864857396799029</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="46"/>
+        <v>0.39234165524920434</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="47"/>
+        <v>3.2160496839756025E-2</v>
+      </c>
+      <c r="L71" s="1"/>
+      <c r="M71" s="2">
+        <v>0</v>
+      </c>
+      <c r="N71" s="1">
+        <v>-1.080177387236722E-7</v>
+      </c>
+      <c r="O71" s="1">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P71" s="1">
+        <f t="shared" si="49"/>
+        <v>-1.080177387236722E-7</v>
+      </c>
+    </row>
+    <row r="72" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B72">
         <f t="shared" si="38"/>
-        <v>1.7726792940499032</v>
-      </c>
-      <c r="D71">
+        <v>-0.57672012845796017</v>
+      </c>
+      <c r="C72">
         <f t="shared" si="39"/>
-        <v>1.8230398762096311</v>
-      </c>
-      <c r="E71">
+        <v>0.17590184279771043</v>
+      </c>
+      <c r="D72">
         <f t="shared" si="40"/>
         <v>0.41953468165256802</v>
       </c>
-      <c r="F71">
+      <c r="E72">
         <f t="shared" si="41"/>
+        <v>1.6352624986144488</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="42"/>
+        <v>0.15009411186563035</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="43"/>
+        <v>0.37021062936639565</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="44"/>
+        <v>0.10631269654775105</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="45"/>
+        <v>0.22361277711942368</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="46"/>
+        <v>0.26529290926157206</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="47"/>
+        <v>-0.59282520341101386</v>
+      </c>
+      <c r="L72" s="1"/>
+      <c r="M72" s="2">
+        <v>0</v>
+      </c>
+      <c r="N72" s="1">
+        <v>-3.0352808506936456E-6</v>
+      </c>
+      <c r="O72" s="1">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P72" s="1">
+        <f t="shared" si="49"/>
+        <v>-3.0352808506936456E-6</v>
+      </c>
+    </row>
+    <row r="73" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <f t="shared" si="38"/>
+        <v>-0.96931637728991993</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="39"/>
+        <v>1.8906452103309772</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="40"/>
         <v>1.7488472233593564</v>
       </c>
-      <c r="G71">
-        <f t="shared" si="42"/>
-        <v>-4.5652263544578242E-2</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="43"/>
-        <v>8.9212644411919062E-2</v>
-      </c>
-      <c r="I71">
-        <f t="shared" si="44"/>
-        <v>-0.18864857396799029</v>
-      </c>
-      <c r="J71">
-        <f t="shared" si="45"/>
-        <v>0.39234165524920434</v>
-      </c>
-      <c r="K71">
-        <f t="shared" si="46"/>
-        <v>3.2160496839756025E-2</v>
-      </c>
-      <c r="L71" s="1"/>
-      <c r="M71" s="2">
-        <v>0</v>
-      </c>
-      <c r="N71" s="1">
-        <v>-1.080177387236722E-7</v>
-      </c>
-      <c r="O71" s="1">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="P71" s="1">
-        <f t="shared" si="48"/>
-        <v>-1.080177387236722E-7</v>
-      </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B72">
-        <f t="shared" si="37"/>
-        <v>-0.57672012845796017</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="38"/>
-        <v>0.17590184279771043</v>
-      </c>
-      <c r="D72">
-        <f t="shared" si="39"/>
-        <v>0.41953468165256802</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="40"/>
-        <v>1.6352624986144488</v>
-      </c>
-      <c r="F72">
+      <c r="E73">
         <f t="shared" si="41"/>
         <v>0.15009411186563035</v>
       </c>
-      <c r="G72">
+      <c r="F73">
         <f t="shared" si="42"/>
-        <v>0.37021062936639565</v>
-      </c>
-      <c r="H72">
+        <v>1.8729665784382066</v>
+      </c>
+      <c r="G73">
         <f t="shared" si="43"/>
-        <v>0.10631269654775105</v>
-      </c>
-      <c r="I72">
+        <v>-9.7893705001357995E-2</v>
+      </c>
+      <c r="H73">
         <f t="shared" si="44"/>
-        <v>0.22361277711942368</v>
-      </c>
-      <c r="J72">
+        <v>0.25150611276251983</v>
+      </c>
+      <c r="I73">
         <f t="shared" si="45"/>
-        <v>0.26529290926157206</v>
-      </c>
-      <c r="K72">
+        <v>-0.19583327774079309</v>
+      </c>
+      <c r="J73">
         <f t="shared" si="46"/>
-        <v>-0.59282520341101386</v>
-      </c>
-      <c r="L72" s="1"/>
-      <c r="M72" s="2">
-        <v>0</v>
-      </c>
-      <c r="N72" s="1">
-        <v>-3.0352808506936456E-6</v>
-      </c>
-      <c r="O72" s="1">
+        <v>0.40915614482547219</v>
+      </c>
+      <c r="K73">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="P72" s="1">
-        <f t="shared" si="48"/>
-        <v>-3.0352808506936456E-6</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B73">
-        <f t="shared" si="37"/>
-        <v>-0.96931637728991993</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="38"/>
-        <v>1.8906452103309772</v>
-      </c>
-      <c r="D73">
-        <f t="shared" si="39"/>
-        <v>1.7488472233593564</v>
-      </c>
-      <c r="E73">
-        <f t="shared" si="40"/>
-        <v>0.15009411186563035</v>
-      </c>
-      <c r="F73">
-        <f t="shared" si="41"/>
-        <v>1.8729665784382066</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="42"/>
-        <v>-9.7893705001357995E-2</v>
-      </c>
-      <c r="H73">
-        <f t="shared" si="43"/>
-        <v>0.25150611276251983</v>
-      </c>
-      <c r="I73">
-        <f t="shared" si="44"/>
-        <v>-0.19583327774079309</v>
-      </c>
-      <c r="J73">
-        <f t="shared" si="45"/>
-        <v>0.40915614482547219</v>
-      </c>
-      <c r="K73">
-        <f t="shared" si="46"/>
         <v>0.2491861384882178</v>
       </c>
       <c r="L73" s="1"/>
@@ -5588,224 +8832,224 @@
         <v>7.6463696411476878E-8</v>
       </c>
       <c r="O73" s="1">
+        <f t="shared" si="48"/>
+        <v>6.7903960903775828E-8</v>
+      </c>
+      <c r="P73" s="1">
+        <f t="shared" si="49"/>
+        <v>8.5597355077010501E-9</v>
+      </c>
+    </row>
+    <row r="74" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <f t="shared" si="38"/>
+        <v>1.1967515768429082</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="39"/>
+        <v>-7.5331856056183449E-2</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="40"/>
+        <v>-4.5652263544578242E-2</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="41"/>
+        <v>0.37021062936639565</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="42"/>
+        <v>-9.7893705001357995E-2</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="43"/>
+        <v>2.1536073534249942</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="44"/>
+        <v>-1.4231251740354587E-2</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="45"/>
+        <v>2.057358822940083</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="46"/>
+        <v>0.8867206095226885</v>
+      </c>
+      <c r="K74">
         <f t="shared" si="47"/>
-        <v>6.7903960903775828E-8</v>
-      </c>
-      <c r="P73" s="1">
+        <v>-0.55337180240406214</v>
+      </c>
+      <c r="L74" s="1"/>
+      <c r="M74" s="2">
+        <v>0</v>
+      </c>
+      <c r="N74" s="1">
+        <v>-7.3206056524031E-6</v>
+      </c>
+      <c r="O74" s="1">
         <f t="shared" si="48"/>
-        <v>8.5597355077010501E-9</v>
-      </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B74">
-        <f t="shared" si="37"/>
-        <v>1.1967515768429082</v>
-      </c>
-      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="P74" s="1">
+        <f t="shared" si="49"/>
+        <v>-7.3206056524031E-6</v>
+      </c>
+    </row>
+    <row r="75" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B75">
         <f t="shared" si="38"/>
-        <v>-7.5331856056183449E-2</v>
-      </c>
-      <c r="D74">
+        <v>-3.2752227517802754E-2</v>
+      </c>
+      <c r="C75">
         <f t="shared" si="39"/>
-        <v>-4.5652263544578242E-2</v>
-      </c>
-      <c r="E74">
+        <v>0.2733988404107357</v>
+      </c>
+      <c r="D75">
         <f t="shared" si="40"/>
-        <v>0.37021062936639565</v>
-      </c>
-      <c r="F74">
+        <v>8.9212644411919062E-2</v>
+      </c>
+      <c r="E75">
         <f t="shared" si="41"/>
-        <v>-9.7893705001357995E-2</v>
-      </c>
-      <c r="G74">
+        <v>0.10631269654775105</v>
+      </c>
+      <c r="F75">
         <f t="shared" si="42"/>
-        <v>2.1536073534249942</v>
-      </c>
-      <c r="H74">
+        <v>0.25150611276251983</v>
+      </c>
+      <c r="G75">
         <f t="shared" si="43"/>
         <v>-1.4231251740354587E-2</v>
       </c>
-      <c r="I74">
+      <c r="H75">
         <f t="shared" si="44"/>
+        <v>1.9765112186203184</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="45"/>
+        <v>-7.5151895534844885E-3</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="46"/>
+        <v>0.15250663947385068</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="47"/>
+        <v>9.1340142314243339E-2</v>
+      </c>
+      <c r="L75" s="1"/>
+      <c r="M75" s="2">
+        <v>0</v>
+      </c>
+      <c r="N75" s="1">
+        <v>-8.2176475541746682E-7</v>
+      </c>
+      <c r="O75" s="1">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P75" s="1">
+        <f t="shared" si="49"/>
+        <v>-8.2176475541746682E-7</v>
+      </c>
+    </row>
+    <row r="76" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <f t="shared" si="38"/>
+        <v>1.2546468398800441</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="39"/>
+        <v>-0.17929838350179178</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="40"/>
+        <v>-0.18864857396799029</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="41"/>
+        <v>0.22361277711942368</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="42"/>
+        <v>-0.19583327774079309</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="43"/>
         <v>2.057358822940083</v>
       </c>
-      <c r="J74">
-        <f t="shared" si="45"/>
-        <v>0.8867206095226885</v>
-      </c>
-      <c r="K74">
-        <f t="shared" si="46"/>
-        <v>-0.55337180240406214</v>
-      </c>
-      <c r="L74" s="1"/>
-      <c r="M74" s="2">
-        <v>0</v>
-      </c>
-      <c r="N74" s="1">
-        <v>-7.3206056524031E-6</v>
-      </c>
-      <c r="O74" s="1">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="P74" s="1">
-        <f t="shared" si="48"/>
-        <v>-7.3206056524031E-6</v>
-      </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B75">
-        <f t="shared" si="37"/>
-        <v>-3.2752227517802754E-2</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="38"/>
-        <v>0.2733988404107357</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="39"/>
-        <v>8.9212644411919062E-2</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="40"/>
-        <v>0.10631269654775105</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="41"/>
-        <v>0.25150611276251983</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="42"/>
-        <v>-1.4231251740354587E-2</v>
-      </c>
-      <c r="H75">
-        <f t="shared" si="43"/>
-        <v>1.9765112186203184</v>
-      </c>
-      <c r="I75">
+      <c r="H76">
         <f t="shared" si="44"/>
         <v>-7.5151895534844885E-3</v>
       </c>
-      <c r="J75">
+      <c r="I76">
         <f t="shared" si="45"/>
+        <v>2.037889789623438</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="46"/>
+        <v>0.86264721862694205</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="47"/>
+        <v>-0.54288950022057192</v>
+      </c>
+      <c r="L76" s="1"/>
+      <c r="M76" s="2">
+        <v>0</v>
+      </c>
+      <c r="N76" s="1">
+        <v>-7.2883724733946428E-6</v>
+      </c>
+      <c r="O76" s="1">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="P76" s="1">
+        <f t="shared" si="49"/>
+        <v>-7.2883724733946428E-6</v>
+      </c>
+    </row>
+    <row r="77" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <f t="shared" si="38"/>
+        <v>0.184524801578037</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="39"/>
+        <v>0.43239450983700556</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="40"/>
+        <v>0.39234165524920434</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="41"/>
+        <v>0.26529290926157206</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="42"/>
+        <v>0.40915614482547219</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="43"/>
+        <v>0.8867206095226885</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="44"/>
         <v>0.15250663947385068</v>
       </c>
-      <c r="K75">
-        <f t="shared" si="46"/>
-        <v>9.1340142314243339E-2</v>
-      </c>
-      <c r="L75" s="1"/>
-      <c r="M75" s="2">
-        <v>0</v>
-      </c>
-      <c r="N75" s="1">
-        <v>-8.2176475541746682E-7</v>
-      </c>
-      <c r="O75" s="1">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="P75" s="1">
-        <f t="shared" si="48"/>
-        <v>-8.2176475541746682E-7</v>
-      </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B76">
-        <f t="shared" si="37"/>
-        <v>1.2546468398800441</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="38"/>
-        <v>-0.17929838350179178</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="39"/>
-        <v>-0.18864857396799029</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="40"/>
-        <v>0.22361277711942368</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="41"/>
-        <v>-0.19583327774079309</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="42"/>
-        <v>2.057358822940083</v>
-      </c>
-      <c r="H76">
-        <f t="shared" si="43"/>
-        <v>-7.5151895534844885E-3</v>
-      </c>
-      <c r="I76">
-        <f t="shared" si="44"/>
-        <v>2.037889789623438</v>
-      </c>
-      <c r="J76">
+      <c r="I77">
         <f t="shared" si="45"/>
         <v>0.86264721862694205</v>
       </c>
-      <c r="K76">
+      <c r="J77">
         <f t="shared" si="46"/>
-        <v>-0.54288950022057192</v>
-      </c>
-      <c r="L76" s="1"/>
-      <c r="M76" s="2">
-        <v>0</v>
-      </c>
-      <c r="N76" s="1">
-        <v>-7.2883724733946428E-6</v>
-      </c>
-      <c r="O76" s="1">
+        <v>0.86672388986424032</v>
+      </c>
+      <c r="K77">
         <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="P76" s="1">
-        <f t="shared" si="48"/>
-        <v>-7.2883724733946428E-6</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B77">
-        <f t="shared" si="37"/>
-        <v>0.184524801578037</v>
-      </c>
-      <c r="C77">
-        <f t="shared" si="38"/>
-        <v>0.43239450983700556</v>
-      </c>
-      <c r="D77">
-        <f t="shared" si="39"/>
-        <v>0.39234165524920434</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="40"/>
-        <v>0.26529290926157206</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="41"/>
-        <v>0.40915614482547219</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="42"/>
-        <v>0.8867206095226885</v>
-      </c>
-      <c r="H77">
-        <f t="shared" si="43"/>
-        <v>0.15250663947385068</v>
-      </c>
-      <c r="I77">
-        <f t="shared" si="44"/>
-        <v>0.86264721862694205</v>
-      </c>
-      <c r="J77">
-        <f t="shared" si="45"/>
-        <v>0.86672388986424032</v>
-      </c>
-      <c r="K77">
-        <f t="shared" si="46"/>
         <v>-9.9185480714504864E-2</v>
       </c>
       <c r="L77" s="1"/>
@@ -5816,53 +9060,53 @@
         <v>-7.1486709808705085E-6</v>
       </c>
       <c r="O77" s="1">
+        <f t="shared" si="48"/>
+        <v>-2.2519622999983455E-7</v>
+      </c>
+      <c r="P77" s="1">
+        <f t="shared" si="49"/>
+        <v>-6.9234747508706736E-6</v>
+      </c>
+    </row>
+    <row r="78" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <f t="shared" si="38"/>
+        <v>-1.0985976711821541</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="39"/>
+        <v>0.25305913808826286</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="40"/>
+        <v>3.2160496839756025E-2</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="41"/>
+        <v>-0.59282520341101386</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="42"/>
+        <v>0.2491861384882178</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="43"/>
+        <v>-0.55337180240406214</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="44"/>
+        <v>9.1340142314243339E-2</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="45"/>
+        <v>-0.54288950022057192</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="46"/>
+        <v>-9.9185480714504864E-2</v>
+      </c>
+      <c r="K78">
         <f t="shared" si="47"/>
-        <v>-2.2519622999983455E-7</v>
-      </c>
-      <c r="P77" s="1">
-        <f t="shared" si="48"/>
-        <v>-6.9234747508706736E-6</v>
-      </c>
-    </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B78">
-        <f t="shared" si="37"/>
-        <v>-1.0985976711821541</v>
-      </c>
-      <c r="C78">
-        <f t="shared" si="38"/>
-        <v>0.25305913808826286</v>
-      </c>
-      <c r="D78">
-        <f t="shared" si="39"/>
-        <v>3.2160496839756025E-2</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="40"/>
-        <v>-0.59282520341101386</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="41"/>
-        <v>0.2491861384882178</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="42"/>
-        <v>-0.55337180240406214</v>
-      </c>
-      <c r="H78">
-        <f t="shared" si="43"/>
-        <v>9.1340142314243339E-2</v>
-      </c>
-      <c r="I78">
-        <f t="shared" si="44"/>
-        <v>-0.54288950022057192</v>
-      </c>
-      <c r="J78">
-        <f t="shared" si="45"/>
-        <v>-9.9185480714504864E-2</v>
-      </c>
-      <c r="K78">
-        <f t="shared" si="46"/>
         <v>1.9180457355569385</v>
       </c>
       <c r="L78" s="1"/>
@@ -5873,20 +9117,20 @@
         <v>-3.3833765626245E-8</v>
       </c>
       <c r="O78" s="1">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>-1.3789273932602094E-9</v>
       </c>
       <c r="P78" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>-3.2454838232984793E-8</v>
       </c>
     </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B80">
         <f>N58</f>
         <v>2.2519622999999999E-2</v>
@@ -5916,39 +9160,39 @@
         <v>3.1474876619675931</v>
       </c>
       <c r="C82">
-        <f t="shared" ref="C82:K82" si="49">O28</f>
+        <f t="shared" ref="C82:K82" si="50">O28</f>
         <v>-0.98754294842985768</v>
       </c>
       <c r="D82">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-0.96379248919723182</v>
       </c>
       <c r="E82">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-0.57672012845796017</v>
       </c>
       <c r="F82">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-0.96931637728991993</v>
       </c>
       <c r="G82">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1.1967515768429082</v>
       </c>
       <c r="H82">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-3.2752227517802754E-2</v>
       </c>
       <c r="I82">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1.2546468398800441</v>
       </c>
       <c r="J82">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0.184524801578037</v>
       </c>
       <c r="K82">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>-1.0985976711821541</v>
       </c>
       <c r="M82" s="2">
@@ -5969,43 +9213,43 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83">
-        <f t="shared" ref="B83:B91" si="50">N29</f>
+        <f t="shared" ref="B83:B91" si="51">N29</f>
         <v>-0.98754294842985768</v>
       </c>
       <c r="C83">
-        <f t="shared" ref="C83:C91" si="51">O29</f>
+        <f t="shared" ref="C83:C91" si="52">O29</f>
         <v>1.9164815645961251</v>
       </c>
       <c r="D83">
-        <f t="shared" ref="D83:D91" si="52">P29</f>
+        <f t="shared" ref="D83:D91" si="53">P29</f>
         <v>1.7726792940499032</v>
       </c>
       <c r="E83">
-        <f t="shared" ref="E83:E91" si="53">Q29</f>
+        <f t="shared" ref="E83:E91" si="54">Q29</f>
         <v>0.17590184279771043</v>
       </c>
       <c r="F83">
-        <f t="shared" ref="F83:F91" si="54">R29</f>
+        <f t="shared" ref="F83:F91" si="55">R29</f>
         <v>1.8906452103309772</v>
       </c>
       <c r="G83">
-        <f t="shared" ref="G83:G91" si="55">S29</f>
+        <f t="shared" ref="G83:G91" si="56">S29</f>
         <v>-7.5331856056183449E-2</v>
       </c>
       <c r="H83">
-        <f t="shared" ref="H83:H91" si="56">T29</f>
+        <f t="shared" ref="H83:H91" si="57">T29</f>
         <v>0.2733988404107357</v>
       </c>
       <c r="I83">
-        <f t="shared" ref="I83:I91" si="57">U29</f>
+        <f t="shared" ref="I83:I91" si="58">U29</f>
         <v>-0.17929838350179178</v>
       </c>
       <c r="J83">
-        <f t="shared" ref="J83:J91" si="58">V29</f>
+        <f t="shared" ref="J83:J91" si="59">V29</f>
         <v>0.43239450983700556</v>
       </c>
       <c r="K83">
-        <f t="shared" ref="K83:K91" si="59">W29</f>
+        <f t="shared" ref="K83:K91" si="60">W29</f>
         <v>0.25305913808826286</v>
       </c>
       <c r="M83" s="2">
@@ -6015,445 +9259,445 @@
         <v>-1.2924511841819103E-9</v>
       </c>
       <c r="O83" s="1">
-        <f t="shared" ref="O83:O91" si="60">M83*$B$93</f>
+        <f t="shared" ref="O83:O91" si="61">M83*$B$93</f>
         <v>0</v>
       </c>
       <c r="P83" s="1">
-        <f t="shared" ref="P83:P91" si="61">N83-O83</f>
+        <f t="shared" ref="P83:P91" si="62">N83-O83</f>
         <v>-1.2924511841819103E-9</v>
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B84">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>-0.96379248919723182</v>
       </c>
       <c r="C84">
+        <f t="shared" si="52"/>
+        <v>1.7726792940499032</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="53"/>
+        <v>1.8230398762096311</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="54"/>
+        <v>0.41953468165256802</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="55"/>
+        <v>1.7488472233593564</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="56"/>
+        <v>-4.5652263544578242E-2</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="57"/>
+        <v>8.9212644411919062E-2</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="58"/>
+        <v>-0.18864857396799029</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="59"/>
+        <v>0.39234165524920434</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="60"/>
+        <v>3.2160496839756025E-2</v>
+      </c>
+      <c r="M84" s="2">
+        <v>8.8786018683982782E-8</v>
+      </c>
+      <c r="N84" s="1">
+        <v>9.8751788577319147E-10</v>
+      </c>
+      <c r="O84" s="1">
+        <f t="shared" si="61"/>
+        <v>7.2553279766592087E-9</v>
+      </c>
+      <c r="P84" s="1">
+        <f t="shared" si="62"/>
+        <v>-6.2678100908860174E-9</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B85">
         <f t="shared" si="51"/>
-        <v>1.7726792940499032</v>
-      </c>
-      <c r="D84">
+        <v>-0.57672012845796017</v>
+      </c>
+      <c r="C85">
         <f t="shared" si="52"/>
-        <v>1.8230398762096311</v>
-      </c>
-      <c r="E84">
+        <v>0.17590184279771043</v>
+      </c>
+      <c r="D85">
         <f t="shared" si="53"/>
         <v>0.41953468165256802</v>
       </c>
-      <c r="F84">
+      <c r="E85">
         <f t="shared" si="54"/>
+        <v>1.6352624986144488</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="55"/>
+        <v>0.15009411186563035</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="56"/>
+        <v>0.37021062936639565</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="57"/>
+        <v>0.10631269654775105</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="58"/>
+        <v>0.22361277711942368</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="59"/>
+        <v>0.26529290926157206</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="60"/>
+        <v>-0.59282520341101386</v>
+      </c>
+      <c r="M85" s="2">
+        <v>-7.4962516850374597E-8</v>
+      </c>
+      <c r="N85" s="1">
+        <v>-3.4271044964332842E-7</v>
+      </c>
+      <c r="O85" s="1">
+        <f t="shared" si="61"/>
+        <v>-6.1257127390872303E-9</v>
+      </c>
+      <c r="P85" s="1">
+        <f t="shared" si="62"/>
+        <v>-3.3658473690424117E-7</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <f t="shared" si="51"/>
+        <v>-0.96931637728991993</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="52"/>
+        <v>1.8906452103309772</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="53"/>
         <v>1.7488472233593564</v>
       </c>
-      <c r="G84">
-        <f t="shared" si="55"/>
-        <v>-4.5652263544578242E-2</v>
-      </c>
-      <c r="H84">
-        <f t="shared" si="56"/>
-        <v>8.9212644411919062E-2</v>
-      </c>
-      <c r="I84">
-        <f t="shared" si="57"/>
-        <v>-0.18864857396799029</v>
-      </c>
-      <c r="J84">
-        <f t="shared" si="58"/>
-        <v>0.39234165524920434</v>
-      </c>
-      <c r="K84">
-        <f t="shared" si="59"/>
-        <v>3.2160496839756025E-2</v>
-      </c>
-      <c r="M84" s="2">
-        <v>8.8786018683982782E-8</v>
-      </c>
-      <c r="N84" s="1">
-        <v>9.8751788577319147E-10</v>
-      </c>
-      <c r="O84" s="1">
-        <f t="shared" si="60"/>
-        <v>7.2553279766592087E-9</v>
-      </c>
-      <c r="P84" s="1">
-        <f t="shared" si="61"/>
-        <v>-6.2678100908860174E-9</v>
-      </c>
-    </row>
-    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B85">
-        <f t="shared" si="50"/>
-        <v>-0.57672012845796017</v>
-      </c>
-      <c r="C85">
-        <f t="shared" si="51"/>
-        <v>0.17590184279771043</v>
-      </c>
-      <c r="D85">
-        <f t="shared" si="52"/>
-        <v>0.41953468165256802</v>
-      </c>
-      <c r="E85">
-        <f t="shared" si="53"/>
-        <v>1.6352624986144488</v>
-      </c>
-      <c r="F85">
+      <c r="E86">
         <f t="shared" si="54"/>
         <v>0.15009411186563035</v>
       </c>
-      <c r="G85">
+      <c r="F86">
         <f t="shared" si="55"/>
+        <v>1.8729665784382066</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="56"/>
+        <v>-9.7893705001357995E-2</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="57"/>
+        <v>0.25150611276251983</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="58"/>
+        <v>-0.19583327774079309</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="59"/>
+        <v>0.40915614482547219</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="60"/>
+        <v>0.2491861384882178</v>
+      </c>
+      <c r="M86" s="2">
+        <v>2.0516713155500698E-7</v>
+      </c>
+      <c r="N86" s="1">
+        <v>1.8327891269563834E-8</v>
+      </c>
+      <c r="O86" s="1">
+        <f t="shared" si="61"/>
+        <v>1.6765644540951823E-8</v>
+      </c>
+      <c r="P86" s="1">
+        <f t="shared" si="62"/>
+        <v>1.5622467286120105E-9</v>
+      </c>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <f t="shared" si="51"/>
+        <v>1.1967515768429082</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="52"/>
+        <v>-7.5331856056183449E-2</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="53"/>
+        <v>-4.5652263544578242E-2</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="54"/>
         <v>0.37021062936639565</v>
       </c>
-      <c r="H85">
-        <f t="shared" si="56"/>
-        <v>0.10631269654775105</v>
-      </c>
-      <c r="I85">
-        <f t="shared" si="57"/>
-        <v>0.22361277711942368</v>
-      </c>
-      <c r="J85">
-        <f t="shared" si="58"/>
-        <v>0.26529290926157206</v>
-      </c>
-      <c r="K85">
-        <f t="shared" si="59"/>
-        <v>-0.59282520341101386</v>
-      </c>
-      <c r="M85" s="2">
-        <v>-7.4962516850374597E-8</v>
-      </c>
-      <c r="N85" s="1">
-        <v>-3.4271044964332842E-7</v>
-      </c>
-      <c r="O85" s="1">
-        <f t="shared" si="60"/>
-        <v>-6.1257127390872303E-9</v>
-      </c>
-      <c r="P85" s="1">
-        <f t="shared" si="61"/>
-        <v>-3.3658473690424117E-7</v>
-      </c>
-    </row>
-    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B86">
-        <f t="shared" si="50"/>
-        <v>-0.96931637728991993</v>
-      </c>
-      <c r="C86">
-        <f t="shared" si="51"/>
-        <v>1.8906452103309772</v>
-      </c>
-      <c r="D86">
-        <f t="shared" si="52"/>
-        <v>1.7488472233593564</v>
-      </c>
-      <c r="E86">
-        <f t="shared" si="53"/>
-        <v>0.15009411186563035</v>
-      </c>
-      <c r="F86">
-        <f t="shared" si="54"/>
-        <v>1.8729665784382066</v>
-      </c>
-      <c r="G86">
+      <c r="F87">
         <f t="shared" si="55"/>
         <v>-9.7893705001357995E-2</v>
       </c>
-      <c r="H86">
+      <c r="G87">
         <f t="shared" si="56"/>
+        <v>2.1536073534249942</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="57"/>
+        <v>-1.4231251740354587E-2</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="58"/>
+        <v>2.057358822940083</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="59"/>
+        <v>0.8867206095226885</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="60"/>
+        <v>-0.55337180240406214</v>
+      </c>
+      <c r="M87" s="2">
+        <v>1.9612614337391065E-8</v>
+      </c>
+      <c r="N87" s="1">
+        <v>-6.8056454734296473E-7</v>
+      </c>
+      <c r="O87" s="1">
+        <f t="shared" si="61"/>
+        <v>1.6026842019347291E-9</v>
+      </c>
+      <c r="P87" s="1">
+        <f t="shared" si="62"/>
+        <v>-6.8216723154489951E-7</v>
+      </c>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <f t="shared" si="51"/>
+        <v>-3.2752227517802754E-2</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="52"/>
+        <v>0.2733988404107357</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="53"/>
+        <v>8.9212644411919062E-2</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="54"/>
+        <v>0.10631269654775105</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="55"/>
         <v>0.25150611276251983</v>
       </c>
-      <c r="I86">
-        <f t="shared" si="57"/>
-        <v>-0.19583327774079309</v>
-      </c>
-      <c r="J86">
-        <f t="shared" si="58"/>
-        <v>0.40915614482547219</v>
-      </c>
-      <c r="K86">
-        <f t="shared" si="59"/>
-        <v>0.2491861384882178</v>
-      </c>
-      <c r="M86" s="2">
-        <v>2.0516713155500698E-7</v>
-      </c>
-      <c r="N86" s="1">
-        <v>1.8327891269563834E-8</v>
-      </c>
-      <c r="O86" s="1">
-        <f t="shared" si="60"/>
-        <v>1.6765644540951823E-8</v>
-      </c>
-      <c r="P86" s="1">
-        <f t="shared" si="61"/>
-        <v>1.5622467286120105E-9</v>
-      </c>
-    </row>
-    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B87">
-        <f t="shared" si="50"/>
-        <v>1.1967515768429082</v>
-      </c>
-      <c r="C87">
-        <f t="shared" si="51"/>
-        <v>-7.5331856056183449E-2</v>
-      </c>
-      <c r="D87">
-        <f t="shared" si="52"/>
-        <v>-4.5652263544578242E-2</v>
-      </c>
-      <c r="E87">
-        <f t="shared" si="53"/>
-        <v>0.37021062936639565</v>
-      </c>
-      <c r="F87">
-        <f t="shared" si="54"/>
-        <v>-9.7893705001357995E-2</v>
-      </c>
-      <c r="G87">
-        <f t="shared" si="55"/>
-        <v>2.1536073534249942</v>
-      </c>
-      <c r="H87">
+      <c r="G88">
         <f t="shared" si="56"/>
         <v>-1.4231251740354587E-2</v>
       </c>
-      <c r="I87">
+      <c r="H88">
         <f t="shared" si="57"/>
+        <v>1.9765112186203184</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="58"/>
+        <v>-7.5151895534844885E-3</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="59"/>
+        <v>0.15250663947385068</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="60"/>
+        <v>9.1340142314243339E-2</v>
+      </c>
+      <c r="M88" s="2">
+        <v>1.7260262429167855E-8</v>
+      </c>
+      <c r="N88" s="1">
+        <v>-6.8443026490257893E-8</v>
+      </c>
+      <c r="O88" s="1">
+        <f t="shared" si="61"/>
+        <v>1.410457037526934E-9</v>
+      </c>
+      <c r="P88" s="1">
+        <f t="shared" si="62"/>
+        <v>-6.9853483527784829E-8</v>
+      </c>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <f t="shared" si="51"/>
+        <v>1.2546468398800441</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="52"/>
+        <v>-0.17929838350179178</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="53"/>
+        <v>-0.18864857396799029</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="54"/>
+        <v>0.22361277711942368</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="55"/>
+        <v>-0.19583327774079309</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="56"/>
         <v>2.057358822940083</v>
       </c>
-      <c r="J87">
-        <f t="shared" si="58"/>
-        <v>0.8867206095226885</v>
-      </c>
-      <c r="K87">
-        <f t="shared" si="59"/>
-        <v>-0.55337180240406214</v>
-      </c>
-      <c r="M87" s="2">
-        <v>1.9612614337391065E-8</v>
-      </c>
-      <c r="N87" s="1">
-        <v>-6.8056454734296473E-7</v>
-      </c>
-      <c r="O87" s="1">
-        <f t="shared" si="60"/>
-        <v>1.6026842019347291E-9</v>
-      </c>
-      <c r="P87" s="1">
-        <f t="shared" si="61"/>
-        <v>-6.8216723154489951E-7</v>
-      </c>
-    </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B88">
-        <f t="shared" si="50"/>
-        <v>-3.2752227517802754E-2</v>
-      </c>
-      <c r="C88">
-        <f t="shared" si="51"/>
-        <v>0.2733988404107357</v>
-      </c>
-      <c r="D88">
-        <f t="shared" si="52"/>
-        <v>8.9212644411919062E-2</v>
-      </c>
-      <c r="E88">
-        <f t="shared" si="53"/>
-        <v>0.10631269654775105</v>
-      </c>
-      <c r="F88">
-        <f t="shared" si="54"/>
-        <v>0.25150611276251983</v>
-      </c>
-      <c r="G88">
-        <f t="shared" si="55"/>
-        <v>-1.4231251740354587E-2</v>
-      </c>
-      <c r="H88">
-        <f t="shared" si="56"/>
-        <v>1.9765112186203184</v>
-      </c>
-      <c r="I88">
+      <c r="H89">
         <f t="shared" si="57"/>
         <v>-7.5151895534844885E-3</v>
       </c>
-      <c r="J88">
+      <c r="I89">
         <f t="shared" si="58"/>
+        <v>2.037889789623438</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="59"/>
+        <v>0.86264721862694205</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="60"/>
+        <v>-0.54288950022057192</v>
+      </c>
+      <c r="M89" s="2">
+        <v>1.8895558565711105E-8</v>
+      </c>
+      <c r="N89" s="1">
+        <v>-6.7523721188760773E-7</v>
+      </c>
+      <c r="O89" s="1">
+        <f t="shared" si="61"/>
+        <v>1.5440885482698001E-9</v>
+      </c>
+      <c r="P89" s="1">
+        <f t="shared" si="62"/>
+        <v>-6.767813004358775E-7</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <f t="shared" si="51"/>
+        <v>0.184524801578037</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="52"/>
+        <v>0.43239450983700556</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="53"/>
+        <v>0.39234165524920434</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="54"/>
+        <v>0.26529290926157206</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="55"/>
+        <v>0.40915614482547219</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="56"/>
+        <v>0.8867206095226885</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="57"/>
         <v>0.15250663947385068</v>
       </c>
-      <c r="K88">
-        <f t="shared" si="59"/>
-        <v>9.1340142314243339E-2</v>
-      </c>
-      <c r="M88" s="2">
-        <v>1.7260262429167855E-8</v>
-      </c>
-      <c r="N88" s="1">
-        <v>-6.8443026490257893E-8</v>
-      </c>
-      <c r="O88" s="1">
-        <f t="shared" si="60"/>
-        <v>1.410457037526934E-9</v>
-      </c>
-      <c r="P88" s="1">
-        <f t="shared" si="61"/>
-        <v>-6.9853483527784829E-8</v>
-      </c>
-    </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B89">
-        <f t="shared" si="50"/>
-        <v>1.2546468398800441</v>
-      </c>
-      <c r="C89">
-        <f t="shared" si="51"/>
-        <v>-0.17929838350179178</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="52"/>
-        <v>-0.18864857396799029</v>
-      </c>
-      <c r="E89">
-        <f t="shared" si="53"/>
-        <v>0.22361277711942368</v>
-      </c>
-      <c r="F89">
-        <f t="shared" si="54"/>
-        <v>-0.19583327774079309</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="55"/>
-        <v>2.057358822940083</v>
-      </c>
-      <c r="H89">
-        <f t="shared" si="56"/>
-        <v>-7.5151895534844885E-3</v>
-      </c>
-      <c r="I89">
-        <f t="shared" si="57"/>
-        <v>2.037889789623438</v>
-      </c>
-      <c r="J89">
+      <c r="I90">
         <f t="shared" si="58"/>
         <v>0.86264721862694205</v>
       </c>
-      <c r="K89">
+      <c r="J90">
         <f t="shared" si="59"/>
+        <v>0.86672388986424032</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="60"/>
+        <v>-9.9185480714504864E-2</v>
+      </c>
+      <c r="M90" s="2">
+        <v>-9.6629898812502725E-7</v>
+      </c>
+      <c r="N90" s="1">
+        <v>-6.7917020352397417E-7</v>
+      </c>
+      <c r="O90" s="1">
+        <f t="shared" si="61"/>
+        <v>-7.8963064075602744E-8</v>
+      </c>
+      <c r="P90" s="1">
+        <f t="shared" si="62"/>
+        <v>-6.0020713944837143E-7</v>
+      </c>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <f t="shared" si="51"/>
+        <v>-1.0985976711821541</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="52"/>
+        <v>0.25305913808826286</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="53"/>
+        <v>3.2160496839756025E-2</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="54"/>
+        <v>-0.59282520341101386</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="55"/>
+        <v>0.2491861384882178</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="56"/>
+        <v>-0.55337180240406214</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="57"/>
+        <v>9.1340142314243339E-2</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="58"/>
         <v>-0.54288950022057192</v>
       </c>
-      <c r="M89" s="2">
-        <v>1.8895558565711105E-8</v>
-      </c>
-      <c r="N89" s="1">
-        <v>-6.7523721188760773E-7</v>
-      </c>
-      <c r="O89" s="1">
-        <f t="shared" si="60"/>
-        <v>1.5440885482698001E-9</v>
-      </c>
-      <c r="P89" s="1">
-        <f t="shared" si="61"/>
-        <v>-6.767813004358775E-7</v>
-      </c>
-    </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B90">
-        <f t="shared" si="50"/>
-        <v>0.184524801578037</v>
-      </c>
-      <c r="C90">
-        <f t="shared" si="51"/>
-        <v>0.43239450983700556</v>
-      </c>
-      <c r="D90">
-        <f t="shared" si="52"/>
-        <v>0.39234165524920434</v>
-      </c>
-      <c r="E90">
-        <f t="shared" si="53"/>
-        <v>0.26529290926157206</v>
-      </c>
-      <c r="F90">
-        <f t="shared" si="54"/>
-        <v>0.40915614482547219</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="55"/>
-        <v>0.8867206095226885</v>
-      </c>
-      <c r="H90">
-        <f t="shared" si="56"/>
-        <v>0.15250663947385068</v>
-      </c>
-      <c r="I90">
-        <f t="shared" si="57"/>
-        <v>0.86264721862694205</v>
-      </c>
-      <c r="J90">
-        <f t="shared" si="58"/>
-        <v>0.86672388986424032</v>
-      </c>
-      <c r="K90">
+      <c r="J91">
         <f t="shared" si="59"/>
         <v>-9.9185480714504864E-2</v>
       </c>
-      <c r="M90" s="2">
-        <v>-9.6629898812502725E-7</v>
-      </c>
-      <c r="N90" s="1">
-        <v>-6.7917020352397417E-7</v>
-      </c>
-      <c r="O90" s="1">
+      <c r="K91">
         <f t="shared" si="60"/>
-        <v>-7.8963064075602744E-8</v>
-      </c>
-      <c r="P90" s="1">
-        <f t="shared" si="61"/>
-        <v>-6.0020713944837143E-7</v>
-      </c>
-    </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B91">
-        <f t="shared" si="50"/>
-        <v>-1.0985976711821541</v>
-      </c>
-      <c r="C91">
-        <f t="shared" si="51"/>
-        <v>0.25305913808826286</v>
-      </c>
-      <c r="D91">
-        <f t="shared" si="52"/>
-        <v>3.2160496839756025E-2</v>
-      </c>
-      <c r="E91">
-        <f t="shared" si="53"/>
-        <v>-0.59282520341101386</v>
-      </c>
-      <c r="F91">
-        <f t="shared" si="54"/>
-        <v>0.2491861384882178</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="55"/>
-        <v>-0.55337180240406214</v>
-      </c>
-      <c r="H91">
-        <f t="shared" si="56"/>
-        <v>9.1340142314243339E-2</v>
-      </c>
-      <c r="I91">
-        <f t="shared" si="57"/>
-        <v>-0.54288950022057192</v>
-      </c>
-      <c r="J91">
-        <f t="shared" si="58"/>
-        <v>-9.9185480714504864E-2</v>
-      </c>
-      <c r="K91">
-        <f t="shared" si="59"/>
         <v>1.9180457355569385</v>
       </c>
       <c r="M91" s="2">
@@ -6463,11 +9707,11 @@
         <v>-2.8840033200528141E-9</v>
       </c>
       <c r="O91" s="1">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>-2.4570526871630655E-9</v>
       </c>
       <c r="P91" s="1">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>-4.2695063288974862E-10</v>
       </c>
     </row>
@@ -6506,39 +9750,39 @@
         <v>3.1474876619675931</v>
       </c>
       <c r="C95">
-        <f t="shared" ref="C95:K95" si="62">O28</f>
+        <f t="shared" ref="C95:K95" si="63">O28</f>
         <v>-0.98754294842985768</v>
       </c>
       <c r="D95">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-0.96379248919723182</v>
       </c>
       <c r="E95">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-0.57672012845796017</v>
       </c>
       <c r="F95">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-0.96931637728991993</v>
       </c>
       <c r="G95">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1.1967515768429082</v>
       </c>
       <c r="H95">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-3.2752227517802754E-2</v>
       </c>
       <c r="I95">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>1.2546468398800441</v>
       </c>
       <c r="J95">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>0.184524801578037</v>
       </c>
       <c r="K95">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>-1.0985976711821541</v>
       </c>
       <c r="M95" s="2">
@@ -6559,43 +9803,43 @@
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B96">
-        <f t="shared" ref="B96:B104" si="63">N29</f>
+        <f t="shared" ref="B96:B104" si="64">N29</f>
         <v>-0.98754294842985768</v>
       </c>
       <c r="C96">
-        <f t="shared" ref="C96:C104" si="64">O29</f>
+        <f t="shared" ref="C96:C104" si="65">O29</f>
         <v>1.9164815645961251</v>
       </c>
       <c r="D96">
-        <f t="shared" ref="D96:D104" si="65">P29</f>
+        <f t="shared" ref="D96:D104" si="66">P29</f>
         <v>1.7726792940499032</v>
       </c>
       <c r="E96">
-        <f t="shared" ref="E96:E104" si="66">Q29</f>
+        <f t="shared" ref="E96:E104" si="67">Q29</f>
         <v>0.17590184279771043</v>
       </c>
       <c r="F96">
-        <f t="shared" ref="F96:F104" si="67">R29</f>
+        <f t="shared" ref="F96:F104" si="68">R29</f>
         <v>1.8906452103309772</v>
       </c>
       <c r="G96">
-        <f t="shared" ref="G96:G104" si="68">S29</f>
+        <f t="shared" ref="G96:G104" si="69">S29</f>
         <v>-7.5331856056183449E-2</v>
       </c>
       <c r="H96">
-        <f t="shared" ref="H96:H104" si="69">T29</f>
+        <f t="shared" ref="H96:H104" si="70">T29</f>
         <v>0.2733988404107357</v>
       </c>
       <c r="I96">
-        <f t="shared" ref="I96:I104" si="70">U29</f>
+        <f t="shared" ref="I96:I104" si="71">U29</f>
         <v>-0.17929838350179178</v>
       </c>
       <c r="J96">
-        <f t="shared" ref="J96:J104" si="71">V29</f>
+        <f t="shared" ref="J96:J104" si="72">V29</f>
         <v>0.43239450983700556</v>
       </c>
       <c r="K96">
-        <f t="shared" ref="K96:K104" si="72">W29</f>
+        <f t="shared" ref="K96:K104" si="73">W29</f>
         <v>0.25305913808826286</v>
       </c>
       <c r="M96" s="2">
@@ -6605,445 +9849,445 @@
         <v>1.8207943484035104E-9</v>
       </c>
       <c r="O96" s="1">
-        <f t="shared" ref="O96:O104" si="73">M96*$B$106</f>
+        <f t="shared" ref="O96:O104" si="74">M96*$B$106</f>
         <v>0</v>
       </c>
       <c r="P96" s="1">
-        <f t="shared" ref="P96:P104" si="74">N96-O96</f>
+        <f t="shared" ref="P96:P104" si="75">N96-O96</f>
         <v>1.8207943484035104E-9</v>
       </c>
     </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>-0.96379248919723182</v>
       </c>
       <c r="C97">
+        <f t="shared" si="65"/>
+        <v>1.7726792940499032</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="66"/>
+        <v>1.8230398762096311</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="67"/>
+        <v>0.41953468165256802</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="68"/>
+        <v>1.7488472233593564</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="69"/>
+        <v>-4.5652263544578242E-2</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="70"/>
+        <v>8.9212644411919062E-2</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="71"/>
+        <v>-0.18864857396799029</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="72"/>
+        <v>0.39234165524920434</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="73"/>
+        <v>3.2160496839756025E-2</v>
+      </c>
+      <c r="M97" s="2">
+        <v>0</v>
+      </c>
+      <c r="N97" s="1">
+        <v>7.8332443291862141E-10</v>
+      </c>
+      <c r="O97" s="1">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="P97" s="1">
+        <f t="shared" si="75"/>
+        <v>7.8332443291862141E-10</v>
+      </c>
+    </row>
+    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B98">
         <f t="shared" si="64"/>
-        <v>1.7726792940499032</v>
-      </c>
-      <c r="D97">
+        <v>-0.57672012845796017</v>
+      </c>
+      <c r="C98">
         <f t="shared" si="65"/>
-        <v>1.8230398762096311</v>
-      </c>
-      <c r="E97">
+        <v>0.17590184279771043</v>
+      </c>
+      <c r="D98">
         <f t="shared" si="66"/>
         <v>0.41953468165256802</v>
       </c>
-      <c r="F97">
+      <c r="E98">
         <f t="shared" si="67"/>
+        <v>1.6352624986144488</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="68"/>
+        <v>0.15009411186563035</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="69"/>
+        <v>0.37021062936639565</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="70"/>
+        <v>0.10631269654775105</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="71"/>
+        <v>0.22361277711942368</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="72"/>
+        <v>0.26529290926157206</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="73"/>
+        <v>-0.59282520341101386</v>
+      </c>
+      <c r="M98" s="2">
+        <v>0</v>
+      </c>
+      <c r="N98" s="1">
+        <v>-3.8617527251814192E-9</v>
+      </c>
+      <c r="O98" s="1">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="P98" s="1">
+        <f t="shared" si="75"/>
+        <v>-3.8617527251814192E-9</v>
+      </c>
+    </row>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <f t="shared" si="64"/>
+        <v>-0.96931637728991993</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="65"/>
+        <v>1.8906452103309772</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="66"/>
         <v>1.7488472233593564</v>
       </c>
-      <c r="G97">
-        <f t="shared" si="68"/>
-        <v>-4.5652263544578242E-2</v>
-      </c>
-      <c r="H97">
-        <f t="shared" si="69"/>
-        <v>8.9212644411919062E-2</v>
-      </c>
-      <c r="I97">
-        <f t="shared" si="70"/>
-        <v>-0.18864857396799029</v>
-      </c>
-      <c r="J97">
-        <f t="shared" si="71"/>
-        <v>0.39234165524920434</v>
-      </c>
-      <c r="K97">
-        <f t="shared" si="72"/>
-        <v>3.2160496839756025E-2</v>
-      </c>
-      <c r="M97" s="2">
-        <v>0</v>
-      </c>
-      <c r="N97" s="1">
-        <v>7.8332443291862141E-10</v>
-      </c>
-      <c r="O97" s="1">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="P97" s="1">
-        <f t="shared" si="74"/>
-        <v>7.8332443291862141E-10</v>
-      </c>
-    </row>
-    <row r="98" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B98">
-        <f t="shared" si="63"/>
-        <v>-0.57672012845796017</v>
-      </c>
-      <c r="C98">
-        <f t="shared" si="64"/>
-        <v>0.17590184279771043</v>
-      </c>
-      <c r="D98">
-        <f t="shared" si="65"/>
-        <v>0.41953468165256802</v>
-      </c>
-      <c r="E98">
-        <f t="shared" si="66"/>
-        <v>1.6352624986144488</v>
-      </c>
-      <c r="F98">
+      <c r="E99">
         <f t="shared" si="67"/>
         <v>0.15009411186563035</v>
       </c>
-      <c r="G98">
+      <c r="F99">
         <f t="shared" si="68"/>
+        <v>1.8729665784382066</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="69"/>
+        <v>-9.7893705001357995E-2</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="70"/>
+        <v>0.25150611276251983</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="71"/>
+        <v>-0.19583327774079309</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="72"/>
+        <v>0.40915614482547219</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="73"/>
+        <v>0.2491861384882178</v>
+      </c>
+      <c r="M99" s="2">
+        <v>2.4105430108598003E-9</v>
+      </c>
+      <c r="N99" s="1">
+        <v>1.8315161780103881E-9</v>
+      </c>
+      <c r="O99" s="1">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="P99" s="1">
+        <f t="shared" si="75"/>
+        <v>1.8315161780103881E-9</v>
+      </c>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <f t="shared" si="64"/>
+        <v>1.1967515768429082</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="65"/>
+        <v>-7.5331856056183449E-2</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="66"/>
+        <v>-4.5652263544578242E-2</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="67"/>
         <v>0.37021062936639565</v>
       </c>
-      <c r="H98">
-        <f t="shared" si="69"/>
-        <v>0.10631269654775105</v>
-      </c>
-      <c r="I98">
-        <f t="shared" si="70"/>
-        <v>0.22361277711942368</v>
-      </c>
-      <c r="J98">
-        <f t="shared" si="71"/>
-        <v>0.26529290926157206</v>
-      </c>
-      <c r="K98">
-        <f t="shared" si="72"/>
-        <v>-0.59282520341101386</v>
-      </c>
-      <c r="M98" s="2">
-        <v>0</v>
-      </c>
-      <c r="N98" s="1">
-        <v>-3.8617527251814192E-9</v>
-      </c>
-      <c r="O98" s="1">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="P98" s="1">
-        <f t="shared" si="74"/>
-        <v>-3.8617527251814192E-9</v>
-      </c>
-    </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B99">
-        <f t="shared" si="63"/>
-        <v>-0.96931637728991993</v>
-      </c>
-      <c r="C99">
-        <f t="shared" si="64"/>
-        <v>1.8906452103309772</v>
-      </c>
-      <c r="D99">
-        <f t="shared" si="65"/>
-        <v>1.7488472233593564</v>
-      </c>
-      <c r="E99">
-        <f t="shared" si="66"/>
-        <v>0.15009411186563035</v>
-      </c>
-      <c r="F99">
-        <f t="shared" si="67"/>
-        <v>1.8729665784382066</v>
-      </c>
-      <c r="G99">
+      <c r="F100">
         <f t="shared" si="68"/>
         <v>-9.7893705001357995E-2</v>
       </c>
-      <c r="H99">
+      <c r="G100">
         <f t="shared" si="69"/>
+        <v>2.1536073534249942</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="70"/>
+        <v>-1.4231251740354587E-2</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="71"/>
+        <v>2.057358822940083</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="72"/>
+        <v>0.8867206095226885</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="73"/>
+        <v>-0.55337180240406214</v>
+      </c>
+      <c r="M100" s="2">
+        <v>0</v>
+      </c>
+      <c r="N100" s="1">
+        <v>2.205948142742532E-9</v>
+      </c>
+      <c r="O100" s="1">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="P100" s="1">
+        <f t="shared" si="75"/>
+        <v>2.205948142742532E-9</v>
+      </c>
+    </row>
+    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <f t="shared" si="64"/>
+        <v>-3.2752227517802754E-2</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="65"/>
+        <v>0.2733988404107357</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="66"/>
+        <v>8.9212644411919062E-2</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="67"/>
+        <v>0.10631269654775105</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="68"/>
         <v>0.25150611276251983</v>
       </c>
-      <c r="I99">
-        <f t="shared" si="70"/>
-        <v>-0.19583327774079309</v>
-      </c>
-      <c r="J99">
-        <f t="shared" si="71"/>
-        <v>0.40915614482547219</v>
-      </c>
-      <c r="K99">
-        <f t="shared" si="72"/>
-        <v>0.2491861384882178</v>
-      </c>
-      <c r="M99" s="2">
-        <v>2.4105430108598003E-9</v>
-      </c>
-      <c r="N99" s="1">
-        <v>1.8315161780103881E-9</v>
-      </c>
-      <c r="O99" s="1">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="P99" s="1">
-        <f t="shared" si="74"/>
-        <v>1.8315161780103881E-9</v>
-      </c>
-    </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B100">
-        <f t="shared" si="63"/>
-        <v>1.1967515768429082</v>
-      </c>
-      <c r="C100">
-        <f t="shared" si="64"/>
-        <v>-7.5331856056183449E-2</v>
-      </c>
-      <c r="D100">
-        <f t="shared" si="65"/>
-        <v>-4.5652263544578242E-2</v>
-      </c>
-      <c r="E100">
-        <f t="shared" si="66"/>
-        <v>0.37021062936639565</v>
-      </c>
-      <c r="F100">
-        <f t="shared" si="67"/>
-        <v>-9.7893705001357995E-2</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="68"/>
-        <v>2.1536073534249942</v>
-      </c>
-      <c r="H100">
+      <c r="G101">
         <f t="shared" si="69"/>
         <v>-1.4231251740354587E-2</v>
       </c>
-      <c r="I100">
+      <c r="H101">
         <f t="shared" si="70"/>
+        <v>1.9765112186203184</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="71"/>
+        <v>-7.5151895534844885E-3</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="72"/>
+        <v>0.15250663947385068</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="73"/>
+        <v>9.1340142314243339E-2</v>
+      </c>
+      <c r="M101" s="2">
+        <v>0</v>
+      </c>
+      <c r="N101" s="1">
+        <v>8.0953853778513456E-10</v>
+      </c>
+      <c r="O101" s="1">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="P101" s="1">
+        <f t="shared" si="75"/>
+        <v>8.0953853778513456E-10</v>
+      </c>
+    </row>
+    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <f t="shared" si="64"/>
+        <v>1.2546468398800441</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="65"/>
+        <v>-0.17929838350179178</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="66"/>
+        <v>-0.18864857396799029</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="67"/>
+        <v>0.22361277711942368</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="68"/>
+        <v>-0.19583327774079309</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="69"/>
         <v>2.057358822940083</v>
       </c>
-      <c r="J100">
-        <f t="shared" si="71"/>
-        <v>0.8867206095226885</v>
-      </c>
-      <c r="K100">
-        <f t="shared" si="72"/>
-        <v>-0.55337180240406214</v>
-      </c>
-      <c r="M100" s="2">
-        <v>0</v>
-      </c>
-      <c r="N100" s="1">
-        <v>2.205948142742532E-9</v>
-      </c>
-      <c r="O100" s="1">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="P100" s="1">
-        <f t="shared" si="74"/>
-        <v>2.205948142742532E-9</v>
-      </c>
-    </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B101">
-        <f t="shared" si="63"/>
-        <v>-3.2752227517802754E-2</v>
-      </c>
-      <c r="C101">
-        <f t="shared" si="64"/>
-        <v>0.2733988404107357</v>
-      </c>
-      <c r="D101">
-        <f t="shared" si="65"/>
-        <v>8.9212644411919062E-2</v>
-      </c>
-      <c r="E101">
-        <f t="shared" si="66"/>
-        <v>0.10631269654775105</v>
-      </c>
-      <c r="F101">
-        <f t="shared" si="67"/>
-        <v>0.25150611276251983</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="68"/>
-        <v>-1.4231251740354587E-2</v>
-      </c>
-      <c r="H101">
-        <f t="shared" si="69"/>
-        <v>1.9765112186203184</v>
-      </c>
-      <c r="I101">
+      <c r="H102">
         <f t="shared" si="70"/>
         <v>-7.5151895534844885E-3</v>
       </c>
-      <c r="J101">
+      <c r="I102">
         <f t="shared" si="71"/>
+        <v>2.037889789623438</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="72"/>
+        <v>0.86264721862694205</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="73"/>
+        <v>-0.54288950022057192</v>
+      </c>
+      <c r="M102" s="2">
+        <v>0</v>
+      </c>
+      <c r="N102" s="1">
+        <v>2.2200489456980149E-9</v>
+      </c>
+      <c r="O102" s="1">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="P102" s="1">
+        <f t="shared" si="75"/>
+        <v>2.2200489456980149E-9</v>
+      </c>
+    </row>
+    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <f t="shared" si="64"/>
+        <v>0.184524801578037</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="65"/>
+        <v>0.43239450983700556</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="66"/>
+        <v>0.39234165524920434</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="67"/>
+        <v>0.26529290926157206</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="68"/>
+        <v>0.40915614482547219</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="69"/>
+        <v>0.8867206095226885</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="70"/>
         <v>0.15250663947385068</v>
       </c>
-      <c r="K101">
-        <f t="shared" si="72"/>
-        <v>9.1340142314243339E-2</v>
-      </c>
-      <c r="M101" s="2">
-        <v>0</v>
-      </c>
-      <c r="N101" s="1">
-        <v>8.0953853778513456E-10</v>
-      </c>
-      <c r="O101" s="1">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="P101" s="1">
-        <f t="shared" si="74"/>
-        <v>8.0953853778513456E-10</v>
-      </c>
-    </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B102">
-        <f t="shared" si="63"/>
-        <v>1.2546468398800441</v>
-      </c>
-      <c r="C102">
-        <f t="shared" si="64"/>
-        <v>-0.17929838350179178</v>
-      </c>
-      <c r="D102">
-        <f t="shared" si="65"/>
-        <v>-0.18864857396799029</v>
-      </c>
-      <c r="E102">
-        <f t="shared" si="66"/>
-        <v>0.22361277711942368</v>
-      </c>
-      <c r="F102">
-        <f t="shared" si="67"/>
-        <v>-0.19583327774079309</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="68"/>
-        <v>2.057358822940083</v>
-      </c>
-      <c r="H102">
-        <f t="shared" si="69"/>
-        <v>-7.5151895534844885E-3</v>
-      </c>
-      <c r="I102">
-        <f t="shared" si="70"/>
-        <v>2.037889789623438</v>
-      </c>
-      <c r="J102">
+      <c r="I103">
         <f t="shared" si="71"/>
         <v>0.86264721862694205</v>
       </c>
-      <c r="K102">
+      <c r="J103">
         <f t="shared" si="72"/>
+        <v>0.86672388986424032</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="73"/>
+        <v>-9.9185480714504864E-2</v>
+      </c>
+      <c r="M103" s="2">
+        <v>0</v>
+      </c>
+      <c r="N103" s="1">
+        <v>1.3136649787510566E-9</v>
+      </c>
+      <c r="O103" s="1">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="P103" s="1">
+        <f t="shared" si="75"/>
+        <v>1.3136649787510566E-9</v>
+      </c>
+    </row>
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <f t="shared" si="64"/>
+        <v>-1.0985976711821541</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="65"/>
+        <v>0.25305913808826286</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="66"/>
+        <v>3.2160496839756025E-2</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="67"/>
+        <v>-0.59282520341101386</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="68"/>
+        <v>0.2491861384882178</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="69"/>
+        <v>-0.55337180240406214</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="70"/>
+        <v>9.1340142314243339E-2</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="71"/>
         <v>-0.54288950022057192</v>
       </c>
-      <c r="M102" s="2">
-        <v>0</v>
-      </c>
-      <c r="N102" s="1">
-        <v>2.2200489456980149E-9</v>
-      </c>
-      <c r="O102" s="1">
-        <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="P102" s="1">
-        <f t="shared" si="74"/>
-        <v>2.2200489456980149E-9</v>
-      </c>
-    </row>
-    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B103">
-        <f t="shared" si="63"/>
-        <v>0.184524801578037</v>
-      </c>
-      <c r="C103">
-        <f t="shared" si="64"/>
-        <v>0.43239450983700556</v>
-      </c>
-      <c r="D103">
-        <f t="shared" si="65"/>
-        <v>0.39234165524920434</v>
-      </c>
-      <c r="E103">
-        <f t="shared" si="66"/>
-        <v>0.26529290926157206</v>
-      </c>
-      <c r="F103">
-        <f t="shared" si="67"/>
-        <v>0.40915614482547219</v>
-      </c>
-      <c r="G103">
-        <f t="shared" si="68"/>
-        <v>0.8867206095226885</v>
-      </c>
-      <c r="H103">
-        <f t="shared" si="69"/>
-        <v>0.15250663947385068</v>
-      </c>
-      <c r="I103">
-        <f t="shared" si="70"/>
-        <v>0.86264721862694205</v>
-      </c>
-      <c r="J103">
-        <f t="shared" si="71"/>
-        <v>0.86672388986424032</v>
-      </c>
-      <c r="K103">
+      <c r="J104">
         <f t="shared" si="72"/>
         <v>-9.9185480714504864E-2</v>
       </c>
-      <c r="M103" s="2">
-        <v>0</v>
-      </c>
-      <c r="N103" s="1">
-        <v>1.3136649787510566E-9</v>
-      </c>
-      <c r="O103" s="1">
+      <c r="K104">
         <f t="shared" si="73"/>
-        <v>0</v>
-      </c>
-      <c r="P103" s="1">
-        <f t="shared" si="74"/>
-        <v>1.3136649787510566E-9</v>
-      </c>
-    </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B104">
-        <f t="shared" si="63"/>
-        <v>-1.0985976711821541</v>
-      </c>
-      <c r="C104">
-        <f t="shared" si="64"/>
-        <v>0.25305913808826286</v>
-      </c>
-      <c r="D104">
-        <f t="shared" si="65"/>
-        <v>3.2160496839756025E-2</v>
-      </c>
-      <c r="E104">
-        <f t="shared" si="66"/>
-        <v>-0.59282520341101386</v>
-      </c>
-      <c r="F104">
-        <f t="shared" si="67"/>
-        <v>0.2491861384882178</v>
-      </c>
-      <c r="G104">
-        <f t="shared" si="68"/>
-        <v>-0.55337180240406214</v>
-      </c>
-      <c r="H104">
-        <f t="shared" si="69"/>
-        <v>9.1340142314243339E-2</v>
-      </c>
-      <c r="I104">
-        <f t="shared" si="70"/>
-        <v>-0.54288950022057192</v>
-      </c>
-      <c r="J104">
-        <f t="shared" si="71"/>
-        <v>-9.9185480714504864E-2</v>
-      </c>
-      <c r="K104">
-        <f t="shared" si="72"/>
         <v>1.9180457355569385</v>
       </c>
       <c r="M104" s="2">
@@ -7053,11 +10297,11 @@
         <v>3.3574715940232711E-9</v>
       </c>
       <c r="O104" s="1">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>0</v>
       </c>
       <c r="P104" s="1">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>3.3574715940232711E-9</v>
       </c>
     </row>
@@ -7074,6 +10318,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/lab1var3.xlsx
+++ b/lab1var3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Code\Python\Labs\IAD\IAD_Lab_1\IAD_Lab_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Code\Python\Labs\IAD_Lab_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7DE6DB-9D77-4E72-9B4A-8395C5FDC09A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3658AC-8680-43BB-8F5C-7A046E62A442}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lab1var3 new" sheetId="3" r:id="rId1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="59">
   <si>
     <t>i</t>
   </si>
@@ -285,6 +285,21 @@
   </si>
   <si>
     <t>Х норм</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>A^2</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>D=R^-1</t>
   </si>
 </sst>
 </file>
@@ -819,48 +834,48 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -913,6 +928,138 @@
         <a:xfrm>
           <a:off x="14954250" y="7286625"/>
           <a:ext cx="1409524" cy="371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>460375</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>330065</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>123786</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99C5C54C-B563-463D-BE4A-81644BA1F4D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9001125" y="20955000"/>
+          <a:ext cx="1076190" cy="314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314292</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>6310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5607107-BF56-41BE-9A3B-202C9FA9B693}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8588375" y="20256500"/>
+          <a:ext cx="266667" cy="323810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>15875</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>482542</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>3137</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDB8B357-DD66-48CF-8981-F640D076D804}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9763125" y="20272375"/>
+          <a:ext cx="466667" cy="304762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -974,9 +1121,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1014,7 +1161,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1120,7 +1267,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1270,15 +1417,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C984D81A-4112-41FE-B9A3-C3F29516A0D2}">
-  <dimension ref="A1:BQ104"/>
+  <dimension ref="A1:BQ140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ46" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AA39" sqref="AA39:AJ39"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B131" sqref="B131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" customWidth="1"/>
     <col min="38" max="39" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="40" max="47" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="12.7109375" bestFit="1" customWidth="1"/>
@@ -1437,7 +1584,7 @@
         <v>0.64669994153126031</v>
       </c>
       <c r="O2">
-        <f t="shared" ref="O2:W2" si="0">(C2-C$26)/_xlfn.STDEV.S(C$2:C$25)</f>
+        <f t="shared" ref="O2:X2" si="0">(C2-C$26)/_xlfn.STDEV.S(C$2:C$25)</f>
         <v>-1.6242283037479095</v>
       </c>
       <c r="P2">
@@ -1473,8 +1620,8 @@
         <v>-0.26278780495728771</v>
       </c>
       <c r="X2">
-        <f t="shared" ref="P2:X17" si="1">(L2-MIN(L$2:L$25))/(MAX(L$2:L$25)-MIN(L$2:L$25))</f>
-        <v>0.20357225562432488</v>
+        <f t="shared" si="0"/>
+        <v>-0.96190621699991474</v>
       </c>
       <c r="Y2">
         <v>1</v>
@@ -1484,39 +1631,39 @@
         <v>2.8671851650416667</v>
       </c>
       <c r="AA2">
-        <f t="shared" ref="AA2:AI17" si="2">C2-C$26</f>
+        <f t="shared" ref="AA2:AI17" si="1">C2-C$26</f>
         <v>-64.498028524583333</v>
       </c>
       <c r="AB2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-97.779008323749963</v>
       </c>
       <c r="AC2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1016.772422791666</v>
       </c>
       <c r="AD2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-7.5808078049166658</v>
       </c>
       <c r="AE2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>68.763038791666759</v>
       </c>
       <c r="AF2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.53693586558333339</v>
       </c>
       <c r="AG2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.95972225916666432</v>
       </c>
       <c r="AH2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.13247845249999557</v>
       </c>
       <c r="AI2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-7.0556697500001064</v>
       </c>
     </row>
@@ -1561,90 +1708,90 @@
         <v>2</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N25" si="3">(B3-B$26)/_xlfn.STDEV.S(B$2:B$25)</f>
+        <f t="shared" ref="N3:N25" si="2">(B3-B$26)/_xlfn.STDEV.S(B$2:B$25)</f>
         <v>1.1366608377907941</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O25" si="4">(C3-C$26)/_xlfn.STDEV.S(C$2:C$25)</f>
+        <f t="shared" ref="O3:O25" si="3">(C3-C$26)/_xlfn.STDEV.S(C$2:C$25)</f>
         <v>-1.4559834835710261</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P25" si="5">(D3-D$26)/_xlfn.STDEV.S(D$2:D$25)</f>
+        <f t="shared" ref="P3:P25" si="4">(D3-D$26)/_xlfn.STDEV.S(D$2:D$25)</f>
         <v>-1.9068712262883345</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q25" si="6">(E3-E$26)/_xlfn.STDEV.S(E$2:E$25)</f>
+        <f t="shared" ref="Q3:Q25" si="5">(E3-E$26)/_xlfn.STDEV.S(E$2:E$25)</f>
         <v>-1.7014185601492455</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R25" si="7">(F3-F$26)/_xlfn.STDEV.S(F$2:F$25)</f>
+        <f t="shared" ref="R3:R25" si="6">(F3-F$26)/_xlfn.STDEV.S(F$2:F$25)</f>
         <v>-1.4172646370631286</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S25" si="8">(G3-G$26)/_xlfn.STDEV.S(G$2:G$25)</f>
+        <f t="shared" ref="S3:S25" si="7">(G3-G$26)/_xlfn.STDEV.S(G$2:G$25)</f>
         <v>-0.54748157987828716</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T25" si="9">(H3-H$26)/_xlfn.STDEV.S(H$2:H$25)</f>
+        <f t="shared" ref="T3:T25" si="8">(H3-H$26)/_xlfn.STDEV.S(H$2:H$25)</f>
         <v>-0.53137036660071635</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U25" si="10">(I3-I$26)/_xlfn.STDEV.S(I$2:I$25)</f>
+        <f t="shared" ref="U3:U25" si="9">(I3-I$26)/_xlfn.STDEV.S(I$2:I$25)</f>
         <v>-0.35668692839573052</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V25" si="11">(J3-J$26)/_xlfn.STDEV.S(J$2:J$25)</f>
+        <f t="shared" ref="V3:V25" si="10">(J3-J$26)/_xlfn.STDEV.S(J$2:J$25)</f>
         <v>-5.5118905926231192E-2</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W25" si="12">(K3-K$26)/_xlfn.STDEV.S(K$2:K$25)</f>
+        <f t="shared" ref="W3:X25" si="11">(K3-K$26)/_xlfn.STDEV.S(K$2:K$25)</f>
         <v>1.4521344303037491</v>
       </c>
       <c r="X3">
-        <f t="shared" si="1"/>
-        <v>0.33535653451189207</v>
+        <f t="shared" si="11"/>
+        <v>-0.55149598827837287</v>
       </c>
       <c r="Y3">
         <v>2</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:AI25" si="13">B3-B$26</f>
+        <f t="shared" ref="Z3:AI25" si="12">B3-B$26</f>
         <v>5.0394578420416662</v>
       </c>
       <c r="AA3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-57.817034734583331</v>
       </c>
       <c r="AB3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-157.56998689374996</v>
       </c>
       <c r="AC3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2508.4068482083339</v>
       </c>
       <c r="AD3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-6.2586295479166658</v>
       </c>
       <c r="AE3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-41.376944608333361</v>
       </c>
       <c r="AF3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.14882112041666662</v>
       </c>
       <c r="AG3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.51050935083333471</v>
       </c>
       <c r="AH3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.83505874749999975</v>
       </c>
       <c r="AI3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>38.988799249999829</v>
       </c>
     </row>
@@ -1689,90 +1836,90 @@
         <v>3</v>
       </c>
       <c r="N4">
+        <f t="shared" si="2"/>
+        <v>1.3478101854366904</v>
+      </c>
+      <c r="O4">
         <f t="shared" si="3"/>
-        <v>1.3478101854366904</v>
-      </c>
-      <c r="O4">
+        <v>-1.3382961813940024</v>
+      </c>
+      <c r="P4">
         <f t="shared" si="4"/>
-        <v>-1.3382961813940024</v>
-      </c>
-      <c r="P4">
+        <v>-1.7718884636314169</v>
+      </c>
+      <c r="Q4">
         <f t="shared" si="5"/>
-        <v>-1.7718884636314169</v>
-      </c>
-      <c r="Q4">
+        <v>-1.8912510950846264</v>
+      </c>
+      <c r="R4">
         <f t="shared" si="6"/>
-        <v>-1.8912510950846264</v>
-      </c>
-      <c r="R4">
+        <v>-1.2911942298088346</v>
+      </c>
+      <c r="S4">
         <f t="shared" si="7"/>
-        <v>-1.2911942298088346</v>
-      </c>
-      <c r="S4">
+        <v>0.98345065150155564</v>
+      </c>
+      <c r="T4">
         <f t="shared" si="8"/>
-        <v>0.98345065150155564</v>
-      </c>
-      <c r="T4">
+        <v>-0.11970841375148372</v>
+      </c>
+      <c r="U4">
         <f t="shared" si="9"/>
-        <v>-0.11970841375148372</v>
-      </c>
-      <c r="U4">
+        <v>1.3302561756156455</v>
+      </c>
+      <c r="V4">
         <f t="shared" si="10"/>
-        <v>1.3302561756156455</v>
-      </c>
-      <c r="V4">
+        <v>0.62486933575384751</v>
+      </c>
+      <c r="W4">
         <f t="shared" si="11"/>
-        <v>0.62486933575384751</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="12"/>
         <v>1.0531523610630356</v>
       </c>
       <c r="X4">
-        <f t="shared" si="1"/>
-        <v>0.49120410063816844</v>
+        <f t="shared" si="11"/>
+        <v>-6.6146477703216064E-2</v>
       </c>
       <c r="Y4">
         <v>3</v>
       </c>
       <c r="Z4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>5.9756018530416668</v>
       </c>
       <c r="AA4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-53.143677574583336</v>
       </c>
       <c r="AB4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-146.41599188374997</v>
       </c>
       <c r="AC4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2788.2775642083334</v>
       </c>
       <c r="AD4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-5.7019036159166658</v>
       </c>
       <c r="AE4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>74.326122791666648</v>
       </c>
       <c r="AF4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-3.3526785416666649E-2</v>
       </c>
       <c r="AG4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.9039335691666643</v>
       </c>
       <c r="AH4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.4668534525000041</v>
       </c>
       <c r="AI4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>28.276408250000031</v>
       </c>
     </row>
@@ -1817,90 +1964,90 @@
         <v>4</v>
       </c>
       <c r="N5">
+        <f t="shared" si="2"/>
+        <v>1.2284512598614998</v>
+      </c>
+      <c r="O5">
         <f t="shared" si="3"/>
-        <v>1.2284512598614998</v>
-      </c>
-      <c r="O5">
+        <v>-1.2187111637686596</v>
+      </c>
+      <c r="P5">
         <f t="shared" si="4"/>
-        <v>-1.2187111637686596</v>
-      </c>
-      <c r="P5">
+        <v>-0.82315168299619446</v>
+      </c>
+      <c r="Q5">
         <f t="shared" si="5"/>
-        <v>-0.82315168299619446</v>
-      </c>
-      <c r="Q5">
+        <v>1.0286926545590573</v>
+      </c>
+      <c r="R5">
         <f t="shared" si="6"/>
-        <v>1.0286926545590573</v>
-      </c>
-      <c r="R5">
+        <v>-1.2858130352651229</v>
+      </c>
+      <c r="S5">
         <f t="shared" si="7"/>
-        <v>-1.2858130352651229</v>
-      </c>
-      <c r="S5">
+        <v>1.2386023772209471</v>
+      </c>
+      <c r="T5">
         <f t="shared" si="8"/>
-        <v>1.2386023772209471</v>
-      </c>
-      <c r="T5">
+        <v>-0.9901957546970287</v>
+      </c>
+      <c r="U5">
         <f t="shared" si="9"/>
-        <v>-0.9901957546970287</v>
-      </c>
-      <c r="U5">
+        <v>1.3935284270539963</v>
+      </c>
+      <c r="V5">
         <f t="shared" si="10"/>
-        <v>1.3935284270539963</v>
-      </c>
-      <c r="V5">
+        <v>-0.1434137705964218</v>
+      </c>
+      <c r="W5">
         <f t="shared" si="11"/>
-        <v>-0.1434137705964218</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="12"/>
         <v>-2.4673851575884743E-2</v>
       </c>
       <c r="X5">
-        <f t="shared" si="1"/>
-        <v>0.50066041367383929</v>
+        <f t="shared" si="11"/>
+        <v>-3.669708033508786E-2</v>
       </c>
       <c r="Y5">
         <v>4</v>
       </c>
       <c r="Z5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>5.4464164940416664</v>
       </c>
       <c r="AA5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-48.394962224583338</v>
       </c>
       <c r="AB5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-68.019275823749979</v>
       </c>
       <c r="AC5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1516.6048847916663</v>
       </c>
       <c r="AD5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-5.6781403029166659</v>
       </c>
       <c r="AE5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>93.609691791666592</v>
       </c>
       <c r="AF5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.2773245384166666</v>
       </c>
       <c r="AG5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.9944921891666638</v>
       </c>
       <c r="AH5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.1727376774999954</v>
       </c>
       <c r="AI5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.66247575000011238</v>
       </c>
     </row>
@@ -1945,90 +2092,90 @@
         <v>5</v>
       </c>
       <c r="N6">
+        <f t="shared" si="2"/>
+        <v>0.80780728908945587</v>
+      </c>
+      <c r="O6">
         <f t="shared" si="3"/>
-        <v>0.80780728908945587</v>
-      </c>
-      <c r="O6">
+        <v>-1.075973229911612</v>
+      </c>
+      <c r="P6">
         <f t="shared" si="4"/>
-        <v>-1.075973229911612</v>
-      </c>
-      <c r="P6">
+        <v>-1.4989744211634495</v>
+      </c>
+      <c r="Q6">
         <f t="shared" si="5"/>
-        <v>-1.4989744211634495</v>
-      </c>
-      <c r="Q6">
+        <v>0.67814650856376624</v>
+      </c>
+      <c r="R6">
         <f t="shared" si="6"/>
-        <v>0.67814650856376624</v>
-      </c>
-      <c r="R6">
+        <v>-1.0936446422358859</v>
+      </c>
+      <c r="S6">
         <f t="shared" si="7"/>
-        <v>-1.0936446422358859</v>
-      </c>
-      <c r="S6">
+        <v>1.0441612889438683</v>
+      </c>
+      <c r="T6">
         <f t="shared" si="8"/>
-        <v>1.0441612889438683</v>
-      </c>
-      <c r="T6">
+        <v>1.4979141793707031</v>
+      </c>
+      <c r="U6">
         <f t="shared" si="9"/>
-        <v>1.4979141793707031</v>
-      </c>
-      <c r="U6">
+        <v>1.036683826243922</v>
+      </c>
+      <c r="V6">
         <f t="shared" si="10"/>
-        <v>1.036683826243922</v>
-      </c>
-      <c r="V6">
+        <v>-0.51675500296998034</v>
+      </c>
+      <c r="W6">
         <f t="shared" si="11"/>
-        <v>-0.51675500296998034</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="12"/>
         <v>-1.4021883876270145</v>
       </c>
       <c r="X6">
-        <f t="shared" si="1"/>
-        <v>0.42564681511394753</v>
+        <f t="shared" si="11"/>
+        <v>-0.27030877060701125</v>
       </c>
       <c r="Y6">
         <v>5</v>
       </c>
       <c r="Z6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3.5814647980416665</v>
       </c>
       <c r="AA6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-42.726845674583345</v>
       </c>
       <c r="AB6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-123.86435782374997</v>
       </c>
       <c r="AC6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>999.79357579166663</v>
       </c>
       <c r="AD6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-4.8295261829166662</v>
       </c>
       <c r="AE6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>78.914442791666715</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.41952144958333332</v>
       </c>
       <c r="AG6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.4837571691666653</v>
       </c>
       <c r="AH6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-7.8289069475000019</v>
       </c>
       <c r="AI6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-37.647782750000033</v>
       </c>
     </row>
@@ -2073,90 +2220,90 @@
         <v>6</v>
       </c>
       <c r="N7">
+        <f t="shared" si="2"/>
+        <v>0.18886658726586336</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="3"/>
-        <v>0.18886658726586336</v>
-      </c>
-      <c r="O7">
+        <v>-0.93719213283619951</v>
+      </c>
+      <c r="P7">
         <f t="shared" si="4"/>
-        <v>-0.93719213283619951</v>
-      </c>
-      <c r="P7">
+        <v>-0.74062679977686374</v>
+      </c>
+      <c r="Q7">
         <f t="shared" si="5"/>
-        <v>-0.74062679977686374</v>
-      </c>
-      <c r="Q7">
+        <v>-1.5738310778273192</v>
+      </c>
+      <c r="R7">
         <f t="shared" si="6"/>
-        <v>-1.5738310778273192</v>
-      </c>
-      <c r="R7">
+        <v>-0.83569268654316309</v>
+      </c>
+      <c r="S7">
         <f t="shared" si="7"/>
-        <v>-0.83569268654316309</v>
-      </c>
-      <c r="S7">
+        <v>-1.7749323589562755</v>
+      </c>
+      <c r="T7">
         <f t="shared" si="8"/>
-        <v>-1.7749323589562755</v>
-      </c>
-      <c r="T7">
+        <v>-1.348418550586977</v>
+      </c>
+      <c r="U7">
         <f t="shared" si="9"/>
-        <v>-1.348418550586977</v>
-      </c>
-      <c r="U7">
+        <v>-1.8130320766495911</v>
+      </c>
+      <c r="V7">
         <f t="shared" si="10"/>
-        <v>-1.8130320766495911</v>
-      </c>
-      <c r="V7">
+        <v>-4.0470633269033343</v>
+      </c>
+      <c r="W7">
         <f t="shared" si="11"/>
-        <v>-4.0470633269033343</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="12"/>
         <v>2.4858232516952471E-2</v>
       </c>
       <c r="X7">
-        <f t="shared" si="1"/>
-        <v>0.20044800428965218</v>
+        <f t="shared" si="11"/>
+        <v>-0.97163594133175668</v>
       </c>
       <c r="Y7">
         <v>6</v>
       </c>
       <c r="Z7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.83735198104166664</v>
       </c>
       <c r="AA7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-37.21585492458334</v>
       </c>
       <c r="AB7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-61.20001892374998</v>
       </c>
       <c r="AC7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2320.3042132083337</v>
       </c>
       <c r="AD7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-3.690412364916666</v>
       </c>
       <c r="AE7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-134.14383350833339</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.37765214641666661</v>
       </c>
       <c r="AG7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.5949081808333361</v>
       </c>
       <c r="AH7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-61.313547067499997</v>
       </c>
       <c r="AI7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.66742624999983491</v>
       </c>
     </row>
@@ -2201,90 +2348,90 @@
         <v>7</v>
       </c>
       <c r="N8">
+        <f t="shared" si="2"/>
+        <v>-0.47683257501348991</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="3"/>
-        <v>-0.47683257501348991</v>
-      </c>
-      <c r="O8">
+        <v>-0.73928753366903077</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="4"/>
-        <v>-0.73928753366903077</v>
-      </c>
-      <c r="P8">
+        <v>-0.70194579332190576</v>
+      </c>
+      <c r="Q8">
         <f t="shared" si="5"/>
-        <v>-0.70194579332190576</v>
-      </c>
-      <c r="Q8">
+        <v>-0.10297571216774107</v>
+      </c>
+      <c r="R8">
         <f t="shared" si="6"/>
-        <v>-0.10297571216774107</v>
-      </c>
-      <c r="R8">
+        <v>-0.65164992883522233</v>
+      </c>
+      <c r="S8">
         <f t="shared" si="7"/>
-        <v>-0.65164992883522233</v>
-      </c>
-      <c r="S8">
+        <v>-0.429542158599649</v>
+      </c>
+      <c r="T8">
         <f t="shared" si="8"/>
-        <v>-0.429542158599649</v>
-      </c>
-      <c r="T8">
+        <v>3.7314057217903054E-2</v>
+      </c>
+      <c r="U8">
         <f t="shared" si="9"/>
-        <v>3.7314057217903054E-2</v>
-      </c>
-      <c r="U8">
+        <v>-0.45987169508260956</v>
+      </c>
+      <c r="V8">
         <f t="shared" si="10"/>
-        <v>-0.45987169508260956</v>
-      </c>
-      <c r="V8">
+        <v>1.486456618457359E-2</v>
+      </c>
+      <c r="W8">
         <f t="shared" si="11"/>
-        <v>1.486456618457359E-2</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="12"/>
         <v>0.26558197418687157</v>
       </c>
       <c r="X8">
-        <f t="shared" si="1"/>
-        <v>0.14996286134343559</v>
+        <f t="shared" si="11"/>
+        <v>-1.1288596954737329</v>
       </c>
       <c r="Y8">
         <v>7</v>
       </c>
       <c r="Z8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-2.1140674329583335</v>
       </c>
       <c r="AA8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-29.357072724583333</v>
       </c>
       <c r="AB8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-58.003701523749953</v>
       </c>
       <c r="AC8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-151.81742320833382</v>
       </c>
       <c r="AD8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.8776809869166664</v>
       </c>
       <c r="AE8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-32.463452208333365</v>
       </c>
       <c r="AF8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.045056358333335E-2</v>
       </c>
       <c r="AG8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.65819289083333388</v>
       </c>
       <c r="AH8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.22520015250000824</v>
       </c>
       <c r="AI8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.1306912499999271</v>
       </c>
     </row>
@@ -2329,90 +2476,90 @@
         <v>8</v>
       </c>
       <c r="N9">
+        <f t="shared" si="2"/>
+        <v>-1.0263038261807287</v>
+      </c>
+      <c r="O9">
         <f t="shared" si="3"/>
-        <v>-1.0263038261807287</v>
-      </c>
-      <c r="O9">
+        <v>-0.64792674407894613</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="4"/>
-        <v>-0.64792674407894613</v>
-      </c>
-      <c r="P9">
+        <v>-0.52239588376831381</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="5"/>
-        <v>-0.52239588376831381</v>
-      </c>
-      <c r="Q9">
+        <v>0.12887500769404636</v>
+      </c>
+      <c r="R9">
         <f t="shared" si="6"/>
-        <v>0.12887500769404636</v>
-      </c>
-      <c r="R9">
+        <v>-0.64392046586443352</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="7"/>
-        <v>-0.64392046586443352</v>
-      </c>
-      <c r="S9">
+        <v>-1.7770358781730948</v>
+      </c>
+      <c r="T9">
         <f t="shared" si="8"/>
-        <v>-1.7770358781730948</v>
-      </c>
-      <c r="T9">
+        <v>-0.86851038961919003</v>
+      </c>
+      <c r="U9">
         <f t="shared" si="9"/>
-        <v>-0.86851038961919003</v>
-      </c>
-      <c r="U9">
+        <v>-1.4987952861440095</v>
+      </c>
+      <c r="V9">
         <f t="shared" si="10"/>
-        <v>-1.4987952861440095</v>
-      </c>
-      <c r="V9">
+        <v>-0.81320557495823764</v>
+      </c>
+      <c r="W9">
         <f t="shared" si="11"/>
-        <v>-0.81320557495823764</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="12"/>
         <v>-0.48322372116747192</v>
       </c>
       <c r="X9">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>-1.5958827178192507</v>
       </c>
       <c r="Y9">
         <v>8</v>
       </c>
       <c r="Z9">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-4.5501830389583331</v>
       </c>
       <c r="AA9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-25.729140124583338</v>
       </c>
       <c r="AB9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-43.167001223749963</v>
       </c>
       <c r="AC9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>190.00083779166653</v>
       </c>
       <c r="AD9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.8435477389166657</v>
       </c>
       <c r="AE9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-134.3028109083333</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.24324406741666663</v>
       </c>
       <c r="AG9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.1451557308333342</v>
       </c>
       <c r="AH9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-12.320172497499996</v>
       </c>
       <c r="AI9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-12.974220750000086</v>
       </c>
     </row>
@@ -2457,90 +2604,90 @@
         <v>9</v>
       </c>
       <c r="N10">
+        <f t="shared" si="2"/>
+        <v>-1.3250174402110797</v>
+      </c>
+      <c r="O10">
         <f t="shared" si="3"/>
-        <v>-1.3250174402110797</v>
-      </c>
-      <c r="O10">
+        <v>-0.43414940865999258</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="4"/>
-        <v>-0.43414940865999258</v>
-      </c>
-      <c r="P10">
+        <v>-0.79907117697685437</v>
+      </c>
+      <c r="Q10">
         <f t="shared" si="5"/>
-        <v>-0.79907117697685437</v>
-      </c>
-      <c r="Q10">
+        <v>-2.8308885084309343E-2</v>
+      </c>
+      <c r="R10">
         <f t="shared" si="6"/>
-        <v>-2.8308885084309343E-2</v>
-      </c>
-      <c r="R10">
+        <v>-0.49625076445181215</v>
+      </c>
+      <c r="S10">
         <f t="shared" si="7"/>
-        <v>-0.49625076445181215</v>
-      </c>
-      <c r="S10">
+        <v>-0.39947610827210239</v>
+      </c>
+      <c r="T10">
         <f t="shared" si="8"/>
-        <v>-0.39947610827210239</v>
-      </c>
-      <c r="T10">
+        <v>-0.38167858060115395</v>
+      </c>
+      <c r="U10">
         <f t="shared" si="9"/>
-        <v>-0.38167858060115395</v>
-      </c>
-      <c r="U10">
+        <v>-0.42232069749859635</v>
+      </c>
+      <c r="V10">
         <f t="shared" si="10"/>
-        <v>-0.42232069749859635</v>
-      </c>
-      <c r="V10">
+        <v>-0.43561251650337801</v>
+      </c>
+      <c r="W10">
         <f t="shared" si="11"/>
-        <v>-0.43561251650337801</v>
-      </c>
-      <c r="W10">
-        <f t="shared" si="12"/>
         <v>0.20362751982039165</v>
       </c>
       <c r="X10">
-        <f t="shared" si="1"/>
-        <v>3.4304830151232348E-2</v>
+        <f t="shared" si="11"/>
+        <v>-1.4890486302674832</v>
       </c>
       <c r="Y10">
         <v>9</v>
       </c>
       <c r="Z10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-5.8745487729583337</v>
       </c>
       <c r="AA10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-17.240052324583331</v>
       </c>
       <c r="AB10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-66.029437723749965</v>
       </c>
       <c r="AC10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-41.735880208333583</v>
       </c>
       <c r="AD10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.1914394929166656</v>
       </c>
       <c r="AE10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-30.191154208333387</v>
       </c>
       <c r="AF10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.10689687941666665</v>
       </c>
       <c r="AG10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.60444790083333544</v>
       </c>
       <c r="AH10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-6.5995874974999964</v>
       </c>
       <c r="AI10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.4672572499998751</v>
       </c>
     </row>
@@ -2585,90 +2732,90 @@
         <v>10</v>
       </c>
       <c r="N11">
+        <f t="shared" si="2"/>
+        <v>-1.2998379065131263</v>
+      </c>
+      <c r="O11">
         <f t="shared" si="3"/>
-        <v>-1.2998379065131263</v>
-      </c>
-      <c r="O11">
+        <v>-0.32418070199793425</v>
+      </c>
+      <c r="P11">
         <f t="shared" si="4"/>
-        <v>-0.32418070199793425</v>
-      </c>
-      <c r="P11">
+        <v>0.20191357875524998</v>
+      </c>
+      <c r="Q11">
         <f t="shared" si="5"/>
-        <v>0.20191357875524998</v>
-      </c>
-      <c r="Q11">
+        <v>1.3043486198233658</v>
+      </c>
+      <c r="R11">
         <f t="shared" si="6"/>
-        <v>1.3043486198233658</v>
-      </c>
-      <c r="R11">
+        <v>-0.36230991458381906</v>
+      </c>
+      <c r="S11">
         <f t="shared" si="7"/>
-        <v>-0.36230991458381906</v>
-      </c>
-      <c r="S11">
+        <v>0.29833465666981296</v>
+      </c>
+      <c r="T11">
         <f t="shared" si="8"/>
-        <v>0.29833465666981296</v>
-      </c>
-      <c r="T11">
+        <v>-0.4136643079058247</v>
+      </c>
+      <c r="U11">
         <f t="shared" si="9"/>
-        <v>-0.4136643079058247</v>
-      </c>
-      <c r="U11">
+        <v>1.9406724692686977E-2</v>
+      </c>
+      <c r="V11">
         <f t="shared" si="10"/>
-        <v>1.9406724692686977E-2</v>
-      </c>
-      <c r="V11">
+        <v>0.34824817073600495</v>
+      </c>
+      <c r="W11">
         <f t="shared" si="11"/>
-        <v>0.34824817073600495</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="12"/>
         <v>0.2923323134553511</v>
       </c>
       <c r="X11">
-        <f t="shared" si="1"/>
-        <v>9.1822249792002819E-2</v>
+        <f t="shared" si="11"/>
+        <v>-1.3099245530292496</v>
       </c>
       <c r="Y11">
         <v>10</v>
       </c>
       <c r="Z11">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-5.7629137149583336</v>
       </c>
       <c r="AA11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-12.873200224583343</v>
       </c>
       <c r="AB11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16.684671476250031</v>
       </c>
       <c r="AC11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1923.0053597916667</v>
       </c>
       <c r="AD11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.5999577479166653</v>
       </c>
       <c r="AE11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22.547199791666571</v>
       </c>
       <c r="AF11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.11585513541666664</v>
       </c>
       <c r="AG11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.7775939166666319E-2</v>
       </c>
       <c r="AH11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.2760060525000085</v>
       </c>
       <c r="AI11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7.8489192499998808</v>
       </c>
     </row>
@@ -2713,90 +2860,90 @@
         <v>11</v>
       </c>
       <c r="N12">
+        <f t="shared" si="2"/>
+        <v>-0.95693005296611933</v>
+      </c>
+      <c r="O12">
         <f t="shared" si="3"/>
-        <v>-0.95693005296611933</v>
-      </c>
-      <c r="O12">
+        <v>-0.1052525621088715</v>
+      </c>
+      <c r="P12">
         <f t="shared" si="4"/>
-        <v>-0.1052525621088715</v>
-      </c>
-      <c r="P12">
+        <v>0.20707649626145658</v>
+      </c>
+      <c r="Q12">
         <f t="shared" si="5"/>
-        <v>0.20707649626145658</v>
-      </c>
-      <c r="Q12">
+        <v>-0.1848480190421905</v>
+      </c>
+      <c r="R12">
         <f t="shared" si="6"/>
-        <v>-0.1848480190421905</v>
-      </c>
-      <c r="R12">
+        <v>-0.14543745536427652</v>
+      </c>
+      <c r="S12">
         <f t="shared" si="7"/>
-        <v>-0.14543745536427652</v>
-      </c>
-      <c r="S12">
+        <v>-0.43314887051088696</v>
+      </c>
+      <c r="T12">
         <f t="shared" si="8"/>
-        <v>-0.43314887051088696</v>
-      </c>
-      <c r="T12">
+        <v>-1.2183643437692993</v>
+      </c>
+      <c r="U12">
         <f t="shared" si="9"/>
-        <v>-1.2183643437692993</v>
-      </c>
-      <c r="U12">
+        <v>-0.25322910732060244</v>
+      </c>
+      <c r="V12">
         <f t="shared" si="10"/>
-        <v>-0.25322910732060244</v>
-      </c>
-      <c r="V12">
+        <v>0.29822167873432925</v>
+      </c>
+      <c r="W12">
         <f t="shared" si="11"/>
-        <v>0.29822167873432925</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="12"/>
         <v>-0.46967674075024385</v>
       </c>
       <c r="X12">
-        <f t="shared" si="1"/>
-        <v>0.23282430930393005</v>
+        <f t="shared" si="11"/>
+        <v>-0.87080777838066148</v>
       </c>
       <c r="Y12">
         <v>11</v>
       </c>
       <c r="Z12">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-4.2426100199583336</v>
       </c>
       <c r="AA12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-4.1795742245833338</v>
       </c>
       <c r="AB12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17.11129747625003</v>
       </c>
       <c r="AC12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-272.52202820833372</v>
       </c>
       <c r="AD12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.64225066491666638</v>
       </c>
       <c r="AE12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-32.736036208333303</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.34122781041666661</v>
       </c>
       <c r="AG12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.36243500083333302</v>
       </c>
       <c r="AH12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.5180980525000081</v>
       </c>
       <c r="AI12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-12.61049375000016</v>
       </c>
     </row>
@@ -2841,90 +2988,90 @@
         <v>12</v>
       </c>
       <c r="N13">
+        <f t="shared" si="2"/>
+        <v>-0.38024968167768797</v>
+      </c>
+      <c r="O13">
         <f t="shared" si="3"/>
-        <v>-0.38024968167768797</v>
-      </c>
-      <c r="O13">
+        <v>-0.13910663699230702</v>
+      </c>
+      <c r="P13">
         <f t="shared" si="4"/>
-        <v>-0.13910663699230702</v>
-      </c>
-      <c r="P13">
+        <v>-3.7098355530397205E-2</v>
+      </c>
+      <c r="Q13">
         <f t="shared" si="5"/>
-        <v>-3.7098355530397205E-2</v>
-      </c>
-      <c r="Q13">
+        <v>1.8590849103878684</v>
+      </c>
+      <c r="R13">
         <f t="shared" si="6"/>
-        <v>1.8590849103878684</v>
-      </c>
-      <c r="R13">
+        <v>-5.6161923087482683E-2</v>
+      </c>
+      <c r="S13">
         <f t="shared" si="7"/>
-        <v>-5.6161923087482683E-2</v>
-      </c>
-      <c r="S13">
+        <v>-0.17457916787094507</v>
+      </c>
+      <c r="T13">
         <f t="shared" si="8"/>
-        <v>-0.17457916787094507</v>
-      </c>
-      <c r="T13">
+        <v>0.20521856645214354</v>
+      </c>
+      <c r="U13">
         <f t="shared" si="9"/>
-        <v>0.20521856645214354</v>
-      </c>
-      <c r="U13">
+        <v>7.5165863433209919E-3</v>
+      </c>
+      <c r="V13">
         <f t="shared" si="10"/>
-        <v>7.5165863433209919E-3</v>
-      </c>
-      <c r="V13">
+        <v>0.20089465102459125</v>
+      </c>
+      <c r="W13">
         <f t="shared" si="11"/>
-        <v>0.20089465102459125</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="12"/>
         <v>-0.57294194888115646</v>
       </c>
       <c r="X13">
-        <f t="shared" si="1"/>
-        <v>0.37594799428294451</v>
+        <f t="shared" si="11"/>
+        <v>-0.42508371490704167</v>
       </c>
       <c r="Y13">
         <v>12</v>
       </c>
       <c r="Z13">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-1.6858610559583334</v>
       </c>
       <c r="AA13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-5.5239179245833441</v>
       </c>
       <c r="AB13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-3.0655386237499727</v>
       </c>
       <c r="AC13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2740.8548547916662</v>
       </c>
       <c r="AD13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.24801061291666571</v>
       </c>
       <c r="AE13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-13.194147208333334</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.7475649583333344E-2</v>
       </c>
       <c r="AG13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.0758139166664904E-2</v>
       </c>
       <c r="AH13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.0435806524999975</v>
       </c>
       <c r="AI13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-15.38309275000006</v>
       </c>
     </row>
@@ -2969,90 +3116,90 @@
         <v>13</v>
       </c>
       <c r="N14">
+        <f t="shared" si="2"/>
+        <v>0.28901174028335741</v>
+      </c>
+      <c r="O14">
         <f t="shared" si="3"/>
-        <v>0.28901174028335741</v>
-      </c>
-      <c r="O14">
+        <v>-1.144980282868153E-2</v>
+      </c>
+      <c r="P14">
         <f t="shared" si="4"/>
-        <v>-1.144980282868153E-2</v>
-      </c>
-      <c r="P14">
+        <v>-4.0783016452626362E-3</v>
+      </c>
+      <c r="Q14">
         <f t="shared" si="5"/>
-        <v>-4.0783016452626362E-3</v>
-      </c>
-      <c r="Q14">
+        <v>-0.67584379596321842</v>
+      </c>
+      <c r="R14">
         <f t="shared" si="6"/>
-        <v>-0.67584379596321842</v>
-      </c>
-      <c r="R14">
+        <v>-9.159657803712748E-2</v>
+      </c>
+      <c r="S14">
         <f t="shared" si="7"/>
-        <v>-9.159657803712748E-2</v>
-      </c>
-      <c r="S14">
+        <v>-1.4069974998021142</v>
+      </c>
+      <c r="T14">
         <f t="shared" si="8"/>
-        <v>-1.4069974998021142</v>
-      </c>
-      <c r="T14">
+        <v>0.29532160991525136</v>
+      </c>
+      <c r="U14">
         <f t="shared" si="9"/>
-        <v>0.29532160991525136</v>
-      </c>
-      <c r="U14">
+        <v>-1.508628122716855</v>
+      </c>
+      <c r="V14">
         <f t="shared" si="10"/>
-        <v>-1.508628122716855</v>
-      </c>
-      <c r="V14">
+        <v>-0.33566031709477623</v>
+      </c>
+      <c r="W14">
         <f t="shared" si="11"/>
-        <v>-0.33566031709477623</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="12"/>
         <v>0.88806715270103265</v>
       </c>
       <c r="X14">
-        <f t="shared" si="1"/>
-        <v>0.52023202588725737</v>
+        <f t="shared" si="11"/>
+        <v>2.4253967185619209E-2</v>
       </c>
       <c r="Y14">
         <v>13</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.2813518620416666</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.45467112458334213</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.33700122374997932</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-996.39867920833376</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.40448977191666557</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-106.33646820833337</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.2710846583333386E-2</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.1592290108333358</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-5.0852983974999972</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23.843985249999832</v>
       </c>
     </row>
@@ -3097,90 +3244,90 @@
         <v>14</v>
       </c>
       <c r="N15">
+        <f t="shared" si="2"/>
+        <v>0.88699567517333899</v>
+      </c>
+      <c r="O15">
         <f t="shared" si="3"/>
-        <v>0.88699567517333899</v>
-      </c>
-      <c r="O15">
+        <v>0.23392909406741538</v>
+      </c>
+      <c r="P15">
         <f t="shared" si="4"/>
-        <v>0.23392909406741538</v>
-      </c>
-      <c r="P15">
+        <v>0.39202071224643564</v>
+      </c>
+      <c r="Q15">
         <f t="shared" si="5"/>
-        <v>0.39202071224643564</v>
-      </c>
-      <c r="Q15">
+        <v>1.1684782348390232</v>
+      </c>
+      <c r="R15">
         <f t="shared" si="6"/>
-        <v>1.1684782348390232</v>
-      </c>
-      <c r="R15">
+        <v>0.19003659918937374</v>
+      </c>
+      <c r="S15">
         <f t="shared" si="7"/>
-        <v>0.19003659918937374</v>
-      </c>
-      <c r="S15">
+        <v>1.4170104253927036</v>
+      </c>
+      <c r="T15">
         <f t="shared" si="8"/>
-        <v>1.4170104253927036</v>
-      </c>
-      <c r="T15">
+        <v>-1.3798578188926196</v>
+      </c>
+      <c r="U15">
         <f t="shared" si="9"/>
-        <v>-1.3798578188926196</v>
-      </c>
-      <c r="U15">
+        <v>1.2066674457931248</v>
+      </c>
+      <c r="V15">
         <f t="shared" si="10"/>
-        <v>1.2066674457931248</v>
-      </c>
-      <c r="V15">
+        <v>1.056590962449752</v>
+      </c>
+      <c r="W15">
         <f t="shared" si="11"/>
-        <v>1.056590962449752</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="12"/>
         <v>-0.81764147326337244</v>
       </c>
       <c r="X15">
-        <f t="shared" si="1"/>
-        <v>0.85219055790969789</v>
+        <f t="shared" si="11"/>
+        <v>1.0580584407042748</v>
       </c>
       <c r="Y15">
         <v>14</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3.9325515250416667</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9.2893131754166518</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>32.393744076250044</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1722.6912147916664</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.83920013508333469</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>107.09321379166659</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.38645735541666665</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.7270467891666641</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16.0074934525</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-21.953104749999966</v>
       </c>
     </row>
@@ -3225,90 +3372,90 @@
         <v>15</v>
       </c>
       <c r="N16">
+        <f t="shared" si="2"/>
+        <v>1.2672948008363534</v>
+      </c>
+      <c r="O16">
         <f t="shared" si="3"/>
-        <v>1.2672948008363534</v>
-      </c>
-      <c r="O16">
+        <v>0.26978569464836855</v>
+      </c>
+      <c r="P16">
         <f t="shared" si="4"/>
-        <v>0.26978569464836855</v>
-      </c>
-      <c r="P16">
+        <v>0.79195213100326678</v>
+      </c>
+      <c r="Q16">
         <f t="shared" si="5"/>
-        <v>0.79195213100326678</v>
-      </c>
-      <c r="Q16">
+        <v>-0.30026266957907033</v>
+      </c>
+      <c r="R16">
         <f t="shared" si="6"/>
-        <v>-0.30026266957907033</v>
-      </c>
-      <c r="R16">
+        <v>0.37601064926854472</v>
+      </c>
+      <c r="S16">
         <f t="shared" si="7"/>
-        <v>0.37601064926854472</v>
-      </c>
-      <c r="S16">
+        <v>1.4909536429866601</v>
+      </c>
+      <c r="T16">
         <f t="shared" si="8"/>
-        <v>1.4909536429866601</v>
-      </c>
-      <c r="T16">
+        <v>-0.45618041191508146</v>
+      </c>
+      <c r="U16">
         <f t="shared" si="9"/>
-        <v>-0.45618041191508146</v>
-      </c>
-      <c r="U16">
+        <v>1.5464596145554033</v>
+      </c>
+      <c r="V16">
         <f t="shared" si="10"/>
-        <v>1.5464596145554033</v>
-      </c>
-      <c r="V16">
+        <v>1.1043160422896949</v>
+      </c>
+      <c r="W16">
         <f t="shared" si="11"/>
-        <v>1.1043160422896949</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="12"/>
         <v>-1.6797409047384813</v>
       </c>
       <c r="X16">
-        <f t="shared" si="1"/>
-        <v>0.97106558000436161</v>
+        <f t="shared" si="11"/>
+        <v>1.4282659147594523</v>
       </c>
       <c r="Y16">
         <v>15</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>5.6186317940416668</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10.713177075416667</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>65.441171476250048</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-442.67821820833342</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.6604600850833346</v>
       </c>
       <c r="AE16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>112.68161079166657</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-0.12776263841666663</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.2133754591666666</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16.730534752500006</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-45.099874750000026</v>
       </c>
     </row>
@@ -3353,90 +3500,90 @@
         <v>16</v>
       </c>
       <c r="N17">
+        <f t="shared" si="2"/>
+        <v>1.3367986274534545</v>
+      </c>
+      <c r="O17">
         <f t="shared" si="3"/>
-        <v>1.3367986274534545</v>
-      </c>
-      <c r="O17">
+        <v>0.6380341220520318</v>
+      </c>
+      <c r="P17">
         <f t="shared" si="4"/>
-        <v>0.6380341220520318</v>
-      </c>
-      <c r="P17">
+        <v>0.610582713745775</v>
+      </c>
+      <c r="Q17">
         <f t="shared" si="5"/>
-        <v>0.610582713745775</v>
-      </c>
-      <c r="Q17">
+        <v>0.12396748667595373</v>
+      </c>
+      <c r="R17">
         <f t="shared" si="6"/>
-        <v>0.12396748667595373</v>
-      </c>
-      <c r="R17">
+        <v>0.58659845446314884</v>
+      </c>
+      <c r="S17">
         <f t="shared" si="7"/>
-        <v>0.58659845446314884</v>
-      </c>
-      <c r="S17">
+        <v>-1.0220042299601182</v>
+      </c>
+      <c r="T17">
         <f t="shared" si="8"/>
-        <v>-1.0220042299601182</v>
-      </c>
-      <c r="T17">
+        <v>1.4942372148086396</v>
+      </c>
+      <c r="U17">
         <f t="shared" si="9"/>
-        <v>1.4942372148086396</v>
-      </c>
-      <c r="U17">
+        <v>-0.97104588713617856</v>
+      </c>
+      <c r="V17">
         <f t="shared" si="10"/>
-        <v>-0.97104588713617856</v>
-      </c>
-      <c r="V17">
+        <v>-0.20592607521995038</v>
+      </c>
+      <c r="W17">
         <f t="shared" si="11"/>
-        <v>-0.20592607521995038</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="12"/>
         <v>-1.8158836127513074</v>
       </c>
       <c r="X17">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="11"/>
+        <v>1.5183751601760951</v>
       </c>
       <c r="Y17">
         <v>16</v>
       </c>
       <c r="Z17">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>5.9267814130416667</v>
       </c>
       <c r="AA17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25.336304575416676</v>
       </c>
       <c r="AB17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50.454120276250052</v>
       </c>
       <c r="AC17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>182.76566379166616</v>
       </c>
       <c r="AD17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.5904141850833344</v>
       </c>
       <c r="AE17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-77.239881608333349</v>
       </c>
       <c r="AF17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.41849164058333338</v>
       </c>
       <c r="AG17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.3898126508333348</v>
       </c>
       <c r="AH17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-3.1198073974999971</v>
       </c>
       <c r="AI17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-48.755211750000171</v>
       </c>
     </row>
@@ -3481,90 +3628,90 @@
         <v>17</v>
       </c>
       <c r="N18">
+        <f t="shared" si="2"/>
+        <v>1.0784901944241321</v>
+      </c>
+      <c r="O18">
         <f t="shared" si="3"/>
-        <v>1.0784901944241321</v>
-      </c>
-      <c r="O18">
+        <v>0.55467172534120979</v>
+      </c>
+      <c r="P18">
         <f t="shared" si="4"/>
-        <v>0.55467172534120979</v>
-      </c>
-      <c r="P18">
+        <v>0.55558351836234221</v>
+      </c>
+      <c r="Q18">
         <f t="shared" si="5"/>
-        <v>0.55558351836234221</v>
-      </c>
-      <c r="Q18">
+        <v>-0.94266429312717226</v>
+      </c>
+      <c r="R18">
         <f t="shared" si="6"/>
-        <v>-0.94266429312717226</v>
-      </c>
-      <c r="R18">
+        <v>0.6064108876655766</v>
+      </c>
+      <c r="S18">
         <f t="shared" si="7"/>
-        <v>0.6064108876655766</v>
-      </c>
-      <c r="S18">
+        <v>0.46910448174286923</v>
+      </c>
+      <c r="T18">
         <f t="shared" si="8"/>
-        <v>0.46910448174286923</v>
-      </c>
-      <c r="T18">
+        <v>0.45528710502614328</v>
+      </c>
+      <c r="U18">
         <f t="shared" si="9"/>
-        <v>0.45528710502614328</v>
-      </c>
-      <c r="U18">
+        <v>0.47699554588754184</v>
+      </c>
+      <c r="V18">
         <f t="shared" si="10"/>
-        <v>0.47699554588754184</v>
-      </c>
-      <c r="V18">
+        <v>0.56253913646409759</v>
+      </c>
+      <c r="W18">
         <f t="shared" si="11"/>
-        <v>0.56253913646409759</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="12"/>
         <v>-1.094135936890519</v>
       </c>
       <c r="X18">
-        <f t="shared" ref="N3:X25" si="14">(L18-MIN(L$2:L$25))/(MAX(L$2:L$25)-MIN(L$2:L$25))</f>
-        <v>0.96844181857880107</v>
+        <f t="shared" si="11"/>
+        <v>1.42009484506992</v>
       </c>
       <c r="Y18">
         <v>17</v>
       </c>
       <c r="Z18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>4.7815546090416667</v>
       </c>
       <c r="AA18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>22.025987775416667</v>
       </c>
       <c r="AB18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.909386276250046</v>
       </c>
       <c r="AC18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-1389.7729952083337</v>
       </c>
       <c r="AD18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2.6779057350833337</v>
       </c>
       <c r="AE18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>35.453448791666688</v>
       </c>
       <c r="AF18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.12751244958333335</v>
       </c>
       <c r="AG18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.68270145916666536</v>
       </c>
       <c r="AH18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>8.5225426525000074</v>
       </c>
       <c r="AI18">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-29.37678875000006</v>
       </c>
     </row>
@@ -3609,90 +3756,90 @@
         <v>18</v>
       </c>
       <c r="N19">
+        <f t="shared" si="2"/>
+        <v>0.55561241479499768</v>
+      </c>
+      <c r="O19">
         <f t="shared" si="3"/>
-        <v>0.55561241479499768</v>
-      </c>
-      <c r="O19">
+        <v>0.78213495228180896</v>
+      </c>
+      <c r="P19">
         <f t="shared" si="4"/>
-        <v>0.78213495228180896</v>
-      </c>
-      <c r="P19">
+        <v>0.55123580803850891</v>
+      </c>
+      <c r="Q19">
         <f t="shared" si="5"/>
-        <v>0.55123580803850891</v>
-      </c>
-      <c r="Q19">
+        <v>0.32930798077040563</v>
+      </c>
+      <c r="R19">
         <f t="shared" si="6"/>
-        <v>0.32930798077040563</v>
-      </c>
-      <c r="R19">
+        <v>0.82304441235850301</v>
+      </c>
+      <c r="S19">
         <f t="shared" si="7"/>
-        <v>0.82304441235850301</v>
-      </c>
-      <c r="S19">
+        <v>0.85095863511178815</v>
+      </c>
+      <c r="T19">
         <f t="shared" si="8"/>
-        <v>0.85095863511178815</v>
-      </c>
-      <c r="T19">
+        <v>-1.2195593860840048</v>
+      </c>
+      <c r="U19">
         <f t="shared" si="9"/>
-        <v>-1.2195593860840048</v>
-      </c>
-      <c r="U19">
+        <v>0.65444550269724555</v>
+      </c>
+      <c r="V19">
         <f t="shared" si="10"/>
-        <v>0.65444550269724555</v>
-      </c>
-      <c r="V19">
+        <v>0.76427194168991774</v>
+      </c>
+      <c r="W19">
         <f t="shared" si="11"/>
-        <v>0.76427194168991774</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="12"/>
         <v>-0.76644640381165341</v>
       </c>
       <c r="X19">
-        <f t="shared" si="14"/>
-        <v>0.91534042352057099</v>
+        <f t="shared" si="11"/>
+        <v>1.2547234071772839</v>
       </c>
       <c r="Y19">
         <v>18</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2.4633428440416667</v>
       </c>
       <c r="AA19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>31.058541675416649</v>
       </c>
       <c r="AB19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.55012307625006</v>
       </c>
       <c r="AC19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>485.49981379166638</v>
       </c>
       <c r="AD19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3.6345576850833332</v>
       </c>
       <c r="AE19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>64.312790791666657</v>
       </c>
       <c r="AF19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-0.34156250641666663</v>
       </c>
       <c r="AG19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.93667729916666431</v>
       </c>
       <c r="AH19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>11.578821452500009</v>
       </c>
       <c r="AI19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-20.578552749999972</v>
       </c>
     </row>
@@ -3737,90 +3884,90 @@
         <v>19</v>
       </c>
       <c r="N20">
+        <f t="shared" si="2"/>
+        <v>-0.103815994649945</v>
+      </c>
+      <c r="O20">
         <f t="shared" si="3"/>
-        <v>-0.103815994649945</v>
-      </c>
-      <c r="O20">
+        <v>0.94072114364053494</v>
+      </c>
+      <c r="P20">
         <f t="shared" si="4"/>
-        <v>0.94072114364053494</v>
-      </c>
-      <c r="P20">
+        <v>0.64849794016056495</v>
+      </c>
+      <c r="Q20">
         <f t="shared" si="5"/>
-        <v>0.64849794016056495</v>
-      </c>
-      <c r="Q20">
+        <v>-0.88512888025635472</v>
+      </c>
+      <c r="R20">
         <f t="shared" si="6"/>
-        <v>-0.88512888025635472</v>
-      </c>
-      <c r="R20">
+        <v>0.84142181357986801</v>
+      </c>
+      <c r="S20">
         <f t="shared" si="7"/>
-        <v>0.84142181357986801</v>
-      </c>
-      <c r="S20">
+        <v>0.89593730339508404</v>
+      </c>
+      <c r="T20">
         <f t="shared" si="8"/>
-        <v>0.89593730339508404</v>
-      </c>
-      <c r="T20">
+        <v>0.33120014749872162</v>
+      </c>
+      <c r="U20">
         <f t="shared" si="9"/>
-        <v>0.33120014749872162</v>
-      </c>
-      <c r="U20">
+        <v>1.0906896887033581</v>
+      </c>
+      <c r="V20">
         <f t="shared" si="10"/>
-        <v>1.0906896887033581</v>
-      </c>
-      <c r="V20">
+        <v>0.96848411131235479</v>
+      </c>
+      <c r="W20">
         <f t="shared" si="11"/>
-        <v>0.96848411131235479</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="12"/>
         <v>-0.14146298552297262</v>
       </c>
       <c r="X20">
-        <f t="shared" si="14"/>
-        <v>0.81769457835344628</v>
+        <f t="shared" si="11"/>
+        <v>0.95062906461205188</v>
       </c>
       <c r="Y20">
         <v>19</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-0.46027478995833337</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>37.355991775416669</v>
       </c>
       <c r="AB20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>53.587159176250026</v>
       </c>
       <c r="AC20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-1304.9483512083334</v>
       </c>
       <c r="AD20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3.7157121450833337</v>
       </c>
       <c r="AE20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>67.712137791666692</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>9.2759363583333365E-2</v>
       </c>
       <c r="AG20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>1.5610532391666645</v>
       </c>
       <c r="AH20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>14.672662952500005</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-3.7981827500000236</v>
       </c>
     </row>
@@ -3865,90 +4012,90 @@
         <v>20</v>
       </c>
       <c r="N21">
+        <f t="shared" si="2"/>
+        <v>-0.73834396102896216</v>
+      </c>
+      <c r="O21">
         <f t="shared" si="3"/>
-        <v>-0.73834396102896216</v>
-      </c>
-      <c r="O21">
+        <v>1.1759160444296017</v>
+      </c>
+      <c r="P21">
         <f t="shared" si="4"/>
-        <v>1.1759160444296017</v>
-      </c>
-      <c r="P21">
+        <v>1.2730796654094578</v>
+      </c>
+      <c r="Q21">
         <f t="shared" si="5"/>
-        <v>1.2730796654094578</v>
-      </c>
-      <c r="Q21">
+        <v>1.4406567248063764</v>
+      </c>
+      <c r="R21">
         <f t="shared" si="6"/>
-        <v>1.4406567248063764</v>
-      </c>
-      <c r="R21">
+        <v>1.1414780245814142</v>
+      </c>
+      <c r="S21">
         <f t="shared" si="7"/>
-        <v>1.1414780245814142</v>
-      </c>
-      <c r="S21">
+        <v>5.3958621869660515E-2</v>
+      </c>
+      <c r="T21">
         <f t="shared" si="8"/>
-        <v>5.3958621869660515E-2</v>
-      </c>
-      <c r="T21">
+        <v>-0.32118940023103415</v>
+      </c>
+      <c r="U21">
         <f t="shared" si="9"/>
-        <v>-0.32118940023103415</v>
-      </c>
-      <c r="U21">
+        <v>-0.1836985158187526</v>
+      </c>
+      <c r="V21">
         <f t="shared" si="10"/>
-        <v>-0.1836985158187526</v>
-      </c>
-      <c r="V21">
+        <v>0.25148104570713825</v>
+      </c>
+      <c r="W21">
         <f t="shared" si="11"/>
-        <v>0.25148104570713825</v>
-      </c>
-      <c r="W21">
-        <f t="shared" si="12"/>
         <v>0.14369918871311504</v>
       </c>
       <c r="X21">
-        <f t="shared" si="14"/>
-        <v>0.68114301606104111</v>
+        <f t="shared" si="11"/>
+        <v>0.5253722859903569</v>
       </c>
       <c r="Y21">
         <v>20</v>
       </c>
       <c r="Z21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-3.2734947319583334</v>
       </c>
       <c r="AA21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>46.695570075416668</v>
       </c>
       <c r="AB21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>105.19805607625003</v>
       </c>
       <c r="AC21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>2123.9648367916661</v>
       </c>
       <c r="AD21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>5.0407580250833348</v>
       </c>
       <c r="AE21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>4.0780237916667375</v>
       </c>
       <c r="AF21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-8.9955649416666617E-2</v>
       </c>
       <c r="AG21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-0.26291911083333375</v>
       </c>
       <c r="AH21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3.8099712525000058</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>3.8582232500000373</v>
       </c>
     </row>
@@ -3993,90 +4140,90 @@
         <v>21</v>
       </c>
       <c r="N22">
+        <f t="shared" si="2"/>
+        <v>-1.1926169085240466</v>
+      </c>
+      <c r="O22">
         <f t="shared" si="3"/>
-        <v>-1.1926169085240466</v>
-      </c>
-      <c r="O22">
+        <v>0.95355730107752379</v>
+      </c>
+      <c r="P22">
         <f t="shared" si="4"/>
-        <v>0.95355730107752379</v>
-      </c>
-      <c r="P22">
+        <v>0.86393859881141355</v>
+      </c>
+      <c r="Q22">
         <f t="shared" si="5"/>
-        <v>0.86393859881141355</v>
-      </c>
-      <c r="Q22">
+        <v>0.38113459986568576</v>
+      </c>
+      <c r="R22">
         <f t="shared" si="6"/>
-        <v>0.38113459986568576</v>
-      </c>
-      <c r="R22">
+        <v>0.98412257367016942</v>
+      </c>
+      <c r="S22">
         <f t="shared" si="7"/>
-        <v>0.98412257367016942</v>
-      </c>
-      <c r="S22">
+        <v>-1.1140831296237026</v>
+      </c>
+      <c r="T22">
         <f t="shared" si="8"/>
-        <v>-1.1140831296237026</v>
-      </c>
-      <c r="T22">
+        <v>0.70417119147924168</v>
+      </c>
+      <c r="U22">
         <f t="shared" si="9"/>
-        <v>0.70417119147924168</v>
-      </c>
-      <c r="U22">
+        <v>-1.1571755862510997</v>
+      </c>
+      <c r="V22">
         <f t="shared" si="10"/>
-        <v>-1.1571755862510997</v>
-      </c>
-      <c r="V22">
+        <v>-0.20150059389578709</v>
+      </c>
+      <c r="W22">
         <f t="shared" si="11"/>
-        <v>-0.20150059389578709</v>
-      </c>
-      <c r="W22">
-        <f t="shared" si="12"/>
         <v>0.67169603454487603</v>
       </c>
       <c r="X22">
-        <f t="shared" si="14"/>
-        <v>0.46158777147999647</v>
+        <f t="shared" si="11"/>
+        <v>-0.15837936410135642</v>
       </c>
       <c r="Y22">
         <v>21</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-5.2875426269583334</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>37.865714975416665</v>
       </c>
       <c r="AB22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>71.389610276250011</v>
       </c>
       <c r="AC22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>561.90796479166602</v>
       </c>
       <c r="AD22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>4.3458775850833344</v>
       </c>
       <c r="AE22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-84.198916708333286</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.19721751958333339</v>
       </c>
       <c r="AG22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-1.6562114008333353</v>
       </c>
       <c r="AH22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-3.0527607675000041</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>18.034571249999999</v>
       </c>
     </row>
@@ -4121,90 +4268,90 @@
         <v>22</v>
       </c>
       <c r="N23">
+        <f t="shared" si="2"/>
+        <v>-1.355412975830613</v>
+      </c>
+      <c r="O23">
         <f t="shared" si="3"/>
-        <v>-1.355412975830613</v>
-      </c>
-      <c r="O23">
+        <v>1.1355533543301819</v>
+      </c>
+      <c r="P23">
         <f t="shared" si="4"/>
-        <v>1.1355533543301819</v>
-      </c>
-      <c r="P23">
+        <v>1.3165138425610419</v>
+      </c>
+      <c r="Q23">
         <f t="shared" si="5"/>
-        <v>1.3165138425610419</v>
-      </c>
-      <c r="Q23">
+        <v>0.34560726968477506</v>
+      </c>
+      <c r="R23">
         <f t="shared" si="6"/>
-        <v>0.34560726968477506</v>
-      </c>
-      <c r="R23">
+        <v>1.2102783072639791</v>
+      </c>
+      <c r="S23">
         <f t="shared" si="7"/>
-        <v>1.2102783072639791</v>
-      </c>
-      <c r="S23">
+        <v>-0.91140761997265074</v>
+      </c>
+      <c r="T23">
         <f t="shared" si="8"/>
-        <v>-0.91140761997265074</v>
-      </c>
-      <c r="T23">
+        <v>0.57869070584022853</v>
+      </c>
+      <c r="U23">
         <f t="shared" si="9"/>
-        <v>0.57869070584022853</v>
-      </c>
-      <c r="U23">
+        <v>-1.1405149506741015</v>
+      </c>
+      <c r="V23">
         <f t="shared" si="10"/>
-        <v>-1.1405149506741015</v>
-      </c>
-      <c r="V23">
+        <v>-0.26188947489577774</v>
+      </c>
+      <c r="W23">
         <f t="shared" si="11"/>
-        <v>-0.26188947489577774</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="12"/>
         <v>1.3247483365068522</v>
       </c>
       <c r="X23">
-        <f t="shared" si="14"/>
-        <v>0.4774679452847122</v>
+        <f t="shared" si="11"/>
+        <v>-0.10892440772608512</v>
       </c>
       <c r="Y23">
         <v>22</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-6.0093093059583333</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>45.092769575416668</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>108.78714097625002</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>509.52990779166612</v>
       </c>
       <c r="AD23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>5.3445795350833336</v>
       </c>
       <c r="AE23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-68.881335908333313</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.16207414758333333</v>
       </c>
       <c r="AG23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-1.6323658108333348</v>
       </c>
       <c r="AH23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-3.9676603374999928</v>
       </c>
       <c r="AI23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>35.568571249999877</v>
       </c>
     </row>
@@ -4249,90 +4396,90 @@
         <v>23</v>
       </c>
       <c r="N24">
+        <f t="shared" si="2"/>
+        <v>-1.1868740083017451</v>
+      </c>
+      <c r="O24">
         <f t="shared" si="3"/>
-        <v>-1.1868740083017451</v>
-      </c>
-      <c r="O24">
+        <v>1.5273938573947135</v>
+      </c>
+      <c r="P24">
         <f t="shared" si="4"/>
-        <v>1.5273938573947135</v>
-      </c>
-      <c r="P24">
+        <v>0.9319328534191732</v>
+      </c>
+      <c r="Q24">
         <f t="shared" si="5"/>
-        <v>0.9319328534191732</v>
-      </c>
-      <c r="Q24">
+        <v>-0.39587588255405354</v>
+      </c>
+      <c r="R24">
         <f t="shared" si="6"/>
-        <v>-0.39587588255405354</v>
-      </c>
-      <c r="R24">
+        <v>1.5405966506897442</v>
+      </c>
+      <c r="S24">
         <f t="shared" si="7"/>
-        <v>1.5405966506897442</v>
-      </c>
-      <c r="S24">
+        <v>-0.13703524773635084</v>
+      </c>
+      <c r="T24">
         <f t="shared" si="8"/>
-        <v>-0.13703524773635084</v>
-      </c>
-      <c r="T24">
+        <v>2.0313978951377973</v>
+      </c>
+      <c r="U24">
         <f t="shared" si="9"/>
-        <v>2.0313978951377973</v>
-      </c>
-      <c r="U24">
+        <v>0.10057082631841364</v>
+      </c>
+      <c r="V24">
         <f t="shared" si="10"/>
-        <v>0.10057082631841364</v>
-      </c>
-      <c r="V24">
+        <v>0.35088821359159034</v>
+      </c>
+      <c r="W24">
         <f t="shared" si="11"/>
-        <v>0.35088821359159034</v>
-      </c>
-      <c r="W24">
-        <f t="shared" si="12"/>
         <v>1.6469724393389504</v>
       </c>
       <c r="X24">
-        <f t="shared" si="14"/>
-        <v>0.68863651732495512</v>
+        <f t="shared" si="11"/>
+        <v>0.54870898133526913</v>
       </c>
       <c r="Y24">
         <v>23</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-5.2620811149583337</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>60.652737275416655</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>77.008161576250046</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-583.64108520833361</v>
       </c>
       <c r="AD24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>6.8032627550833347</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-10.356695208333349</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.56893445658333341</v>
       </c>
       <c r="AG24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.14394232916666638</v>
       </c>
       <c r="AH24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>5.3160030525000082</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>44.22006424999995</v>
       </c>
     </row>
@@ -4377,90 +4524,90 @@
         <v>24</v>
       </c>
       <c r="N25">
+        <f t="shared" si="2"/>
+        <v>-0.72826422304365446</v>
+      </c>
+      <c r="O25">
         <f t="shared" si="3"/>
-        <v>-0.72826422304365446</v>
-      </c>
-      <c r="O25">
+        <v>1.8400405963017799</v>
+      </c>
+      <c r="P25">
         <f t="shared" si="4"/>
-        <v>1.8400405963017799</v>
-      </c>
-      <c r="P25">
+        <v>1.6450705147519553</v>
+      </c>
+      <c r="Q25">
         <f t="shared" si="5"/>
-        <v>1.6450705147519553</v>
-      </c>
-      <c r="Q25">
+        <v>-0.7955541585004462</v>
+      </c>
+      <c r="R25">
         <f t="shared" si="6"/>
-        <v>-0.7955541585004462</v>
-      </c>
-      <c r="R25">
+        <v>1.7876093641737156</v>
+      </c>
+      <c r="S25">
         <f t="shared" si="7"/>
-        <v>1.7876093641737156</v>
-      </c>
-      <c r="S25">
+        <v>0.47540940010189486</v>
+      </c>
+      <c r="T25">
         <f t="shared" si="8"/>
-        <v>0.47540940010189486</v>
-      </c>
-      <c r="T25">
+        <v>-0.29920089442899267</v>
+      </c>
+      <c r="U25">
         <f t="shared" si="9"/>
-        <v>-0.29920089442899267</v>
-      </c>
-      <c r="U25">
+        <v>0.23123174235094485</v>
+      </c>
+      <c r="V25">
         <f t="shared" si="10"/>
-        <v>0.23123174235094485</v>
-      </c>
-      <c r="V25">
+        <v>0.46173132739677547</v>
+      </c>
+      <c r="W25">
         <f t="shared" si="11"/>
-        <v>0.46173132739677547</v>
-      </c>
-      <c r="W25">
-        <f t="shared" si="12"/>
         <v>1.5639337887861195</v>
       </c>
       <c r="X25">
-        <f t="shared" si="14"/>
-        <v>0.90310504073590703</v>
+        <f t="shared" si="11"/>
+        <v>1.2166192699498555</v>
       </c>
       <c r="Y25">
         <v>24</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-3.2288055749583333</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>73.067924375416652</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>135.93667777625004</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-1172.8880512083338</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>7.8940689650833349</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>35.92995479166666</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>-8.3797319416666627E-2</v>
       </c>
       <c r="AG25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.33095119916666604</v>
       </c>
       <c r="AH25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>6.9952909524999995</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>41.990534249999882</v>
       </c>
     </row>
@@ -4470,79 +4617,83 @@
         <v>9.3680669583333844E-3</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26:K26" si="15">AVERAGE(C2:C25)</f>
+        <f t="shared" ref="C26:L26" si="13">AVERAGE(C2:C25)</f>
         <v>129.73095622458334</v>
       </c>
       <c r="D26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>225.26236692374997</v>
       </c>
       <c r="E26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>3965.8155662083336</v>
       </c>
       <c r="F26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>9.894680054916666</v>
       </c>
       <c r="G26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>1034.5833322083333</v>
       </c>
       <c r="H26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>0.39081322741666663</v>
       </c>
       <c r="I26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>19.606658000833335</v>
       </c>
       <c r="J26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>100.3238168475</v>
       </c>
       <c r="K26">
-        <f t="shared" si="15"/>
+        <f t="shared" si="13"/>
         <v>1149.4982277500001</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="13"/>
+        <v>221.20562838333342</v>
       </c>
       <c r="N26">
         <f>AVERAGE(N2:N25)</f>
         <v>0</v>
       </c>
       <c r="O26">
-        <f t="shared" ref="O26:W26" si="16">AVERAGE(O2:O25)</f>
+        <f t="shared" ref="O26:W26" si="14">AVERAGE(O2:O25)</f>
         <v>-1.0177044392397268E-16</v>
       </c>
       <c r="P26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>3.5157062446463289E-16</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-2.0354088784794536E-16</v>
       </c>
       <c r="R26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2.6830389761774615E-16</v>
       </c>
       <c r="S26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-1.295260195396016E-16</v>
       </c>
       <c r="T26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>1.2490009027033011E-16</v>
       </c>
       <c r="U26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-1.0153914746050912E-15</v>
       </c>
       <c r="V26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>2.2435756955966707E-16</v>
       </c>
       <c r="W26">
-        <f t="shared" si="16"/>
+        <f t="shared" si="14"/>
         <v>-2.8310687127941492E-15</v>
       </c>
     </row>
@@ -4635,39 +4786,39 @@
         <v>0.64669994153126031</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:K43" si="17">O2-O$26</f>
+        <f t="shared" ref="C28:K43" si="15">O2-O$26</f>
         <v>-1.6242283037479095</v>
       </c>
       <c r="D28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-1.1832962684276398</v>
       </c>
       <c r="E28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.68966303166541854</v>
       </c>
       <c r="F28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-1.7166714757637243</v>
       </c>
       <c r="G28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.90984236441932986</v>
       </c>
       <c r="H28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.9171459463366363</v>
       </c>
       <c r="I28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.6705467474324992</v>
       </c>
       <c r="J28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>8.7443756292125523E-3</v>
       </c>
       <c r="K28">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.26278780495728488</v>
       </c>
       <c r="N28">
@@ -4675,39 +4826,39 @@
         <v>1.0000000000000002</v>
       </c>
       <c r="O28">
-        <f t="shared" ref="O28:W28" si="18">(1/(24-1))*SUMPRODUCT($B$28:$B$51,C$28:C$51)</f>
+        <f t="shared" ref="O28:W28" si="16">(1/(24-1))*SUMPRODUCT($B$28:$B$51,C$28:C$51)</f>
         <v>-0.40208849900840454</v>
       </c>
       <c r="P28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-0.40234947150697681</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-0.25420808115965637</v>
       </c>
       <c r="R28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-0.39922572515965277</v>
       </c>
       <c r="S28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0.45966213243978277</v>
       </c>
       <c r="T28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-1.3131344106833275E-2</v>
       </c>
       <c r="U28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0.49539216338846959</v>
       </c>
       <c r="V28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>0.11172036480018675</v>
       </c>
       <c r="W28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>-0.44712317091453835</v>
       </c>
       <c r="Y28" s="3">
@@ -4843,43 +4994,43 @@
         <v>2</v>
       </c>
       <c r="B29">
-        <f t="shared" ref="B29:K51" si="19">N3-N$26</f>
+        <f t="shared" ref="B29:K51" si="17">N3-N$26</f>
         <v>1.1366608377907941</v>
       </c>
       <c r="C29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-1.4559834835710261</v>
       </c>
       <c r="D29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-1.9068712262883349</v>
       </c>
       <c r="E29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-1.7014185601492453</v>
       </c>
       <c r="F29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-1.4172646370631288</v>
       </c>
       <c r="G29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.54748157987828705</v>
       </c>
       <c r="H29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.53137036660071646</v>
       </c>
       <c r="I29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.35668692839572952</v>
       </c>
       <c r="J29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-5.5118905926231414E-2</v>
       </c>
       <c r="K29">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.452134430303752</v>
       </c>
       <c r="N29">
@@ -4887,39 +5038,39 @@
         <v>-0.40208849900840454</v>
       </c>
       <c r="O29">
-        <f t="shared" ref="O29:W29" si="20">(1/(24-1))*SUMPRODUCT($C$28:$C$51,C$28:C$51)</f>
+        <f t="shared" ref="O29:W29" si="18">(1/(24-1))*SUMPRODUCT($C$28:$C$51,C$28:C$51)</f>
         <v>1.0000000000000007</v>
       </c>
       <c r="P29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.9483742743878002</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>9.9362915873121391E-2</v>
       </c>
       <c r="R29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.997913049696869</v>
       </c>
       <c r="S29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>-3.7080286597139453E-2</v>
       </c>
       <c r="T29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.14047359705570392</v>
       </c>
       <c r="U29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>-9.0726405414593772E-2</v>
       </c>
       <c r="V29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.33549609097920935</v>
       </c>
       <c r="W29">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>0.13198975484267375</v>
       </c>
       <c r="Y29" s="3">
@@ -5053,43 +5204,43 @@
         <v>3</v>
       </c>
       <c r="B30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.3478101854366904</v>
       </c>
       <c r="C30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-1.3382961813940024</v>
       </c>
       <c r="D30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-1.7718884636314174</v>
       </c>
       <c r="E30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-1.8912510950846262</v>
       </c>
       <c r="F30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-1.2911942298088348</v>
       </c>
       <c r="G30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.98345065150155575</v>
       </c>
       <c r="H30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.11970841375148385</v>
       </c>
       <c r="I30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.3302561756156466</v>
       </c>
       <c r="J30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.62486933575384729</v>
       </c>
       <c r="K30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.0531523610630384</v>
       </c>
       <c r="N30">
@@ -5097,39 +5248,39 @@
         <v>-0.40234947150697681</v>
       </c>
       <c r="O30">
-        <f t="shared" ref="O30:W30" si="21">(1/(24-1))*SUMPRODUCT($D$28:$D$51,C$28:C$51)</f>
+        <f t="shared" ref="O30:W30" si="19">(1/(24-1))*SUMPRODUCT($D$28:$D$51,C$28:C$51)</f>
         <v>0.9483742743878002</v>
       </c>
       <c r="P30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.99999999999999822</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.24298308722814629</v>
       </c>
       <c r="R30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.94643060069703677</v>
       </c>
       <c r="S30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-2.3039920110677854E-2</v>
       </c>
       <c r="T30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>4.6997925313160355E-2</v>
       </c>
       <c r="U30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-9.7873494734486657E-2</v>
       </c>
       <c r="V30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>0.31212312910690765</v>
       </c>
       <c r="W30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>1.719868276877903E-2</v>
       </c>
       <c r="Y30" s="3">
@@ -5263,43 +5414,43 @@
         <v>4</v>
       </c>
       <c r="B31">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.2284512598614998</v>
       </c>
       <c r="C31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-1.2187111637686596</v>
       </c>
       <c r="D31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.82315168299619479</v>
       </c>
       <c r="E31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.0286926545590576</v>
       </c>
       <c r="F31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-1.2858130352651231</v>
       </c>
       <c r="G31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.2386023772209473</v>
       </c>
       <c r="H31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.99019575469702881</v>
       </c>
       <c r="I31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.3935284270539974</v>
       </c>
       <c r="J31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.14341377059642202</v>
       </c>
       <c r="K31">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-2.4673851575881912E-2</v>
       </c>
       <c r="N31">
@@ -5307,39 +5458,39 @@
         <v>-0.25420808115965637</v>
       </c>
       <c r="O31">
-        <f t="shared" ref="O31:W31" si="22">(1/(24-1))*SUMPRODUCT($E$28:$E$51,C$28:C$51)</f>
+        <f t="shared" ref="O31:W31" si="20">(1/(24-1))*SUMPRODUCT($E$28:$E$51,C$28:C$51)</f>
         <v>9.9362915873121391E-2</v>
       </c>
       <c r="P31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.24298308722814629</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>1.0000000000000024</v>
       </c>
       <c r="R31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>8.5763975258117922E-2</v>
       </c>
       <c r="S31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.19727492302504654</v>
       </c>
       <c r="T31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>5.9134612242267771E-2</v>
       </c>
       <c r="U31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.12249335505328843</v>
       </c>
       <c r="V31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>0.22283916376721935</v>
       </c>
       <c r="W31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>-0.33473678534720513</v>
       </c>
       <c r="Y31" s="3">
@@ -5473,43 +5624,43 @@
         <v>5</v>
       </c>
       <c r="B32">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.80780728908945587</v>
       </c>
       <c r="C32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-1.075973229911612</v>
       </c>
       <c r="D32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-1.4989744211634499</v>
       </c>
       <c r="E32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.67814650856376646</v>
       </c>
       <c r="F32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-1.0936446422358861</v>
       </c>
       <c r="G32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.0441612889438685</v>
       </c>
       <c r="H32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.4979141793707029</v>
       </c>
       <c r="I32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.0366838262439231</v>
       </c>
       <c r="J32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.51675500296998056</v>
       </c>
       <c r="K32">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-1.4021883876270116</v>
       </c>
       <c r="N32">
@@ -5517,39 +5668,39 @@
         <v>-0.39922572515965277</v>
       </c>
       <c r="O32">
-        <f t="shared" ref="O32:W32" si="23">(1/(24-1))*SUMPRODUCT($F$28:$F$51,C$28:C$51)</f>
+        <f t="shared" ref="O32:W32" si="21">(1/(24-1))*SUMPRODUCT($F$28:$F$51,C$28:C$51)</f>
         <v>0.997913049696869</v>
       </c>
       <c r="P32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.94643060069703677</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>8.5763975258117922E-2</v>
       </c>
       <c r="R32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.99999999999999889</v>
       </c>
       <c r="S32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>-4.8742352823826766E-2</v>
       </c>
       <c r="T32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.13071754690045018</v>
       </c>
       <c r="U32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>-0.1002377090764764</v>
       </c>
       <c r="V32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.32113207117151565</v>
       </c>
       <c r="W32">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>0.13147082459376028</v>
       </c>
       <c r="Y32" s="3">
@@ -5683,43 +5834,43 @@
         <v>6</v>
       </c>
       <c r="B33">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.18886658726586336</v>
       </c>
       <c r="C33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.9371921328361994</v>
       </c>
       <c r="D33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.74062679977686408</v>
       </c>
       <c r="E33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-1.573831077827319</v>
       </c>
       <c r="F33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.83569268654316331</v>
       </c>
       <c r="G33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-1.7749323589562753</v>
       </c>
       <c r="H33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-1.3484185505869772</v>
       </c>
       <c r="I33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-1.81303207664959</v>
       </c>
       <c r="J33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-4.0470633269033343</v>
       </c>
       <c r="K33">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>2.4858232516955302E-2</v>
       </c>
       <c r="N33">
@@ -5727,39 +5878,39 @@
         <v>0.45966213243978277</v>
       </c>
       <c r="O33">
-        <f t="shared" ref="O33:W33" si="24">(1/(24-1))*SUMPRODUCT($G$28:$G$51,C$28:C$51)</f>
+        <f t="shared" ref="O33:W33" si="22">(1/(24-1))*SUMPRODUCT($G$28:$G$51,C$28:C$51)</f>
         <v>-3.7080286597139453E-2</v>
       </c>
       <c r="P33">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>-2.3039920110677854E-2</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0.19727492302504654</v>
       </c>
       <c r="R33">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>-4.8742352823826766E-2</v>
       </c>
       <c r="S33">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0.99999999999999967</v>
       </c>
       <c r="T33">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>-6.8977936236466475E-3</v>
       </c>
       <c r="U33">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0.98205640841977426</v>
       </c>
       <c r="V33">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>0.6490275859522906</v>
       </c>
       <c r="W33">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>-0.27227281621090732</v>
       </c>
       <c r="Y33" s="3">
@@ -5893,43 +6044,43 @@
         <v>7</v>
       </c>
       <c r="B34">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-0.47683257501348991</v>
       </c>
       <c r="C34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.73928753366903066</v>
       </c>
       <c r="D34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.7019457933219061</v>
       </c>
       <c r="E34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.10297571216774086</v>
       </c>
       <c r="F34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.65164992883522255</v>
       </c>
       <c r="G34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.42954215859964889</v>
       </c>
       <c r="H34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>3.731405721790293E-2</v>
       </c>
       <c r="I34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.45987169508260856</v>
       </c>
       <c r="J34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.4864566184573366E-2</v>
       </c>
       <c r="K34">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.2655819741868744</v>
       </c>
       <c r="N34">
@@ -5937,39 +6088,39 @@
         <v>-1.3131344106833275E-2</v>
       </c>
       <c r="O34">
-        <f t="shared" ref="O34:W34" si="25">(1/(24-1))*SUMPRODUCT($H$28:$H$51,C$28:C$51)</f>
+        <f t="shared" ref="O34:W34" si="23">(1/(24-1))*SUMPRODUCT($H$28:$H$51,C$28:C$51)</f>
         <v>0.14047359705570392</v>
       </c>
       <c r="P34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>4.6997925313160355E-2</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>5.9134612242267771E-2</v>
       </c>
       <c r="R34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0.13071754690045018</v>
       </c>
       <c r="S34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>-6.8977936236466475E-3</v>
       </c>
       <c r="T34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="U34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>-3.7445527298461834E-3</v>
       </c>
       <c r="V34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0.11651953044842359</v>
       </c>
       <c r="W34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>4.6911850298547199E-2</v>
       </c>
       <c r="Y34" s="3">
@@ -6103,43 +6254,43 @@
         <v>8</v>
       </c>
       <c r="B35">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-1.0263038261807287</v>
       </c>
       <c r="C35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.64792674407894602</v>
       </c>
       <c r="D35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.52239588376831414</v>
       </c>
       <c r="E35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.12887500769404656</v>
       </c>
       <c r="F35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.64392046586443374</v>
       </c>
       <c r="G35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-1.7770358781730946</v>
       </c>
       <c r="H35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.86851038961919014</v>
       </c>
       <c r="I35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-1.4987952861440084</v>
       </c>
       <c r="J35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.81320557495823786</v>
       </c>
       <c r="K35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.48322372116746909</v>
       </c>
       <c r="N35">
@@ -6147,39 +6298,39 @@
         <v>0.49539216338846959</v>
       </c>
       <c r="O35">
-        <f t="shared" ref="O35:W35" si="26">(1/(24-1))*SUMPRODUCT($I$28:$I$51,C$28:C$51)</f>
+        <f t="shared" ref="O35:W35" si="24">(1/(24-1))*SUMPRODUCT($I$28:$I$51,C$28:C$51)</f>
         <v>-9.0726405414593772E-2</v>
       </c>
       <c r="P35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-9.7873494734486657E-2</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0.12249335505328843</v>
       </c>
       <c r="R35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-0.1002377090764764</v>
       </c>
       <c r="S35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0.98205640841977426</v>
       </c>
       <c r="T35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-3.7445527298461834E-3</v>
       </c>
       <c r="U35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="V35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0.64908637960851234</v>
       </c>
       <c r="W35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>-0.27459436213431043</v>
       </c>
       <c r="Y35" s="3">
@@ -6313,43 +6464,43 @@
         <v>9</v>
       </c>
       <c r="B36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-1.3250174402110797</v>
       </c>
       <c r="C36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.43414940865999246</v>
       </c>
       <c r="D36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.7990711769768547</v>
       </c>
       <c r="E36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-2.8308885084309138E-2</v>
       </c>
       <c r="F36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.49625076445181243</v>
       </c>
       <c r="G36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.39947610827210228</v>
       </c>
       <c r="H36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.38167858060115406</v>
       </c>
       <c r="I36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.42232069749859535</v>
       </c>
       <c r="J36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.43561251650337823</v>
       </c>
       <c r="K36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.20362751982039448</v>
       </c>
       <c r="N36">
@@ -6357,39 +6508,39 @@
         <v>0.11172036480018675</v>
       </c>
       <c r="O36">
-        <f t="shared" ref="O36:W36" si="27">(1/(24-1))*SUMPRODUCT($J$28:$J$51,C$28:C$51)</f>
+        <f t="shared" ref="O36:W36" si="25">(1/(24-1))*SUMPRODUCT($J$28:$J$51,C$28:C$51)</f>
         <v>0.33549609097920935</v>
       </c>
       <c r="P36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.31212312910690765</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.22283916376721935</v>
       </c>
       <c r="R36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.32113207117151565</v>
       </c>
       <c r="S36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.6490275859522906</v>
       </c>
       <c r="T36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.11651953044842359</v>
       </c>
       <c r="U36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.64908637960851234</v>
       </c>
       <c r="V36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.9999999999999919</v>
       </c>
       <c r="W36">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>-7.6926901403579648E-2</v>
       </c>
       <c r="Y36" s="3">
@@ -6523,43 +6674,43 @@
         <v>10</v>
       </c>
       <c r="B37">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-1.2998379065131263</v>
       </c>
       <c r="C37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.32418070199793414</v>
       </c>
       <c r="D37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.20191357875524962</v>
       </c>
       <c r="E37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.304348619823366</v>
       </c>
       <c r="F37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.36230991458381934</v>
       </c>
       <c r="G37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.29833465666981307</v>
       </c>
       <c r="H37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.41366430790582481</v>
       </c>
       <c r="I37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.9406724692687994E-2</v>
       </c>
       <c r="J37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.34824817073600473</v>
       </c>
       <c r="K37">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.29233231345535393</v>
       </c>
       <c r="N37">
@@ -6567,39 +6718,39 @@
         <v>-0.44712317091453835</v>
       </c>
       <c r="O37">
-        <f t="shared" ref="O37:W37" si="28">(1/(24-1))*SUMPRODUCT($K$28:$K$51,C$28:C$51)</f>
+        <f t="shared" ref="O37:W37" si="26">(1/(24-1))*SUMPRODUCT($K$28:$K$51,C$28:C$51)</f>
         <v>0.13198975484267375</v>
       </c>
       <c r="P37">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1.719868276877903E-2</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>-0.33473678534720513</v>
       </c>
       <c r="R37">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0.13147082459376028</v>
       </c>
       <c r="S37">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>-0.27227281621090732</v>
       </c>
       <c r="T37">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>4.6911850298547199E-2</v>
       </c>
       <c r="U37">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>-0.27459436213431043</v>
       </c>
       <c r="V37">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>-7.6926901403579648E-2</v>
       </c>
       <c r="W37">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="Y37" s="3">
@@ -6733,43 +6884,43 @@
         <v>11</v>
       </c>
       <c r="B38">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-0.95693005296611933</v>
       </c>
       <c r="C38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.10525256210887141</v>
       </c>
       <c r="D38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.20707649626145622</v>
       </c>
       <c r="E38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.18484801904219031</v>
       </c>
       <c r="F38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.1454374553642768</v>
       </c>
       <c r="G38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.43314887051088685</v>
       </c>
       <c r="H38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-1.2183643437692995</v>
       </c>
       <c r="I38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.25322910732060144</v>
       </c>
       <c r="J38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.29822167873432903</v>
       </c>
       <c r="K38">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.46967674075024102</v>
       </c>
     </row>
@@ -6778,43 +6929,43 @@
         <v>12</v>
       </c>
       <c r="B39">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-0.38024968167768797</v>
       </c>
       <c r="C39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.13910663699230691</v>
       </c>
       <c r="D39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-3.7098355530397559E-2</v>
       </c>
       <c r="E39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.8590849103878686</v>
       </c>
       <c r="F39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-5.6161923087482954E-2</v>
       </c>
       <c r="G39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.17457916787094493</v>
       </c>
       <c r="H39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.20521856645214342</v>
       </c>
       <c r="I39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>7.5165863433220076E-3</v>
       </c>
       <c r="J39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.20089465102459103</v>
       </c>
       <c r="K39">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.57294194888115357</v>
       </c>
       <c r="AA39" s="4">
@@ -6853,43 +7004,43 @@
         <v>13</v>
       </c>
       <c r="B40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.28901174028335741</v>
       </c>
       <c r="C40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-1.1449802828681428E-2</v>
       </c>
       <c r="D40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-4.0783016452629875E-3</v>
       </c>
       <c r="E40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.6758437959632182</v>
       </c>
       <c r="F40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-9.1596578037127743E-2</v>
       </c>
       <c r="G40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-1.406997499802114</v>
       </c>
       <c r="H40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.29532160991525125</v>
       </c>
       <c r="I40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-1.5086281227168539</v>
       </c>
       <c r="J40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.33566031709477645</v>
       </c>
       <c r="K40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.88806715270103553</v>
       </c>
     </row>
@@ -6898,43 +7049,43 @@
         <v>14</v>
       </c>
       <c r="B41">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.88699567517333899</v>
       </c>
       <c r="C41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.23392909406741549</v>
       </c>
       <c r="D41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.39202071224643531</v>
       </c>
       <c r="E41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.1684782348390235</v>
       </c>
       <c r="F41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.19003659918937346</v>
       </c>
       <c r="G41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.4170104253927038</v>
       </c>
       <c r="H41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-1.3798578188926198</v>
       </c>
       <c r="I41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.2066674457931259</v>
       </c>
       <c r="J41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.0565909624497518</v>
       </c>
       <c r="K41">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.81764147326336967</v>
       </c>
     </row>
@@ -6943,43 +7094,43 @@
         <v>15</v>
       </c>
       <c r="B42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.2672948008363534</v>
       </c>
       <c r="C42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.26978569464836866</v>
       </c>
       <c r="D42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.79195213100326645</v>
       </c>
       <c r="E42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.30026266957907011</v>
       </c>
       <c r="F42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.37601064926854444</v>
       </c>
       <c r="G42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.4909536429866603</v>
       </c>
       <c r="H42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.45618041191508157</v>
       </c>
       <c r="I42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.5464596145554044</v>
       </c>
       <c r="J42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.1043160422896947</v>
       </c>
       <c r="K42">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-1.6797409047384784</v>
       </c>
       <c r="Z42" t="s">
@@ -7000,43 +7151,43 @@
         <v>16</v>
       </c>
       <c r="B43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.3367986274534545</v>
       </c>
       <c r="C43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.63803412205203192</v>
       </c>
       <c r="D43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.61058271374577466</v>
       </c>
       <c r="E43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.12396748667595393</v>
       </c>
       <c r="F43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>0.58659845446314862</v>
       </c>
       <c r="G43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-1.022004229960118</v>
       </c>
       <c r="H43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>1.4942372148086394</v>
       </c>
       <c r="I43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.97104588713617757</v>
       </c>
       <c r="J43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-0.2059260752199506</v>
       </c>
       <c r="K43">
-        <f t="shared" si="17"/>
+        <f t="shared" si="15"/>
         <v>-1.8158836127513045</v>
       </c>
       <c r="Z43">
@@ -7141,43 +7292,43 @@
         <v>17</v>
       </c>
       <c r="B44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.0784901944241321</v>
       </c>
       <c r="C44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.5546717253412099</v>
       </c>
       <c r="D44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.55558351836234188</v>
       </c>
       <c r="E44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-0.94266429312717204</v>
       </c>
       <c r="F44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.60641088766557638</v>
       </c>
       <c r="G44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.46910448174286934</v>
       </c>
       <c r="H44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.45528710502614317</v>
       </c>
       <c r="I44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.47699554588754284</v>
       </c>
       <c r="J44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.56253913646409737</v>
       </c>
       <c r="K44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-1.0941359368905161</v>
       </c>
       <c r="Z44">
@@ -7279,43 +7430,43 @@
         <v>18</v>
       </c>
       <c r="B45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.55561241479499768</v>
       </c>
       <c r="C45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.78213495228180907</v>
       </c>
       <c r="D45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.55123580803850858</v>
       </c>
       <c r="E45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.32930798077040585</v>
       </c>
       <c r="F45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.82304441235850279</v>
       </c>
       <c r="G45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.85095863511178826</v>
       </c>
       <c r="H45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-1.219559386084005</v>
       </c>
       <c r="I45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.65444550269724655</v>
       </c>
       <c r="J45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.76427194168991752</v>
       </c>
       <c r="K45">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-0.76644640381165052</v>
       </c>
       <c r="Z45">
@@ -7417,43 +7568,43 @@
         <v>19</v>
       </c>
       <c r="B46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-0.103815994649945</v>
       </c>
       <c r="C46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.94072114364053505</v>
       </c>
       <c r="D46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.64849794016056461</v>
       </c>
       <c r="E46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-0.8851288802563545</v>
       </c>
       <c r="F46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.84142181357986778</v>
       </c>
       <c r="G46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.89593730339508415</v>
       </c>
       <c r="H46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.33120014749872151</v>
       </c>
       <c r="I46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.0906896887033593</v>
       </c>
       <c r="J46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.96848411131235457</v>
       </c>
       <c r="K46">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-0.14146298552296979</v>
       </c>
       <c r="Z46">
@@ -7555,43 +7706,43 @@
         <v>20</v>
       </c>
       <c r="B47">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-0.73834396102896216</v>
       </c>
       <c r="C47">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.1759160444296017</v>
       </c>
       <c r="D47">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.2730796654094574</v>
       </c>
       <c r="E47">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.4406567248063766</v>
       </c>
       <c r="F47">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.141478024581414</v>
       </c>
       <c r="G47">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>5.3958621869660647E-2</v>
       </c>
       <c r="H47">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-0.32118940023103426</v>
       </c>
       <c r="I47">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-0.18369851581875157</v>
       </c>
       <c r="J47">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.25148104570713803</v>
       </c>
       <c r="K47">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.14369918871311788</v>
       </c>
       <c r="Z47">
@@ -7693,43 +7844,43 @@
         <v>21</v>
       </c>
       <c r="B48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-1.1926169085240466</v>
       </c>
       <c r="C48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.9535573010775239</v>
       </c>
       <c r="D48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.86393859881141322</v>
       </c>
       <c r="E48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.38113459986568599</v>
       </c>
       <c r="F48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.9841225736701692</v>
       </c>
       <c r="G48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-1.1140831296237024</v>
       </c>
       <c r="H48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.70417119147924156</v>
       </c>
       <c r="I48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-1.1571755862510986</v>
       </c>
       <c r="J48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-0.20150059389578731</v>
       </c>
       <c r="K48">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.67169603454487881</v>
       </c>
       <c r="Z48">
@@ -7831,43 +7982,43 @@
         <v>22</v>
       </c>
       <c r="B49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-1.355412975830613</v>
       </c>
       <c r="C49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.1355533543301819</v>
       </c>
       <c r="D49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.3165138425610414</v>
       </c>
       <c r="E49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.34560726968477529</v>
       </c>
       <c r="F49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.2102783072639789</v>
       </c>
       <c r="G49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-0.91140761997265063</v>
       </c>
       <c r="H49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.57869070584022841</v>
       </c>
       <c r="I49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-1.1405149506741004</v>
       </c>
       <c r="J49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-0.26188947489577796</v>
       </c>
       <c r="K49">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.3247483365068551</v>
       </c>
       <c r="Z49">
@@ -7969,43 +8120,43 @@
         <v>23</v>
       </c>
       <c r="B50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-1.1868740083017451</v>
       </c>
       <c r="C50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.5273938573947135</v>
       </c>
       <c r="D50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.93193285341917287</v>
       </c>
       <c r="E50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-0.39587588255405332</v>
       </c>
       <c r="F50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.5405966506897439</v>
       </c>
       <c r="G50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-0.1370352477363507</v>
       </c>
       <c r="H50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>2.0313978951377973</v>
       </c>
       <c r="I50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.10057082631841466</v>
       </c>
       <c r="J50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.35088821359159011</v>
       </c>
       <c r="K50">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.6469724393389533</v>
       </c>
       <c r="Z50">
@@ -8107,43 +8258,43 @@
         <v>24</v>
       </c>
       <c r="B51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-0.72826422304365446</v>
       </c>
       <c r="C51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.8400405963017799</v>
       </c>
       <c r="D51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.6450705147519549</v>
       </c>
       <c r="E51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-0.79555415850044597</v>
       </c>
       <c r="F51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.7876093641737154</v>
       </c>
       <c r="G51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.47540940010189497</v>
       </c>
       <c r="H51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>-0.29920089442899278</v>
       </c>
       <c r="I51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.23123174235094587</v>
       </c>
       <c r="J51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>0.46173132739677525</v>
       </c>
       <c r="K51">
-        <f t="shared" si="19"/>
+        <f t="shared" si="17"/>
         <v>1.5639337887861224</v>
       </c>
       <c r="Z51">
@@ -9251,39 +9402,39 @@
         <v>0.99999999999999911</v>
       </c>
       <c r="AM67" s="1">
-        <f t="shared" ref="AM67:AU67" si="29">_xlfn.VAR.S(AM43:AM66)</f>
+        <f t="shared" ref="AM67:AU67" si="27">_xlfn.VAR.S(AM43:AM66)</f>
         <v>1.0000000000000016</v>
       </c>
       <c r="AN67" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>1.0000000000000007</v>
       </c>
       <c r="AO67" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>0.99999999999999956</v>
       </c>
       <c r="AP67" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>1</v>
       </c>
       <c r="AQ67" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>1.0000000000000013</v>
       </c>
       <c r="AR67" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>1.0000000000000013</v>
       </c>
       <c r="AS67" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>0.99999999999999967</v>
       </c>
       <c r="AT67" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>1.0000000000000098</v>
       </c>
       <c r="AU67" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>0.99999999999993572</v>
       </c>
     </row>
@@ -9296,39 +9447,39 @@
         <v>1.1102230246251565E-16</v>
       </c>
       <c r="AM68">
-        <f t="shared" ref="AM68:AU68" si="30">AVERAGE(AM43:AM66)</f>
+        <f t="shared" ref="AM68:AU68" si="28">AVERAGE(AM43:AM66)</f>
         <v>-7.6327832942979512E-17</v>
       </c>
       <c r="AN68">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>-1.4617936490897894E-15</v>
       </c>
       <c r="AO68">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>1.8272420613622367E-15</v>
       </c>
       <c r="AP68">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>3.2381504884900397E-16</v>
       </c>
       <c r="AQ68">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>2.5211314517529595E-15</v>
       </c>
       <c r="AR68">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>-1.9243865760169379E-15</v>
       </c>
       <c r="AS68">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>-1.6514567491299204E-15</v>
       </c>
       <c r="AT68">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>-6.5734454916347813E-15</v>
       </c>
       <c r="AU68">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>6.4022861086717358E-15</v>
       </c>
     </row>
@@ -9396,39 +9547,39 @@
         <v>1.4046011309814013</v>
       </c>
       <c r="AM71">
-        <f t="shared" ref="AM71:AU71" si="31">AM43-AM$68</f>
+        <f t="shared" ref="AM71:AU71" si="29">AM43-AM$68</f>
         <v>-0.39517697881051989</v>
       </c>
       <c r="AN71">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>-0.33349530986609727</v>
       </c>
       <c r="AO71">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>-0.2776066418199058</v>
       </c>
       <c r="AP71">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>-2.2922572458946986</v>
       </c>
       <c r="AQ71">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>-7.2801359522624828E-2</v>
       </c>
       <c r="AR71">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>0.50682726993841376</v>
       </c>
       <c r="AS71">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>-2.2023399245197455</v>
       </c>
       <c r="AT71">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>-1.0597870571382488</v>
       </c>
       <c r="AU71">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>-0.5318766175954549</v>
       </c>
       <c r="AV71">
@@ -9439,39 +9590,39 @@
         <v>0.99999999999999889</v>
       </c>
       <c r="AX71" s="1">
-        <f t="shared" ref="AX71:BF71" si="32">(1/(24-1))*SUMPRODUCT($AL$71:$AL$94,AM$71:AM$94)</f>
+        <f t="shared" ref="AX71:BF71" si="30">(1/(24-1))*SUMPRODUCT($AL$71:$AL$94,AM$71:AM$94)</f>
         <v>-2.7996928447069166E-16</v>
       </c>
       <c r="AY71" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>1.1584935909132068E-16</v>
       </c>
       <c r="AZ71" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>-1.5446581212176091E-16</v>
       </c>
       <c r="BA71" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>-3.8616453030440226E-17</v>
       </c>
       <c r="BB71" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>-1.0112683637346534E-15</v>
       </c>
       <c r="BC71" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>4.4408920985006262E-16</v>
       </c>
       <c r="BD71" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>-6.7096087140389897E-16</v>
       </c>
       <c r="BE71" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>2.4135283144025141E-16</v>
       </c>
       <c r="BF71" s="1">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>7.8198317386641465E-15</v>
       </c>
     </row>
@@ -9485,43 +9636,43 @@
         <v>2</v>
       </c>
       <c r="AL72">
-        <f t="shared" ref="AL72:AU87" si="33">AL44-AL$68</f>
+        <f t="shared" ref="AL72:AU87" si="31">AL44-AL$68</f>
         <v>1.4658551866488465</v>
       </c>
       <c r="AM72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.92670499928676586</v>
       </c>
       <c r="AN72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>1.7869560212113109</v>
       </c>
       <c r="AO72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.37668521032343877</v>
       </c>
       <c r="AP72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.24471636225672375</v>
       </c>
       <c r="AQ72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-1.3325604929666268</v>
       </c>
       <c r="AR72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-1.318841940414343</v>
       </c>
       <c r="AS72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.84194711689779389</v>
       </c>
       <c r="AT72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.34488569292542121</v>
       </c>
       <c r="AU72">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.4082100925217037</v>
       </c>
       <c r="AV72">
@@ -9532,39 +9683,39 @@
         <v>-2.7996928447069166E-16</v>
       </c>
       <c r="AX72" s="1">
-        <f t="shared" ref="AX72:BF72" si="34">(1/(24-1))*SUMPRODUCT($AM$71:$AM$94,AM$71:AM$94)</f>
+        <f t="shared" ref="AX72:BF72" si="32">(1/(24-1))*SUMPRODUCT($AM$71:$AM$94,AM$71:AM$94)</f>
         <v>1.0000000000000016</v>
       </c>
       <c r="AY72" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>-1.2550347234893073E-16</v>
       </c>
       <c r="AZ72" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>-8.3266726846886741E-16</v>
       </c>
       <c r="BA72" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>-2.7272869952748409E-16</v>
       </c>
       <c r="BB72" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>9.8230602396182326E-16</v>
       </c>
       <c r="BC72" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>3.6926983210358469E-16</v>
       </c>
       <c r="BD72" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>6.2751736174465365E-17</v>
       </c>
       <c r="BE72" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>-3.2751579226442118E-15</v>
       </c>
       <c r="BF72" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="32"/>
         <v>2.4569718240617594E-15</v>
       </c>
     </row>
@@ -9578,43 +9729,43 @@
         <v>3</v>
       </c>
       <c r="AL73">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>1.6559057113145634</v>
       </c>
       <c r="AM73">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.37144134004318313</v>
       </c>
       <c r="AN73">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>2.2871319003386876</v>
       </c>
       <c r="AO73">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.45130902379736271</v>
       </c>
       <c r="AP73">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>2.8632583301647217E-2</v>
       </c>
       <c r="AQ73">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>6.5398712638218462E-2</v>
       </c>
       <c r="AR73">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.35649384001930212</v>
       </c>
       <c r="AS73">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.44490182894834995</v>
       </c>
       <c r="AT73">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.69854106346600298</v>
       </c>
       <c r="AU73">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.61068972727779658</v>
       </c>
       <c r="AV73">
@@ -9625,39 +9776,39 @@
         <v>1.1584935909132068E-16</v>
       </c>
       <c r="AX73" s="1">
-        <f t="shared" ref="AX73:BF73" si="35">(1/(24-1))*SUMPRODUCT($AN$71:$AN$94,AM$71:AM$94)</f>
+        <f t="shared" ref="AX73:BF73" si="33">(1/(24-1))*SUMPRODUCT($AN$71:$AN$94,AM$71:AM$94)</f>
         <v>-1.2550347234893073E-16</v>
       </c>
       <c r="AY73" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>1.0000000000000007</v>
       </c>
       <c r="AZ73" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>2.8962339772830171E-16</v>
       </c>
       <c r="BA73" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>2.5100694469786146E-16</v>
       </c>
       <c r="BB73" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>-1.3950193657246532E-15</v>
       </c>
       <c r="BC73" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>-9.0748664621534523E-16</v>
       </c>
       <c r="BD73" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>-5.8407385208540847E-16</v>
       </c>
       <c r="BE73" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>-3.3789396401635196E-16</v>
       </c>
       <c r="BF73" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>7.7232906060880453E-16</v>
       </c>
     </row>
@@ -9671,43 +9822,43 @@
         <v>4</v>
       </c>
       <c r="AL74">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>1.3777886251342912</v>
       </c>
       <c r="AM74">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.7794050270052385</v>
       </c>
       <c r="AN74">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.47301761927291919</v>
       </c>
       <c r="AO74">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.96821543091544282</v>
       </c>
       <c r="AP74">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.57229299828695057</v>
       </c>
       <c r="AQ74">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-1.6549914479263306</v>
       </c>
       <c r="AR74">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>1.3365487548188324</v>
       </c>
       <c r="AS74">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.37114021164227867</v>
       </c>
       <c r="AT74">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>2.0600322021025597</v>
       </c>
       <c r="AU74">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-1.213509404976834</v>
       </c>
       <c r="AV74">
@@ -9718,39 +9869,39 @@
         <v>-1.5446581212176091E-16</v>
       </c>
       <c r="AX74" s="1">
-        <f t="shared" ref="AX74:BF74" si="36">(1/(24-1))*SUMPRODUCT($AO$71:$AO$94,AM$71:AM$94)</f>
+        <f t="shared" ref="AX74:BF74" si="34">(1/(24-1))*SUMPRODUCT($AO$71:$AO$94,AM$71:AM$94)</f>
         <v>-8.3266726846886741E-16</v>
       </c>
       <c r="AY74" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>2.8962339772830171E-16</v>
       </c>
       <c r="AZ74" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>0.99999999999999922</v>
       </c>
       <c r="BA74" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>-7.843967021808171E-16</v>
       </c>
       <c r="BB74" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>-1.9075924414958872E-15</v>
       </c>
       <c r="BC74" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>4.2719451164924499E-16</v>
       </c>
       <c r="BD74" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>2.280784257110376E-16</v>
       </c>
       <c r="BE74" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>8.3025374015446483E-16</v>
       </c>
       <c r="BF74" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="34"/>
         <v>1.0329901185642761E-15</v>
       </c>
     </row>
@@ -9764,43 +9915,43 @@
         <v>5</v>
       </c>
       <c r="AL75">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>1.3810220405936677</v>
       </c>
       <c r="AM75">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.63513214551058772</v>
       </c>
       <c r="AN75">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.84457015425179272</v>
       </c>
       <c r="AO75">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.57221024990485247</v>
       </c>
       <c r="AP75">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-1.6386680842610633</v>
       </c>
       <c r="AQ75">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>1.0603073766658635</v>
       </c>
       <c r="AR75">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>1.2593220080128369</v>
       </c>
       <c r="AS75">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>1.7491550227316399</v>
       </c>
       <c r="AT75">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.96657455858585162</v>
       </c>
       <c r="AU75">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-4.6234582336617369E-2</v>
       </c>
       <c r="AV75">
@@ -9811,39 +9962,39 @@
         <v>-3.8616453030440226E-17</v>
       </c>
       <c r="AX75" s="1">
-        <f t="shared" ref="AX75:BF75" si="37">(1/(24-1))*SUMPRODUCT($AP$71:$AP$94,AM$71:AM$94)</f>
+        <f t="shared" ref="AX75:BF75" si="35">(1/(24-1))*SUMPRODUCT($AP$71:$AP$94,AM$71:AM$94)</f>
         <v>-2.7272869952748409E-16</v>
       </c>
       <c r="AY75" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>2.5100694469786146E-16</v>
       </c>
       <c r="AZ75" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>-7.843967021808171E-16</v>
       </c>
       <c r="BA75" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>0.99999999999999978</v>
       </c>
       <c r="BB75" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>-5.6476562557018827E-16</v>
       </c>
       <c r="BC75" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>2.0756343503861621E-16</v>
       </c>
       <c r="BD75" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>-1.9790932178100616E-16</v>
       </c>
       <c r="BE75" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>9.1231370284415038E-16</v>
       </c>
       <c r="BF75" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="35"/>
         <v>2.6066105795547151E-16</v>
       </c>
     </row>
@@ -9857,43 +10008,43 @@
         <v>6</v>
       </c>
       <c r="AL76">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.82174112736058447</v>
       </c>
       <c r="AM76">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>2.6369469109546317</v>
       </c>
       <c r="AN76">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.20027527118039706</v>
       </c>
       <c r="AO76">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>1.4081048396797415</v>
       </c>
       <c r="AP76">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>1.5933070500439634</v>
       </c>
       <c r="AQ76">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.35657138352067647</v>
       </c>
       <c r="AR76">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>2.7661842260088614</v>
       </c>
       <c r="AS76">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.35357178549420432</v>
       </c>
       <c r="AT76">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>4.4596683555722917E-2</v>
       </c>
       <c r="AU76">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.44481225066586144</v>
       </c>
       <c r="AV76">
@@ -9904,39 +10055,39 @@
         <v>-1.0112683637346534E-15</v>
       </c>
       <c r="AX76" s="1">
-        <f t="shared" ref="AX76:BF76" si="38">(1/(24-1))*SUMPRODUCT($AQ$71:$AQ$94,AM$71:AM$94)</f>
+        <f t="shared" ref="AX76:BF76" si="36">(1/(24-1))*SUMPRODUCT($AQ$71:$AQ$94,AM$71:AM$94)</f>
         <v>9.8230602396182326E-16</v>
       </c>
       <c r="AY76" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>-1.3950193657246532E-15</v>
       </c>
       <c r="AZ76" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>-1.9075924414958872E-15</v>
       </c>
       <c r="BA76" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>-5.6476562557018827E-16</v>
       </c>
       <c r="BB76" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>1.0000000000000009</v>
       </c>
       <c r="BC76" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>-1.356402912694213E-15</v>
       </c>
       <c r="BD76" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>-1.2459839923102979E-16</v>
       </c>
       <c r="BE76" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>3.893021171131255E-15</v>
       </c>
       <c r="BF76" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="36"/>
         <v>-7.0849123669285801E-15</v>
       </c>
     </row>
@@ -9950,43 +10101,43 @@
         <v>7</v>
       </c>
       <c r="AL77">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.3941113385615661</v>
       </c>
       <c r="AM77">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.55345999195457596</v>
       </c>
       <c r="AN77">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-2.7290640711485067E-2</v>
       </c>
       <c r="AO77">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.608865729596476</v>
       </c>
       <c r="AP77">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.34298745834232081</v>
       </c>
       <c r="AQ77">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.45479503567716345</v>
       </c>
       <c r="AR77">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.88318208501755835</v>
       </c>
       <c r="AS77">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.18198801390041064</v>
       </c>
       <c r="AT77">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.71716536572034884</v>
       </c>
       <c r="AU77">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>1.6967896683865999</v>
       </c>
       <c r="AV77">
@@ -9997,39 +10148,39 @@
         <v>4.4408920985006262E-16</v>
       </c>
       <c r="AX77" s="1">
-        <f t="shared" ref="AX77:BF77" si="39">(1/(24-1))*SUMPRODUCT($AR$71:$AR$94,AM$71:AM$94)</f>
+        <f t="shared" ref="AX77:BF77" si="37">(1/(24-1))*SUMPRODUCT($AR$71:$AR$94,AM$71:AM$94)</f>
         <v>3.6926983210358469E-16</v>
       </c>
       <c r="AY77" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>-9.0748664621534523E-16</v>
       </c>
       <c r="AZ77" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>4.2719451164924499E-16</v>
       </c>
       <c r="BA77" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>2.0756343503861621E-16</v>
       </c>
       <c r="BB77" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>-1.356402912694213E-15</v>
       </c>
       <c r="BC77" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>1.0000000000000011</v>
       </c>
       <c r="BD77" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>1.3491623277510055E-15</v>
       </c>
       <c r="BE77" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>4.4167568153566008E-15</v>
       </c>
       <c r="BF77" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>-5.623520972557858E-15</v>
       </c>
     </row>
@@ -10043,43 +10194,43 @@
         <v>8</v>
       </c>
       <c r="AL78">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.15203313814033467</v>
       </c>
       <c r="AM78">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>1.4772635696105083</v>
       </c>
       <c r="AN78">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-1.1626452682188293</v>
       </c>
       <c r="AO78">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.20637960378447751</v>
       </c>
       <c r="AP78">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.53707183520880108</v>
       </c>
       <c r="AQ78">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.87639667514872888</v>
       </c>
       <c r="AR78">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-1.4752871887984151</v>
       </c>
       <c r="AS78">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.29305854455486247</v>
       </c>
       <c r="AT78">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>1.190110397084398</v>
       </c>
       <c r="AU78">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.43341709145995394</v>
       </c>
       <c r="AV78">
@@ -10090,39 +10241,39 @@
         <v>-6.7096087140389897E-16</v>
       </c>
       <c r="AX78" s="1">
-        <f t="shared" ref="AX78:BF78" si="40">(1/(24-1))*SUMPRODUCT($AS$71:$AS$94,AM$71:AM$94)</f>
+        <f t="shared" ref="AX78:BF78" si="38">(1/(24-1))*SUMPRODUCT($AS$71:$AS$94,AM$71:AM$94)</f>
         <v>6.2751736174465365E-17</v>
       </c>
       <c r="AY78" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>-5.8407385208540847E-16</v>
       </c>
       <c r="AZ78" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>2.280784257110376E-16</v>
       </c>
       <c r="BA78" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>-1.9790932178100616E-16</v>
       </c>
       <c r="BB78" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>-1.2459839923102979E-16</v>
       </c>
       <c r="BC78" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>1.3491623277510055E-15</v>
       </c>
       <c r="BD78" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>0.99999999999999933</v>
       </c>
       <c r="BE78" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>-4.2236745502043999E-16</v>
       </c>
       <c r="BF78" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="38"/>
         <v>-2.2194806379245521E-14</v>
       </c>
     </row>
@@ -10131,43 +10282,43 @@
         <v>9</v>
       </c>
       <c r="AL79">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.18356811808311913</v>
       </c>
       <c r="AM79">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.74487707220286159</v>
       </c>
       <c r="AN79">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.28054990139889802</v>
       </c>
       <c r="AO79">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-1.0358778920567104</v>
       </c>
       <c r="AP79">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>2.1465304836314276E-2</v>
       </c>
       <c r="AQ79">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>1.7150560414302558</v>
       </c>
       <c r="AR79">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.17053624770973486</v>
       </c>
       <c r="AS79">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>1.1897539900749257</v>
       </c>
       <c r="AT79">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-1.2153619079170253</v>
       </c>
       <c r="AU79">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.98492862426666594</v>
       </c>
       <c r="AV79">
@@ -10178,39 +10329,39 @@
         <v>2.4135283144025141E-16</v>
       </c>
       <c r="AX79" s="1">
-        <f t="shared" ref="AX79:BF79" si="41">(1/(24-1))*SUMPRODUCT($AT$71:$AT$94,AM$71:AM$94)</f>
+        <f t="shared" ref="AX79:BF79" si="39">(1/(24-1))*SUMPRODUCT($AT$71:$AT$94,AM$71:AM$94)</f>
         <v>-3.2751579226442118E-15</v>
       </c>
       <c r="AY79" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>-3.3789396401635196E-16</v>
       </c>
       <c r="AZ79" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>8.3025374015446483E-16</v>
       </c>
       <c r="BA79" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>9.1231370284415038E-16</v>
       </c>
       <c r="BB79" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>3.893021171131255E-15</v>
       </c>
       <c r="BC79" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>4.4167568153566008E-15</v>
       </c>
       <c r="BD79" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>-4.2236745502043999E-16</v>
       </c>
       <c r="BE79" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>1.0000000000000098</v>
       </c>
       <c r="BF79" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>1.1024997340190685E-14</v>
       </c>
     </row>
@@ -10219,43 +10370,43 @@
         <v>10</v>
       </c>
       <c r="AL80">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.18455755732363277</v>
       </c>
       <c r="AM80">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-7.1552634801332143E-2</v>
       </c>
       <c r="AN80">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.91562910697082922</v>
       </c>
       <c r="AO80">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-1.763869828652046</v>
       </c>
       <c r="AP80">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-9.7582210725033577E-2</v>
       </c>
       <c r="AQ80">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.36456070562129039</v>
       </c>
       <c r="AR80">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-3.4301881903308448E-2</v>
       </c>
       <c r="AS80">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-1.4936031981026643</v>
       </c>
       <c r="AT80">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.83390570824896471</v>
       </c>
       <c r="AU80">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>7.8000533636133573E-2</v>
       </c>
       <c r="AV80">
@@ -10266,88 +10417,88 @@
         <v>7.8198317386641465E-15</v>
       </c>
       <c r="AX80" s="1">
-        <f t="shared" ref="AX80:BF80" si="42">(1/(24-1))*SUMPRODUCT($AU$71:$AU$94,AM$71:AM$94)</f>
+        <f t="shared" ref="AX80:BF80" si="40">(1/(24-1))*SUMPRODUCT($AU$71:$AU$94,AM$71:AM$94)</f>
         <v>2.4569718240617594E-15</v>
       </c>
       <c r="AY80" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>7.7232906060880453E-16</v>
       </c>
       <c r="AZ80" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>1.0329901185642761E-15</v>
       </c>
       <c r="BA80" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>2.6066105795547151E-16</v>
       </c>
       <c r="BB80" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>-7.0849123669285801E-15</v>
       </c>
       <c r="BC80" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>-5.623520972557858E-15</v>
       </c>
       <c r="BD80" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>-2.2194806379245521E-14</v>
       </c>
       <c r="BE80" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>1.1024997340190685E-14</v>
       </c>
       <c r="BF80" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="40"/>
         <v>0.99999999999993561</v>
       </c>
     </row>
-    <row r="81" spans="13:47" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:47" x14ac:dyDescent="0.25">
       <c r="AK81">
         <v>11</v>
       </c>
       <c r="AL81">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.14289327933223364</v>
       </c>
       <c r="AM81">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.2535756494089757</v>
       </c>
       <c r="AN81">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.44455950069072286</v>
       </c>
       <c r="AO81">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.52993082763843069</v>
       </c>
       <c r="AP81">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>1.1133505092466425</v>
       </c>
       <c r="AQ81">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>1.590361959345846</v>
       </c>
       <c r="AR81">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-1.255920010312755</v>
       </c>
       <c r="AS81">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.91785891920854579</v>
       </c>
       <c r="AT81">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.89282009602922907</v>
       </c>
       <c r="AU81">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.87470240045910652</v>
       </c>
     </row>
-    <row r="82" spans="13:47" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.25">
       <c r="M82" s="2"/>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
@@ -10356,47 +10507,47 @@
         <v>12</v>
       </c>
       <c r="AL82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-9.7769068627920314E-2</v>
       </c>
       <c r="AM82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.22301337318124123</v>
       </c>
       <c r="AN82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-1.578094183446229</v>
       </c>
       <c r="AO82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.60355029566783314</v>
       </c>
       <c r="AP82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.60012500617098041</v>
       </c>
       <c r="AQ82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.64014347300537611</v>
       </c>
       <c r="AR82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.23726887790317663</v>
       </c>
       <c r="AS82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>1.1227624157264158</v>
       </c>
       <c r="AT82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>1.6864794362288162</v>
       </c>
       <c r="AU82">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>1.3979110410993292</v>
       </c>
     </row>
-    <row r="83" spans="13:47" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:47" x14ac:dyDescent="0.25">
       <c r="M83" s="2"/>
       <c r="N83" s="1"/>
       <c r="O83" s="1"/>
@@ -10405,47 +10556,47 @@
         <v>13</v>
       </c>
       <c r="AL83">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.18763630151267885</v>
       </c>
       <c r="AM83">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>1.1603137358794944</v>
       </c>
       <c r="AN83">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.56782815559150501</v>
       </c>
       <c r="AO83">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.53096574135084251</v>
       </c>
       <c r="AP83">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.26299814895978879</v>
       </c>
       <c r="AQ83">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-1.6567779615881657</v>
       </c>
       <c r="AR83">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-1.1550400270048609</v>
       </c>
       <c r="AS83">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.72694369306645568</v>
       </c>
       <c r="AT83">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.67882068553641617</v>
       </c>
       <c r="AU83">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-1.3327819688152369</v>
       </c>
     </row>
-    <row r="84" spans="13:47" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:47" x14ac:dyDescent="0.25">
       <c r="M84" s="2"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
@@ -10454,47 +10605,47 @@
         <v>14</v>
       </c>
       <c r="AL84">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.16056255226525579</v>
       </c>
       <c r="AM84">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-1.5097623311949668</v>
       </c>
       <c r="AN84">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.73731333338795424</v>
       </c>
       <c r="AO84">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.41426942142448381</v>
       </c>
       <c r="AP84">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>1.3116055317344282</v>
       </c>
       <c r="AQ84">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-1.1300397710981627</v>
       </c>
       <c r="AR84">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>3.2932723517625564E-2</v>
       </c>
       <c r="AS84">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.49967268978976798</v>
       </c>
       <c r="AT84">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.81936052461739417</v>
       </c>
       <c r="AU84">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.47444640198412225</v>
       </c>
     </row>
-    <row r="85" spans="13:47" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:47" x14ac:dyDescent="0.25">
       <c r="M85" s="2"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
@@ -10503,47 +10654,47 @@
         <v>15</v>
       </c>
       <c r="AL85">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.20371495409007007</v>
       </c>
       <c r="AM85">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-1.7400091503126056</v>
       </c>
       <c r="AN85">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-1.9800994012142362E-2</v>
       </c>
       <c r="AO85">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>1.1584353271267509</v>
       </c>
       <c r="AP85">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.97477277264948381</v>
       </c>
       <c r="AQ85">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.79325973233054392</v>
       </c>
       <c r="AR85">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.16933559982261498</v>
       </c>
       <c r="AS85">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-1.5992636946476413</v>
       </c>
       <c r="AT85">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.74345715515957678</v>
       </c>
       <c r="AU85">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>1.7453166546653929</v>
       </c>
     </row>
-    <row r="86" spans="13:47" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:47" x14ac:dyDescent="0.25">
       <c r="M86" s="2"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
@@ -10552,47 +10703,47 @@
         <v>16</v>
       </c>
       <c r="AL86">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.3367779007358791</v>
       </c>
       <c r="AM86">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>3.577184034855975E-2</v>
       </c>
       <c r="AN86">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.94275457023630171</v>
       </c>
       <c r="AO86">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>2.8890315828818673</v>
       </c>
       <c r="AP86">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.92407968329420342</v>
       </c>
       <c r="AQ86">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.93283747711193299</v>
       </c>
       <c r="AR86">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-1.0488132552305836</v>
       </c>
       <c r="AS86">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.22098546035081157</v>
       </c>
       <c r="AT86">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.20907270690409943</v>
       </c>
       <c r="AU86">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-1.1086302856132668</v>
       </c>
     </row>
-    <row r="87" spans="13:47" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:47" x14ac:dyDescent="0.25">
       <c r="M87" s="2"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
@@ -10601,47 +10752,47 @@
         <v>17</v>
       </c>
       <c r="AL87">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.10637540180442703</v>
       </c>
       <c r="AM87">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.80169050872439607</v>
       </c>
       <c r="AN87">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.49884540099982094</v>
       </c>
       <c r="AO87">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>1.7549380444707494</v>
       </c>
       <c r="AP87">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.16679766446462752</v>
       </c>
       <c r="AQ87">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.56921091562454629</v>
       </c>
       <c r="AR87">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.45319862344680045</v>
       </c>
       <c r="AS87">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.4965378525737501</v>
       </c>
       <c r="AT87">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>-0.35414830271944348</v>
       </c>
       <c r="AU87">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.75922521114443176</v>
       </c>
     </row>
-    <row r="88" spans="13:47" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:47" x14ac:dyDescent="0.25">
       <c r="M88" s="2"/>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
@@ -10650,47 +10801,47 @@
         <v>18</v>
       </c>
       <c r="AL88">
-        <f t="shared" ref="AL88:AU94" si="43">AL60-AL$68</f>
+        <f t="shared" ref="AL88:AU94" si="41">AL60-AL$68</f>
         <v>-0.31649644642907121</v>
       </c>
       <c r="AM88">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-1.0414883649429543</v>
       </c>
       <c r="AN88">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-0.2746201761262782</v>
       </c>
       <c r="AO88">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0.23934749409744499</v>
       </c>
       <c r="AP88">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>1.4229759371239974</v>
       </c>
       <c r="AQ88">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-0.32529914669176951</v>
       </c>
       <c r="AR88">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-0.1441513320956283</v>
       </c>
       <c r="AS88">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>1.5413525444541607</v>
       </c>
       <c r="AT88">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-1.5386356096807436</v>
       </c>
       <c r="AU88">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0.66632147448612733</v>
       </c>
     </row>
-    <row r="89" spans="13:47" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:47" x14ac:dyDescent="0.25">
       <c r="M89" s="2"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
@@ -10699,47 +10850,47 @@
         <v>19</v>
       </c>
       <c r="AL89">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-0.53847599726283135</v>
       </c>
       <c r="AM89">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-0.9979169350435747</v>
       </c>
       <c r="AN89">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>1.0359538765577991</v>
       </c>
       <c r="AO89">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0.34679404404415576</v>
       </c>
       <c r="AP89">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0.10372685777415724</v>
       </c>
       <c r="AQ89">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>1.5956568098349428</v>
       </c>
       <c r="AR89">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>5.2305274238237283E-2</v>
       </c>
       <c r="AS89">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>6.9395843321489487E-2</v>
       </c>
       <c r="AT89">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0.7039729758230302</v>
       </c>
       <c r="AU89">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-1.7821316473796913</v>
       </c>
     </row>
-    <row r="90" spans="13:47" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:47" x14ac:dyDescent="0.25">
       <c r="M90" s="2"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
@@ -10748,47 +10899,47 @@
         <v>20</v>
       </c>
       <c r="AL90">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-1.2364286546251875</v>
       </c>
       <c r="AM90">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-0.34276214531240329</v>
       </c>
       <c r="AN90">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-0.89336370859556935</v>
       </c>
       <c r="AO90">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-0.54614369374159621</v>
       </c>
       <c r="AP90">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0.28312770716739938</v>
       </c>
       <c r="AQ90">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-0.98149145547636341</v>
       </c>
       <c r="AR90">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0.53787309632410096</v>
       </c>
       <c r="AS90">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0.41861814698573957</v>
       </c>
       <c r="AT90">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-0.34186329244821895</v>
       </c>
       <c r="AU90">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-0.36526013145386049</v>
       </c>
     </row>
-    <row r="91" spans="13:47" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:47" x14ac:dyDescent="0.25">
       <c r="M91" s="2"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
@@ -10797,240 +10948,2129 @@
         <v>21</v>
       </c>
       <c r="AL91">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-1.2863503744627534</v>
       </c>
       <c r="AM91">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0.74218509035329217</v>
       </c>
       <c r="AN91">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-0.20203620303798192</v>
       </c>
       <c r="AO91">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-8.2348029821223148E-2</v>
       </c>
       <c r="AP91">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-0.67709930427746523</v>
       </c>
       <c r="AQ91">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-0.25133670330422453</v>
       </c>
       <c r="AR91">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-0.20903456194303266</v>
       </c>
       <c r="AS91">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0.25924142177667642</v>
       </c>
       <c r="AT91">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0.1389283422215965</v>
       </c>
       <c r="AU91">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0.53057908676524679</v>
       </c>
     </row>
-    <row r="92" spans="13:47" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:47" x14ac:dyDescent="0.25">
       <c r="AK92">
         <v>22</v>
       </c>
       <c r="AL92">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-1.5776223786370864</v>
       </c>
       <c r="AM92">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0.74238728109359209</v>
       </c>
       <c r="AN92">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0.15242086799030599</v>
       </c>
       <c r="AO92">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-0.44508421930684694</v>
       </c>
       <c r="AP92">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-0.5266460353494089</v>
       </c>
       <c r="AQ92">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-0.71599161038949222</v>
       </c>
       <c r="AR92">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0.40373002702144828</v>
       </c>
       <c r="AS92">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-0.88120671300445397</v>
       </c>
       <c r="AT92">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-0.2478903977680986</v>
       </c>
       <c r="AU92">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>1.4721814224022378</v>
       </c>
     </row>
-    <row r="93" spans="13:47" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:47" x14ac:dyDescent="0.25">
       <c r="AK93">
         <v>23</v>
       </c>
       <c r="AL93">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-1.5549504305112691</v>
       </c>
       <c r="AM93">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-1.4018300735194783E-2</v>
       </c>
       <c r="AN93">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>1.4218155043652221</v>
       </c>
       <c r="AO93">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-0.22188701440613678</v>
       </c>
       <c r="AP93">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-1.7573454472266266</v>
       </c>
       <c r="AQ93">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0.41590732858595947</v>
       </c>
       <c r="AR93">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0.93034083400293099</v>
       </c>
       <c r="AS93">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0.94137997534507833</v>
       </c>
       <c r="AT93">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>1.6300396097452166</v>
       </c>
       <c r="AU93">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0.15273292188443363</v>
       </c>
     </row>
-    <row r="94" spans="13:47" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:47" x14ac:dyDescent="0.25">
       <c r="AK94">
         <v>24</v>
       </c>
       <c r="AL94">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-1.6345701319087316</v>
       </c>
       <c r="AM94">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-0.35011690547506091</v>
       </c>
       <c r="AN94">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>1.579064214349776</v>
       </c>
       <c r="AO94">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-0.36780446060399263</v>
       </c>
       <c r="AP94">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0.74594551040645329</v>
       </c>
       <c r="AQ94">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-0.16321177734296596</v>
       </c>
       <c r="AR94">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>1.0853412577388275</v>
       </c>
       <c r="AS94">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-0.36777099479756203</v>
       </c>
       <c r="AT94">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-0.87965156501407249</v>
       </c>
       <c r="AU94">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-0.81485092859448471</v>
       </c>
     </row>
-    <row r="95" spans="13:47" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:47" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="M95" s="5"/>
       <c r="N95" s="6"/>
       <c r="O95" s="6"/>
       <c r="P95" s="6"/>
     </row>
-    <row r="96" spans="13:47" x14ac:dyDescent="0.25">
-      <c r="M96" s="2"/>
-      <c r="N96" s="1"/>
-      <c r="O96" s="1"/>
-      <c r="P96" s="1"/>
-    </row>
-    <row r="97" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M97" s="2"/>
-      <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
-      <c r="P97" s="1"/>
-    </row>
-    <row r="98" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M98" s="2"/>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
-      <c r="P98" s="1"/>
-    </row>
-    <row r="99" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M99" s="2"/>
-      <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1"/>
-    </row>
-    <row r="100" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M100" s="2"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
-    </row>
-    <row r="101" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M101" s="2"/>
-      <c r="N101" s="1"/>
-      <c r="O101" s="1"/>
-      <c r="P101" s="1"/>
-    </row>
-    <row r="102" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M102" s="2"/>
-      <c r="N102" s="1"/>
-      <c r="O102" s="1"/>
-      <c r="P102" s="1"/>
-    </row>
-    <row r="103" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M103" s="2"/>
-      <c r="N103" s="1"/>
-      <c r="O103" s="1"/>
-      <c r="P103" s="1"/>
-    </row>
-    <row r="104" spans="13:16" x14ac:dyDescent="0.25">
-      <c r="M104" s="2"/>
-      <c r="N104" s="1"/>
-      <c r="O104" s="1"/>
-      <c r="P104" s="1"/>
+    <row r="96" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>3</v>
+      </c>
+      <c r="E96">
+        <v>4</v>
+      </c>
+      <c r="F96">
+        <v>5</v>
+      </c>
+      <c r="G96">
+        <v>6</v>
+      </c>
+      <c r="H96">
+        <v>7</v>
+      </c>
+      <c r="I96">
+        <v>8</v>
+      </c>
+      <c r="J96">
+        <v>9</v>
+      </c>
+      <c r="K96">
+        <v>10</v>
+      </c>
+      <c r="L96">
+        <v>11</v>
+      </c>
+      <c r="M96">
+        <v>12</v>
+      </c>
+      <c r="N96">
+        <v>13</v>
+      </c>
+      <c r="O96">
+        <v>14</v>
+      </c>
+      <c r="P96">
+        <v>15</v>
+      </c>
+      <c r="Q96">
+        <v>16</v>
+      </c>
+      <c r="R96">
+        <v>17</v>
+      </c>
+      <c r="S96">
+        <v>18</v>
+      </c>
+      <c r="T96">
+        <v>19</v>
+      </c>
+      <c r="U96">
+        <v>20</v>
+      </c>
+      <c r="V96">
+        <v>21</v>
+      </c>
+      <c r="W96">
+        <v>22</v>
+      </c>
+      <c r="X96">
+        <v>23</v>
+      </c>
+      <c r="Y96">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97">
+        <f t="array" ref="B97:Y106">TRANSPOSE(N2:W25)</f>
+        <v>0.64669994153126031</v>
+      </c>
+      <c r="C97">
+        <v>1.1366608377907941</v>
+      </c>
+      <c r="D97">
+        <v>1.3478101854366904</v>
+      </c>
+      <c r="E97">
+        <v>1.2284512598614998</v>
+      </c>
+      <c r="F97">
+        <v>0.80780728908945587</v>
+      </c>
+      <c r="G97">
+        <v>0.18886658726586336</v>
+      </c>
+      <c r="H97">
+        <v>-0.47683257501348991</v>
+      </c>
+      <c r="I97">
+        <v>-1.0263038261807287</v>
+      </c>
+      <c r="J97">
+        <v>-1.3250174402110797</v>
+      </c>
+      <c r="K97">
+        <v>-1.2998379065131263</v>
+      </c>
+      <c r="L97">
+        <v>-0.95693005296611933</v>
+      </c>
+      <c r="M97" s="2">
+        <v>-0.38024968167768797</v>
+      </c>
+      <c r="N97" s="1">
+        <v>0.28901174028335741</v>
+      </c>
+      <c r="O97" s="1">
+        <v>0.88699567517333899</v>
+      </c>
+      <c r="P97" s="1">
+        <v>1.2672948008363534</v>
+      </c>
+      <c r="Q97">
+        <v>1.3367986274534545</v>
+      </c>
+      <c r="R97">
+        <v>1.0784901944241321</v>
+      </c>
+      <c r="S97">
+        <v>0.55561241479499768</v>
+      </c>
+      <c r="T97">
+        <v>-0.103815994649945</v>
+      </c>
+      <c r="U97">
+        <v>-0.73834396102896216</v>
+      </c>
+      <c r="V97">
+        <v>-1.1926169085240466</v>
+      </c>
+      <c r="W97">
+        <v>-1.355412975830613</v>
+      </c>
+      <c r="X97">
+        <v>-1.1868740083017451</v>
+      </c>
+      <c r="Y97">
+        <v>-0.72826422304365446</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="B98">
+        <v>-1.6242283037479095</v>
+      </c>
+      <c r="C98">
+        <v>-1.4559834835710261</v>
+      </c>
+      <c r="D98">
+        <v>-1.3382961813940024</v>
+      </c>
+      <c r="E98">
+        <v>-1.2187111637686596</v>
+      </c>
+      <c r="F98">
+        <v>-1.075973229911612</v>
+      </c>
+      <c r="G98">
+        <v>-0.93719213283619951</v>
+      </c>
+      <c r="H98">
+        <v>-0.73928753366903077</v>
+      </c>
+      <c r="I98">
+        <v>-0.64792674407894613</v>
+      </c>
+      <c r="J98">
+        <v>-0.43414940865999258</v>
+      </c>
+      <c r="K98">
+        <v>-0.32418070199793425</v>
+      </c>
+      <c r="L98">
+        <v>-0.1052525621088715</v>
+      </c>
+      <c r="M98" s="2">
+        <v>-0.13910663699230702</v>
+      </c>
+      <c r="N98" s="1">
+        <v>-1.144980282868153E-2</v>
+      </c>
+      <c r="O98" s="1">
+        <v>0.23392909406741538</v>
+      </c>
+      <c r="P98" s="1">
+        <v>0.26978569464836855</v>
+      </c>
+      <c r="Q98">
+        <v>0.6380341220520318</v>
+      </c>
+      <c r="R98">
+        <v>0.55467172534120979</v>
+      </c>
+      <c r="S98">
+        <v>0.78213495228180896</v>
+      </c>
+      <c r="T98">
+        <v>0.94072114364053494</v>
+      </c>
+      <c r="U98">
+        <v>1.1759160444296017</v>
+      </c>
+      <c r="V98">
+        <v>0.95355730107752379</v>
+      </c>
+      <c r="W98">
+        <v>1.1355533543301819</v>
+      </c>
+      <c r="X98">
+        <v>1.5273938573947135</v>
+      </c>
+      <c r="Y98">
+        <v>1.8400405963017799</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>3</v>
+      </c>
+      <c r="B99">
+        <v>-1.1832962684276394</v>
+      </c>
+      <c r="C99">
+        <v>-1.9068712262883345</v>
+      </c>
+      <c r="D99">
+        <v>-1.7718884636314169</v>
+      </c>
+      <c r="E99">
+        <v>-0.82315168299619446</v>
+      </c>
+      <c r="F99">
+        <v>-1.4989744211634495</v>
+      </c>
+      <c r="G99">
+        <v>-0.74062679977686374</v>
+      </c>
+      <c r="H99">
+        <v>-0.70194579332190576</v>
+      </c>
+      <c r="I99">
+        <v>-0.52239588376831381</v>
+      </c>
+      <c r="J99">
+        <v>-0.79907117697685437</v>
+      </c>
+      <c r="K99">
+        <v>0.20191357875524998</v>
+      </c>
+      <c r="L99">
+        <v>0.20707649626145658</v>
+      </c>
+      <c r="M99" s="2">
+        <v>-3.7098355530397205E-2</v>
+      </c>
+      <c r="N99" s="1">
+        <v>-4.0783016452626362E-3</v>
+      </c>
+      <c r="O99" s="1">
+        <v>0.39202071224643564</v>
+      </c>
+      <c r="P99" s="1">
+        <v>0.79195213100326678</v>
+      </c>
+      <c r="Q99">
+        <v>0.610582713745775</v>
+      </c>
+      <c r="R99">
+        <v>0.55558351836234221</v>
+      </c>
+      <c r="S99">
+        <v>0.55123580803850891</v>
+      </c>
+      <c r="T99">
+        <v>0.64849794016056495</v>
+      </c>
+      <c r="U99">
+        <v>1.2730796654094578</v>
+      </c>
+      <c r="V99">
+        <v>0.86393859881141355</v>
+      </c>
+      <c r="W99">
+        <v>1.3165138425610419</v>
+      </c>
+      <c r="X99">
+        <v>0.9319328534191732</v>
+      </c>
+      <c r="Y99">
+        <v>1.6450705147519553</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>4</v>
+      </c>
+      <c r="B100">
+        <v>0.68966303166541831</v>
+      </c>
+      <c r="C100">
+        <v>-1.7014185601492455</v>
+      </c>
+      <c r="D100">
+        <v>-1.8912510950846264</v>
+      </c>
+      <c r="E100">
+        <v>1.0286926545590573</v>
+      </c>
+      <c r="F100">
+        <v>0.67814650856376624</v>
+      </c>
+      <c r="G100">
+        <v>-1.5738310778273192</v>
+      </c>
+      <c r="H100">
+        <v>-0.10297571216774107</v>
+      </c>
+      <c r="I100">
+        <v>0.12887500769404636</v>
+      </c>
+      <c r="J100">
+        <v>-2.8308885084309343E-2</v>
+      </c>
+      <c r="K100">
+        <v>1.3043486198233658</v>
+      </c>
+      <c r="L100">
+        <v>-0.1848480190421905</v>
+      </c>
+      <c r="M100" s="2">
+        <v>1.8590849103878684</v>
+      </c>
+      <c r="N100" s="1">
+        <v>-0.67584379596321842</v>
+      </c>
+      <c r="O100" s="1">
+        <v>1.1684782348390232</v>
+      </c>
+      <c r="P100" s="1">
+        <v>-0.30026266957907033</v>
+      </c>
+      <c r="Q100">
+        <v>0.12396748667595373</v>
+      </c>
+      <c r="R100">
+        <v>-0.94266429312717226</v>
+      </c>
+      <c r="S100">
+        <v>0.32930798077040563</v>
+      </c>
+      <c r="T100">
+        <v>-0.88512888025635472</v>
+      </c>
+      <c r="U100">
+        <v>1.4406567248063764</v>
+      </c>
+      <c r="V100">
+        <v>0.38113459986568576</v>
+      </c>
+      <c r="W100">
+        <v>0.34560726968477506</v>
+      </c>
+      <c r="X100">
+        <v>-0.39587588255405354</v>
+      </c>
+      <c r="Y100">
+        <v>-0.7955541585004462</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>5</v>
+      </c>
+      <c r="B101">
+        <v>-1.716671475763724</v>
+      </c>
+      <c r="C101">
+        <v>-1.4172646370631286</v>
+      </c>
+      <c r="D101">
+        <v>-1.2911942298088346</v>
+      </c>
+      <c r="E101">
+        <v>-1.2858130352651229</v>
+      </c>
+      <c r="F101">
+        <v>-1.0936446422358859</v>
+      </c>
+      <c r="G101">
+        <v>-0.83569268654316309</v>
+      </c>
+      <c r="H101">
+        <v>-0.65164992883522233</v>
+      </c>
+      <c r="I101">
+        <v>-0.64392046586443352</v>
+      </c>
+      <c r="J101">
+        <v>-0.49625076445181215</v>
+      </c>
+      <c r="K101">
+        <v>-0.36230991458381906</v>
+      </c>
+      <c r="L101">
+        <v>-0.14543745536427652</v>
+      </c>
+      <c r="M101" s="2">
+        <v>-5.6161923087482683E-2</v>
+      </c>
+      <c r="N101" s="1">
+        <v>-9.159657803712748E-2</v>
+      </c>
+      <c r="O101" s="1">
+        <v>0.19003659918937374</v>
+      </c>
+      <c r="P101" s="1">
+        <v>0.37601064926854472</v>
+      </c>
+      <c r="Q101">
+        <v>0.58659845446314884</v>
+      </c>
+      <c r="R101">
+        <v>0.6064108876655766</v>
+      </c>
+      <c r="S101">
+        <v>0.82304441235850301</v>
+      </c>
+      <c r="T101">
+        <v>0.84142181357986801</v>
+      </c>
+      <c r="U101">
+        <v>1.1414780245814142</v>
+      </c>
+      <c r="V101">
+        <v>0.98412257367016942</v>
+      </c>
+      <c r="W101">
+        <v>1.2102783072639791</v>
+      </c>
+      <c r="X101">
+        <v>1.5405966506897442</v>
+      </c>
+      <c r="Y101">
+        <v>1.7876093641737156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>6</v>
+      </c>
+      <c r="B102">
+        <v>0.90984236441932975</v>
+      </c>
+      <c r="C102">
+        <v>-0.54748157987828716</v>
+      </c>
+      <c r="D102">
+        <v>0.98345065150155564</v>
+      </c>
+      <c r="E102">
+        <v>1.2386023772209471</v>
+      </c>
+      <c r="F102">
+        <v>1.0441612889438683</v>
+      </c>
+      <c r="G102">
+        <v>-1.7749323589562755</v>
+      </c>
+      <c r="H102">
+        <v>-0.429542158599649</v>
+      </c>
+      <c r="I102">
+        <v>-1.7770358781730948</v>
+      </c>
+      <c r="J102">
+        <v>-0.39947610827210239</v>
+      </c>
+      <c r="K102">
+        <v>0.29833465666981296</v>
+      </c>
+      <c r="L102">
+        <v>-0.43314887051088696</v>
+      </c>
+      <c r="M102" s="2">
+        <v>-0.17457916787094507</v>
+      </c>
+      <c r="N102" s="1">
+        <v>-1.4069974998021142</v>
+      </c>
+      <c r="O102" s="1">
+        <v>1.4170104253927036</v>
+      </c>
+      <c r="P102" s="1">
+        <v>1.4909536429866601</v>
+      </c>
+      <c r="Q102">
+        <v>-1.0220042299601182</v>
+      </c>
+      <c r="R102">
+        <v>0.46910448174286923</v>
+      </c>
+      <c r="S102">
+        <v>0.85095863511178815</v>
+      </c>
+      <c r="T102">
+        <v>0.89593730339508404</v>
+      </c>
+      <c r="U102">
+        <v>5.3958621869660515E-2</v>
+      </c>
+      <c r="V102">
+        <v>-1.1140831296237026</v>
+      </c>
+      <c r="W102">
+        <v>-0.91140761997265074</v>
+      </c>
+      <c r="X102">
+        <v>-0.13703524773635084</v>
+      </c>
+      <c r="Y102">
+        <v>0.47540940010189486</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>7</v>
+      </c>
+      <c r="B103">
+        <v>1.9171459463366365</v>
+      </c>
+      <c r="C103">
+        <v>-0.53137036660071635</v>
+      </c>
+      <c r="D103">
+        <v>-0.11970841375148372</v>
+      </c>
+      <c r="E103">
+        <v>-0.9901957546970287</v>
+      </c>
+      <c r="F103">
+        <v>1.4979141793707031</v>
+      </c>
+      <c r="G103">
+        <v>-1.348418550586977</v>
+      </c>
+      <c r="H103">
+        <v>3.7314057217903054E-2</v>
+      </c>
+      <c r="I103">
+        <v>-0.86851038961919003</v>
+      </c>
+      <c r="J103">
+        <v>-0.38167858060115395</v>
+      </c>
+      <c r="K103">
+        <v>-0.4136643079058247</v>
+      </c>
+      <c r="L103">
+        <v>-1.2183643437692993</v>
+      </c>
+      <c r="M103" s="2">
+        <v>0.20521856645214354</v>
+      </c>
+      <c r="N103" s="1">
+        <v>0.29532160991525136</v>
+      </c>
+      <c r="O103" s="1">
+        <v>-1.3798578188926196</v>
+      </c>
+      <c r="P103" s="1">
+        <v>-0.45618041191508146</v>
+      </c>
+      <c r="Q103">
+        <v>1.4942372148086396</v>
+      </c>
+      <c r="R103">
+        <v>0.45528710502614328</v>
+      </c>
+      <c r="S103">
+        <v>-1.2195593860840048</v>
+      </c>
+      <c r="T103">
+        <v>0.33120014749872162</v>
+      </c>
+      <c r="U103">
+        <v>-0.32118940023103415</v>
+      </c>
+      <c r="V103">
+        <v>0.70417119147924168</v>
+      </c>
+      <c r="W103">
+        <v>0.57869070584022853</v>
+      </c>
+      <c r="X103">
+        <v>2.0313978951377973</v>
+      </c>
+      <c r="Y103">
+        <v>-0.29920089442899267</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>8</v>
+      </c>
+      <c r="B104">
+        <v>0.6705467474324982</v>
+      </c>
+      <c r="C104">
+        <v>-0.35668692839573052</v>
+      </c>
+      <c r="D104">
+        <v>1.3302561756156455</v>
+      </c>
+      <c r="E104">
+        <v>1.3935284270539963</v>
+      </c>
+      <c r="F104">
+        <v>1.036683826243922</v>
+      </c>
+      <c r="G104">
+        <v>-1.8130320766495911</v>
+      </c>
+      <c r="H104">
+        <v>-0.45987169508260956</v>
+      </c>
+      <c r="I104">
+        <v>-1.4987952861440095</v>
+      </c>
+      <c r="J104">
+        <v>-0.42232069749859635</v>
+      </c>
+      <c r="K104">
+        <v>1.9406724692686977E-2</v>
+      </c>
+      <c r="L104">
+        <v>-0.25322910732060244</v>
+      </c>
+      <c r="M104" s="2">
+        <v>7.5165863433209919E-3</v>
+      </c>
+      <c r="N104" s="1">
+        <v>-1.508628122716855</v>
+      </c>
+      <c r="O104" s="1">
+        <v>1.2066674457931248</v>
+      </c>
+      <c r="P104" s="1">
+        <v>1.5464596145554033</v>
+      </c>
+      <c r="Q104">
+        <v>-0.97104588713617856</v>
+      </c>
+      <c r="R104">
+        <v>0.47699554588754184</v>
+      </c>
+      <c r="S104">
+        <v>0.65444550269724555</v>
+      </c>
+      <c r="T104">
+        <v>1.0906896887033581</v>
+      </c>
+      <c r="U104">
+        <v>-0.1836985158187526</v>
+      </c>
+      <c r="V104">
+        <v>-1.1571755862510997</v>
+      </c>
+      <c r="W104">
+        <v>-1.1405149506741015</v>
+      </c>
+      <c r="X104">
+        <v>0.10057082631841364</v>
+      </c>
+      <c r="Y104">
+        <v>0.23123174235094485</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>9</v>
+      </c>
+      <c r="B105">
+        <v>8.744375629212776E-3</v>
+      </c>
+      <c r="C105">
+        <v>-5.5118905926231192E-2</v>
+      </c>
+      <c r="D105">
+        <v>0.62486933575384751</v>
+      </c>
+      <c r="E105">
+        <v>-0.1434137705964218</v>
+      </c>
+      <c r="F105">
+        <v>-0.51675500296998034</v>
+      </c>
+      <c r="G105">
+        <v>-4.0470633269033343</v>
+      </c>
+      <c r="H105">
+        <v>1.486456618457359E-2</v>
+      </c>
+      <c r="I105">
+        <v>-0.81320557495823764</v>
+      </c>
+      <c r="J105">
+        <v>-0.43561251650337801</v>
+      </c>
+      <c r="K105">
+        <v>0.34824817073600495</v>
+      </c>
+      <c r="L105">
+        <v>0.29822167873432925</v>
+      </c>
+      <c r="M105">
+        <v>0.20089465102459125</v>
+      </c>
+      <c r="N105">
+        <v>-0.33566031709477623</v>
+      </c>
+      <c r="O105">
+        <v>1.056590962449752</v>
+      </c>
+      <c r="P105">
+        <v>1.1043160422896949</v>
+      </c>
+      <c r="Q105">
+        <v>-0.20592607521995038</v>
+      </c>
+      <c r="R105">
+        <v>0.56253913646409759</v>
+      </c>
+      <c r="S105">
+        <v>0.76427194168991774</v>
+      </c>
+      <c r="T105">
+        <v>0.96848411131235479</v>
+      </c>
+      <c r="U105">
+        <v>0.25148104570713825</v>
+      </c>
+      <c r="V105">
+        <v>-0.20150059389578709</v>
+      </c>
+      <c r="W105">
+        <v>-0.26188947489577774</v>
+      </c>
+      <c r="X105">
+        <v>0.35088821359159034</v>
+      </c>
+      <c r="Y105">
+        <v>0.46173132739677547</v>
+      </c>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>10</v>
+      </c>
+      <c r="B106">
+        <v>-0.26278780495728771</v>
+      </c>
+      <c r="C106">
+        <v>1.4521344303037491</v>
+      </c>
+      <c r="D106">
+        <v>1.0531523610630356</v>
+      </c>
+      <c r="E106">
+        <v>-2.4673851575884743E-2</v>
+      </c>
+      <c r="F106">
+        <v>-1.4021883876270145</v>
+      </c>
+      <c r="G106">
+        <v>2.4858232516952471E-2</v>
+      </c>
+      <c r="H106">
+        <v>0.26558197418687157</v>
+      </c>
+      <c r="I106">
+        <v>-0.48322372116747192</v>
+      </c>
+      <c r="J106">
+        <v>0.20362751982039165</v>
+      </c>
+      <c r="K106">
+        <v>0.2923323134553511</v>
+      </c>
+      <c r="L106">
+        <v>-0.46967674075024385</v>
+      </c>
+      <c r="M106">
+        <v>-0.57294194888115646</v>
+      </c>
+      <c r="N106">
+        <v>0.88806715270103265</v>
+      </c>
+      <c r="O106">
+        <v>-0.81764147326337244</v>
+      </c>
+      <c r="P106">
+        <v>-1.6797409047384813</v>
+      </c>
+      <c r="Q106">
+        <v>-1.8158836127513074</v>
+      </c>
+      <c r="R106">
+        <v>-1.094135936890519</v>
+      </c>
+      <c r="S106">
+        <v>-0.76644640381165341</v>
+      </c>
+      <c r="T106">
+        <v>-0.14146298552297262</v>
+      </c>
+      <c r="U106">
+        <v>0.14369918871311504</v>
+      </c>
+      <c r="V106">
+        <v>0.67169603454487603</v>
+      </c>
+      <c r="W106">
+        <v>1.3247483365068522</v>
+      </c>
+      <c r="X106">
+        <v>1.6469724393389504</v>
+      </c>
+      <c r="Y106">
+        <v>1.5639337887861195</v>
+      </c>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>54</v>
+      </c>
+      <c r="N108" t="s">
+        <v>55</v>
+      </c>
+      <c r="O108" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <f t="array" ref="B109:K118">(1/(10-1))*MMULT(B97:Y106,N2:W25)</f>
+        <v>2.5555555555555558</v>
+      </c>
+      <c r="C109">
+        <v>-1.0275594974659228</v>
+      </c>
+      <c r="D109">
+        <v>-1.0282264271844963</v>
+      </c>
+      <c r="E109">
+        <v>-0.64964287407467713</v>
+      </c>
+      <c r="F109">
+        <v>-1.020243519852446</v>
+      </c>
+      <c r="G109">
+        <v>1.1746921162350001</v>
+      </c>
+      <c r="H109">
+        <v>-3.355787938412956E-2</v>
+      </c>
+      <c r="I109">
+        <v>1.2660021953260883</v>
+      </c>
+      <c r="J109">
+        <v>0.2855075989338105</v>
+      </c>
+      <c r="K109">
+        <v>-1.1426481034482647</v>
+      </c>
+      <c r="N109">
+        <f>-(24-1-(1/6)*(2*10+5))*LN(MDETERM(B109:K118))</f>
+        <v>92.346317125945461</v>
+      </c>
+      <c r="O109">
+        <f>10*(10-1)/2</f>
+        <v>45</v>
+      </c>
+      <c r="P109">
+        <f>_xlfn.CHISQ.INV.RT(0.95,O109)</f>
+        <v>30.612259145595473</v>
+      </c>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>-1.0275594974659228</v>
+      </c>
+      <c r="C110">
+        <v>2.5555555555555571</v>
+      </c>
+      <c r="D110">
+        <v>2.4236231456577109</v>
+      </c>
+      <c r="E110">
+        <v>0.2539274516757547</v>
+      </c>
+      <c r="F110">
+        <v>2.5502222381142206</v>
+      </c>
+      <c r="G110">
+        <v>-9.4760732414911925E-2</v>
+      </c>
+      <c r="H110">
+        <v>0.35898808136457666</v>
+      </c>
+      <c r="I110">
+        <v>-0.23185636939285079</v>
+      </c>
+      <c r="J110">
+        <v>0.8573788991690906</v>
+      </c>
+      <c r="K110">
+        <v>0.33730715126461075</v>
+      </c>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>-1.0282264271844963</v>
+      </c>
+      <c r="C111">
+        <v>2.4236231456577109</v>
+      </c>
+      <c r="D111">
+        <v>2.5555555555555509</v>
+      </c>
+      <c r="E111">
+        <v>0.62095677847192932</v>
+      </c>
+      <c r="F111">
+        <v>2.4186559795590949</v>
+      </c>
+      <c r="G111">
+        <v>-5.8879795838398981E-2</v>
+      </c>
+      <c r="H111">
+        <v>0.12010580913363214</v>
+      </c>
+      <c r="I111">
+        <v>-0.25012115321035472</v>
+      </c>
+      <c r="J111">
+        <v>0.79764799660654195</v>
+      </c>
+      <c r="K111">
+        <v>4.39521892979911E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>-0.64964287407467713</v>
+      </c>
+      <c r="C112">
+        <v>0.2539274516757547</v>
+      </c>
+      <c r="D112">
+        <v>0.62095677847192932</v>
+      </c>
+      <c r="E112">
+        <v>2.5555555555555611</v>
+      </c>
+      <c r="F112">
+        <v>0.21917460343741246</v>
+      </c>
+      <c r="G112">
+        <v>0.50414702550845214</v>
+      </c>
+      <c r="H112">
+        <v>0.151121786841351</v>
+      </c>
+      <c r="I112">
+        <v>0.31303857402507035</v>
+      </c>
+      <c r="J112">
+        <v>0.56947786296067193</v>
+      </c>
+      <c r="K112">
+        <v>-0.85543845144285735</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>-1.020243519852446</v>
+      </c>
+      <c r="C113">
+        <v>2.5502222381142206</v>
+      </c>
+      <c r="D113">
+        <v>2.4186559795590949</v>
+      </c>
+      <c r="E113">
+        <v>0.21917460343741246</v>
+      </c>
+      <c r="F113">
+        <v>2.5555555555555527</v>
+      </c>
+      <c r="G113">
+        <v>-0.12456379054977941</v>
+      </c>
+      <c r="H113">
+        <v>0.33405595319003917</v>
+      </c>
+      <c r="I113">
+        <v>-0.25616303430655085</v>
+      </c>
+      <c r="J113">
+        <v>0.82067084854942873</v>
+      </c>
+      <c r="K113">
+        <v>0.33598099618405397</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>1.1746921162350001</v>
+      </c>
+      <c r="C114">
+        <v>-9.4760732414911925E-2</v>
+      </c>
+      <c r="D114">
+        <v>-5.8879795838398981E-2</v>
+      </c>
+      <c r="E114">
+        <v>0.50414702550845214</v>
+      </c>
+      <c r="F114">
+        <v>-0.12456379054977941</v>
+      </c>
+      <c r="G114">
+        <v>2.555555555555554</v>
+      </c>
+      <c r="H114">
+        <v>-1.7627694815985785E-2</v>
+      </c>
+      <c r="I114">
+        <v>2.5096997104060894</v>
+      </c>
+      <c r="J114">
+        <v>1.658626052989187</v>
+      </c>
+      <c r="K114">
+        <v>-0.69580830809454075</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>-3.355787938412956E-2</v>
+      </c>
+      <c r="C115">
+        <v>0.35898808136457666</v>
+      </c>
+      <c r="D115">
+        <v>0.12010580913363214</v>
+      </c>
+      <c r="E115">
+        <v>0.151121786841351</v>
+      </c>
+      <c r="F115">
+        <v>0.33405595319003917</v>
+      </c>
+      <c r="G115">
+        <v>-1.7627694815985785E-2</v>
+      </c>
+      <c r="H115">
+        <v>2.5555555555555562</v>
+      </c>
+      <c r="I115">
+        <v>-9.5694125318290801E-3</v>
+      </c>
+      <c r="J115">
+        <v>0.29777213336819353</v>
+      </c>
+      <c r="K115">
+        <v>0.11988583965184281</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>1.2660021953260883</v>
+      </c>
+      <c r="C116">
+        <v>-0.23185636939285079</v>
+      </c>
+      <c r="D116">
+        <v>-0.25012115321035472</v>
+      </c>
+      <c r="E116">
+        <v>0.31303857402507035</v>
+      </c>
+      <c r="F116">
+        <v>-0.25616303430655085</v>
+      </c>
+      <c r="G116">
+        <v>2.5096997104060894</v>
+      </c>
+      <c r="H116">
+        <v>-9.5694125318290801E-3</v>
+      </c>
+      <c r="I116">
+        <v>2.5555555555555562</v>
+      </c>
+      <c r="J116">
+        <v>1.6587763034439766</v>
+      </c>
+      <c r="K116">
+        <v>-0.70174114767657114</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>0.2855075989338105</v>
+      </c>
+      <c r="C117">
+        <v>0.8573788991690906</v>
+      </c>
+      <c r="D117">
+        <v>0.79764799660654195</v>
+      </c>
+      <c r="E117">
+        <v>0.56947786296067193</v>
+      </c>
+      <c r="F117">
+        <v>0.82067084854942873</v>
+      </c>
+      <c r="G117">
+        <v>1.658626052989187</v>
+      </c>
+      <c r="H117">
+        <v>0.29777213336819353</v>
+      </c>
+      <c r="I117">
+        <v>1.6587763034439766</v>
+      </c>
+      <c r="J117">
+        <v>2.5555555555555354</v>
+      </c>
+      <c r="K117">
+        <v>-0.19659097025359251</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>-1.1426481034482647</v>
+      </c>
+      <c r="C118">
+        <v>0.33730715126461075</v>
+      </c>
+      <c r="D118">
+        <v>4.39521892979911E-2</v>
+      </c>
+      <c r="E118">
+        <v>-0.85543845144285735</v>
+      </c>
+      <c r="F118">
+        <v>0.33598099618405397</v>
+      </c>
+      <c r="G118">
+        <v>-0.69580830809454075</v>
+      </c>
+      <c r="H118">
+        <v>0.11988583965184281</v>
+      </c>
+      <c r="I118">
+        <v>-0.70174114767657114</v>
+      </c>
+      <c r="J118">
+        <v>-0.19659097025359251</v>
+      </c>
+      <c r="K118">
+        <v>2.5555555555555558</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <f t="array" ref="B120:K129">MINVERSE(B109:K118)</f>
+        <v>1.0666742492795338</v>
+      </c>
+      <c r="C120">
+        <v>0.81365648105979371</v>
+      </c>
+      <c r="D120">
+        <v>7.733952783865583E-2</v>
+      </c>
+      <c r="E120">
+        <v>0.51368221744014286</v>
+      </c>
+      <c r="F120">
+        <v>-0.54499076666014956</v>
+      </c>
+      <c r="G120">
+        <v>-0.85444997798935507</v>
+      </c>
+      <c r="H120">
+        <v>-8.6811523580131028E-2</v>
+      </c>
+      <c r="I120">
+        <v>0.43347346469128933</v>
+      </c>
+      <c r="J120">
+        <v>-3.3989909546311592E-2</v>
+      </c>
+      <c r="K120">
+        <v>0.49965265334800318</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>0.8136564810597765</v>
+      </c>
+      <c r="C121">
+        <v>112.33285771768475</v>
+      </c>
+      <c r="D121">
+        <v>-3.9967717059699077</v>
+      </c>
+      <c r="E121">
+        <v>-3.5315984276488271E-2</v>
+      </c>
+      <c r="F121">
+        <v>-106.90099756145152</v>
+      </c>
+      <c r="G121">
+        <v>-5.5870483912895539</v>
+      </c>
+      <c r="H121">
+        <v>-1.3869798851020048</v>
+      </c>
+      <c r="I121">
+        <v>5.2130076599436235</v>
+      </c>
+      <c r="J121">
+        <v>-1.8291545381428753</v>
+      </c>
+      <c r="K121">
+        <v>-0.5170860208559851</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>7.7339527838652319E-2</v>
+      </c>
+      <c r="C122">
+        <v>-3.9967717059702808</v>
+      </c>
+      <c r="D122">
+        <v>6.7722537688629725</v>
+      </c>
+      <c r="E122">
+        <v>-0.62493314837563774</v>
+      </c>
+      <c r="F122">
+        <v>-2.2319827152752958</v>
+      </c>
+      <c r="G122">
+        <v>-3.398314382197253</v>
+      </c>
+      <c r="H122">
+        <v>0.55310814544265496</v>
+      </c>
+      <c r="I122">
+        <v>3.7113583944307491</v>
+      </c>
+      <c r="J122">
+        <v>-0.14822637293716082</v>
+      </c>
+      <c r="K122">
+        <v>0.58639140493454989</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>0.51368221744014331</v>
+      </c>
+      <c r="C123">
+        <v>-3.531598427645799E-2</v>
+      </c>
+      <c r="D123">
+        <v>-0.62493314837564118</v>
+      </c>
+      <c r="E123">
+        <v>0.89994285202948299</v>
+      </c>
+      <c r="F123">
+        <v>0.82846754147004387</v>
+      </c>
+      <c r="G123">
+        <v>-1.3068627610331536</v>
+      </c>
+      <c r="H123">
+        <v>-0.12287934474533831</v>
+      </c>
+      <c r="I123">
+        <v>1.1594859757627483</v>
+      </c>
+      <c r="J123">
+        <v>-0.17700798511310731</v>
+      </c>
+      <c r="K123">
+        <v>0.39212619261747111</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>-0.54499076666013546</v>
+      </c>
+      <c r="C124">
+        <v>-106.90099756145121</v>
+      </c>
+      <c r="D124">
+        <v>-2.2319827152756737</v>
+      </c>
+      <c r="E124">
+        <v>0.82846754147007162</v>
+      </c>
+      <c r="F124">
+        <v>107.91122228274679</v>
+      </c>
+      <c r="G124">
+        <v>7.5244553278341062</v>
+      </c>
+      <c r="H124">
+        <v>0.7980058906419143</v>
+      </c>
+      <c r="I124">
+        <v>-7.28965214995993</v>
+      </c>
+      <c r="J124">
+        <v>1.5485807215045095</v>
+      </c>
+      <c r="K124">
+        <v>0.12338565255613172</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>-0.85444997798934952</v>
+      </c>
+      <c r="C125">
+        <v>-5.5870483912894491</v>
+      </c>
+      <c r="D125">
+        <v>-3.3983143821972805</v>
+      </c>
+      <c r="E125">
+        <v>-1.3068627610331489</v>
+      </c>
+      <c r="F125">
+        <v>7.524455327834028</v>
+      </c>
+      <c r="G125">
+        <v>17.488880005785962</v>
+      </c>
+      <c r="H125">
+        <v>3.2823781360533121E-2</v>
+      </c>
+      <c r="I125">
+        <v>-17.482444943877908</v>
+      </c>
+      <c r="J125">
+        <v>0.8223317238650627</v>
+      </c>
+      <c r="K125">
+        <v>-0.9899806904024756</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>-8.6811523580131236E-2</v>
+      </c>
+      <c r="C126">
+        <v>-1.3869798851020374</v>
+      </c>
+      <c r="D126">
+        <v>0.55310814544265163</v>
+      </c>
+      <c r="E126">
+        <v>-0.122879344745338</v>
+      </c>
+      <c r="F126">
+        <v>0.79800589064194993</v>
+      </c>
+      <c r="G126">
+        <v>3.2823781360538679E-2</v>
+      </c>
+      <c r="H126">
+        <v>0.46785387621542179</v>
+      </c>
+      <c r="I126">
+        <v>6.0292860217186384E-2</v>
+      </c>
+      <c r="J126">
+        <v>-4.229623018384069E-2</v>
+      </c>
+      <c r="K126">
+        <v>-1.1016275587421178E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>0.43347346469128323</v>
+      </c>
+      <c r="C127">
+        <v>5.2130076599435418</v>
+      </c>
+      <c r="D127">
+        <v>3.7113583944307709</v>
+      </c>
+      <c r="E127">
+        <v>1.1594859757627423</v>
+      </c>
+      <c r="F127">
+        <v>-7.2896521499598705</v>
+      </c>
+      <c r="G127">
+        <v>-17.482444943877905</v>
+      </c>
+      <c r="H127">
+        <v>6.0292860217191879E-2</v>
+      </c>
+      <c r="I127">
+        <v>18.56212506785565</v>
+      </c>
+      <c r="J127">
+        <v>-1.5046105937996412</v>
+      </c>
+      <c r="K127">
+        <v>1.0069080319937356</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>-3.3989909546311363E-2</v>
+      </c>
+      <c r="C128">
+        <v>-1.8291545381428822</v>
+      </c>
+      <c r="D128">
+        <v>-0.14822637293716559</v>
+      </c>
+      <c r="E128">
+        <v>-0.17700798511310636</v>
+      </c>
+      <c r="F128">
+        <v>1.5485807215045218</v>
+      </c>
+      <c r="G128">
+        <v>0.82233172386506159</v>
+      </c>
+      <c r="H128">
+        <v>-4.2296230183841238E-2</v>
+      </c>
+      <c r="I128">
+        <v>-1.5046105937996399</v>
+      </c>
+      <c r="J128">
+        <v>1.0341135650272322</v>
+      </c>
+      <c r="K128">
+        <v>-0.14178665230733195</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>0.49965265334800313</v>
+      </c>
+      <c r="C129">
+        <v>-0.51708602085600786</v>
+      </c>
+      <c r="D129">
+        <v>0.586391404934549</v>
+      </c>
+      <c r="E129">
+        <v>0.39212619261747156</v>
+      </c>
+      <c r="F129">
+        <v>0.12338565255615538</v>
+      </c>
+      <c r="G129">
+        <v>-0.98998069040247549</v>
+      </c>
+      <c r="H129">
+        <v>-1.1016275587420937E-2</v>
+      </c>
+      <c r="I129">
+        <v>1.0069080319937358</v>
+      </c>
+      <c r="J129">
+        <v>-0.14178665230733195</v>
+      </c>
+      <c r="K129">
+        <v>0.78446899585482155</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <f>((24-10)/(10-1))*ABS(B120-1)</f>
+        <v>0.10371549887927481</v>
+      </c>
+      <c r="C131">
+        <f t="shared" ref="C131:K131" si="42">((24-10)/(10-1))*ABS(C120-1)</f>
+        <v>0.28986769612920976</v>
+      </c>
+      <c r="D131">
+        <f t="shared" si="42"/>
+        <v>1.4352496233620911</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="42"/>
+        <v>0.75649432842644448</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="42"/>
+        <v>2.4033189703602327</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="42"/>
+        <v>2.8846999657612189</v>
+      </c>
+      <c r="H131">
+        <f t="shared" si="42"/>
+        <v>1.6905957033468704</v>
+      </c>
+      <c r="I131">
+        <f t="shared" si="42"/>
+        <v>0.88126349936910553</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="42"/>
+        <v>1.6084287481831514</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="42"/>
+        <v>0.77831809479199499</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <f t="shared" ref="B132:K132" si="43">((24-10)/(10-1))*ABS(B121-1)</f>
+        <v>0.28986769612923657</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="43"/>
+        <v>173.18444533862072</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="43"/>
+        <v>7.7727559870643006</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="43"/>
+        <v>1.6104915310967596</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="43"/>
+        <v>167.84599620670235</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="43"/>
+        <v>10.24651971978375</v>
+      </c>
+      <c r="H132">
+        <f t="shared" si="43"/>
+        <v>3.7130798212697851</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="43"/>
+        <v>6.5535674710234142</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="43"/>
+        <v>4.4009070593333615</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="43"/>
+        <v>2.3599115879981989</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <f t="shared" ref="B133:K133" si="44">((24-10)/(10-1))*ABS(B122-1)</f>
+        <v>1.4352496233620964</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="44"/>
+        <v>7.7727559870648806</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="44"/>
+        <v>8.9790614182312911</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="44"/>
+        <v>2.527673786362103</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="44"/>
+        <v>5.0275286682060161</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="44"/>
+        <v>6.8418223723068374</v>
+      </c>
+      <c r="H133">
+        <f t="shared" si="44"/>
+        <v>0.69516510708920343</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="44"/>
+        <v>4.217668613558943</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="44"/>
+        <v>1.7861299134578059</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="44"/>
+        <v>0.64339114787958906</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <f t="shared" ref="B134:K134" si="45">((24-10)/(10-1))*ABS(B123-1)</f>
+        <v>0.75649432842644371</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="45"/>
+        <v>1.6104915310967123</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="45"/>
+        <v>2.5276737863621084</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="45"/>
+        <v>0.15564445239858202</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="45"/>
+        <v>0.26682826882437621</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="45"/>
+        <v>3.5884531838293499</v>
+      </c>
+      <c r="H134">
+        <f t="shared" si="45"/>
+        <v>1.7467012029371929</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="45"/>
+        <v>0.24808929563094173</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="45"/>
+        <v>1.8309013101759446</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="45"/>
+        <v>0.94558147815060056</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <f t="shared" ref="B135:K135" si="46">((24-10)/(10-1))*ABS(B124-1)</f>
+        <v>2.4033189703602109</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="46"/>
+        <v>167.84599620670187</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="46"/>
+        <v>5.027528668206604</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="46"/>
+        <v>0.26682826882433303</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="46"/>
+        <v>166.30634577316167</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="46"/>
+        <v>10.149152732186387</v>
+      </c>
+      <c r="H135">
+        <f t="shared" si="46"/>
+        <v>0.31421305900146668</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="46"/>
+        <v>12.895014455493227</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="46"/>
+        <v>0.8533477890070148</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="46"/>
+        <v>1.3636223182460172</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <f t="shared" ref="B136:K136" si="47">((24-10)/(10-1))*ABS(B125-1)</f>
+        <v>2.8846999657612105</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="47"/>
+        <v>10.246519719783588</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="47"/>
+        <v>6.8418223723068818</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="47"/>
+        <v>3.5884531838293432</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="47"/>
+        <v>10.149152732186266</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="47"/>
+        <v>25.649368897889275</v>
+      </c>
+      <c r="H136">
+        <f t="shared" si="47"/>
+        <v>1.5044963401058373</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="47"/>
+        <v>28.750469912698968</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="47"/>
+        <v>0.27637287398768023</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="47"/>
+        <v>3.0955255184038513</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <f t="shared" ref="B137:K137" si="48">((24-10)/(10-1))*ABS(B126-1)</f>
+        <v>1.6905957033468708</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="48"/>
+        <v>3.7130798212698357</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="48"/>
+        <v>0.69516510708920853</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="48"/>
+        <v>1.7467012029371924</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="48"/>
+        <v>0.31421305900141122</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="48"/>
+        <v>1.5044963401058289</v>
+      </c>
+      <c r="H137">
+        <f t="shared" si="48"/>
+        <v>0.82778285922045491</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="48"/>
+        <v>1.4617666618843768</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="48"/>
+        <v>1.6213496913970857</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="48"/>
+        <v>1.5726919842470997</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <f t="shared" ref="B138:K138" si="49">((24-10)/(10-1))*ABS(B127-1)</f>
+        <v>0.88126349936911497</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="49"/>
+        <v>6.5535674710232872</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="49"/>
+        <v>4.2176686135589767</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="49"/>
+        <v>0.2480892956309324</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="49"/>
+        <v>12.895014455493133</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="49"/>
+        <v>28.750469912698964</v>
+      </c>
+      <c r="H138">
+        <f t="shared" si="49"/>
+        <v>1.4617666618843681</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="49"/>
+        <v>27.318861216664345</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="49"/>
+        <v>3.8960609236883306</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="49"/>
+        <v>1.0745827545810894E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <f t="shared" ref="B139:K139" si="50">((24-10)/(10-1))*ABS(B128-1)</f>
+        <v>1.6084287481831512</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="50"/>
+        <v>4.4009070593333721</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="50"/>
+        <v>1.786129913457813</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="50"/>
+        <v>1.8309013101759433</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="50"/>
+        <v>0.8533477890070339</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="50"/>
+        <v>0.27637287398768196</v>
+      </c>
+      <c r="H139">
+        <f t="shared" si="50"/>
+        <v>1.6213496913970864</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="50"/>
+        <v>3.8960609236883292</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="50"/>
+        <v>5.3065545597916715E-2</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="50"/>
+        <v>1.7761125702558496</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <f t="shared" ref="B140:K140" si="51">((24-10)/(10-1))*ABS(B129-1)</f>
+        <v>0.7783180947919951</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="51"/>
+        <v>2.3599115879982349</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="51"/>
+        <v>0.64339114787959051</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="51"/>
+        <v>0.9455814781505999</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="51"/>
+        <v>1.3636223182459806</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="51"/>
+        <v>3.0955255184038508</v>
+      </c>
+      <c r="H140">
+        <f t="shared" si="51"/>
+        <v>1.5726919842470994</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="51"/>
+        <v>1.0745827545811239E-2</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="51"/>
+        <v>1.7761125702558496</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="51"/>
+        <v>0.33527045089249979</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lab1var3.xlsx
+++ b/lab1var3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Code\Python\Labs\IAD_Lab_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Code\Python\Labs\IAD\IAD_Lab_1\IAD_Lab_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3658AC-8680-43BB-8F5C-7A046E62A442}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CC2A1B-793A-461A-88DA-BC11549DDAF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="3750" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lab1var3 new" sheetId="3" r:id="rId1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="61">
   <si>
     <t>i</t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <t>D=R^-1</t>
+  </si>
+  <si>
+    <t>а</t>
+  </si>
+  <si>
+    <t>Р</t>
   </si>
 </sst>
 </file>
@@ -834,48 +840,48 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1068,6 +1074,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>536518</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>6310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AC4FD9E-C927-4914-AE8B-F5F407BAD972}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8620125" y="24447500"/>
+          <a:ext cx="457143" cy="323810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>374452</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>152363</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C287D084-B808-40C2-877A-9FBE4D6A2D2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="603250" y="25003125"/>
+          <a:ext cx="1580952" cy="295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1121,9 +1215,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1161,7 +1255,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1267,7 +1361,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1417,10 +1511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C984D81A-4112-41FE-B9A3-C3F29516A0D2}">
-  <dimension ref="A1:BQ140"/>
+  <dimension ref="A1:BQ157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B131" sqref="B131"/>
+    <sheetView tabSelected="1" topLeftCell="B119" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11987,6 +12081,9 @@
       <c r="O108" t="s">
         <v>56</v>
       </c>
+      <c r="R108" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B109">
@@ -12029,8 +12126,11 @@
         <v>45</v>
       </c>
       <c r="P109">
-        <f>_xlfn.CHISQ.INV.RT(0.95,O109)</f>
-        <v>30.612259145595473</v>
+        <f>_xlfn.CHISQ.INV.RT(R109,O109)</f>
+        <v>61.656233376279566</v>
+      </c>
+      <c r="R109">
+        <v>0.05</v>
       </c>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.25">
@@ -12615,7 +12715,7 @@
         <v>-0.14178665230733195</v>
       </c>
     </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>0.49965265334800313</v>
       </c>
@@ -12647,429 +12747,947 @@
         <v>0.78446899585482155</v>
       </c>
     </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131">
         <f>((24-10)/(10-1))*ABS(B120-1)</f>
         <v>0.10371549887927481</v>
       </c>
       <c r="C131">
-        <f t="shared" ref="C131:K131" si="42">((24-10)/(10-1))*ABS(C120-1)</f>
-        <v>0.28986769612920976</v>
+        <f>((24-10)/(10-1))*ABS(C121-1)</f>
+        <v>173.18444533862072</v>
       </c>
       <c r="D131">
+        <f>((24-10)/(10-1))*ABS(D122-1)</f>
+        <v>8.9790614182312911</v>
+      </c>
+      <c r="E131">
+        <f>((24-10)/(10-1))*ABS(E123-1)</f>
+        <v>0.15564445239858202</v>
+      </c>
+      <c r="F131">
+        <f>((24-10)/(10-1))*ABS(F124-1)</f>
+        <v>166.30634577316167</v>
+      </c>
+      <c r="G131">
+        <f>((24-10)/(10-1))*ABS(G125-1)</f>
+        <v>25.649368897889275</v>
+      </c>
+      <c r="H131">
+        <f>((24-10)/(10-1))*ABS(H126-1)</f>
+        <v>0.82778285922045491</v>
+      </c>
+      <c r="I131">
+        <f>((24-10)/(10-1))*ABS(I127-1)</f>
+        <v>27.318861216664345</v>
+      </c>
+      <c r="J131">
+        <f>((24-10)/(10-1))*ABS(J128-1)</f>
+        <v>5.3065545597916715E-2</v>
+      </c>
+      <c r="K131">
+        <f>((24-10)/(10-1))*ABS(K129-1)</f>
+        <v>0.33527045089249979</v>
+      </c>
+      <c r="N131">
+        <f>FINV(R109,24-10,10-1)</f>
+        <v>3.0254727242822126</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B134" t="str">
+        <f>IF(B131&gt;$N$131,"мультиколінеарна","нет")</f>
+        <v>нет</v>
+      </c>
+      <c r="C134" t="str">
+        <f t="shared" ref="C134:K134" si="42">IF(C131&gt;$N$131,"мультиколінеарна","нет")</f>
+        <v>мультиколінеарна</v>
+      </c>
+      <c r="D134" t="str">
         <f t="shared" si="42"/>
-        <v>1.4352496233620911</v>
-      </c>
-      <c r="E131">
+        <v>мультиколінеарна</v>
+      </c>
+      <c r="E134" t="str">
         <f t="shared" si="42"/>
-        <v>0.75649432842644448</v>
-      </c>
-      <c r="F131">
+        <v>нет</v>
+      </c>
+      <c r="F134" t="str">
         <f t="shared" si="42"/>
-        <v>2.4033189703602327</v>
-      </c>
-      <c r="G131">
+        <v>мультиколінеарна</v>
+      </c>
+      <c r="G134" t="str">
         <f t="shared" si="42"/>
-        <v>2.8846999657612189</v>
-      </c>
-      <c r="H131">
+        <v>мультиколінеарна</v>
+      </c>
+      <c r="H134" t="str">
         <f t="shared" si="42"/>
-        <v>1.6905957033468704</v>
-      </c>
-      <c r="I131">
+        <v>нет</v>
+      </c>
+      <c r="I134" t="str">
         <f t="shared" si="42"/>
-        <v>0.88126349936910553</v>
-      </c>
-      <c r="J131">
+        <v>мультиколінеарна</v>
+      </c>
+      <c r="J134" t="str">
         <f t="shared" si="42"/>
-        <v>1.6084287481831514</v>
-      </c>
-      <c r="K131">
+        <v>нет</v>
+      </c>
+      <c r="K134" t="str">
         <f t="shared" si="42"/>
-        <v>0.77831809479199499</v>
-      </c>
-    </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B132">
-        <f t="shared" ref="B132:K132" si="43">((24-10)/(10-1))*ABS(B121-1)</f>
-        <v>0.28986769612923657</v>
-      </c>
-      <c r="C132">
+        <v>нет</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <f>B120/(($B$120*$B$120)^(1/2))</f>
+        <v>1</v>
+      </c>
+      <c r="C137">
+        <f>C120/(($C$121*$B$120)^(1/2))</f>
+        <v>7.4331308664947845E-2</v>
+      </c>
+      <c r="D137">
+        <f>D120/(($D$122*$B$120)^(1/2))</f>
+        <v>2.8775242954907982E-2</v>
+      </c>
+      <c r="E137">
+        <f>E120/(($E$123*$B$120)^(1/2))</f>
+        <v>0.5242895001980159</v>
+      </c>
+      <c r="F137">
+        <f>F120/(($F$124*$B$120)^(1/2))</f>
+        <v>-5.0797218599854033E-2</v>
+      </c>
+      <c r="G137">
+        <f>G120/(($G$125*$B$120)^(1/2))</f>
+        <v>-0.19782890106287795</v>
+      </c>
+      <c r="H137">
+        <f>H120/(($H$126*$B$120)^(1/2))</f>
+        <v>-0.12288711738532157</v>
+      </c>
+      <c r="I137">
+        <f>I120/(($I$127*$B$120)^(1/2))</f>
+        <v>9.7416554342894174E-2</v>
+      </c>
+      <c r="J137">
+        <f>J120/(($J$128*$B$120)^(1/2))</f>
+        <v>-3.2363090365915843E-2</v>
+      </c>
+      <c r="K137">
+        <f>K120/(($K$129*$B$120)^(1/2))</f>
+        <v>0.54621597877174877</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <f>B121/(($C$121*$B$120)^(1/2))</f>
+        <v>7.4331308664946277E-2</v>
+      </c>
+      <c r="C138">
+        <f>C121/(($C$121*$C$121)^(1/2))</f>
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <f>D121/(($D$122*$C$121)^(1/2))</f>
+        <v>-0.14490698712245492</v>
+      </c>
+      <c r="E138">
+        <f>E121/(($E$123*$C$121)^(1/2))</f>
+        <v>-3.5124523814000557E-3</v>
+      </c>
+      <c r="F138">
+        <f>F121/(($F$124*$C$121)^(1/2))</f>
+        <v>-0.97094593618435754</v>
+      </c>
+      <c r="G138">
+        <f>G121/(($G$125*$C$121)^(1/2))</f>
+        <v>-0.12605150353121444</v>
+      </c>
+      <c r="H138">
+        <f>H121/(($H$126*$C$121)^(1/2))</f>
+        <v>-0.19132055983324614</v>
+      </c>
+      <c r="I138">
+        <f>I121/(($I$127*$C$121)^(1/2))</f>
+        <v>0.1141618800183283</v>
+      </c>
+      <c r="J138">
+        <f>J121/(($J$128*$C$121)^(1/2))</f>
+        <v>-0.16971212745887668</v>
+      </c>
+      <c r="K138">
+        <f>K121/(($K$129*$C$121)^(1/2))</f>
+        <v>-5.5083496690315419E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <f>B122/(($D$122*$B$120)^(1/2))</f>
+        <v>2.8775242954906678E-2</v>
+      </c>
+      <c r="C139">
+        <f>C122/(($D$122*$C$121)^(1/2))</f>
+        <v>-0.14490698712246844</v>
+      </c>
+      <c r="D139">
+        <f>D122/(($D$122*$D$122)^(1/2))</f>
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <f>E122/(($E$123*$D$122)^(1/2))</f>
+        <v>-0.25313924699853418</v>
+      </c>
+      <c r="F139">
+        <f>F122/(($F$124*$D$122)^(1/2))</f>
+        <v>-8.2564035027354876E-2</v>
+      </c>
+      <c r="G139">
+        <f>G122/(($G$125*$D$122)^(1/2))</f>
+        <v>-0.31225970330462516</v>
+      </c>
+      <c r="H139">
+        <f>H122/(($H$126*$D$122)^(1/2))</f>
+        <v>0.31073367860940337</v>
+      </c>
+      <c r="I139">
+        <f>I122/(($I$127*$D$122)^(1/2))</f>
+        <v>0.33101862915586189</v>
+      </c>
+      <c r="J139">
+        <f>J122/(($J$128*$D$122)^(1/2))</f>
+        <v>-5.6011183897074379E-2</v>
+      </c>
+      <c r="K139">
+        <f>K122/(($K$129*$D$122)^(1/2))</f>
+        <v>0.25440936399801994</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <f>B123/(($E$123*$B$120)^(1/2))</f>
+        <v>0.52428950019801634</v>
+      </c>
+      <c r="C140">
+        <f>C123/(($E$123*$C$121)^(1/2))</f>
+        <v>-3.5124523813970438E-3</v>
+      </c>
+      <c r="D140">
+        <f>D123/(($E$123*$D$122)^(1/2))</f>
+        <v>-0.25313924699853557</v>
+      </c>
+      <c r="E140">
+        <f>E123/(($E$123*$E$123)^(1/2))</f>
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <f>F123/(($F$124*$E$123)^(1/2))</f>
+        <v>8.4068776336803139E-2</v>
+      </c>
+      <c r="G140">
+        <f>G123/(($G$125*$E$123)^(1/2))</f>
+        <v>-0.32941359451395613</v>
+      </c>
+      <c r="H140">
+        <f>H123/(($H$126*$E$123)^(1/2))</f>
+        <v>-0.18937223503508316</v>
+      </c>
+      <c r="I140">
+        <f>I123/(($I$127*$E$123)^(1/2))</f>
+        <v>0.28369010427596791</v>
+      </c>
+      <c r="J140">
+        <f>J123/(($J$128*$E$123)^(1/2))</f>
+        <v>-0.18348529948388964</v>
+      </c>
+      <c r="K140">
+        <f>K123/(($K$129*$E$123)^(1/2))</f>
+        <v>0.46669214873741738</v>
+      </c>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <f>B124/(($F$124*$B$120)^(1/2))</f>
+        <v>-5.0797218599852721E-2</v>
+      </c>
+      <c r="C141">
+        <f>C124/(($F$124*$C$121)^(1/2))</f>
+        <v>-0.97094593618435465</v>
+      </c>
+      <c r="D141">
+        <f>D124/(($F$124*$D$122)^(1/2))</f>
+        <v>-8.2564035027368865E-2</v>
+      </c>
+      <c r="E141">
+        <f>E124/(($F$124*$E$123)^(1/2))</f>
+        <v>8.4068776336805956E-2</v>
+      </c>
+      <c r="F141">
+        <f>F124/(($F$124*$F$124)^(1/2))</f>
+        <v>1</v>
+      </c>
+      <c r="G141">
+        <f>G124/(($G$125*$F$124)^(1/2))</f>
+        <v>0.17320513497720316</v>
+      </c>
+      <c r="H141">
+        <f>H124/(($H$126*$F$124)^(1/2))</f>
+        <v>0.11230980555521834</v>
+      </c>
+      <c r="I141">
+        <f>I124/(($I$127*$F$124)^(1/2))</f>
+        <v>-0.16287695887284651</v>
+      </c>
+      <c r="J141">
+        <f>J124/(($J$128*$F$124)^(1/2))</f>
+        <v>0.14659407754261736</v>
+      </c>
+      <c r="K141">
+        <f>K124/(($K$129*$F$124)^(1/2))</f>
+        <v>1.3410453497558065E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <f>B125/(($G$125*$B$120)^(1/2))</f>
+        <v>-0.19782890106287668</v>
+      </c>
+      <c r="C142">
+        <f>C125/(($G$125*$C$121)^(1/2))</f>
+        <v>-0.12605150353121208</v>
+      </c>
+      <c r="D142">
+        <f>D125/(($G$125*$D$122)^(1/2))</f>
+        <v>-0.31225970330462771</v>
+      </c>
+      <c r="E142">
+        <f>E125/(($G$125*$E$123)^(1/2))</f>
+        <v>-0.32941359451395497</v>
+      </c>
+      <c r="F142">
+        <f>F125/(($G$125*$F$124)^(1/2))</f>
+        <v>0.17320513497720136</v>
+      </c>
+      <c r="G142">
+        <f>G125/(($G$125*$G$125)^(1/2))</f>
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <f>H125/(($H$126*$G$125)^(1/2))</f>
+        <v>1.1474994766391373E-2</v>
+      </c>
+      <c r="I142">
+        <f>I125/(($I$127*$G$125)^(1/2))</f>
+        <v>-0.97030288564938283</v>
+      </c>
+      <c r="J142">
+        <f>J125/(($J$128*$G$125)^(1/2))</f>
+        <v>0.19336680803345796</v>
+      </c>
+      <c r="K142">
+        <f>K125/(($K$129*$G$125)^(1/2))</f>
+        <v>-0.26727468896693285</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <f>B126/(($H$126*$B$120)^(1/2))</f>
+        <v>-0.12288711738532186</v>
+      </c>
+      <c r="C143">
+        <f>C126/(($H$126*$C$121)^(1/2))</f>
+        <v>-0.19132055983325064</v>
+      </c>
+      <c r="D143">
+        <f>D126/(($H$126*$D$122)^(1/2))</f>
+        <v>0.31073367860940149</v>
+      </c>
+      <c r="E143">
+        <f>E126/(($H$126*$E$123)^(1/2))</f>
+        <v>-0.18937223503508271</v>
+      </c>
+      <c r="F143">
+        <f>F126/(($H$126*$F$124)^(1/2))</f>
+        <v>0.11230980555522335</v>
+      </c>
+      <c r="G143">
+        <f>G126/(($H$126*$G$125)^(1/2))</f>
+        <v>1.1474994766393316E-2</v>
+      </c>
+      <c r="H143">
+        <f>H126/(($H$126*$H$126)^(1/2))</f>
+        <v>1</v>
+      </c>
+      <c r="I143">
+        <f>I126/(($I$127*$H$126)^(1/2))</f>
+        <v>2.0459589861057795E-2</v>
+      </c>
+      <c r="J143">
+        <f>J126/(($J$128*$H$126)^(1/2))</f>
+        <v>-6.0808239128740976E-2</v>
+      </c>
+      <c r="K143">
+        <f>K126/(($K$129*$H$126)^(1/2))</f>
+        <v>-1.8184098864584018E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <f>B127/(($I$127*$B$120)^(1/2))</f>
+        <v>9.74165543428928E-2</v>
+      </c>
+      <c r="C144">
+        <f>C127/(($I$127*$C$121)^(1/2))</f>
+        <v>0.11416188001832651</v>
+      </c>
+      <c r="D144">
+        <f>D127/(($I$127*$D$122)^(1/2))</f>
+        <v>0.33101862915586383</v>
+      </c>
+      <c r="E144">
+        <f>E127/(($I$127*$E$123)^(1/2))</f>
+        <v>0.28369010427596641</v>
+      </c>
+      <c r="F144">
+        <f>F127/(($I$127*$F$124)^(1/2))</f>
+        <v>-0.16287695887284517</v>
+      </c>
+      <c r="G144">
+        <f>G127/(($I$127*$G$125)^(1/2))</f>
+        <v>-0.97030288564938261</v>
+      </c>
+      <c r="H144">
+        <f>H127/(($I$127*$H$126)^(1/2))</f>
+        <v>2.0459589861059658E-2</v>
+      </c>
+      <c r="I144">
+        <f>I127/(($I$127*$I$127)^(1/2))</f>
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <f>J127/(($J$128*$I$127)^(1/2))</f>
+        <v>-0.34342044807459904</v>
+      </c>
+      <c r="K144">
+        <f>K127/(($K$129*$I$127)^(1/2))</f>
+        <v>0.26386881455787098</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <f>B128/(($J$128*$B$120)^(1/2))</f>
+        <v>-3.2363090365915628E-2</v>
+      </c>
+      <c r="C145">
+        <f>C128/(($J$128*$C$121)^(1/2))</f>
+        <v>-0.16971212745887732</v>
+      </c>
+      <c r="D145">
+        <f>D128/(($J$128*$D$122)^(1/2))</f>
+        <v>-5.6011183897076183E-2</v>
+      </c>
+      <c r="E145">
+        <f>E128/(($J$128*$E$123)^(1/2))</f>
+        <v>-0.18348529948388867</v>
+      </c>
+      <c r="F145">
+        <f>F128/(($J$128*$F$124)^(1/2))</f>
+        <v>0.14659407754261849</v>
+      </c>
+      <c r="G145">
+        <f>G128/(($J$128*$G$125)^(1/2))</f>
+        <v>0.19336680803345768</v>
+      </c>
+      <c r="H145">
+        <f>H128/(($J$128*$H$126)^(1/2))</f>
+        <v>-6.0808239128741767E-2</v>
+      </c>
+      <c r="I145">
+        <f>I128/(($J$128*$I$127)^(1/2))</f>
+        <v>-0.34342044807459871</v>
+      </c>
+      <c r="J145">
+        <f>J128/(($J$128*$J$128)^(1/2))</f>
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <f>K128/(($K$129*$J$128)^(1/2))</f>
+        <v>-0.15742124368051444</v>
+      </c>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <f>B129/(($K$129*$B$120)^(1/2))</f>
+        <v>0.54621597877174866</v>
+      </c>
+      <c r="C146">
+        <f>C129/(($K$129*$C$121)^(1/2))</f>
+        <v>-5.508349669031784E-2</v>
+      </c>
+      <c r="D146">
+        <f>D129/(($K$129*$D$122)^(1/2))</f>
+        <v>0.25440936399801956</v>
+      </c>
+      <c r="E146">
+        <f>E129/(($K$129*$E$123)^(1/2))</f>
+        <v>0.46669214873741788</v>
+      </c>
+      <c r="F146">
+        <f>F129/(($K$129*$F$124)^(1/2))</f>
+        <v>1.3410453497560636E-2</v>
+      </c>
+      <c r="G146">
+        <f>G129/(($K$129*$G$125)^(1/2))</f>
+        <v>-0.26727468896693285</v>
+      </c>
+      <c r="H146">
+        <f>H129/(($K$129*$H$126)^(1/2))</f>
+        <v>-1.8184098864583619E-2</v>
+      </c>
+      <c r="I146">
+        <f>I129/(($K$129*$I$127)^(1/2))</f>
+        <v>0.26386881455787103</v>
+      </c>
+      <c r="J146">
+        <f>J129/(($K$129*$J$128)^(1/2))</f>
+        <v>-0.15742124368051444</v>
+      </c>
+      <c r="K146">
+        <f>K129/(($K$129*$K$129)^(1/2))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B148" t="e">
+        <f>(B137*(24-10))/((1-B137^2)^(1/2))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C148">
+        <f t="shared" ref="C148:K148" si="43">(C137*(24-10))/((1-C137^2)^(1/2))</f>
+        <v>1.043525127346798</v>
+      </c>
+      <c r="D148">
         <f t="shared" si="43"/>
-        <v>173.18444533862072</v>
-      </c>
-      <c r="D132">
+        <v>0.40302028926550754</v>
+      </c>
+      <c r="E148">
         <f t="shared" si="43"/>
-        <v>7.7727559870643006</v>
-      </c>
-      <c r="E132">
+        <v>8.6197386520552239</v>
+      </c>
+      <c r="F148">
         <f t="shared" si="43"/>
-        <v>1.6104915310967596</v>
-      </c>
-      <c r="F132">
+        <v>-0.71208036473995462</v>
+      </c>
+      <c r="G148">
         <f t="shared" si="43"/>
-        <v>167.84599620670235</v>
-      </c>
-      <c r="G132">
+        <v>-2.8254451120356037</v>
+      </c>
+      <c r="H148">
         <f t="shared" si="43"/>
-        <v>10.24651971978375</v>
-      </c>
-      <c r="H132">
+        <v>-1.7335588843352148</v>
+      </c>
+      <c r="I148">
         <f t="shared" si="43"/>
-        <v>3.7130798212697851</v>
-      </c>
-      <c r="I132">
+        <v>1.3703495595393178</v>
+      </c>
+      <c r="J148">
         <f t="shared" si="43"/>
-        <v>6.5535674710234142</v>
-      </c>
-      <c r="J132">
+        <v>-0.45332072449307265</v>
+      </c>
+      <c r="K148">
         <f t="shared" si="43"/>
-        <v>4.4009070593333615</v>
-      </c>
-      <c r="K132">
-        <f t="shared" si="43"/>
-        <v>2.3599115879981989</v>
-      </c>
-    </row>
-    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B133">
-        <f t="shared" ref="B133:K133" si="44">((24-10)/(10-1))*ABS(B122-1)</f>
-        <v>1.4352496233620964</v>
-      </c>
-      <c r="C133">
+        <v>9.1292007690942096</v>
+      </c>
+    </row>
+    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <f t="shared" ref="B149:K149" si="44">(B138*(24-10))/((1-B138^2)^(1/2))</f>
+        <v>1.0435251273467758</v>
+      </c>
+      <c r="C149" t="e">
         <f t="shared" si="44"/>
-        <v>7.7727559870648806</v>
-      </c>
-      <c r="D133">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D149">
         <f t="shared" si="44"/>
-        <v>8.9790614182312911</v>
-      </c>
-      <c r="E133">
+        <v>-2.0503385661088456</v>
+      </c>
+      <c r="E149">
         <f t="shared" si="44"/>
-        <v>2.527673786362103</v>
-      </c>
-      <c r="F133">
+        <v>-4.9174636682193282E-2</v>
+      </c>
+      <c r="F149">
         <f t="shared" si="44"/>
-        <v>5.0275286682060161</v>
-      </c>
-      <c r="G133">
+        <v>-56.80444032151734</v>
+      </c>
+      <c r="G149">
         <f t="shared" si="44"/>
-        <v>6.8418223723068374</v>
-      </c>
-      <c r="H133">
+        <v>-1.7789101732558408</v>
+      </c>
+      <c r="H149">
         <f t="shared" si="44"/>
-        <v>0.69516510708920343</v>
-      </c>
-      <c r="I133">
+        <v>-2.7288970971873332</v>
+      </c>
+      <c r="I149">
         <f t="shared" si="44"/>
-        <v>4.217668613558943</v>
-      </c>
-      <c r="J133">
+        <v>1.6087842931029415</v>
+      </c>
+      <c r="J149">
         <f t="shared" si="44"/>
-        <v>1.7861299134578059</v>
-      </c>
-      <c r="K133">
+        <v>-2.4109437047279236</v>
+      </c>
+      <c r="K149">
         <f t="shared" si="44"/>
-        <v>0.64339114787958906</v>
-      </c>
-    </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B134">
-        <f t="shared" ref="B134:K134" si="45">((24-10)/(10-1))*ABS(B123-1)</f>
-        <v>0.75649432842644371</v>
-      </c>
-      <c r="C134">
+        <v>-0.77234155995792164</v>
+      </c>
+    </row>
+    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <f>(B139*(24-10))/((1-B139^2)^(1/2))</f>
+        <v>0.40302028926548927</v>
+      </c>
+      <c r="C150">
+        <f t="shared" ref="B150:K150" si="45">(C139*(24-10))/((1-C139^2)^(1/2))</f>
+        <v>-2.050338566109041</v>
+      </c>
+      <c r="D150" t="e">
         <f t="shared" si="45"/>
-        <v>1.6104915310967123</v>
-      </c>
-      <c r="D134">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E150">
         <f t="shared" si="45"/>
-        <v>2.5276737863621084</v>
-      </c>
-      <c r="E134">
+        <v>-3.6632624523689632</v>
+      </c>
+      <c r="F150">
         <f t="shared" si="45"/>
-        <v>0.15564445239858202</v>
-      </c>
-      <c r="F134">
+        <v>-1.1598565171025823</v>
+      </c>
+      <c r="G150">
         <f t="shared" si="45"/>
-        <v>0.26682826882437621</v>
-      </c>
-      <c r="G134">
+        <v>-4.6017375519140957</v>
+      </c>
+      <c r="H150">
         <f t="shared" si="45"/>
-        <v>3.5884531838293499</v>
-      </c>
-      <c r="H134">
+        <v>4.5768386630868934</v>
+      </c>
+      <c r="I150">
         <f t="shared" si="45"/>
-        <v>1.7467012029371929</v>
-      </c>
-      <c r="I134">
+        <v>4.9111295721873862</v>
+      </c>
+      <c r="J150">
         <f t="shared" si="45"/>
-        <v>0.24808929563094173</v>
-      </c>
-      <c r="J134">
+        <v>-0.7853895250504721</v>
+      </c>
+      <c r="K150">
         <f t="shared" si="45"/>
-        <v>1.8309013101759446</v>
-      </c>
-      <c r="K134">
-        <f t="shared" si="45"/>
-        <v>0.94558147815060056</v>
-      </c>
-    </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B135">
-        <f t="shared" ref="B135:K135" si="46">((24-10)/(10-1))*ABS(B124-1)</f>
-        <v>2.4033189703602109</v>
-      </c>
-      <c r="C135">
+        <v>3.6829113207733482</v>
+      </c>
+    </row>
+    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <f t="shared" ref="B151:K151" si="46">(B140*(24-10))/((1-B140^2)^(1/2))</f>
+        <v>8.6197386520552328</v>
+      </c>
+      <c r="C151">
         <f t="shared" si="46"/>
-        <v>167.84599620670187</v>
-      </c>
-      <c r="D135">
+        <v>-4.9174636682151114E-2</v>
+      </c>
+      <c r="D151">
         <f t="shared" si="46"/>
-        <v>5.027528668206604</v>
-      </c>
-      <c r="E135">
+        <v>-3.6632624523689841</v>
+      </c>
+      <c r="E151" t="e">
         <f t="shared" si="46"/>
-        <v>0.26682826882433303</v>
-      </c>
-      <c r="F135">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F151">
         <f t="shared" si="46"/>
-        <v>166.30634577316167</v>
-      </c>
-      <c r="G135">
+        <v>1.1811441728748628</v>
+      </c>
+      <c r="G151">
         <f t="shared" si="46"/>
-        <v>10.149152732186387</v>
-      </c>
-      <c r="H135">
+        <v>-4.8844101323570568</v>
+      </c>
+      <c r="H151">
         <f t="shared" si="46"/>
-        <v>0.31421305900146668</v>
-      </c>
-      <c r="I135">
+        <v>-2.7000680209816457</v>
+      </c>
+      <c r="I151">
         <f t="shared" si="46"/>
-        <v>12.895014455493227</v>
-      </c>
-      <c r="J135">
+        <v>4.1418240969654407</v>
+      </c>
+      <c r="J151">
         <f t="shared" si="46"/>
-        <v>0.8533477890070148</v>
-      </c>
-      <c r="K135">
+        <v>-2.6131592239636388</v>
+      </c>
+      <c r="K151">
         <f t="shared" si="46"/>
-        <v>1.3636223182460172</v>
-      </c>
-    </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B136">
-        <f t="shared" ref="B136:K136" si="47">((24-10)/(10-1))*ABS(B125-1)</f>
-        <v>2.8846999657612105</v>
-      </c>
-      <c r="C136">
+        <v>7.3875436187639236</v>
+      </c>
+    </row>
+    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <f t="shared" ref="B152:K152" si="47">(B141*(24-10))/((1-B141^2)^(1/2))</f>
+        <v>-0.71208036473993619</v>
+      </c>
+      <c r="C152">
         <f t="shared" si="47"/>
-        <v>10.246519719783588</v>
-      </c>
-      <c r="D136">
+        <v>-56.804440321514427</v>
+      </c>
+      <c r="D152">
         <f t="shared" si="47"/>
-        <v>6.8418223723068818</v>
-      </c>
-      <c r="E136">
+        <v>-1.1598565171027801</v>
+      </c>
+      <c r="E152">
         <f t="shared" si="47"/>
-        <v>3.5884531838293432</v>
-      </c>
-      <c r="F136">
+        <v>1.1811441728749026</v>
+      </c>
+      <c r="F152" t="e">
         <f t="shared" si="47"/>
-        <v>10.149152732186266</v>
-      </c>
-      <c r="G136">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G152">
         <f t="shared" si="47"/>
-        <v>25.649368897889275</v>
-      </c>
-      <c r="H136">
+        <v>2.4620843979648859</v>
+      </c>
+      <c r="H152">
         <f t="shared" si="47"/>
-        <v>1.5044963401058373</v>
-      </c>
-      <c r="I136">
+        <v>1.5823484166934179</v>
+      </c>
+      <c r="I152">
         <f t="shared" si="47"/>
-        <v>28.750469912698968</v>
-      </c>
-      <c r="J136">
+        <v>-2.3111394826084775</v>
+      </c>
+      <c r="J152">
         <f t="shared" si="47"/>
-        <v>0.27637287398768023</v>
-      </c>
-      <c r="K136">
+        <v>2.0747309582474287</v>
+      </c>
+      <c r="K152">
         <f t="shared" si="47"/>
-        <v>3.0955255184038513</v>
-      </c>
-    </row>
-    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B137">
-        <f t="shared" ref="B137:K137" si="48">((24-10)/(10-1))*ABS(B126-1)</f>
-        <v>1.6905957033468708</v>
-      </c>
-      <c r="C137">
+        <v>0.1877632334196141</v>
+      </c>
+    </row>
+    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <f t="shared" ref="B153:K153" si="48">(B142*(24-10))/((1-B142^2)^(1/2))</f>
+        <v>-2.825445112035585</v>
+      </c>
+      <c r="C153">
         <f t="shared" si="48"/>
-        <v>3.7130798212698357</v>
-      </c>
-      <c r="D137">
+        <v>-1.7789101732558068</v>
+      </c>
+      <c r="D153">
         <f t="shared" si="48"/>
-        <v>0.69516510708920853</v>
-      </c>
-      <c r="E137">
+        <v>-4.6017375519141366</v>
+      </c>
+      <c r="E153">
         <f t="shared" si="48"/>
-        <v>1.7467012029371924</v>
-      </c>
-      <c r="F137">
+        <v>-4.8844101323570364</v>
+      </c>
+      <c r="F153">
         <f t="shared" si="48"/>
-        <v>0.31421305900141122</v>
-      </c>
-      <c r="G137">
+        <v>2.4620843979648597</v>
+      </c>
+      <c r="G153" t="e">
         <f t="shared" si="48"/>
-        <v>1.5044963401058289</v>
-      </c>
-      <c r="H137">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H153">
         <f t="shared" si="48"/>
-        <v>0.82778285922045491</v>
-      </c>
-      <c r="I137">
+        <v>0.16066050460423215</v>
+      </c>
+      <c r="I153">
         <f t="shared" si="48"/>
-        <v>1.4617666618843768</v>
-      </c>
-      <c r="J137">
+        <v>-56.158013421500833</v>
+      </c>
+      <c r="J153">
         <f t="shared" si="48"/>
-        <v>1.6213496913970857</v>
-      </c>
-      <c r="K137">
+        <v>2.7592111884441359</v>
+      </c>
+      <c r="K153">
         <f t="shared" si="48"/>
-        <v>1.5726919842470997</v>
-      </c>
-    </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B138">
-        <f t="shared" ref="B138:K138" si="49">((24-10)/(10-1))*ABS(B127-1)</f>
-        <v>0.88126349936911497</v>
-      </c>
-      <c r="C138">
+        <v>-3.8831117682533418</v>
+      </c>
+    </row>
+    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <f t="shared" ref="B154:K154" si="49">(B143*(24-10))/((1-B143^2)^(1/2))</f>
+        <v>-1.733558884335219</v>
+      </c>
+      <c r="C154">
         <f t="shared" si="49"/>
-        <v>6.5535674710232872</v>
-      </c>
-      <c r="D138">
+        <v>-2.7288970971873998</v>
+      </c>
+      <c r="D154">
         <f t="shared" si="49"/>
-        <v>4.2176686135589767</v>
-      </c>
-      <c r="E138">
+        <v>4.5768386630868623</v>
+      </c>
+      <c r="E154">
         <f t="shared" si="49"/>
-        <v>0.2480892956309324</v>
-      </c>
-      <c r="F138">
+        <v>-2.7000680209816394</v>
+      </c>
+      <c r="F154">
         <f t="shared" si="49"/>
-        <v>12.895014455493133</v>
-      </c>
-      <c r="G138">
+        <v>1.5823484166934894</v>
+      </c>
+      <c r="G154">
         <f t="shared" si="49"/>
-        <v>28.750469912698964</v>
-      </c>
-      <c r="H138">
+        <v>0.16066050460425937</v>
+      </c>
+      <c r="H154" t="e">
         <f t="shared" si="49"/>
-        <v>1.4617666618843681</v>
-      </c>
-      <c r="I138">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I154">
         <f t="shared" si="49"/>
-        <v>27.318861216664345</v>
-      </c>
-      <c r="J138">
+        <v>0.286494226830387</v>
+      </c>
+      <c r="J154">
         <f t="shared" si="49"/>
-        <v>3.8960609236883306</v>
-      </c>
-      <c r="K138">
+        <v>-0.85289365583671295</v>
+      </c>
+      <c r="K154">
         <f t="shared" si="49"/>
-        <v>1.0745827545810894E-2</v>
-      </c>
-    </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B139">
-        <f t="shared" ref="B139:K139" si="50">((24-10)/(10-1))*ABS(B128-1)</f>
-        <v>1.6084287481831512</v>
-      </c>
-      <c r="C139">
+        <v>-0.25461948400875128</v>
+      </c>
+    </row>
+    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <f t="shared" ref="B155:K155" si="50">(B144*(24-10))/((1-B144^2)^(1/2))</f>
+        <v>1.3703495595392985</v>
+      </c>
+      <c r="C155">
         <f t="shared" si="50"/>
-        <v>4.4009070593333721</v>
-      </c>
-      <c r="D139">
+        <v>1.6087842931029159</v>
+      </c>
+      <c r="D155">
         <f t="shared" si="50"/>
-        <v>1.786129913457813</v>
-      </c>
-      <c r="E139">
+        <v>4.9111295721874191</v>
+      </c>
+      <c r="E155">
         <f t="shared" si="50"/>
-        <v>1.8309013101759433</v>
-      </c>
-      <c r="F139">
+        <v>4.1418240969654168</v>
+      </c>
+      <c r="F155">
         <f t="shared" si="50"/>
-        <v>0.8533477890070339</v>
-      </c>
-      <c r="G139">
+        <v>-2.3111394826084584</v>
+      </c>
+      <c r="G155">
         <f t="shared" si="50"/>
-        <v>0.27637287398768196</v>
-      </c>
-      <c r="H139">
+        <v>-56.158013421500605</v>
+      </c>
+      <c r="H155">
         <f t="shared" si="50"/>
-        <v>1.6213496913970864</v>
-      </c>
-      <c r="I139">
+        <v>0.28649422683041303</v>
+      </c>
+      <c r="I155" t="e">
         <f t="shared" si="50"/>
-        <v>3.8960609236883292</v>
-      </c>
-      <c r="J139">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J155">
         <f t="shared" si="50"/>
-        <v>5.3065545597916715E-2</v>
-      </c>
-      <c r="K139">
+        <v>-5.1192287052885357</v>
+      </c>
+      <c r="K155">
         <f t="shared" si="50"/>
-        <v>1.7761125702558496</v>
-      </c>
-    </row>
-    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B140">
-        <f t="shared" ref="B140:K140" si="51">((24-10)/(10-1))*ABS(B129-1)</f>
-        <v>0.7783180947919951</v>
-      </c>
-      <c r="C140">
+        <v>3.8299005279951954</v>
+      </c>
+    </row>
+    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <f t="shared" ref="B156:K156" si="51">(B145*(24-10))/((1-B145^2)^(1/2))</f>
+        <v>-0.45332072449306965</v>
+      </c>
+      <c r="C156">
         <f t="shared" si="51"/>
-        <v>2.3599115879982349</v>
-      </c>
-      <c r="D140">
+        <v>-2.4109437047279325</v>
+      </c>
+      <c r="D156">
         <f t="shared" si="51"/>
-        <v>0.64339114787959051</v>
-      </c>
-      <c r="E140">
+        <v>-0.78538952505049753</v>
+      </c>
+      <c r="E156">
         <f t="shared" si="51"/>
-        <v>0.9455814781505999</v>
-      </c>
-      <c r="F140">
+        <v>-2.6131592239636245</v>
+      </c>
+      <c r="F156">
         <f t="shared" si="51"/>
-        <v>1.3636223182459806</v>
-      </c>
-      <c r="G140">
+        <v>2.0747309582474451</v>
+      </c>
+      <c r="G156">
         <f t="shared" si="51"/>
-        <v>3.0955255184038508</v>
-      </c>
-      <c r="H140">
+        <v>2.7592111884441324</v>
+      </c>
+      <c r="H156">
         <f t="shared" si="51"/>
-        <v>1.5726919842470994</v>
-      </c>
-      <c r="I140">
+        <v>-0.85289365583672416</v>
+      </c>
+      <c r="I156">
         <f t="shared" si="51"/>
-        <v>1.0745827545811239E-2</v>
-      </c>
-      <c r="J140">
+        <v>-5.1192287052885295</v>
+      </c>
+      <c r="J156" t="e">
         <f t="shared" si="51"/>
-        <v>1.7761125702558496</v>
-      </c>
-      <c r="K140">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K156">
         <f t="shared" si="51"/>
-        <v>0.33527045089249979</v>
+        <v>-2.2317235566407692</v>
+      </c>
+    </row>
+    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <f t="shared" ref="B157:K157" si="52">(B146*(24-10))/((1-B146^2)^(1/2))</f>
+        <v>9.1292007690942061</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="52"/>
+        <v>-0.77234155995795573</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="52"/>
+        <v>3.6829113207733424</v>
+      </c>
+      <c r="E157">
+        <f t="shared" si="52"/>
+        <v>7.3875436187639325</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="52"/>
+        <v>0.18776323341965012</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="52"/>
+        <v>-3.8831117682533418</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="52"/>
+        <v>-0.25461948400874573</v>
+      </c>
+      <c r="I157">
+        <f t="shared" si="52"/>
+        <v>3.8299005279951963</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="52"/>
+        <v>-2.2317235566407692</v>
+      </c>
+      <c r="K157" t="e">
+        <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/lab1var3.xlsx
+++ b/lab1var3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Code\Python\Labs\IAD\IAD_Lab_1\IAD_Lab_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Code\Python\Labs\IAD_Lab_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CC2A1B-793A-461A-88DA-BC11549DDAF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D62125-7A5F-47D0-839A-ED6A495B6097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="3750" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lab1var3 new" sheetId="3" r:id="rId1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="63">
   <si>
     <t>i</t>
   </si>
@@ -306,6 +306,12 @@
   </si>
   <si>
     <t>Р</t>
+  </si>
+  <si>
+    <t>Стьюдента</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сравнение t с табличным Стьюдента </t>
   </si>
 </sst>
 </file>
@@ -840,48 +846,48 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1215,9 +1221,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1255,7 +1261,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1361,7 +1367,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1511,10 +1517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C984D81A-4112-41FE-B9A3-C3F29516A0D2}">
-  <dimension ref="A1:BQ157"/>
+  <dimension ref="A1:BQ168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B119" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B150" sqref="B150"/>
+    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M168" sqref="M168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12127,10 +12133,10 @@
       </c>
       <c r="P109">
         <f>_xlfn.CHISQ.INV.RT(R109,O109)</f>
-        <v>61.656233376279566</v>
+        <v>30.612259145595473</v>
       </c>
       <c r="R109">
-        <v>0.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.25">
@@ -12795,7 +12801,7 @@
       </c>
       <c r="N131">
         <f>FINV(R109,24-10,10-1)</f>
-        <v>3.0254727242822126</v>
+        <v>0.37795884106897304</v>
       </c>
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.25">
@@ -12825,7 +12831,7 @@
       </c>
       <c r="H134" t="str">
         <f t="shared" si="42"/>
-        <v>нет</v>
+        <v>мультиколінеарна</v>
       </c>
       <c r="I134" t="str">
         <f t="shared" si="42"/>
@@ -13181,7 +13187,7 @@
         <v>0.26386881455787098</v>
       </c>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145">
         <f>B128/(($J$128*$B$120)^(1/2))</f>
         <v>-3.2363090365915628E-2</v>
@@ -13223,7 +13229,7 @@
         <v>-0.15742124368051444</v>
       </c>
     </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146">
         <f>B129/(($K$129*$B$120)^(1/2))</f>
         <v>0.54621597877174866</v>
@@ -13265,12 +13271,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" t="e">
         <f>(B137*(24-10))/((1-B137^2)^(1/2))</f>
         <v>#DIV/0!</v>
@@ -13312,7 +13318,7 @@
         <v>9.1292007690942096</v>
       </c>
     </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149">
         <f t="shared" ref="B149:K149" si="44">(B138*(24-10))/((1-B138^2)^(1/2))</f>
         <v>1.0435251273467758</v>
@@ -13354,13 +13360,13 @@
         <v>-0.77234155995792164</v>
       </c>
     </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150">
         <f>(B139*(24-10))/((1-B139^2)^(1/2))</f>
         <v>0.40302028926548927</v>
       </c>
       <c r="C150">
-        <f t="shared" ref="B150:K150" si="45">(C139*(24-10))/((1-C139^2)^(1/2))</f>
+        <f t="shared" ref="C150:K150" si="45">(C139*(24-10))/((1-C139^2)^(1/2))</f>
         <v>-2.050338566109041</v>
       </c>
       <c r="D150" t="e">
@@ -13396,7 +13402,7 @@
         <v>3.6829113207733482</v>
       </c>
     </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151">
         <f t="shared" ref="B151:K151" si="46">(B140*(24-10))/((1-B140^2)^(1/2))</f>
         <v>8.6197386520552328</v>
@@ -13438,7 +13444,7 @@
         <v>7.3875436187639236</v>
       </c>
     </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152">
         <f t="shared" ref="B152:K152" si="47">(B141*(24-10))/((1-B141^2)^(1/2))</f>
         <v>-0.71208036473993619</v>
@@ -13480,7 +13486,7 @@
         <v>0.1877632334196141</v>
       </c>
     </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153">
         <f t="shared" ref="B153:K153" si="48">(B142*(24-10))/((1-B142^2)^(1/2))</f>
         <v>-2.825445112035585</v>
@@ -13522,7 +13528,7 @@
         <v>-3.8831117682533418</v>
       </c>
     </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154">
         <f t="shared" ref="B154:K154" si="49">(B143*(24-10))/((1-B143^2)^(1/2))</f>
         <v>-1.733558884335219</v>
@@ -13564,7 +13570,7 @@
         <v>-0.25461948400875128</v>
       </c>
     </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155">
         <f t="shared" ref="B155:K155" si="50">(B144*(24-10))/((1-B144^2)^(1/2))</f>
         <v>1.3703495595392985</v>
@@ -13606,7 +13612,7 @@
         <v>3.8299005279951954</v>
       </c>
     </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156">
         <f t="shared" ref="B156:K156" si="51">(B145*(24-10))/((1-B145^2)^(1/2))</f>
         <v>-0.45332072449306965</v>
@@ -13648,7 +13654,7 @@
         <v>-2.2317235566407692</v>
       </c>
     </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157">
         <f t="shared" ref="B157:K157" si="52">(B146*(24-10))/((1-B146^2)^(1/2))</f>
         <v>9.1292007690942061</v>
@@ -13687,6 +13693,438 @@
       </c>
       <c r="K157" t="e">
         <f t="shared" si="52"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>62</v>
+      </c>
+      <c r="N158" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B159" t="e">
+        <f>ABS(B148)&gt;$N$159</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C159" t="b">
+        <f t="shared" ref="C159:K159" si="53">ABS(C148)&gt;$N$159</f>
+        <v>0</v>
+      </c>
+      <c r="D159" t="b">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="E159" t="b">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="F159" t="b">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="G159" t="b">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="H159" t="b">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="I159" t="b">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="J159" t="b">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="K159" t="b">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="N159">
+        <f>_xlfn.T.INV(R109,24-10)</f>
+        <v>1.7613101357748921</v>
+      </c>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B160" t="b">
+        <f t="shared" ref="B160:K160" si="54">ABS(B149)&gt;$N$159</f>
+        <v>0</v>
+      </c>
+      <c r="C160" t="e">
+        <f t="shared" si="54"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D160" t="b">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="E160" t="b">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="F160" t="b">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="G160" t="b">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="H160" t="b">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="b">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="J160" t="b">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="K160" t="b">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B161" t="b">
+        <f t="shared" ref="B161:K161" si="55">ABS(B150)&gt;$N$159</f>
+        <v>0</v>
+      </c>
+      <c r="C161" t="b">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="D161" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E161" t="b">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="F161" t="b">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="G161" t="b">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="H161" t="b">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="b">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="J161" t="b">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="K161" t="b">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B162" t="b">
+        <f t="shared" ref="B162:K162" si="56">ABS(B151)&gt;$N$159</f>
+        <v>1</v>
+      </c>
+      <c r="C162" t="b">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="D162" t="b">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="E162" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F162" t="b">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="G162" t="b">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="H162" t="b">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="b">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="J162" t="b">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="K162" t="b">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B163" t="b">
+        <f t="shared" ref="B163:K163" si="57">ABS(B152)&gt;$N$159</f>
+        <v>0</v>
+      </c>
+      <c r="C163" t="b">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="D163" t="b">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="E163" t="b">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="F163" t="e">
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G163" t="b">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="H163" t="b">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="I163" t="b">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="J163" t="b">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="K163" t="b">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B164" t="b">
+        <f t="shared" ref="B164:K164" si="58">ABS(B153)&gt;$N$159</f>
+        <v>1</v>
+      </c>
+      <c r="C164" t="b">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="D164" t="b">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="E164" t="b">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="F164" t="b">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="G164" t="e">
+        <f t="shared" si="58"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H164" t="b">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="I164" t="b">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="J164" t="b">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="K164" t="b">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B165" t="b">
+        <f t="shared" ref="B165:K165" si="59">ABS(B154)&gt;$N$159</f>
+        <v>0</v>
+      </c>
+      <c r="C165" t="b">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="D165" t="b">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="E165" t="b">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="F165" t="b">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="G165" t="b">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I165" t="b">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="J165" t="b">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="K165" t="b">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B166" t="b">
+        <f t="shared" ref="B166:K166" si="60">ABS(B155)&gt;$N$159</f>
+        <v>0</v>
+      </c>
+      <c r="C166" t="b">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="D166" t="b">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+      <c r="E166" t="b">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+      <c r="F166" t="b">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+      <c r="G166" t="b">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+      <c r="H166" t="b">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="I166" t="e">
+        <f t="shared" si="60"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J166" t="b">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+      <c r="K166" t="b">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B167" t="b">
+        <f t="shared" ref="B167:K167" si="61">ABS(B156)&gt;$N$159</f>
+        <v>0</v>
+      </c>
+      <c r="C167" t="b">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="D167" t="b">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="E167" t="b">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="F167" t="b">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="G167" t="b">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="H167" t="b">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="I167" t="b">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="J167" t="e">
+        <f t="shared" si="61"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K167" t="b">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B168" t="b">
+        <f>ABS(B157)&gt;$N$159</f>
+        <v>1</v>
+      </c>
+      <c r="C168" t="b">
+        <f t="shared" ref="C168:K168" si="62">ABS(C157)&gt;$N$159</f>
+        <v>0</v>
+      </c>
+      <c r="D168" t="b">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+      <c r="E168" t="b">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+      <c r="F168" t="b">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="G168" t="b">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+      <c r="H168" t="b">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="I168" t="b">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+      <c r="J168" t="b">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+      <c r="K168" t="e">
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/lab1var3.xlsx
+++ b/lab1var3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Code\Python\Labs\IAD_Lab_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexandrPc\Downloads\Telegram Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D62125-7A5F-47D0-839A-ED6A495B6097}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02A6B40-1D27-4E02-A0C1-9C6432550E73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="lab1var3 new" sheetId="3" r:id="rId1"/>
     <sheet name="lab1var3" sheetId="1" r:id="rId2"/>
     <sheet name="lab1var3 (2)" sheetId="2" r:id="rId3"/>
+    <sheet name="Лист1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">lab1var3!$M$95:$M$104</definedName>
@@ -123,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="64">
   <si>
     <t>i</t>
   </si>
@@ -313,6 +314,9 @@
   <si>
     <t xml:space="preserve">Сравнение t с табличным Стьюдента </t>
   </si>
+  <si>
+    <t>Yad</t>
+  </si>
 </sst>
 </file>
 
@@ -481,7 +485,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -673,6 +677,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -834,7 +844,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -844,6 +854,7 @@
     <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -889,7 +900,38 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -900,6 +942,299 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Yad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$M$2:$M$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>189.67954518007502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>166.91659099857287</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>204.01072558129329</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>209.72538276987433</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>211.24225713663839</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>157.59862794504295</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>192.38858902597957</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>163.29009623560518</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>197.69209109938134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>216.88784842923286</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>207.45445463643296</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215.75337674871741</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>187.8682889422401</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>257.76166337119292</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>264.93491149045798</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>216.53768172052798</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>249.586089879513</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>264.37861034117799</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>265.90741939733999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>256.55758288857601</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>226.42621750770797</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>237.603586878773</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>264.34082461090702</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>285.06126464179397</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-12DF-42A9-83E6-F21EC49E5DD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$L$2:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>177.0341674</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>195.8805155</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>218.16813210000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>219.5204707</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>208.79284519999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>176.58737110000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>169.3675374</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>147.92148700000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>152.8273891</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>161.05290220000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>181.2174766</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>201.68546269999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>222.31938890000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>269.79247220000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>286.7926794</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>290.93056410000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>286.4174577</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>278.82347620000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>264.85923400000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>245.33112109999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>213.93272820000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>216.20373720000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>246.40275980000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>277.07370539999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-12DF-42A9-83E6-F21EC49E5DD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="186166656"/>
+        <c:axId val="139747328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="186166656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="139747328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="139747328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="186166656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1220,6 +1555,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1516,11 +1892,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C984D81A-4112-41FE-B9A3-C3F29516A0D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQ168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M168" sqref="M168"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N131" sqref="N131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12093,39 +12469,39 @@
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B109">
-        <f t="array" ref="B109:K118">(1/(10-1))*MMULT(B97:Y106,N2:W25)</f>
-        <v>2.5555555555555558</v>
+        <f t="array" ref="B109:K118">(1/(24-1))*MMULT(B97:Y106,N2:W25)</f>
+        <v>1.0000000000000002</v>
       </c>
       <c r="C109">
-        <v>-1.0275594974659228</v>
+        <v>-0.40208849900840454</v>
       </c>
       <c r="D109">
-        <v>-1.0282264271844963</v>
+        <v>-0.40234947150697681</v>
       </c>
       <c r="E109">
-        <v>-0.64964287407467713</v>
+        <v>-0.25420808115965626</v>
       </c>
       <c r="F109">
-        <v>-1.020243519852446</v>
+        <v>-0.39922572515965277</v>
       </c>
       <c r="G109">
-        <v>1.1746921162350001</v>
+        <v>0.45966213243978266</v>
       </c>
       <c r="H109">
-        <v>-3.355787938412956E-2</v>
+        <v>-1.3131344106833306E-2</v>
       </c>
       <c r="I109">
-        <v>1.2660021953260883</v>
+        <v>0.49539216338846936</v>
       </c>
       <c r="J109">
-        <v>0.2855075989338105</v>
+        <v>0.11172036480018671</v>
       </c>
       <c r="K109">
-        <v>-1.1426481034482647</v>
+        <v>-0.4471231709145384</v>
       </c>
       <c r="N109">
         <f>-(24-1-(1/6)*(2*10+5))*LN(MDETERM(B109:K118))</f>
-        <v>92.346317125945461</v>
+        <v>269.05376572761497</v>
       </c>
       <c r="O109">
         <f>10*(10-1)/2</f>
@@ -12141,290 +12517,290 @@
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B110">
-        <v>-1.0275594974659228</v>
+        <v>-0.40208849900840454</v>
       </c>
       <c r="C110">
-        <v>2.5555555555555571</v>
+        <v>1.0000000000000007</v>
       </c>
       <c r="D110">
-        <v>2.4236231456577109</v>
+        <v>0.94837427438779986</v>
       </c>
       <c r="E110">
-        <v>0.2539274516757547</v>
+        <v>9.9362915873121391E-2</v>
       </c>
       <c r="F110">
-        <v>2.5502222381142206</v>
+        <v>0.997913049696869</v>
       </c>
       <c r="G110">
-        <v>-9.4760732414911925E-2</v>
+        <v>-3.7080286597139453E-2</v>
       </c>
       <c r="H110">
-        <v>0.35898808136457666</v>
+        <v>0.14047359705570392</v>
       </c>
       <c r="I110">
-        <v>-0.23185636939285079</v>
+        <v>-9.0726405414593786E-2</v>
       </c>
       <c r="J110">
-        <v>0.8573788991690906</v>
+        <v>0.33549609097920935</v>
       </c>
       <c r="K110">
-        <v>0.33730715126461075</v>
+        <v>0.13198975484267378</v>
       </c>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B111">
-        <v>-1.0282264271844963</v>
+        <v>-0.40234947150697681</v>
       </c>
       <c r="C111">
-        <v>2.4236231456577109</v>
+        <v>0.94837427438779986</v>
       </c>
       <c r="D111">
-        <v>2.5555555555555509</v>
+        <v>0.99999999999999822</v>
       </c>
       <c r="E111">
-        <v>0.62095677847192932</v>
+        <v>0.24298308722814629</v>
       </c>
       <c r="F111">
-        <v>2.4186559795590949</v>
+        <v>0.94643060069703711</v>
       </c>
       <c r="G111">
-        <v>-5.8879795838398981E-2</v>
+        <v>-2.3039920110677865E-2</v>
       </c>
       <c r="H111">
-        <v>0.12010580913363214</v>
+        <v>4.6997925313160403E-2</v>
       </c>
       <c r="I111">
-        <v>-0.25012115321035472</v>
+        <v>-9.787349473448663E-2</v>
       </c>
       <c r="J111">
-        <v>0.79764799660654195</v>
+        <v>0.31212312910690776</v>
       </c>
       <c r="K111">
-        <v>4.39521892979911E-2</v>
+        <v>1.7198682768779127E-2</v>
       </c>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B112">
-        <v>-0.64964287407467713</v>
+        <v>-0.25420808115965626</v>
       </c>
       <c r="C112">
-        <v>0.2539274516757547</v>
+        <v>9.9362915873121391E-2</v>
       </c>
       <c r="D112">
-        <v>0.62095677847192932</v>
+        <v>0.24298308722814629</v>
       </c>
       <c r="E112">
-        <v>2.5555555555555611</v>
+        <v>1.0000000000000022</v>
       </c>
       <c r="F112">
-        <v>0.21917460343741246</v>
+        <v>8.5763975258117922E-2</v>
       </c>
       <c r="G112">
-        <v>0.50414702550845214</v>
+        <v>0.19727492302504648</v>
       </c>
       <c r="H112">
-        <v>0.151121786841351</v>
+        <v>5.9134612242267778E-2</v>
       </c>
       <c r="I112">
-        <v>0.31303857402507035</v>
+        <v>0.12249335505328841</v>
       </c>
       <c r="J112">
-        <v>0.56947786296067193</v>
+        <v>0.22283916376721943</v>
       </c>
       <c r="K112">
-        <v>-0.85543845144285735</v>
+        <v>-0.33473678534720508</v>
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B113">
-        <v>-1.020243519852446</v>
+        <v>-0.39922572515965277</v>
       </c>
       <c r="C113">
-        <v>2.5502222381142206</v>
+        <v>0.997913049696869</v>
       </c>
       <c r="D113">
-        <v>2.4186559795590949</v>
+        <v>0.94643060069703711</v>
       </c>
       <c r="E113">
-        <v>0.21917460343741246</v>
+        <v>8.5763975258117922E-2</v>
       </c>
       <c r="F113">
-        <v>2.5555555555555527</v>
+        <v>0.99999999999999889</v>
       </c>
       <c r="G113">
-        <v>-0.12456379054977941</v>
+        <v>-4.8742352823826732E-2</v>
       </c>
       <c r="H113">
-        <v>0.33405595319003917</v>
+        <v>0.13071754690045012</v>
       </c>
       <c r="I113">
-        <v>-0.25616303430655085</v>
+        <v>-0.10023770907647642</v>
       </c>
       <c r="J113">
-        <v>0.82067084854942873</v>
+        <v>0.3211320711715156</v>
       </c>
       <c r="K113">
-        <v>0.33598099618405397</v>
+        <v>0.13147082459376025</v>
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B114">
-        <v>1.1746921162350001</v>
+        <v>0.45966213243978266</v>
       </c>
       <c r="C114">
-        <v>-9.4760732414911925E-2</v>
+        <v>-3.7080286597139453E-2</v>
       </c>
       <c r="D114">
-        <v>-5.8879795838398981E-2</v>
+        <v>-2.3039920110677865E-2</v>
       </c>
       <c r="E114">
-        <v>0.50414702550845214</v>
+        <v>0.19727492302504648</v>
       </c>
       <c r="F114">
-        <v>-0.12456379054977941</v>
+        <v>-4.8742352823826732E-2</v>
       </c>
       <c r="G114">
-        <v>2.555555555555554</v>
+        <v>0.99999999999999956</v>
       </c>
       <c r="H114">
-        <v>-1.7627694815985785E-2</v>
+        <v>-6.8977936236466119E-3</v>
       </c>
       <c r="I114">
-        <v>2.5096997104060894</v>
+        <v>0.98205640841977404</v>
       </c>
       <c r="J114">
-        <v>1.658626052989187</v>
+        <v>0.6490275859522906</v>
       </c>
       <c r="K114">
-        <v>-0.69580830809454075</v>
+        <v>-0.27227281621090726</v>
       </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B115">
-        <v>-3.355787938412956E-2</v>
+        <v>-1.3131344106833306E-2</v>
       </c>
       <c r="C115">
-        <v>0.35898808136457666</v>
+        <v>0.14047359705570392</v>
       </c>
       <c r="D115">
-        <v>0.12010580913363214</v>
+        <v>4.6997925313160403E-2</v>
       </c>
       <c r="E115">
-        <v>0.151121786841351</v>
+        <v>5.9134612242267778E-2</v>
       </c>
       <c r="F115">
-        <v>0.33405595319003917</v>
+        <v>0.13071754690045012</v>
       </c>
       <c r="G115">
-        <v>-1.7627694815985785E-2</v>
+        <v>-6.8977936236466119E-3</v>
       </c>
       <c r="H115">
-        <v>2.5555555555555562</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="I115">
-        <v>-9.5694125318290801E-3</v>
+        <v>-3.7445527298461618E-3</v>
       </c>
       <c r="J115">
-        <v>0.29777213336819353</v>
+        <v>0.11651953044842354</v>
       </c>
       <c r="K115">
-        <v>0.11988583965184281</v>
+        <v>4.6911850298547185E-2</v>
       </c>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B116">
-        <v>1.2660021953260883</v>
+        <v>0.49539216338846936</v>
       </c>
       <c r="C116">
-        <v>-0.23185636939285079</v>
+        <v>-9.0726405414593786E-2</v>
       </c>
       <c r="D116">
-        <v>-0.25012115321035472</v>
+        <v>-9.787349473448663E-2</v>
       </c>
       <c r="E116">
-        <v>0.31303857402507035</v>
+        <v>0.12249335505328841</v>
       </c>
       <c r="F116">
-        <v>-0.25616303430655085</v>
+        <v>-0.10023770907647642</v>
       </c>
       <c r="G116">
-        <v>2.5096997104060894</v>
+        <v>0.98205640841977404</v>
       </c>
       <c r="H116">
-        <v>-9.5694125318290801E-3</v>
+        <v>-3.7445527298461618E-3</v>
       </c>
       <c r="I116">
-        <v>2.5555555555555562</v>
+        <v>1.0000000000000002</v>
       </c>
       <c r="J116">
-        <v>1.6587763034439766</v>
+        <v>0.64908637960851256</v>
       </c>
       <c r="K116">
-        <v>-0.70174114767657114</v>
+        <v>-0.27459436213431043</v>
       </c>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B117">
-        <v>0.2855075989338105</v>
+        <v>0.11172036480018671</v>
       </c>
       <c r="C117">
-        <v>0.8573788991690906</v>
+        <v>0.33549609097920935</v>
       </c>
       <c r="D117">
-        <v>0.79764799660654195</v>
+        <v>0.31212312910690776</v>
       </c>
       <c r="E117">
-        <v>0.56947786296067193</v>
+        <v>0.22283916376721943</v>
       </c>
       <c r="F117">
-        <v>0.82067084854942873</v>
+        <v>0.3211320711715156</v>
       </c>
       <c r="G117">
-        <v>1.658626052989187</v>
+        <v>0.6490275859522906</v>
       </c>
       <c r="H117">
-        <v>0.29777213336819353</v>
+        <v>0.11651953044842354</v>
       </c>
       <c r="I117">
-        <v>1.6587763034439766</v>
+        <v>0.64908637960851256</v>
       </c>
       <c r="J117">
-        <v>2.5555555555555354</v>
+        <v>0.99999999999999212</v>
       </c>
       <c r="K117">
-        <v>-0.19659097025359251</v>
+        <v>-7.6926901403579676E-2</v>
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B118">
-        <v>-1.1426481034482647</v>
+        <v>-0.4471231709145384</v>
       </c>
       <c r="C118">
-        <v>0.33730715126461075</v>
+        <v>0.13198975484267378</v>
       </c>
       <c r="D118">
-        <v>4.39521892979911E-2</v>
+        <v>1.7198682768779127E-2</v>
       </c>
       <c r="E118">
-        <v>-0.85543845144285735</v>
+        <v>-0.33473678534720508</v>
       </c>
       <c r="F118">
-        <v>0.33598099618405397</v>
+        <v>0.13147082459376025</v>
       </c>
       <c r="G118">
-        <v>-0.69580830809454075</v>
+        <v>-0.27227281621090726</v>
       </c>
       <c r="H118">
-        <v>0.11988583965184281</v>
+        <v>4.6911850298547185E-2</v>
       </c>
       <c r="I118">
-        <v>-0.70174114767657114</v>
+        <v>-0.27459436213431043</v>
       </c>
       <c r="J118">
-        <v>-0.19659097025359251</v>
+        <v>-7.6926901403579676E-2</v>
       </c>
       <c r="K118">
-        <v>2.5555555555555558</v>
+        <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.25">
@@ -12435,322 +12811,322 @@
     <row r="120" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B120">
         <f t="array" ref="B120:K129">MINVERSE(B109:K118)</f>
-        <v>1.0666742492795338</v>
+        <v>2.7259453037143615</v>
       </c>
       <c r="C120">
-        <v>0.81365648105979371</v>
+        <v>2.0793443404861875</v>
       </c>
       <c r="D120">
-        <v>7.733952783865583E-2</v>
+        <v>0.19764546003210848</v>
       </c>
       <c r="E120">
-        <v>0.51368221744014286</v>
+        <v>1.3127434445692507</v>
       </c>
       <c r="F120">
-        <v>-0.54499076666014956</v>
+        <v>-1.3927541814648889</v>
       </c>
       <c r="G120">
-        <v>-0.85444997798935507</v>
+        <v>-2.1835943881949729</v>
       </c>
       <c r="H120">
-        <v>-8.6811523580131028E-2</v>
+        <v>-0.22185167137144723</v>
       </c>
       <c r="I120">
-        <v>0.43347346469128933</v>
+        <v>1.1077655208776946</v>
       </c>
       <c r="J120">
-        <v>-3.3989909546311592E-2</v>
+        <v>-8.6863102173905707E-2</v>
       </c>
       <c r="K120">
-        <v>0.49965265334800318</v>
+        <v>1.2768901141115612</v>
       </c>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B121">
-        <v>0.8136564810597765</v>
+        <v>2.0793443404861902</v>
       </c>
       <c r="C121">
-        <v>112.33285771768475</v>
+        <v>287.07285861187813</v>
       </c>
       <c r="D121">
-        <v>-3.9967717059699077</v>
+        <v>-10.213972137479699</v>
       </c>
       <c r="E121">
-        <v>-3.5315984276488271E-2</v>
+        <v>-9.0251959817753941E-2</v>
       </c>
       <c r="F121">
-        <v>-106.90099756145152</v>
+        <v>-273.19143821261474</v>
       </c>
       <c r="G121">
-        <v>-5.5870483912895539</v>
+        <v>-14.278012555517543</v>
       </c>
       <c r="H121">
-        <v>-1.3869798851020048</v>
+        <v>-3.5445041508164845</v>
       </c>
       <c r="I121">
-        <v>5.2130076599436235</v>
+        <v>13.322130686522904</v>
       </c>
       <c r="J121">
-        <v>-1.8291545381428753</v>
+        <v>-4.6745060419207771</v>
       </c>
       <c r="K121">
-        <v>-0.5170860208559851</v>
+        <v>-1.3214420532987365</v>
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B122">
-        <v>7.7339527838652319E-2</v>
+        <v>0.19764546003210523</v>
       </c>
       <c r="C122">
-        <v>-3.9967717059702808</v>
+        <v>-10.213972137480134</v>
       </c>
       <c r="D122">
-        <v>6.7722537688629725</v>
+        <v>17.306870742649792</v>
       </c>
       <c r="E122">
-        <v>-0.62493314837563774</v>
+        <v>-1.5970513791821914</v>
       </c>
       <c r="F122">
-        <v>-2.2319827152752958</v>
+        <v>-5.7039558279252462</v>
       </c>
       <c r="G122">
-        <v>-3.398314382197253</v>
+        <v>-8.6845811989483437</v>
       </c>
       <c r="H122">
-        <v>0.55310814544265496</v>
+        <v>1.413498593909013</v>
       </c>
       <c r="I122">
-        <v>3.7113583944307491</v>
+        <v>9.4845825635451195</v>
       </c>
       <c r="J122">
-        <v>-0.14822637293716082</v>
+        <v>-0.37880073083939675</v>
       </c>
       <c r="K122">
-        <v>0.58639140493454989</v>
+        <v>1.4985558126105121</v>
       </c>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B123">
-        <v>0.51368221744014331</v>
+        <v>1.3127434445692507</v>
       </c>
       <c r="C123">
-        <v>-3.531598427645799E-2</v>
+        <v>-9.0251959817683289E-2</v>
       </c>
       <c r="D123">
-        <v>-0.62493314837564118</v>
+        <v>-1.5970513791821939</v>
       </c>
       <c r="E123">
-        <v>0.89994285202948299</v>
+        <v>2.2998539551864532</v>
       </c>
       <c r="F123">
-        <v>0.82846754147004387</v>
+        <v>2.1171948282012938</v>
       </c>
       <c r="G123">
-        <v>-1.3068627610331536</v>
+        <v>-3.3397603893069214</v>
       </c>
       <c r="H123">
-        <v>-0.12287934474533831</v>
+        <v>-0.31402499212697499</v>
       </c>
       <c r="I123">
-        <v>1.1594859757627483</v>
+        <v>2.9631308269491994</v>
       </c>
       <c r="J123">
-        <v>-0.17700798511310731</v>
+        <v>-0.45235373973349563</v>
       </c>
       <c r="K123">
-        <v>0.39212619261747111</v>
+        <v>1.0021002700224235</v>
       </c>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B124">
-        <v>-0.54499076666013546</v>
+        <v>-1.3927541814648816</v>
       </c>
       <c r="C124">
-        <v>-106.90099756145121</v>
+        <v>-273.19143821261412</v>
       </c>
       <c r="D124">
-        <v>-2.2319827152756737</v>
+        <v>-5.7039558279256655</v>
       </c>
       <c r="E124">
-        <v>0.82846754147007162</v>
+        <v>2.1171948282013586</v>
       </c>
       <c r="F124">
-        <v>107.91122228274679</v>
+        <v>275.77312361147989</v>
       </c>
       <c r="G124">
-        <v>7.5244553278341062</v>
+        <v>19.229163615575704</v>
       </c>
       <c r="H124">
-        <v>0.7980058906419143</v>
+        <v>2.0393483871962452</v>
       </c>
       <c r="I124">
-        <v>-7.28965214995993</v>
+        <v>-18.629111049897826</v>
       </c>
       <c r="J124">
-        <v>1.5485807215045095</v>
+        <v>3.9574840660671646</v>
       </c>
       <c r="K124">
-        <v>0.12338565255613172</v>
+        <v>0.31531888986577894</v>
       </c>
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B125">
-        <v>-0.85444997798934952</v>
+        <v>-2.1835943881949746</v>
       </c>
       <c r="C125">
-        <v>-5.5870483912894491</v>
+        <v>-14.278012555518048</v>
       </c>
       <c r="D125">
-        <v>-3.3983143821972805</v>
+        <v>-8.6845811989484645</v>
       </c>
       <c r="E125">
-        <v>-1.3068627610331489</v>
+        <v>-3.3397603893068983</v>
       </c>
       <c r="F125">
-        <v>7.524455327834028</v>
+        <v>19.229163615576333</v>
       </c>
       <c r="G125">
-        <v>17.488880005785962</v>
+        <v>44.693804459230336</v>
       </c>
       <c r="H125">
-        <v>3.2823781360533121E-2</v>
+        <v>8.3882996810264732E-2</v>
       </c>
       <c r="I125">
-        <v>-17.482444943877908</v>
+        <v>-44.677359301020871</v>
       </c>
       <c r="J125">
-        <v>0.8223317238650627</v>
+        <v>2.1015144054329244</v>
       </c>
       <c r="K125">
-        <v>-0.9899806904024756</v>
+        <v>-2.5299506532507343</v>
       </c>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B126">
-        <v>-8.6811523580131236E-2</v>
+        <v>-0.22185167137144732</v>
       </c>
       <c r="C126">
-        <v>-1.3869798851020374</v>
+        <v>-3.5445041508165085</v>
       </c>
       <c r="D126">
-        <v>0.55310814544265163</v>
+        <v>1.4134985939090079</v>
       </c>
       <c r="E126">
-        <v>-0.122879344745338</v>
+        <v>-0.31402499212697438</v>
       </c>
       <c r="F126">
-        <v>0.79800589064194993</v>
+        <v>2.039348387196275</v>
       </c>
       <c r="G126">
-        <v>3.2823781360538679E-2</v>
+        <v>8.38829968102697E-2</v>
       </c>
       <c r="H126">
-        <v>0.46785387621542179</v>
+        <v>1.1956265725505248</v>
       </c>
       <c r="I126">
-        <v>6.0292860217186384E-2</v>
+        <v>0.15408175388836226</v>
       </c>
       <c r="J126">
-        <v>-4.229623018384069E-2</v>
+        <v>-0.10809036602536909</v>
       </c>
       <c r="K126">
-        <v>-1.1016275587421178E-2</v>
+        <v>-2.8152704278963887E-2</v>
       </c>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B127">
-        <v>0.43347346469128323</v>
+        <v>1.1077655208776931</v>
       </c>
       <c r="C127">
-        <v>5.2130076599435418</v>
+        <v>13.322130686522831</v>
       </c>
       <c r="D127">
-        <v>3.7113583944307709</v>
+        <v>9.4845825635451728</v>
       </c>
       <c r="E127">
-        <v>1.1594859757627423</v>
+        <v>2.9631308269491932</v>
       </c>
       <c r="F127">
-        <v>-7.2896521499598705</v>
+        <v>-18.629111049897812</v>
       </c>
       <c r="G127">
-        <v>-17.482444943877905</v>
+        <v>-44.677359301020871</v>
       </c>
       <c r="H127">
-        <v>6.0292860217191879E-2</v>
+        <v>0.15408175388836723</v>
       </c>
       <c r="I127">
-        <v>18.56212506785565</v>
+        <v>47.436541840075115</v>
       </c>
       <c r="J127">
-        <v>-1.5046105937996412</v>
+        <v>-3.8451159619324025</v>
       </c>
       <c r="K127">
-        <v>1.0069080319937356</v>
+        <v>2.5732094150950666</v>
       </c>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B128">
-        <v>-3.3989909546311363E-2</v>
+        <v>-8.6863102173905693E-2</v>
       </c>
       <c r="C128">
-        <v>-1.8291545381428822</v>
+        <v>-4.6745060419208393</v>
       </c>
       <c r="D128">
-        <v>-0.14822637293716559</v>
+        <v>-0.37880073083941279</v>
       </c>
       <c r="E128">
-        <v>-0.17700798511310636</v>
+        <v>-0.45235373973349241</v>
       </c>
       <c r="F128">
-        <v>1.5485807215045218</v>
+        <v>3.9574840660672428</v>
       </c>
       <c r="G128">
-        <v>0.82233172386506159</v>
+        <v>2.101514405432924</v>
       </c>
       <c r="H128">
-        <v>-4.2296230183841238E-2</v>
+        <v>-0.10809036602536952</v>
       </c>
       <c r="I128">
-        <v>-1.5046105937996399</v>
+        <v>-3.845115961932402</v>
       </c>
       <c r="J128">
-        <v>1.0341135650272322</v>
+        <v>2.6427346661807047</v>
       </c>
       <c r="K128">
-        <v>-0.14178665230733195</v>
+        <v>-0.36234366700762405</v>
       </c>
     </row>
     <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129">
-        <v>0.49965265334800313</v>
+        <v>1.2768901141115598</v>
       </c>
       <c r="C129">
-        <v>-0.51708602085600786</v>
+        <v>-1.3214420532987945</v>
       </c>
       <c r="D129">
-        <v>0.586391404934549</v>
+        <v>1.4985558126105096</v>
       </c>
       <c r="E129">
-        <v>0.39212619261747156</v>
+        <v>1.002100270022424</v>
       </c>
       <c r="F129">
-        <v>0.12338565255615538</v>
+        <v>0.31531888986583861</v>
       </c>
       <c r="G129">
-        <v>-0.98998069040247549</v>
+        <v>-2.5299506532507281</v>
       </c>
       <c r="H129">
-        <v>-1.1016275587420937E-2</v>
+        <v>-2.8152704278963533E-2</v>
       </c>
       <c r="I129">
-        <v>1.0069080319937358</v>
+        <v>2.5732094150950608</v>
       </c>
       <c r="J129">
-        <v>-0.14178665230733195</v>
+        <v>-0.36234366700762327</v>
       </c>
       <c r="K129">
-        <v>0.78446899585482155</v>
+        <v>2.0047541005178751</v>
       </c>
     </row>
     <row r="130" spans="2:14" x14ac:dyDescent="0.25">
@@ -12761,47 +13137,47 @@
     <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131">
         <f>((24-10)/(10-1))*ABS(B120-1)</f>
-        <v>0.10371549887927481</v>
+        <v>2.6848038057778956</v>
       </c>
       <c r="C131">
         <f>((24-10)/(10-1))*ABS(C121-1)</f>
-        <v>173.18444533862072</v>
+        <v>445.00222450736601</v>
       </c>
       <c r="D131">
         <f>((24-10)/(10-1))*ABS(D122-1)</f>
-        <v>8.9790614182312911</v>
+        <v>25.366243377455234</v>
       </c>
       <c r="E131">
         <f>((24-10)/(10-1))*ABS(E123-1)</f>
-        <v>0.15564445239858202</v>
+        <v>2.0219950414011496</v>
       </c>
       <c r="F131">
         <f>((24-10)/(10-1))*ABS(F124-1)</f>
-        <v>166.30634577316167</v>
+        <v>427.42485895119097</v>
       </c>
       <c r="G131">
         <f>((24-10)/(10-1))*ABS(G125-1)</f>
-        <v>25.649368897889275</v>
+        <v>67.96814026991386</v>
       </c>
       <c r="H131">
         <f>((24-10)/(10-1))*ABS(H126-1)</f>
-        <v>0.82778285922045491</v>
+        <v>0.3043080017452609</v>
       </c>
       <c r="I131">
         <f>((24-10)/(10-1))*ABS(I127-1)</f>
-        <v>27.318861216664345</v>
+        <v>72.234620640116844</v>
       </c>
       <c r="J131">
         <f>((24-10)/(10-1))*ABS(J128-1)</f>
-        <v>5.3065545597916715E-2</v>
+        <v>2.5553650362810965</v>
       </c>
       <c r="K131">
         <f>((24-10)/(10-1))*ABS(K129-1)</f>
-        <v>0.33527045089249979</v>
+        <v>1.5629508230278057</v>
       </c>
       <c r="N131">
-        <f>FINV(R109,24-10,10-1)</f>
-        <v>0.37795884106897304</v>
+        <f>FINV(0.05,24-10,10-1)</f>
+        <v>3.0254727242822126</v>
       </c>
     </row>
     <row r="134" spans="2:14" x14ac:dyDescent="0.25">
@@ -12831,7 +13207,7 @@
       </c>
       <c r="H134" t="str">
         <f t="shared" si="42"/>
-        <v>мультиколінеарна</v>
+        <v>нет</v>
       </c>
       <c r="I134" t="str">
         <f t="shared" si="42"/>
@@ -12857,46 +13233,46 @@
         <v>1</v>
       </c>
       <c r="C137">
-        <f>C120/(($C$121*$B$120)^(1/2))</f>
-        <v>7.4331308664947845E-2</v>
+        <f>-C120/(($C$121*$B$120)^(1/2))</f>
+        <v>-7.4331308664947388E-2</v>
       </c>
       <c r="D137">
         <f>D120/(($D$122*$B$120)^(1/2))</f>
-        <v>2.8775242954907982E-2</v>
+        <v>2.8775242954906272E-2</v>
       </c>
       <c r="E137">
         <f>E120/(($E$123*$B$120)^(1/2))</f>
-        <v>0.5242895001980159</v>
+        <v>0.52428950019801512</v>
       </c>
       <c r="F137">
         <f>F120/(($F$124*$B$120)^(1/2))</f>
-        <v>-5.0797218599854033E-2</v>
+        <v>-5.0797218599854865E-2</v>
       </c>
       <c r="G137">
         <f>G120/(($G$125*$B$120)^(1/2))</f>
-        <v>-0.19782890106287795</v>
+        <v>-0.19782890106287493</v>
       </c>
       <c r="H137">
         <f>H120/(($H$126*$B$120)^(1/2))</f>
-        <v>-0.12288711738532157</v>
+        <v>-0.12288711738532219</v>
       </c>
       <c r="I137">
         <f>I120/(($I$127*$B$120)^(1/2))</f>
-        <v>9.7416554342894174E-2</v>
+        <v>9.7416554342890732E-2</v>
       </c>
       <c r="J137">
         <f>J120/(($J$128*$B$120)^(1/2))</f>
-        <v>-3.2363090365915843E-2</v>
+        <v>-3.2363090365915226E-2</v>
       </c>
       <c r="K137">
         <f>K120/(($K$129*$B$120)^(1/2))</f>
-        <v>0.54621597877174877</v>
+        <v>0.54621597877174832</v>
       </c>
     </row>
     <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138">
         <f>B121/(($C$121*$B$120)^(1/2))</f>
-        <v>7.4331308664946277E-2</v>
+        <v>7.4331308664947471E-2</v>
       </c>
       <c r="C138">
         <f>C121/(($C$121*$C$121)^(1/2))</f>
@@ -12904,45 +13280,45 @@
       </c>
       <c r="D138">
         <f>D121/(($D$122*$C$121)^(1/2))</f>
-        <v>-0.14490698712245492</v>
+        <v>-0.14490698712246552</v>
       </c>
       <c r="E138">
         <f>E121/(($E$123*$C$121)^(1/2))</f>
-        <v>-3.5124523814000557E-3</v>
+        <v>-3.5124523814023547E-3</v>
       </c>
       <c r="F138">
         <f>F121/(($F$124*$C$121)^(1/2))</f>
-        <v>-0.97094593618435754</v>
+        <v>-0.97094593618435909</v>
       </c>
       <c r="G138">
         <f>G121/(($G$125*$C$121)^(1/2))</f>
-        <v>-0.12605150353121444</v>
+        <v>-0.12605150353120953</v>
       </c>
       <c r="H138">
         <f>H121/(($H$126*$C$121)^(1/2))</f>
-        <v>-0.19132055983324614</v>
+        <v>-0.19132055983325372</v>
       </c>
       <c r="I138">
         <f>I121/(($I$127*$C$121)^(1/2))</f>
-        <v>0.1141618800183283</v>
+        <v>0.11416188001832808</v>
       </c>
       <c r="J138">
         <f>J121/(($J$128*$C$121)^(1/2))</f>
-        <v>-0.16971212745887668</v>
+        <v>-0.16971212745887509</v>
       </c>
       <c r="K138">
         <f>K121/(($K$129*$C$121)^(1/2))</f>
-        <v>-5.5083496690315419E-2</v>
+        <v>-5.5083496690318312E-2</v>
       </c>
     </row>
     <row r="139" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B139">
         <f>B122/(($D$122*$B$120)^(1/2))</f>
-        <v>2.8775242954906678E-2</v>
+        <v>2.87752429549058E-2</v>
       </c>
       <c r="C139">
         <f>C122/(($D$122*$C$121)^(1/2))</f>
-        <v>-0.14490698712246844</v>
+        <v>-0.14490698712247171</v>
       </c>
       <c r="D139">
         <f>D122/(($D$122*$D$122)^(1/2))</f>
@@ -12950,45 +13326,45 @@
       </c>
       <c r="E139">
         <f>E122/(($E$123*$D$122)^(1/2))</f>
-        <v>-0.25313924699853418</v>
+        <v>-0.25313924699853552</v>
       </c>
       <c r="F139">
         <f>F122/(($F$124*$D$122)^(1/2))</f>
-        <v>-8.2564035027354876E-2</v>
+        <v>-8.256403502734519E-2</v>
       </c>
       <c r="G139">
         <f>G122/(($G$125*$D$122)^(1/2))</f>
-        <v>-0.31225970330462516</v>
+        <v>-0.31225970330462011</v>
       </c>
       <c r="H139">
         <f>H122/(($H$126*$D$122)^(1/2))</f>
-        <v>0.31073367860940337</v>
+        <v>0.31073367860940454</v>
       </c>
       <c r="I139">
         <f>I122/(($I$127*$D$122)^(1/2))</f>
-        <v>0.33101862915586189</v>
+        <v>0.33101862915585917</v>
       </c>
       <c r="J139">
         <f>J122/(($J$128*$D$122)^(1/2))</f>
-        <v>-5.6011183897074379E-2</v>
+        <v>-5.6011183897072318E-2</v>
       </c>
       <c r="K139">
         <f>K122/(($K$129*$D$122)^(1/2))</f>
-        <v>0.25440936399801994</v>
+        <v>0.25440936399801956</v>
       </c>
     </row>
     <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140">
         <f>B123/(($E$123*$B$120)^(1/2))</f>
-        <v>0.52428950019801634</v>
+        <v>0.52428950019801512</v>
       </c>
       <c r="C140">
         <f>C123/(($E$123*$C$121)^(1/2))</f>
-        <v>-3.5124523813970438E-3</v>
+        <v>-3.5124523813996051E-3</v>
       </c>
       <c r="D140">
         <f>D123/(($E$123*$D$122)^(1/2))</f>
-        <v>-0.25313924699853557</v>
+        <v>-0.25313924699853591</v>
       </c>
       <c r="E140">
         <f>E123/(($E$123*$E$123)^(1/2))</f>
@@ -12996,45 +13372,45 @@
       </c>
       <c r="F140">
         <f>F123/(($F$124*$E$123)^(1/2))</f>
-        <v>8.4068776336803139E-2</v>
+        <v>8.4068776336803583E-2</v>
       </c>
       <c r="G140">
         <f>G123/(($G$125*$E$123)^(1/2))</f>
-        <v>-0.32941359451395613</v>
+        <v>-0.32941359451395541</v>
       </c>
       <c r="H140">
         <f>H123/(($H$126*$E$123)^(1/2))</f>
-        <v>-0.18937223503508316</v>
+        <v>-0.18937223503508271</v>
       </c>
       <c r="I140">
         <f>I123/(($I$127*$E$123)^(1/2))</f>
-        <v>0.28369010427596791</v>
+        <v>0.28369010427596497</v>
       </c>
       <c r="J140">
         <f>J123/(($J$128*$E$123)^(1/2))</f>
-        <v>-0.18348529948388964</v>
+        <v>-0.18348529948388942</v>
       </c>
       <c r="K140">
         <f>K123/(($K$129*$E$123)^(1/2))</f>
-        <v>0.46669214873741738</v>
+        <v>0.46669214873741671</v>
       </c>
     </row>
     <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141">
         <f>B124/(($F$124*$B$120)^(1/2))</f>
-        <v>-5.0797218599852721E-2</v>
+        <v>-5.0797218599854602E-2</v>
       </c>
       <c r="C141">
         <f>C124/(($F$124*$C$121)^(1/2))</f>
-        <v>-0.97094593618435465</v>
+        <v>-0.97094593618435687</v>
       </c>
       <c r="D141">
         <f>D124/(($F$124*$D$122)^(1/2))</f>
-        <v>-8.2564035027368865E-2</v>
+        <v>-8.2564035027351254E-2</v>
       </c>
       <c r="E141">
         <f>E124/(($F$124*$E$123)^(1/2))</f>
-        <v>8.4068776336805956E-2</v>
+        <v>8.406877633680615E-2</v>
       </c>
       <c r="F141">
         <f>F124/(($F$124*$F$124)^(1/2))</f>
@@ -13042,45 +13418,45 @@
       </c>
       <c r="G141">
         <f>G124/(($G$125*$F$124)^(1/2))</f>
-        <v>0.17320513497720316</v>
+        <v>0.17320513497719595</v>
       </c>
       <c r="H141">
         <f>H124/(($H$126*$F$124)^(1/2))</f>
-        <v>0.11230980555521834</v>
+        <v>0.11230980555522832</v>
       </c>
       <c r="I141">
         <f>I124/(($I$127*$F$124)^(1/2))</f>
-        <v>-0.16287695887284651</v>
+        <v>-0.16287695887284456</v>
       </c>
       <c r="J141">
         <f>J124/(($J$128*$F$124)^(1/2))</f>
-        <v>0.14659407754261736</v>
+        <v>0.14659407754261625</v>
       </c>
       <c r="K141">
         <f>K124/(($K$129*$F$124)^(1/2))</f>
-        <v>1.3410453497558065E-2</v>
+        <v>1.341045349756232E-2</v>
       </c>
     </row>
     <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142">
         <f>B125/(($G$125*$B$120)^(1/2))</f>
-        <v>-0.19782890106287668</v>
+        <v>-0.1978289010628751</v>
       </c>
       <c r="C142">
         <f>C125/(($G$125*$C$121)^(1/2))</f>
-        <v>-0.12605150353121208</v>
+        <v>-0.12605150353121397</v>
       </c>
       <c r="D142">
         <f>D125/(($G$125*$D$122)^(1/2))</f>
-        <v>-0.31225970330462771</v>
+        <v>-0.31225970330462444</v>
       </c>
       <c r="E142">
         <f>E125/(($G$125*$E$123)^(1/2))</f>
-        <v>-0.32941359451395497</v>
+        <v>-0.32941359451395313</v>
       </c>
       <c r="F142">
         <f>F125/(($G$125*$F$124)^(1/2))</f>
-        <v>0.17320513497720136</v>
+        <v>0.17320513497720161</v>
       </c>
       <c r="G142">
         <f>G125/(($G$125*$G$125)^(1/2))</f>
@@ -13088,45 +13464,45 @@
       </c>
       <c r="H142">
         <f>H125/(($H$126*$G$125)^(1/2))</f>
-        <v>1.1474994766391373E-2</v>
+        <v>1.1474994766393255E-2</v>
       </c>
       <c r="I142">
         <f>I125/(($I$127*$G$125)^(1/2))</f>
-        <v>-0.97030288564938283</v>
+        <v>-0.97030288564938239</v>
       </c>
       <c r="J142">
         <f>J125/(($J$128*$G$125)^(1/2))</f>
-        <v>0.19336680803345796</v>
+        <v>0.19336680803345768</v>
       </c>
       <c r="K142">
         <f>K125/(($K$129*$G$125)^(1/2))</f>
-        <v>-0.26727468896693285</v>
+        <v>-0.26727468896693052</v>
       </c>
     </row>
     <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143">
         <f>B126/(($H$126*$B$120)^(1/2))</f>
-        <v>-0.12288711738532186</v>
+        <v>-0.12288711738532224</v>
       </c>
       <c r="C143">
         <f>C126/(($H$126*$C$121)^(1/2))</f>
-        <v>-0.19132055983325064</v>
+        <v>-0.19132055983325502</v>
       </c>
       <c r="D143">
         <f>D126/(($H$126*$D$122)^(1/2))</f>
-        <v>0.31073367860940149</v>
+        <v>0.31073367860940343</v>
       </c>
       <c r="E143">
         <f>E126/(($H$126*$E$123)^(1/2))</f>
-        <v>-0.18937223503508271</v>
+        <v>-0.18937223503508235</v>
       </c>
       <c r="F143">
         <f>F126/(($H$126*$F$124)^(1/2))</f>
-        <v>0.11230980555522335</v>
+        <v>0.11230980555522997</v>
       </c>
       <c r="G143">
         <f>G126/(($H$126*$G$125)^(1/2))</f>
-        <v>1.1474994766393316E-2</v>
+        <v>1.1474994766393935E-2</v>
       </c>
       <c r="H143">
         <f>H126/(($H$126*$H$126)^(1/2))</f>
@@ -13134,45 +13510,45 @@
       </c>
       <c r="I143">
         <f>I126/(($I$127*$H$126)^(1/2))</f>
-        <v>2.0459589861057795E-2</v>
+        <v>2.0459589861057476E-2</v>
       </c>
       <c r="J143">
         <f>J126/(($J$128*$H$126)^(1/2))</f>
-        <v>-6.0808239128740976E-2</v>
+        <v>-6.0808239128740033E-2</v>
       </c>
       <c r="K143">
         <f>K126/(($K$129*$H$126)^(1/2))</f>
-        <v>-1.8184098864584018E-2</v>
+        <v>-1.818409886458314E-2</v>
       </c>
     </row>
     <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144">
         <f>B127/(($I$127*$B$120)^(1/2))</f>
-        <v>9.74165543428928E-2</v>
+        <v>9.7416554342890593E-2</v>
       </c>
       <c r="C144">
         <f>C127/(($I$127*$C$121)^(1/2))</f>
-        <v>0.11416188001832651</v>
+        <v>0.11416188001832746</v>
       </c>
       <c r="D144">
         <f>D127/(($I$127*$D$122)^(1/2))</f>
-        <v>0.33101862915586383</v>
+        <v>0.331018629155861</v>
       </c>
       <c r="E144">
         <f>E127/(($I$127*$E$123)^(1/2))</f>
-        <v>0.28369010427596641</v>
+        <v>0.28369010427596436</v>
       </c>
       <c r="F144">
         <f>F127/(($I$127*$F$124)^(1/2))</f>
-        <v>-0.16287695887284517</v>
+        <v>-0.16287695887284442</v>
       </c>
       <c r="G144">
         <f>G127/(($I$127*$G$125)^(1/2))</f>
-        <v>-0.97030288564938261</v>
+        <v>-0.97030288564938239</v>
       </c>
       <c r="H144">
         <f>H127/(($I$127*$H$126)^(1/2))</f>
-        <v>2.0459589861059658E-2</v>
+        <v>2.0459589861058135E-2</v>
       </c>
       <c r="I144">
         <f>I127/(($I$127*$I$127)^(1/2))</f>
@@ -13180,45 +13556,45 @@
       </c>
       <c r="J144">
         <f>J127/(($J$128*$I$127)^(1/2))</f>
-        <v>-0.34342044807459904</v>
+        <v>-0.34342044807459932</v>
       </c>
       <c r="K144">
         <f>K127/(($K$129*$I$127)^(1/2))</f>
-        <v>0.26386881455787098</v>
+        <v>0.26386881455786876</v>
       </c>
     </row>
     <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145">
         <f>B128/(($J$128*$B$120)^(1/2))</f>
-        <v>-3.2363090365915628E-2</v>
+        <v>-3.2363090365915226E-2</v>
       </c>
       <c r="C145">
         <f>C128/(($J$128*$C$121)^(1/2))</f>
-        <v>-0.16971212745887732</v>
+        <v>-0.16971212745887734</v>
       </c>
       <c r="D145">
         <f>D128/(($J$128*$D$122)^(1/2))</f>
-        <v>-5.6011183897076183E-2</v>
+        <v>-5.6011183897074684E-2</v>
       </c>
       <c r="E145">
         <f>E128/(($J$128*$E$123)^(1/2))</f>
-        <v>-0.18348529948388867</v>
+        <v>-0.18348529948388811</v>
       </c>
       <c r="F145">
         <f>F128/(($J$128*$F$124)^(1/2))</f>
-        <v>0.14659407754261849</v>
+        <v>0.14659407754261916</v>
       </c>
       <c r="G145">
         <f>G128/(($J$128*$G$125)^(1/2))</f>
-        <v>0.19336680803345768</v>
+        <v>0.19336680803345765</v>
       </c>
       <c r="H145">
         <f>H128/(($J$128*$H$126)^(1/2))</f>
-        <v>-6.0808239128741767E-2</v>
+        <v>-6.0808239128740268E-2</v>
       </c>
       <c r="I145">
         <f>I128/(($J$128*$I$127)^(1/2))</f>
-        <v>-0.34342044807459871</v>
+        <v>-0.34342044807459926</v>
       </c>
       <c r="J145">
         <f>J128/(($J$128*$J$128)^(1/2))</f>
@@ -13226,45 +13602,45 @@
       </c>
       <c r="K145">
         <f>K128/(($K$129*$J$128)^(1/2))</f>
-        <v>-0.15742124368051444</v>
+        <v>-0.15742124368051363</v>
       </c>
     </row>
     <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146">
         <f>B129/(($K$129*$B$120)^(1/2))</f>
-        <v>0.54621597877174866</v>
+        <v>0.54621597877174766</v>
       </c>
       <c r="C146">
         <f>C129/(($K$129*$C$121)^(1/2))</f>
-        <v>-5.508349669031784E-2</v>
+        <v>-5.5083496690320727E-2</v>
       </c>
       <c r="D146">
         <f>D129/(($K$129*$D$122)^(1/2))</f>
-        <v>0.25440936399801956</v>
+        <v>0.25440936399801911</v>
       </c>
       <c r="E146">
         <f>E129/(($K$129*$E$123)^(1/2))</f>
-        <v>0.46669214873741788</v>
+        <v>0.46669214873741688</v>
       </c>
       <c r="F146">
         <f>F129/(($K$129*$F$124)^(1/2))</f>
-        <v>1.3410453497560636E-2</v>
+        <v>1.3410453497564858E-2</v>
       </c>
       <c r="G146">
         <f>G129/(($K$129*$G$125)^(1/2))</f>
-        <v>-0.26727468896693285</v>
+        <v>-0.26727468896692985</v>
       </c>
       <c r="H146">
         <f>H129/(($K$129*$H$126)^(1/2))</f>
-        <v>-1.8184098864583619E-2</v>
+        <v>-1.8184098864582911E-2</v>
       </c>
       <c r="I146">
         <f>I129/(($K$129*$I$127)^(1/2))</f>
-        <v>0.26386881455787103</v>
+        <v>0.26386881455786815</v>
       </c>
       <c r="J146">
         <f>J129/(($K$129*$J$128)^(1/2))</f>
-        <v>-0.15742124368051444</v>
+        <v>-0.1574212436805133</v>
       </c>
       <c r="K146">
         <f>K129/(($K$129*$K$129)^(1/2))</f>
@@ -13278,142 +13654,142 @@
     </row>
     <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" t="e">
-        <f>(B137*(24-10))/((1-B137^2)^(1/2))</f>
+        <f t="shared" ref="B148" si="43">(B137*SQRT(24-10))/((1-B137^2)^(1/2))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C148">
-        <f t="shared" ref="C148:K148" si="43">(C137*(24-10))/((1-C137^2)^(1/2))</f>
-        <v>1.043525127346798</v>
+        <f>(C137*SQRT(24-10))/((1-C137^2)^(1/2))</f>
+        <v>-0.27889382150152431</v>
       </c>
       <c r="D148">
-        <f t="shared" si="43"/>
-        <v>0.40302028926550754</v>
+        <f t="shared" ref="D148:K148" si="44">(D137*SQRT(24-10))/((1-D137^2)^(1/2))</f>
+        <v>0.10771170302499766</v>
       </c>
       <c r="E148">
-        <f t="shared" si="43"/>
-        <v>8.6197386520552239</v>
+        <f t="shared" si="44"/>
+        <v>2.3037220571088008</v>
       </c>
       <c r="F148">
-        <f t="shared" si="43"/>
-        <v>-0.71208036473995462</v>
+        <f t="shared" si="44"/>
+        <v>-0.19031148262185552</v>
       </c>
       <c r="G148">
-        <f t="shared" si="43"/>
-        <v>-2.8254451120356037</v>
+        <f t="shared" si="44"/>
+        <v>-0.75513196959801243</v>
       </c>
       <c r="H148">
-        <f t="shared" si="43"/>
-        <v>-1.7335588843352148</v>
+        <f t="shared" si="44"/>
+        <v>-0.46331310035574869</v>
       </c>
       <c r="I148">
-        <f t="shared" si="43"/>
-        <v>1.3703495595393178</v>
+        <f t="shared" si="44"/>
+        <v>0.36624132513660879</v>
       </c>
       <c r="J148">
-        <f t="shared" si="43"/>
-        <v>-0.45332072449307265</v>
+        <f t="shared" si="44"/>
+        <v>-0.12115505981265626</v>
       </c>
       <c r="K148">
-        <f t="shared" si="43"/>
-        <v>9.1292007690942096</v>
+        <f t="shared" si="44"/>
+        <v>2.4398815352159753</v>
       </c>
     </row>
     <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149">
-        <f t="shared" ref="B149:K149" si="44">(B138*(24-10))/((1-B138^2)^(1/2))</f>
-        <v>1.0435251273467758</v>
+        <f t="shared" ref="B149" si="45">(B138*SQRT(24-10))/((1-B138^2)^(1/2))</f>
+        <v>0.27889382150152464</v>
       </c>
       <c r="C149" t="e">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="B149:K157" si="46">(C138*SQRT(24-10))/((1-C138^2)^(1/2))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D149">
-        <f t="shared" si="44"/>
-        <v>-2.0503385661088456</v>
+        <f t="shared" si="46"/>
+        <v>-0.54797603151923047</v>
       </c>
       <c r="E149">
-        <f t="shared" si="44"/>
-        <v>-4.9174636682193282E-2</v>
+        <f t="shared" si="46"/>
+        <v>-1.3142474470283839E-2</v>
       </c>
       <c r="F149">
-        <f t="shared" si="44"/>
-        <v>-56.80444032151734</v>
+        <f t="shared" si="46"/>
+        <v>-15.181625266469341</v>
       </c>
       <c r="G149">
-        <f t="shared" si="44"/>
-        <v>-1.7789101732558408</v>
+        <f t="shared" si="46"/>
+        <v>-0.47543374215498319</v>
       </c>
       <c r="H149">
-        <f t="shared" si="44"/>
-        <v>-2.7288970971873332</v>
+        <f t="shared" si="46"/>
+        <v>-0.72932842724552649</v>
       </c>
       <c r="I149">
-        <f t="shared" si="44"/>
-        <v>1.6087842931029415</v>
+        <f t="shared" si="46"/>
+        <v>0.42996568814389302</v>
       </c>
       <c r="J149">
-        <f t="shared" si="44"/>
-        <v>-2.4109437047279236</v>
+        <f t="shared" si="46"/>
+        <v>-0.64435180870651998</v>
       </c>
       <c r="K149">
-        <f t="shared" si="44"/>
-        <v>-0.77234155995792164</v>
+        <f t="shared" si="46"/>
+        <v>-0.20641696449494421</v>
       </c>
     </row>
     <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150">
-        <f>(B139*(24-10))/((1-B139^2)^(1/2))</f>
-        <v>0.40302028926548927</v>
+        <f t="shared" ref="B150" si="47">(B139*SQRT(24-10))/((1-B139^2)^(1/2))</f>
+        <v>0.1077117030249959</v>
       </c>
       <c r="C150">
-        <f t="shared" ref="C150:K150" si="45">(C139*(24-10))/((1-C139^2)^(1/2))</f>
-        <v>-2.050338566109041</v>
+        <f t="shared" si="46"/>
+        <v>-0.54797603151925434</v>
       </c>
       <c r="D150" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E150">
-        <f t="shared" si="45"/>
-        <v>-3.6632624523689632</v>
+        <f t="shared" si="46"/>
+        <v>-0.97904807247128789</v>
       </c>
       <c r="F150">
-        <f t="shared" si="45"/>
-        <v>-1.1598565171025823</v>
+        <f t="shared" si="46"/>
+        <v>-0.30998469320101862</v>
       </c>
       <c r="G150">
-        <f t="shared" si="45"/>
-        <v>-4.6017375519140957</v>
+        <f t="shared" si="46"/>
+        <v>-1.2298660930795786</v>
       </c>
       <c r="H150">
-        <f t="shared" si="45"/>
-        <v>4.5768386630868934</v>
+        <f t="shared" si="46"/>
+        <v>1.2232115851294081</v>
       </c>
       <c r="I150">
-        <f t="shared" si="45"/>
-        <v>4.9111295721873862</v>
+        <f t="shared" si="46"/>
+        <v>1.3125545886556222</v>
       </c>
       <c r="J150">
-        <f t="shared" si="45"/>
-        <v>-0.7853895250504721</v>
+        <f t="shared" si="46"/>
+        <v>-0.20990417984999057</v>
       </c>
       <c r="K150">
-        <f t="shared" si="45"/>
-        <v>3.6829113207733482</v>
+        <f t="shared" si="46"/>
+        <v>0.98429945344321068</v>
       </c>
     </row>
     <row r="151" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B151">
-        <f t="shared" ref="B151:K151" si="46">(B140*(24-10))/((1-B140^2)^(1/2))</f>
-        <v>8.6197386520552328</v>
+        <f t="shared" ref="B151" si="48">(B140*SQRT(24-10))/((1-B140^2)^(1/2))</f>
+        <v>2.3037220571088008</v>
       </c>
       <c r="C151">
         <f t="shared" si="46"/>
-        <v>-4.9174636682151114E-2</v>
+        <v>-1.314247447027355E-2</v>
       </c>
       <c r="D151">
         <f t="shared" si="46"/>
-        <v>-3.6632624523689841</v>
+        <v>-0.97904807247128955</v>
       </c>
       <c r="E151" t="e">
         <f t="shared" si="46"/>
@@ -13421,278 +13797,278 @@
       </c>
       <c r="F151">
         <f t="shared" si="46"/>
-        <v>1.1811441728748628</v>
+        <v>0.31567405852016084</v>
       </c>
       <c r="G151">
         <f t="shared" si="46"/>
-        <v>-4.8844101323570568</v>
+        <v>-1.305413517983373</v>
       </c>
       <c r="H151">
         <f t="shared" si="46"/>
-        <v>-2.7000680209816457</v>
+        <v>-0.72162353253557476</v>
       </c>
       <c r="I151">
         <f t="shared" si="46"/>
-        <v>4.1418240969654407</v>
+        <v>1.1069490519377769</v>
       </c>
       <c r="J151">
         <f t="shared" si="46"/>
-        <v>-2.6131592239636388</v>
+        <v>-0.69839617951142841</v>
       </c>
       <c r="K151">
         <f t="shared" si="46"/>
-        <v>7.3875436187639236</v>
+        <v>1.9744040822330482</v>
       </c>
     </row>
     <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152">
-        <f t="shared" ref="B152:K152" si="47">(B141*(24-10))/((1-B141^2)^(1/2))</f>
-        <v>-0.71208036473993619</v>
+        <f t="shared" ref="B152" si="49">(B141*SQRT(24-10))/((1-B141^2)^(1/2))</f>
+        <v>-0.19031148262185454</v>
       </c>
       <c r="C152">
-        <f t="shared" si="47"/>
-        <v>-56.804440321514427</v>
+        <f t="shared" si="46"/>
+        <v>-15.18162526646875</v>
       </c>
       <c r="D152">
-        <f t="shared" si="47"/>
-        <v>-1.1598565171027801</v>
+        <f t="shared" si="46"/>
+        <v>-0.30998469320104155</v>
       </c>
       <c r="E152">
-        <f t="shared" si="47"/>
-        <v>1.1811441728749026</v>
+        <f t="shared" si="46"/>
+        <v>0.31567405852017055</v>
       </c>
       <c r="F152" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G152">
-        <f t="shared" si="47"/>
-        <v>2.4620843979648859</v>
+        <f t="shared" si="46"/>
+        <v>0.65801973389327084</v>
       </c>
       <c r="H152">
-        <f t="shared" si="47"/>
-        <v>1.5823484166934179</v>
+        <f t="shared" si="46"/>
+        <v>0.42290040298367931</v>
       </c>
       <c r="I152">
-        <f t="shared" si="47"/>
-        <v>-2.3111394826084775</v>
+        <f t="shared" si="46"/>
+        <v>-0.61767800835477216</v>
       </c>
       <c r="J152">
-        <f t="shared" si="47"/>
-        <v>2.0747309582474287</v>
+        <f t="shared" si="46"/>
+        <v>0.55449517253535774</v>
       </c>
       <c r="K152">
-        <f t="shared" si="47"/>
-        <v>0.1877632334196141</v>
+        <f t="shared" si="46"/>
+        <v>5.0181834949234422E-2</v>
       </c>
     </row>
     <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153">
-        <f t="shared" ref="B153:K153" si="48">(B142*(24-10))/((1-B142^2)^(1/2))</f>
-        <v>-2.825445112035585</v>
+        <f t="shared" ref="B153" si="50">(B142*SQRT(24-10))/((1-B142^2)^(1/2))</f>
+        <v>-0.7551319695980131</v>
       </c>
       <c r="C153">
-        <f t="shared" si="48"/>
-        <v>-1.7789101732558068</v>
+        <f t="shared" si="46"/>
+        <v>-0.47543374215500017</v>
       </c>
       <c r="D153">
-        <f t="shared" si="48"/>
-        <v>-4.6017375519141366</v>
+        <f t="shared" si="46"/>
+        <v>-1.2298660930795977</v>
       </c>
       <c r="E153">
-        <f t="shared" si="48"/>
-        <v>-4.8844101323570364</v>
+        <f t="shared" si="46"/>
+        <v>-1.3054135179833628</v>
       </c>
       <c r="F153">
-        <f t="shared" si="48"/>
-        <v>2.4620843979648597</v>
+        <f t="shared" si="46"/>
+        <v>0.65801973389329305</v>
       </c>
       <c r="G153" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H153">
-        <f t="shared" si="48"/>
-        <v>0.16066050460423215</v>
+        <f t="shared" si="46"/>
+        <v>4.293832598681091E-2</v>
       </c>
       <c r="I153">
-        <f t="shared" si="48"/>
-        <v>-56.158013421500833</v>
+        <f t="shared" si="46"/>
+        <v>-15.008860410364802</v>
       </c>
       <c r="J153">
-        <f t="shared" si="48"/>
-        <v>2.7592111884441359</v>
+        <f t="shared" si="46"/>
+        <v>0.73743020892223521</v>
       </c>
       <c r="K153">
-        <f t="shared" si="48"/>
-        <v>-3.8831117682533418</v>
+        <f t="shared" si="46"/>
+        <v>-1.0378052736681287</v>
       </c>
     </row>
     <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154">
-        <f t="shared" ref="B154:K154" si="49">(B143*(24-10))/((1-B143^2)^(1/2))</f>
-        <v>-1.733558884335219</v>
+        <f t="shared" ref="B154" si="51">(B143*SQRT(24-10))/((1-B143^2)^(1/2))</f>
+        <v>-0.46331310035574885</v>
       </c>
       <c r="C154">
-        <f t="shared" si="49"/>
-        <v>-2.7288970971873998</v>
+        <f t="shared" si="46"/>
+        <v>-0.7293284272455316</v>
       </c>
       <c r="D154">
-        <f t="shared" si="49"/>
-        <v>4.5768386630868623</v>
+        <f t="shared" si="46"/>
+        <v>1.2232115851294034</v>
       </c>
       <c r="E154">
-        <f t="shared" si="49"/>
-        <v>-2.7000680209816394</v>
+        <f t="shared" si="46"/>
+        <v>-0.72162353253557332</v>
       </c>
       <c r="F154">
-        <f t="shared" si="49"/>
-        <v>1.5823484166934894</v>
+        <f t="shared" si="46"/>
+        <v>0.42290040298368564</v>
       </c>
       <c r="G154">
-        <f t="shared" si="49"/>
-        <v>0.16066050460425937</v>
+        <f t="shared" si="46"/>
+        <v>4.293832598681345E-2</v>
       </c>
       <c r="H154" t="e">
-        <f t="shared" si="49"/>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I154">
-        <f t="shared" si="49"/>
-        <v>0.286494226830387</v>
+        <f t="shared" si="46"/>
+        <v>7.6568802863427848E-2</v>
       </c>
       <c r="J154">
-        <f t="shared" si="49"/>
-        <v>-0.85289365583671295</v>
+        <f t="shared" si="46"/>
+        <v>-0.22794541767814425</v>
       </c>
       <c r="K154">
-        <f t="shared" si="49"/>
-        <v>-0.25461948400875128</v>
+        <f t="shared" si="46"/>
+        <v>-6.8049919511276258E-2</v>
       </c>
     </row>
     <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155">
-        <f t="shared" ref="B155:K155" si="50">(B144*(24-10))/((1-B144^2)^(1/2))</f>
-        <v>1.3703495595392985</v>
+        <f t="shared" ref="B155" si="52">(B144*SQRT(24-10))/((1-B144^2)^(1/2))</f>
+        <v>0.36624132513660823</v>
       </c>
       <c r="C155">
-        <f t="shared" si="50"/>
-        <v>1.6087842931029159</v>
+        <f t="shared" si="46"/>
+        <v>0.42996568814389063</v>
       </c>
       <c r="D155">
-        <f t="shared" si="50"/>
-        <v>4.9111295721874191</v>
+        <f t="shared" si="46"/>
+        <v>1.3125545886556305</v>
       </c>
       <c r="E155">
-        <f t="shared" si="50"/>
-        <v>4.1418240969654168</v>
+        <f t="shared" si="46"/>
+        <v>1.1069490519377743</v>
       </c>
       <c r="F155">
-        <f t="shared" si="50"/>
-        <v>-2.3111394826084584</v>
+        <f t="shared" si="46"/>
+        <v>-0.6176780083547716</v>
       </c>
       <c r="G155">
-        <f t="shared" si="50"/>
-        <v>-56.158013421500605</v>
+        <f t="shared" si="46"/>
+        <v>-15.008860410364802</v>
       </c>
       <c r="H155">
-        <f t="shared" si="50"/>
-        <v>0.28649422683041303</v>
+        <f t="shared" si="46"/>
+        <v>7.6568802863430319E-2</v>
       </c>
       <c r="I155" t="e">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J155">
-        <f t="shared" si="50"/>
-        <v>-5.1192287052885357</v>
+        <f t="shared" si="46"/>
+        <v>-1.3681714214091476</v>
       </c>
       <c r="K155">
-        <f t="shared" si="50"/>
-        <v>3.8299005279951954</v>
+        <f t="shared" si="46"/>
+        <v>1.0235839715130364</v>
       </c>
     </row>
     <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156">
-        <f t="shared" ref="B156:K156" si="51">(B145*(24-10))/((1-B145^2)^(1/2))</f>
-        <v>-0.45332072449306965</v>
+        <f t="shared" ref="B156" si="53">(B145*SQRT(24-10))/((1-B145^2)^(1/2))</f>
+        <v>-0.12115505981265626</v>
       </c>
       <c r="C156">
-        <f t="shared" si="51"/>
-        <v>-2.4109437047279325</v>
+        <f t="shared" si="46"/>
+        <v>-0.64435180870652886</v>
       </c>
       <c r="D156">
-        <f t="shared" si="51"/>
-        <v>-0.78538952505049753</v>
+        <f t="shared" si="46"/>
+        <v>-0.20990417984999946</v>
       </c>
       <c r="E156">
-        <f t="shared" si="51"/>
-        <v>-2.6131592239636245</v>
+        <f t="shared" si="46"/>
+        <v>-0.69839617951142319</v>
       </c>
       <c r="F156">
-        <f t="shared" si="51"/>
-        <v>2.0747309582474451</v>
+        <f t="shared" si="46"/>
+        <v>0.55449517253536906</v>
       </c>
       <c r="G156">
-        <f t="shared" si="51"/>
-        <v>2.7592111884441324</v>
+        <f t="shared" si="46"/>
+        <v>0.7374302089222351</v>
       </c>
       <c r="H156">
-        <f t="shared" si="51"/>
-        <v>-0.85289365583672416</v>
+        <f t="shared" si="46"/>
+        <v>-0.22794541767814513</v>
       </c>
       <c r="I156">
-        <f t="shared" si="51"/>
-        <v>-5.1192287052885295</v>
+        <f t="shared" si="46"/>
+        <v>-1.3681714214091474</v>
       </c>
       <c r="J156" t="e">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K156">
-        <f t="shared" si="51"/>
-        <v>-2.2317235566407692</v>
+        <f t="shared" si="46"/>
+        <v>-0.59645320935302149</v>
       </c>
     </row>
     <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157">
-        <f t="shared" ref="B157:K157" si="52">(B146*(24-10))/((1-B146^2)^(1/2))</f>
-        <v>9.1292007690942061</v>
+        <f t="shared" si="46"/>
+        <v>2.4398815352159708</v>
       </c>
       <c r="C157">
-        <f t="shared" si="52"/>
-        <v>-0.77234155995795573</v>
+        <f t="shared" si="46"/>
+        <v>-0.20641696449495328</v>
       </c>
       <c r="D157">
-        <f t="shared" si="52"/>
-        <v>3.6829113207733424</v>
+        <f t="shared" si="46"/>
+        <v>0.9842994534432089</v>
       </c>
       <c r="E157">
-        <f t="shared" si="52"/>
-        <v>7.3875436187639325</v>
+        <f t="shared" si="46"/>
+        <v>1.9744040822330491</v>
       </c>
       <c r="F157">
-        <f t="shared" si="52"/>
-        <v>0.18776323341965012</v>
+        <f t="shared" si="46"/>
+        <v>5.0181834949243921E-2</v>
       </c>
       <c r="G157">
-        <f t="shared" si="52"/>
-        <v>-3.8831117682533418</v>
+        <f t="shared" si="46"/>
+        <v>-1.037805273668126</v>
       </c>
       <c r="H157">
-        <f t="shared" si="52"/>
-        <v>-0.25461948400874573</v>
+        <f t="shared" si="46"/>
+        <v>-6.8049919511275397E-2</v>
       </c>
       <c r="I157">
-        <f t="shared" si="52"/>
-        <v>3.8299005279951963</v>
+        <f t="shared" si="46"/>
+        <v>1.0235839715130339</v>
       </c>
       <c r="J157">
-        <f t="shared" si="52"/>
-        <v>-2.2317235566407692</v>
+        <f t="shared" si="46"/>
+        <v>-0.59645320935302026</v>
       </c>
       <c r="K157" t="e">
-        <f t="shared" si="52"/>
+        <f t="shared" si="46"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13705,45 +14081,48 @@
       </c>
     </row>
     <row r="159" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B159" t="e">
+      <c r="B159" s="9" t="e">
         <f>ABS(B148)&gt;$N$159</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C159" t="b">
-        <f t="shared" ref="C159:K159" si="53">ABS(C148)&gt;$N$159</f>
-        <v>0</v>
-      </c>
-      <c r="D159" t="b">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="E159" t="b">
-        <f t="shared" si="53"/>
+      <c r="C159" s="9" t="b">
+        <f>ABS(C148)&gt;$N$159</f>
+        <v>0</v>
+      </c>
+      <c r="D159" s="9" t="b">
+        <f t="shared" ref="D159:K159" si="54">ABS(D148)&gt;$N$159</f>
+        <v>0</v>
+      </c>
+      <c r="E159" s="9" t="b">
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
-      <c r="F159" t="b">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="G159" t="b">
-        <f t="shared" si="53"/>
+      <c r="F159" s="9" t="b">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="G159" s="9" t="b">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="H159" s="9" t="b">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="I159" s="9" t="b">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="J159" s="9" t="b">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="K159" s="9" t="b">
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
-      <c r="H159" t="b">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="I159" t="b">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="J159" t="b">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="K159" t="b">
-        <f t="shared" si="53"/>
-        <v>1</v>
+      <c r="L159">
+        <v>0</v>
       </c>
       <c r="N159">
         <f>_xlfn.T.INV(R109,24-10)</f>
@@ -13751,391 +14130,447 @@
       </c>
     </row>
     <row r="160" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B160" t="b">
-        <f t="shared" ref="B160:K160" si="54">ABS(B149)&gt;$N$159</f>
-        <v>0</v>
-      </c>
-      <c r="C160" t="e">
-        <f t="shared" si="54"/>
+      <c r="B160" s="9" t="b">
+        <f t="shared" ref="B160:K160" si="55">ABS(B149)&gt;$N$159</f>
+        <v>0</v>
+      </c>
+      <c r="C160" s="9" t="e">
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D160" t="b">
-        <f t="shared" si="54"/>
-        <v>1</v>
-      </c>
-      <c r="E160" t="b">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="F160" t="b">
-        <f t="shared" si="54"/>
-        <v>1</v>
-      </c>
-      <c r="G160" t="b">
-        <f t="shared" si="54"/>
-        <v>1</v>
-      </c>
-      <c r="H160" t="b">
-        <f t="shared" si="54"/>
-        <v>1</v>
-      </c>
-      <c r="I160" t="b">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="J160" t="b">
-        <f t="shared" si="54"/>
-        <v>1</v>
-      </c>
-      <c r="K160" t="b">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B161" t="b">
-        <f t="shared" ref="B161:K161" si="55">ABS(B150)&gt;$N$159</f>
-        <v>0</v>
-      </c>
-      <c r="C161" t="b">
+      <c r="D160" s="9" t="b">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="E160" s="9" t="b">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="F160" s="9" t="b">
         <f t="shared" si="55"/>
         <v>1</v>
       </c>
+      <c r="G160" s="9" t="b">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="H160" s="9" t="b">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="I160" s="9" t="b">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="J160" s="9" t="b">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="K160" s="9" t="b">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B161" s="9" t="b">
+        <f t="shared" ref="B161:K161" si="56">ABS(B150)&gt;$N$159</f>
+        <v>0</v>
+      </c>
+      <c r="C161" s="9" t="b">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
       <c r="D161" t="e">
-        <f t="shared" si="55"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E161" t="b">
-        <f t="shared" si="55"/>
-        <v>1</v>
-      </c>
-      <c r="F161" t="b">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="G161" t="b">
-        <f t="shared" si="55"/>
-        <v>1</v>
-      </c>
-      <c r="H161" t="b">
-        <f t="shared" si="55"/>
-        <v>1</v>
-      </c>
-      <c r="I161" t="b">
-        <f t="shared" si="55"/>
-        <v>1</v>
-      </c>
-      <c r="J161" t="b">
-        <f t="shared" si="55"/>
-        <v>0</v>
-      </c>
-      <c r="K161" t="b">
-        <f t="shared" si="55"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B162" t="b">
-        <f t="shared" ref="B162:K162" si="56">ABS(B151)&gt;$N$159</f>
-        <v>1</v>
-      </c>
-      <c r="C162" t="b">
-        <f t="shared" si="56"/>
-        <v>0</v>
-      </c>
-      <c r="D162" t="b">
-        <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="E162" t="e">
         <f t="shared" si="56"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="E161" t="b">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="F161" t="b">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="G161" t="b">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="b">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="I161" s="9" t="b">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="J161" t="b">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="K161" s="9" t="b">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B162" s="9" t="b">
+        <f t="shared" ref="B162:K162" si="57">ABS(B151)&gt;$N$159</f>
+        <v>1</v>
+      </c>
+      <c r="C162" s="9" t="b">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="D162" t="b">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="E162" t="e">
+        <f t="shared" si="57"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="F162" t="b">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="G162" t="b">
-        <f t="shared" si="56"/>
-        <v>1</v>
+        <f t="shared" si="57"/>
+        <v>0</v>
       </c>
       <c r="H162" t="b">
-        <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="I162" t="b">
-        <f t="shared" si="56"/>
-        <v>1</v>
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="I162" s="9" t="b">
+        <f t="shared" si="57"/>
+        <v>0</v>
       </c>
       <c r="J162" t="b">
-        <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-      <c r="K162" t="b">
-        <f t="shared" si="56"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B163" t="b">
-        <f t="shared" ref="B163:K163" si="57">ABS(B152)&gt;$N$159</f>
-        <v>0</v>
-      </c>
-      <c r="C163" t="b">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="K162" s="9" t="b">
         <f t="shared" si="57"/>
         <v>1</v>
       </c>
-      <c r="D163" t="b">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="E163" t="b">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="F163" t="e">
-        <f t="shared" si="57"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G163" t="b">
-        <f t="shared" si="57"/>
-        <v>1</v>
-      </c>
-      <c r="H163" t="b">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="I163" t="b">
-        <f t="shared" si="57"/>
-        <v>1</v>
-      </c>
-      <c r="J163" t="b">
-        <f t="shared" si="57"/>
-        <v>1</v>
-      </c>
-      <c r="K163" t="b">
-        <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B164" t="b">
-        <f t="shared" ref="B164:K164" si="58">ABS(B153)&gt;$N$159</f>
-        <v>1</v>
-      </c>
-      <c r="C164" t="b">
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B163" s="9" t="b">
+        <f t="shared" ref="B163:K163" si="58">ABS(B152)&gt;$N$159</f>
+        <v>0</v>
+      </c>
+      <c r="C163" s="9" t="b">
         <f t="shared" si="58"/>
         <v>1</v>
       </c>
-      <c r="D164" t="b">
+      <c r="D163" t="b">
         <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="E164" t="b">
+        <v>0</v>
+      </c>
+      <c r="E163" t="b">
         <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="F164" t="b">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="G164" t="e">
+        <v>0</v>
+      </c>
+      <c r="F163" t="e">
         <f t="shared" si="58"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="G163" t="b">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="b">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="I163" s="9" t="b">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="J163" t="b">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="K163" s="9" t="b">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B164" s="9" t="b">
+        <f t="shared" ref="B164:K164" si="59">ABS(B153)&gt;$N$159</f>
+        <v>0</v>
+      </c>
+      <c r="C164" s="9" t="b">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="D164" t="b">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="E164" t="b">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="F164" t="b">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="G164" t="e">
+        <f t="shared" si="59"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="H164" t="b">
-        <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="I164" t="b">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="J164" t="b">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-      <c r="K164" t="b">
-        <f t="shared" si="58"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B165" t="b">
-        <f t="shared" ref="B165:K165" si="59">ABS(B154)&gt;$N$159</f>
-        <v>0</v>
-      </c>
-      <c r="C165" t="b">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="I164" s="9" t="b">
         <f t="shared" si="59"/>
         <v>1</v>
       </c>
+      <c r="J164" t="b">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="K164" s="9" t="b">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B165" s="9" t="b">
+        <f t="shared" ref="B165:K165" si="60">ABS(B154)&gt;$N$159</f>
+        <v>0</v>
+      </c>
+      <c r="C165" s="9" t="b">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
       <c r="D165" t="b">
-        <f t="shared" si="59"/>
-        <v>1</v>
+        <f t="shared" si="60"/>
+        <v>0</v>
       </c>
       <c r="E165" t="b">
-        <f t="shared" si="59"/>
-        <v>1</v>
+        <f t="shared" si="60"/>
+        <v>0</v>
       </c>
       <c r="F165" t="b">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="G165" t="b">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="H165" t="e">
-        <f t="shared" si="59"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I165" t="b">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="J165" t="b">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-      <c r="K165" t="b">
-        <f t="shared" si="59"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B166" t="b">
-        <f t="shared" ref="B166:K166" si="60">ABS(B155)&gt;$N$159</f>
-        <v>0</v>
-      </c>
-      <c r="C166" t="b">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="D166" t="b">
-        <f t="shared" si="60"/>
-        <v>1</v>
-      </c>
-      <c r="E166" t="b">
-        <f t="shared" si="60"/>
-        <v>1</v>
-      </c>
-      <c r="F166" t="b">
-        <f t="shared" si="60"/>
-        <v>1</v>
-      </c>
-      <c r="G166" t="b">
-        <f t="shared" si="60"/>
-        <v>1</v>
-      </c>
-      <c r="H166" t="b">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
-      <c r="I166" t="e">
         <f t="shared" si="60"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J166" t="b">
+      <c r="I165" s="9" t="b">
         <f t="shared" si="60"/>
-        <v>1</v>
-      </c>
-      <c r="K166" t="b">
+        <v>0</v>
+      </c>
+      <c r="J165" t="b">
         <f t="shared" si="60"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B167" t="b">
-        <f t="shared" ref="B167:K167" si="61">ABS(B156)&gt;$N$159</f>
-        <v>0</v>
-      </c>
-      <c r="C167" t="b">
+        <v>0</v>
+      </c>
+      <c r="K165" s="9" t="b">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B166" s="9" t="b">
+        <f t="shared" ref="B166:K166" si="61">ABS(B155)&gt;$N$159</f>
+        <v>0</v>
+      </c>
+      <c r="C166" s="9" t="b">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="D166" s="9" t="b">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="E166" s="9" t="b">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="F166" s="9" t="b">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="G166" s="9" t="b">
         <f t="shared" si="61"/>
         <v>1</v>
       </c>
-      <c r="D167" t="b">
+      <c r="H166" s="9" t="b">
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="E167" t="b">
-        <f t="shared" si="61"/>
-        <v>1</v>
-      </c>
-      <c r="F167" t="b">
-        <f t="shared" si="61"/>
-        <v>1</v>
-      </c>
-      <c r="G167" t="b">
-        <f t="shared" si="61"/>
-        <v>1</v>
-      </c>
-      <c r="H167" t="b">
-        <f t="shared" si="61"/>
-        <v>0</v>
-      </c>
-      <c r="I167" t="b">
-        <f t="shared" si="61"/>
-        <v>1</v>
-      </c>
-      <c r="J167" t="e">
+      <c r="I166" s="9" t="e">
         <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K167" t="b">
+      <c r="J166" s="9" t="b">
         <f t="shared" si="61"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B168" t="b">
+        <v>0</v>
+      </c>
+      <c r="K166" s="9" t="b">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B167" s="9" t="b">
+        <f t="shared" ref="B167:K167" si="62">ABS(B156)&gt;$N$159</f>
+        <v>0</v>
+      </c>
+      <c r="C167" s="9" t="b">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="D167" t="b">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="E167" t="b">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="F167" t="b">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="G167" t="b">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="b">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="I167" s="9" t="b">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="J167" t="e">
+        <f t="shared" si="62"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K167" s="9" t="b">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B168" s="9" t="b">
         <f>ABS(B157)&gt;$N$159</f>
         <v>1</v>
       </c>
-      <c r="C168" t="b">
-        <f t="shared" ref="C168:K168" si="62">ABS(C157)&gt;$N$159</f>
-        <v>0</v>
-      </c>
-      <c r="D168" t="b">
-        <f t="shared" si="62"/>
+      <c r="C168" s="9" t="b">
+        <f t="shared" ref="C168:K168" si="63">ABS(C157)&gt;$N$159</f>
+        <v>0</v>
+      </c>
+      <c r="D168" s="9" t="b">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="E168" s="9" t="b">
+        <f t="shared" si="63"/>
         <v>1</v>
       </c>
-      <c r="E168" t="b">
-        <f t="shared" si="62"/>
-        <v>1</v>
-      </c>
-      <c r="F168" t="b">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="G168" t="b">
-        <f t="shared" si="62"/>
-        <v>1</v>
-      </c>
-      <c r="H168" t="b">
-        <f t="shared" si="62"/>
-        <v>0</v>
-      </c>
-      <c r="I168" t="b">
-        <f t="shared" si="62"/>
-        <v>1</v>
-      </c>
-      <c r="J168" t="b">
-        <f t="shared" si="62"/>
-        <v>1</v>
-      </c>
-      <c r="K168" t="e">
-        <f t="shared" si="62"/>
+      <c r="F168" s="9" t="b">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="G168" s="9" t="b">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="H168" s="9" t="b">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="I168" s="9" t="b">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="J168" s="9" t="b">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="K168" s="9" t="e">
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B109:K118">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+      <formula>-0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+      <formula>"0,5"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BQ106"/>
   <sheetViews>
     <sheetView topLeftCell="AI41" workbookViewId="0">
@@ -25911,7 +26346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{444417FC-FA15-4C12-82BF-15C67FFC0081}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X106"/>
   <sheetViews>
     <sheetView topLeftCell="F21" workbookViewId="0">
@@ -31609,4 +32044,1502 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2.876553232</v>
+      </c>
+      <c r="C2">
+        <v>65.232927700000005</v>
+      </c>
+      <c r="D2">
+        <v>127.4833586</v>
+      </c>
+      <c r="E2">
+        <v>4982.5879889999997</v>
+      </c>
+      <c r="F2">
+        <v>2.3138722500000002</v>
+      </c>
+      <c r="G2">
+        <v>1103.3463710000001</v>
+      </c>
+      <c r="H2">
+        <v>0.92774909299999997</v>
+      </c>
+      <c r="I2">
+        <v>20.566380259999999</v>
+      </c>
+      <c r="J2">
+        <v>100.45629529999999</v>
+      </c>
+      <c r="K2">
+        <v>1142.442558</v>
+      </c>
+      <c r="L2">
+        <v>177.0341674</v>
+      </c>
+      <c r="M2">
+        <f>6.7747*Q2+0.288*R2-143.76</f>
+        <v>189.67954518007502</v>
+      </c>
+      <c r="O2">
+        <v>127.4833586</v>
+      </c>
+      <c r="P2">
+        <v>4982.5879889999997</v>
+      </c>
+      <c r="Q2">
+        <v>2.3138722500000002</v>
+      </c>
+      <c r="R2">
+        <v>1103.3463710000001</v>
+      </c>
+      <c r="S2">
+        <v>0.92774909299999997</v>
+      </c>
+      <c r="T2">
+        <v>100.45629529999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5.0488259089999996</v>
+      </c>
+      <c r="C3">
+        <v>71.913921490000007</v>
+      </c>
+      <c r="D3">
+        <v>67.692380029999995</v>
+      </c>
+      <c r="E3">
+        <v>1457.4087179999999</v>
+      </c>
+      <c r="F3">
+        <v>3.6360505070000002</v>
+      </c>
+      <c r="G3">
+        <v>993.20638759999997</v>
+      </c>
+      <c r="H3">
+        <v>0.24199210700000001</v>
+      </c>
+      <c r="I3">
+        <v>19.09614865</v>
+      </c>
+      <c r="J3">
+        <v>99.488758099999998</v>
+      </c>
+      <c r="K3">
+        <v>1188.4870269999999</v>
+      </c>
+      <c r="L3">
+        <v>195.8805155</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M25" si="0">6.7747*Q3+0.288*R3-143.76</f>
+        <v>166.91659099857287</v>
+      </c>
+      <c r="O3">
+        <v>67.692380029999995</v>
+      </c>
+      <c r="P3">
+        <v>1457.4087179999999</v>
+      </c>
+      <c r="Q3">
+        <v>3.6360505070000002</v>
+      </c>
+      <c r="R3">
+        <v>993.20638759999997</v>
+      </c>
+      <c r="S3">
+        <v>0.24199210700000001</v>
+      </c>
+      <c r="T3">
+        <v>99.488758099999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>5.9849699200000002</v>
+      </c>
+      <c r="C4">
+        <v>76.587278650000002</v>
+      </c>
+      <c r="D4">
+        <v>78.846375039999998</v>
+      </c>
+      <c r="E4">
+        <v>1177.538002</v>
+      </c>
+      <c r="F4">
+        <v>4.1927764390000002</v>
+      </c>
+      <c r="G4">
+        <v>1108.909455</v>
+      </c>
+      <c r="H4">
+        <v>0.35728644199999998</v>
+      </c>
+      <c r="I4">
+        <v>21.510591569999999</v>
+      </c>
+      <c r="J4">
+        <v>109.7906703</v>
+      </c>
+      <c r="K4">
+        <v>1177.7746360000001</v>
+      </c>
+      <c r="L4">
+        <v>218.16813210000001</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>204.01072558129329</v>
+      </c>
+      <c r="O4">
+        <v>78.846375039999998</v>
+      </c>
+      <c r="P4">
+        <v>1177.538002</v>
+      </c>
+      <c r="Q4">
+        <v>4.1927764390000002</v>
+      </c>
+      <c r="R4">
+        <v>1108.909455</v>
+      </c>
+      <c r="S4">
+        <v>0.35728644199999998</v>
+      </c>
+      <c r="T4">
+        <v>109.7906703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5.4557845609999998</v>
+      </c>
+      <c r="C5">
+        <v>81.335993999999999</v>
+      </c>
+      <c r="D5">
+        <v>157.24309109999999</v>
+      </c>
+      <c r="E5">
+        <v>5482.420451</v>
+      </c>
+      <c r="F5">
+        <v>4.2165397520000001</v>
+      </c>
+      <c r="G5">
+        <v>1128.1930239999999</v>
+      </c>
+      <c r="H5">
+        <v>0.113488689</v>
+      </c>
+      <c r="I5">
+        <v>21.601150189999998</v>
+      </c>
+      <c r="J5">
+        <v>98.151079170000003</v>
+      </c>
+      <c r="K5">
+        <v>1148.835752</v>
+      </c>
+      <c r="L5">
+        <v>219.5204707</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>209.72538276987433</v>
+      </c>
+      <c r="O5">
+        <v>157.24309109999999</v>
+      </c>
+      <c r="P5">
+        <v>5482.420451</v>
+      </c>
+      <c r="Q5">
+        <v>4.2165397520000001</v>
+      </c>
+      <c r="R5">
+        <v>1128.1930239999999</v>
+      </c>
+      <c r="S5">
+        <v>0.113488689</v>
+      </c>
+      <c r="T5">
+        <v>98.151079170000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3.5908328649999999</v>
+      </c>
+      <c r="C6">
+        <v>87.004110549999993</v>
+      </c>
+      <c r="D6">
+        <v>101.3980091</v>
+      </c>
+      <c r="E6">
+        <v>4965.6091420000002</v>
+      </c>
+      <c r="F6">
+        <v>5.0651538719999998</v>
+      </c>
+      <c r="G6">
+        <v>1113.497775</v>
+      </c>
+      <c r="H6">
+        <v>0.81033467699999995</v>
+      </c>
+      <c r="I6">
+        <v>21.09041517</v>
+      </c>
+      <c r="J6">
+        <v>92.494909899999996</v>
+      </c>
+      <c r="K6">
+        <v>1111.850445</v>
+      </c>
+      <c r="L6">
+        <v>208.79284519999999</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>211.24225713663839</v>
+      </c>
+      <c r="O6">
+        <v>101.3980091</v>
+      </c>
+      <c r="P6">
+        <v>4965.6091420000002</v>
+      </c>
+      <c r="Q6">
+        <v>5.0651538719999998</v>
+      </c>
+      <c r="R6">
+        <v>1113.497775</v>
+      </c>
+      <c r="S6">
+        <v>0.81033467699999995</v>
+      </c>
+      <c r="T6">
+        <v>92.494909899999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.846720048</v>
+      </c>
+      <c r="C7">
+        <v>92.515101299999998</v>
+      </c>
+      <c r="D7">
+        <v>164.06234799999999</v>
+      </c>
+      <c r="E7">
+        <v>1645.5113530000001</v>
+      </c>
+      <c r="F7">
+        <v>6.20426769</v>
+      </c>
+      <c r="G7">
+        <v>900.43949869999994</v>
+      </c>
+      <c r="H7">
+        <v>1.3161081E-2</v>
+      </c>
+      <c r="I7">
+        <v>17.011749819999999</v>
+      </c>
+      <c r="J7">
+        <v>39.010269780000002</v>
+      </c>
+      <c r="K7">
+        <v>1150.1656539999999</v>
+      </c>
+      <c r="L7">
+        <v>176.58737110000001</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>157.59862794504295</v>
+      </c>
+      <c r="O7">
+        <v>164.06234799999999</v>
+      </c>
+      <c r="P7">
+        <v>1645.5113530000001</v>
+      </c>
+      <c r="Q7">
+        <v>6.20426769</v>
+      </c>
+      <c r="R7">
+        <v>900.43949869999994</v>
+      </c>
+      <c r="S7">
+        <v>1.3161081E-2</v>
+      </c>
+      <c r="T7">
+        <v>39.010269780000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>-2.1046993660000002</v>
+      </c>
+      <c r="C8">
+        <v>100.37388350000001</v>
+      </c>
+      <c r="D8">
+        <v>167.25866540000001</v>
+      </c>
+      <c r="E8">
+        <v>3813.9981429999998</v>
+      </c>
+      <c r="F8">
+        <v>7.0169990679999996</v>
+      </c>
+      <c r="G8">
+        <v>1002.11988</v>
+      </c>
+      <c r="H8">
+        <v>0.40126379099999998</v>
+      </c>
+      <c r="I8">
+        <v>18.948465110000001</v>
+      </c>
+      <c r="J8">
+        <v>100.54901700000001</v>
+      </c>
+      <c r="K8">
+        <v>1156.628919</v>
+      </c>
+      <c r="L8">
+        <v>169.3675374</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>192.38858902597957</v>
+      </c>
+      <c r="O8">
+        <v>167.25866540000001</v>
+      </c>
+      <c r="P8">
+        <v>3813.9981429999998</v>
+      </c>
+      <c r="Q8">
+        <v>7.0169990679999996</v>
+      </c>
+      <c r="R8">
+        <v>1002.11988</v>
+      </c>
+      <c r="S8">
+        <v>0.40126379099999998</v>
+      </c>
+      <c r="T8">
+        <v>100.54901700000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-4.5408149719999997</v>
+      </c>
+      <c r="C9">
+        <v>104.0018161</v>
+      </c>
+      <c r="D9">
+        <v>182.0953657</v>
+      </c>
+      <c r="E9">
+        <v>4155.8164040000001</v>
+      </c>
+      <c r="F9">
+        <v>7.0511323160000003</v>
+      </c>
+      <c r="G9">
+        <v>900.28052130000003</v>
+      </c>
+      <c r="H9">
+        <v>0.14756916</v>
+      </c>
+      <c r="I9">
+        <v>17.46150227</v>
+      </c>
+      <c r="J9">
+        <v>88.003644350000002</v>
+      </c>
+      <c r="K9">
+        <v>1136.524007</v>
+      </c>
+      <c r="L9">
+        <v>147.92148700000001</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>163.29009623560518</v>
+      </c>
+      <c r="O9">
+        <v>182.0953657</v>
+      </c>
+      <c r="P9">
+        <v>4155.8164040000001</v>
+      </c>
+      <c r="Q9">
+        <v>7.0511323160000003</v>
+      </c>
+      <c r="R9">
+        <v>900.28052130000003</v>
+      </c>
+      <c r="S9">
+        <v>0.14756916</v>
+      </c>
+      <c r="T9">
+        <v>88.003644350000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>-5.8651807060000003</v>
+      </c>
+      <c r="C10">
+        <v>112.49090390000001</v>
+      </c>
+      <c r="D10">
+        <v>159.2329292</v>
+      </c>
+      <c r="E10">
+        <v>3924.079686</v>
+      </c>
+      <c r="F10">
+        <v>7.7032405620000004</v>
+      </c>
+      <c r="G10">
+        <v>1004.3921779999999</v>
+      </c>
+      <c r="H10">
+        <v>0.28391634799999999</v>
+      </c>
+      <c r="I10">
+        <v>19.002210099999999</v>
+      </c>
+      <c r="J10">
+        <v>93.724229350000002</v>
+      </c>
+      <c r="K10">
+        <v>1154.9654849999999</v>
+      </c>
+      <c r="L10">
+        <v>152.8273891</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>197.69209109938134</v>
+      </c>
+      <c r="O10">
+        <v>159.2329292</v>
+      </c>
+      <c r="P10">
+        <v>3924.079686</v>
+      </c>
+      <c r="Q10">
+        <v>7.7032405620000004</v>
+      </c>
+      <c r="R10">
+        <v>1004.3921779999999</v>
+      </c>
+      <c r="S10">
+        <v>0.28391634799999999</v>
+      </c>
+      <c r="T10">
+        <v>93.724229350000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>-5.7535456480000002</v>
+      </c>
+      <c r="C11">
+        <v>116.85775599999999</v>
+      </c>
+      <c r="D11">
+        <v>241.9470384</v>
+      </c>
+      <c r="E11">
+        <v>5888.8209260000003</v>
+      </c>
+      <c r="F11">
+        <v>8.2947223070000007</v>
+      </c>
+      <c r="G11">
+        <v>1057.1305319999999</v>
+      </c>
+      <c r="H11">
+        <v>0.27495809199999999</v>
+      </c>
+      <c r="I11">
+        <v>19.634433940000001</v>
+      </c>
+      <c r="J11">
+        <v>105.59982290000001</v>
+      </c>
+      <c r="K11">
+        <v>1157.3471469999999</v>
+      </c>
+      <c r="L11">
+        <v>161.05290220000001</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>216.88784842923286</v>
+      </c>
+      <c r="O11">
+        <v>241.9470384</v>
+      </c>
+      <c r="P11">
+        <v>5888.8209260000003</v>
+      </c>
+      <c r="Q11">
+        <v>8.2947223070000007</v>
+      </c>
+      <c r="R11">
+        <v>1057.1305319999999</v>
+      </c>
+      <c r="S11">
+        <v>0.27495809199999999</v>
+      </c>
+      <c r="T11">
+        <v>105.59982290000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>-4.2332419530000003</v>
+      </c>
+      <c r="C12">
+        <v>125.551382</v>
+      </c>
+      <c r="D12">
+        <v>242.3736644</v>
+      </c>
+      <c r="E12">
+        <v>3693.2935379999999</v>
+      </c>
+      <c r="F12">
+        <v>9.2524293899999996</v>
+      </c>
+      <c r="G12">
+        <v>1001.847296</v>
+      </c>
+      <c r="H12">
+        <v>4.9585417E-2</v>
+      </c>
+      <c r="I12">
+        <v>19.244223000000002</v>
+      </c>
+      <c r="J12">
+        <v>104.84191490000001</v>
+      </c>
+      <c r="K12">
+        <v>1136.8877339999999</v>
+      </c>
+      <c r="L12">
+        <v>181.2174766</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>207.45445463643296</v>
+      </c>
+      <c r="O12">
+        <v>242.3736644</v>
+      </c>
+      <c r="P12">
+        <v>3693.2935379999999</v>
+      </c>
+      <c r="Q12">
+        <v>9.2524293899999996</v>
+      </c>
+      <c r="R12">
+        <v>1001.847296</v>
+      </c>
+      <c r="S12">
+        <v>4.9585417E-2</v>
+      </c>
+      <c r="T12">
+        <v>104.84191490000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>-1.676492989</v>
+      </c>
+      <c r="C13">
+        <v>124.20703829999999</v>
+      </c>
+      <c r="D13">
+        <v>222.19682829999999</v>
+      </c>
+      <c r="E13">
+        <v>6706.6704209999998</v>
+      </c>
+      <c r="F13">
+        <v>9.6466694420000003</v>
+      </c>
+      <c r="G13">
+        <v>1021.389185</v>
+      </c>
+      <c r="H13">
+        <v>0.44828887699999997</v>
+      </c>
+      <c r="I13">
+        <v>19.61741614</v>
+      </c>
+      <c r="J13">
+        <v>103.3673975</v>
+      </c>
+      <c r="K13">
+        <v>1134.115135</v>
+      </c>
+      <c r="L13">
+        <v>201.68546269999999</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>215.75337674871741</v>
+      </c>
+      <c r="O13">
+        <v>222.19682829999999</v>
+      </c>
+      <c r="P13">
+        <v>6706.6704209999998</v>
+      </c>
+      <c r="Q13">
+        <v>9.6466694420000003</v>
+      </c>
+      <c r="R13">
+        <v>1021.389185</v>
+      </c>
+      <c r="S13">
+        <v>0.44828887699999997</v>
+      </c>
+      <c r="T13">
+        <v>103.3673975</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1.290719929</v>
+      </c>
+      <c r="C14">
+        <v>129.2762851</v>
+      </c>
+      <c r="D14">
+        <v>224.92536569999999</v>
+      </c>
+      <c r="E14">
+        <v>2969.4168869999999</v>
+      </c>
+      <c r="F14">
+        <v>9.4901902830000004</v>
+      </c>
+      <c r="G14">
+        <v>928.24686399999996</v>
+      </c>
+      <c r="H14">
+        <v>0.47352407400000002</v>
+      </c>
+      <c r="I14">
+        <v>17.447428989999999</v>
+      </c>
+      <c r="J14">
+        <v>95.238518450000001</v>
+      </c>
+      <c r="K14">
+        <v>1173.3422129999999</v>
+      </c>
+      <c r="L14">
+        <v>222.31938890000001</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>187.8682889422401</v>
+      </c>
+      <c r="O14">
+        <v>224.92536569999999</v>
+      </c>
+      <c r="P14">
+        <v>2969.4168869999999</v>
+      </c>
+      <c r="Q14">
+        <v>9.4901902830000004</v>
+      </c>
+      <c r="R14">
+        <v>928.24686399999996</v>
+      </c>
+      <c r="S14">
+        <v>0.47352407400000002</v>
+      </c>
+      <c r="T14">
+        <v>95.238518450000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3.9419195920000001</v>
+      </c>
+      <c r="C15">
+        <v>139.02026939999999</v>
+      </c>
+      <c r="D15">
+        <v>257.65611100000001</v>
+      </c>
+      <c r="E15">
+        <v>5688.506781</v>
+      </c>
+      <c r="F15">
+        <v>10.733880190000001</v>
+      </c>
+      <c r="G15">
+        <v>1141.6765459999999</v>
+      </c>
+      <c r="H15">
+        <v>4.3558720000000002E-3</v>
+      </c>
+      <c r="I15">
+        <v>21.333704789999999</v>
+      </c>
+      <c r="J15">
+        <v>116.3313103</v>
+      </c>
+      <c r="K15">
+        <v>1127.5451230000001</v>
+      </c>
+      <c r="L15">
+        <v>269.79247220000002</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>257.76166337119292</v>
+      </c>
+      <c r="O15">
+        <v>257.65611100000001</v>
+      </c>
+      <c r="P15">
+        <v>5688.506781</v>
+      </c>
+      <c r="Q15">
+        <v>10.733880190000001</v>
+      </c>
+      <c r="R15">
+        <v>1141.6765459999999</v>
+      </c>
+      <c r="S15">
+        <v>4.3558720000000002E-3</v>
+      </c>
+      <c r="T15">
+        <v>116.3313103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5.6279998610000002</v>
+      </c>
+      <c r="C16">
+        <v>140.4441333</v>
+      </c>
+      <c r="D16">
+        <v>290.70353840000001</v>
+      </c>
+      <c r="E16">
+        <v>3523.1373480000002</v>
+      </c>
+      <c r="F16">
+        <v>11.555140140000001</v>
+      </c>
+      <c r="G16">
+        <v>1147.2649429999999</v>
+      </c>
+      <c r="H16">
+        <v>0.263050589</v>
+      </c>
+      <c r="I16">
+        <v>21.820033460000001</v>
+      </c>
+      <c r="J16">
+        <v>117.0543516</v>
+      </c>
+      <c r="K16">
+        <v>1104.398353</v>
+      </c>
+      <c r="L16">
+        <v>286.7926794</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>264.93491149045798</v>
+      </c>
+      <c r="O16">
+        <v>290.70353840000001</v>
+      </c>
+      <c r="P16">
+        <v>3523.1373480000002</v>
+      </c>
+      <c r="Q16">
+        <v>11.555140140000001</v>
+      </c>
+      <c r="R16">
+        <v>1147.2649429999999</v>
+      </c>
+      <c r="S16">
+        <v>0.263050589</v>
+      </c>
+      <c r="T16">
+        <v>117.0543516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>5.9361494800000001</v>
+      </c>
+      <c r="C17">
+        <v>155.06726080000001</v>
+      </c>
+      <c r="D17">
+        <v>275.71648720000002</v>
+      </c>
+      <c r="E17">
+        <v>4148.5812299999998</v>
+      </c>
+      <c r="F17">
+        <v>12.48509424</v>
+      </c>
+      <c r="G17">
+        <v>957.34345059999998</v>
+      </c>
+      <c r="H17">
+        <v>0.80930486800000001</v>
+      </c>
+      <c r="I17">
+        <v>18.21684535</v>
+      </c>
+      <c r="J17">
+        <v>97.204009450000001</v>
+      </c>
+      <c r="K17">
+        <v>1100.7430159999999</v>
+      </c>
+      <c r="L17">
+        <v>290.93056410000003</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>216.53768172052798</v>
+      </c>
+      <c r="O17">
+        <v>275.71648720000002</v>
+      </c>
+      <c r="P17">
+        <v>4148.5812299999998</v>
+      </c>
+      <c r="Q17">
+        <v>12.48509424</v>
+      </c>
+      <c r="R17">
+        <v>957.34345059999998</v>
+      </c>
+      <c r="S17">
+        <v>0.80930486800000001</v>
+      </c>
+      <c r="T17">
+        <v>97.204009450000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>4.7909226760000001</v>
+      </c>
+      <c r="C18">
+        <v>151.756944</v>
+      </c>
+      <c r="D18">
+        <v>271.17175320000001</v>
+      </c>
+      <c r="E18">
+        <v>2576.042571</v>
+      </c>
+      <c r="F18">
+        <v>12.57258579</v>
+      </c>
+      <c r="G18">
+        <v>1070.036781</v>
+      </c>
+      <c r="H18">
+        <v>0.51832567699999998</v>
+      </c>
+      <c r="I18">
+        <v>20.28935946</v>
+      </c>
+      <c r="J18">
+        <v>108.84635950000001</v>
+      </c>
+      <c r="K18">
+        <v>1120.121439</v>
+      </c>
+      <c r="L18">
+        <v>286.4174577</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>249.586089879513</v>
+      </c>
+      <c r="O18">
+        <v>271.17175320000001</v>
+      </c>
+      <c r="P18">
+        <v>2576.042571</v>
+      </c>
+      <c r="Q18">
+        <v>12.57258579</v>
+      </c>
+      <c r="R18">
+        <v>1070.036781</v>
+      </c>
+      <c r="S18">
+        <v>0.51832567699999998</v>
+      </c>
+      <c r="T18">
+        <v>108.84635950000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2.4727109110000001</v>
+      </c>
+      <c r="C19">
+        <v>160.78949789999999</v>
+      </c>
+      <c r="D19">
+        <v>270.81249000000003</v>
+      </c>
+      <c r="E19">
+        <v>4451.31538</v>
+      </c>
+      <c r="F19">
+        <v>13.529237739999999</v>
+      </c>
+      <c r="G19">
+        <v>1098.896123</v>
+      </c>
+      <c r="H19">
+        <v>4.9250720999999997E-2</v>
+      </c>
+      <c r="I19">
+        <v>20.543335299999999</v>
+      </c>
+      <c r="J19">
+        <v>111.90263830000001</v>
+      </c>
+      <c r="K19">
+        <v>1128.9196750000001</v>
+      </c>
+      <c r="L19">
+        <v>278.82347620000002</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>264.37861034117799</v>
+      </c>
+      <c r="O19">
+        <v>270.81249000000003</v>
+      </c>
+      <c r="P19">
+        <v>4451.31538</v>
+      </c>
+      <c r="Q19">
+        <v>13.529237739999999</v>
+      </c>
+      <c r="R19">
+        <v>1098.896123</v>
+      </c>
+      <c r="S19">
+        <v>4.9250720999999997E-2</v>
+      </c>
+      <c r="T19">
+        <v>111.90263830000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>-0.45090672300000001</v>
+      </c>
+      <c r="C20">
+        <v>167.08694800000001</v>
+      </c>
+      <c r="D20">
+        <v>278.84952609999999</v>
+      </c>
+      <c r="E20">
+        <v>2660.8672150000002</v>
+      </c>
+      <c r="F20">
+        <v>13.6103922</v>
+      </c>
+      <c r="G20">
+        <v>1102.29547</v>
+      </c>
+      <c r="H20">
+        <v>0.483572591</v>
+      </c>
+      <c r="I20">
+        <v>21.167711239999999</v>
+      </c>
+      <c r="J20">
+        <v>114.9964798</v>
+      </c>
+      <c r="K20">
+        <v>1145.700045</v>
+      </c>
+      <c r="L20">
+        <v>264.85923400000001</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>265.90741939733999</v>
+      </c>
+      <c r="O20">
+        <v>278.84952609999999</v>
+      </c>
+      <c r="P20">
+        <v>2660.8672150000002</v>
+      </c>
+      <c r="Q20">
+        <v>13.6103922</v>
+      </c>
+      <c r="R20">
+        <v>1102.29547</v>
+      </c>
+      <c r="S20">
+        <v>0.483572591</v>
+      </c>
+      <c r="T20">
+        <v>114.9964798</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>-3.264126665</v>
+      </c>
+      <c r="C21">
+        <v>176.42652630000001</v>
+      </c>
+      <c r="D21">
+        <v>330.46042299999999</v>
+      </c>
+      <c r="E21">
+        <v>6089.7804029999998</v>
+      </c>
+      <c r="F21">
+        <v>14.935438080000001</v>
+      </c>
+      <c r="G21">
+        <v>1038.6613560000001</v>
+      </c>
+      <c r="H21">
+        <v>0.30085757800000001</v>
+      </c>
+      <c r="I21">
+        <v>19.343738890000001</v>
+      </c>
+      <c r="J21">
+        <v>104.1337881</v>
+      </c>
+      <c r="K21">
+        <v>1153.3564510000001</v>
+      </c>
+      <c r="L21">
+        <v>245.33112109999999</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>256.55758288857601</v>
+      </c>
+      <c r="O21">
+        <v>330.46042299999999</v>
+      </c>
+      <c r="P21">
+        <v>6089.7804029999998</v>
+      </c>
+      <c r="Q21">
+        <v>14.935438080000001</v>
+      </c>
+      <c r="R21">
+        <v>1038.6613560000001</v>
+      </c>
+      <c r="S21">
+        <v>0.30085757800000001</v>
+      </c>
+      <c r="T21">
+        <v>104.1337881</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>-5.2781745600000001</v>
+      </c>
+      <c r="C22">
+        <v>167.5966712</v>
+      </c>
+      <c r="D22">
+        <v>296.65197719999998</v>
+      </c>
+      <c r="E22">
+        <v>4527.7235309999996</v>
+      </c>
+      <c r="F22">
+        <v>14.24055764</v>
+      </c>
+      <c r="G22">
+        <v>950.38441550000005</v>
+      </c>
+      <c r="H22">
+        <v>0.58803074700000002</v>
+      </c>
+      <c r="I22">
+        <v>17.950446599999999</v>
+      </c>
+      <c r="J22">
+        <v>97.271056079999994</v>
+      </c>
+      <c r="K22">
+        <v>1167.5327990000001</v>
+      </c>
+      <c r="L22">
+        <v>213.93272820000001</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>226.42621750770797</v>
+      </c>
+      <c r="O22">
+        <v>296.65197719999998</v>
+      </c>
+      <c r="P22">
+        <v>4527.7235309999996</v>
+      </c>
+      <c r="Q22">
+        <v>14.24055764</v>
+      </c>
+      <c r="R22">
+        <v>950.38441550000005</v>
+      </c>
+      <c r="S22">
+        <v>0.58803074700000002</v>
+      </c>
+      <c r="T22">
+        <v>97.271056079999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>-5.999941239</v>
+      </c>
+      <c r="C23">
+        <v>174.82372580000001</v>
+      </c>
+      <c r="D23">
+        <v>334.04950789999998</v>
+      </c>
+      <c r="E23">
+        <v>4475.3454739999997</v>
+      </c>
+      <c r="F23">
+        <v>15.23925959</v>
+      </c>
+      <c r="G23">
+        <v>965.70199630000002</v>
+      </c>
+      <c r="H23">
+        <v>0.55288737499999996</v>
+      </c>
+      <c r="I23">
+        <v>17.97429219</v>
+      </c>
+      <c r="J23">
+        <v>96.356156510000005</v>
+      </c>
+      <c r="K23">
+        <v>1185.0667989999999</v>
+      </c>
+      <c r="L23">
+        <v>216.20373720000001</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>237.603586878773</v>
+      </c>
+      <c r="O23">
+        <v>334.04950789999998</v>
+      </c>
+      <c r="P23">
+        <v>4475.3454739999997</v>
+      </c>
+      <c r="Q23">
+        <v>15.23925959</v>
+      </c>
+      <c r="R23">
+        <v>965.70199630000002</v>
+      </c>
+      <c r="S23">
+        <v>0.55288737499999996</v>
+      </c>
+      <c r="T23">
+        <v>96.356156510000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>-5.2527130480000004</v>
+      </c>
+      <c r="C24">
+        <v>190.38369349999999</v>
+      </c>
+      <c r="D24">
+        <v>302.27052850000001</v>
+      </c>
+      <c r="E24">
+        <v>3382.174481</v>
+      </c>
+      <c r="F24">
+        <v>16.697942810000001</v>
+      </c>
+      <c r="G24">
+        <v>1024.226637</v>
+      </c>
+      <c r="H24">
+        <v>0.95974768399999999</v>
+      </c>
+      <c r="I24">
+        <v>19.750600330000001</v>
+      </c>
+      <c r="J24">
+        <v>105.63981990000001</v>
+      </c>
+      <c r="K24">
+        <v>1193.718292</v>
+      </c>
+      <c r="L24">
+        <v>246.40275980000001</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>264.34082461090702</v>
+      </c>
+      <c r="O24">
+        <v>302.27052850000001</v>
+      </c>
+      <c r="P24">
+        <v>3382.174481</v>
+      </c>
+      <c r="Q24">
+        <v>16.697942810000001</v>
+      </c>
+      <c r="R24">
+        <v>1024.226637</v>
+      </c>
+      <c r="S24">
+        <v>0.95974768399999999</v>
+      </c>
+      <c r="T24">
+        <v>105.63981990000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>-3.2194375079999999</v>
+      </c>
+      <c r="C25">
+        <v>202.79888059999999</v>
+      </c>
+      <c r="D25">
+        <v>361.1990447</v>
+      </c>
+      <c r="E25">
+        <v>2792.9275149999999</v>
+      </c>
+      <c r="F25">
+        <v>17.788749020000001</v>
+      </c>
+      <c r="G25">
+        <v>1070.513287</v>
+      </c>
+      <c r="H25">
+        <v>0.307015908</v>
+      </c>
+      <c r="I25">
+        <v>19.937609200000001</v>
+      </c>
+      <c r="J25">
+        <v>107.3191078</v>
+      </c>
+      <c r="K25">
+        <v>1191.488762</v>
+      </c>
+      <c r="L25">
+        <v>277.07370539999999</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>285.06126464179397</v>
+      </c>
+      <c r="O25">
+        <v>361.1990447</v>
+      </c>
+      <c r="P25">
+        <v>2792.9275149999999</v>
+      </c>
+      <c r="Q25">
+        <v>17.788749020000001</v>
+      </c>
+      <c r="R25">
+        <v>1070.513287</v>
+      </c>
+      <c r="S25">
+        <v>0.307015908</v>
+      </c>
+      <c r="T25">
+        <v>107.3191078</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>